--- a/TJPW Metrics.xlsx
+++ b/TJPW Metrics.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2162" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2162" uniqueCount="520">
   <si>
     <t>`</t>
   </si>
@@ -1577,13 +1577,7 @@
     <t>Miyu Yamashita &amp; KANNA vs Yuka Sakazaki &amp; Ririko Kendo (Rika Tatsumi)</t>
   </si>
   <si>
-    <t>Ai Shimizu Appearance1</t>
-  </si>
-  <si>
-    <t>Ai Shimizu Appearance2</t>
-  </si>
-  <si>
-    <t>Ai Shimizu Appearance3</t>
+    <t>Ai Shimizu Appearance</t>
   </si>
 </sst>
 </file>
@@ -2137,56 +2131,68 @@
     <xf numFmtId="0" fontId="3" fillId="24" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2240,68 +2246,56 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2695,97 +2689,97 @@
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="61"/>
-      <c r="I2" s="62" t="s">
-        <v>2</v>
-      </c>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="65" t="s">
+      <c r="G2" s="100" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="101"/>
+      <c r="I2" s="102" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="103"/>
+      <c r="K2" s="103"/>
+      <c r="L2" s="104"/>
+      <c r="M2" s="105" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="66"/>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="67"/>
-      <c r="R2" s="68" t="s">
+      <c r="N2" s="106"/>
+      <c r="O2" s="106"/>
+      <c r="P2" s="106"/>
+      <c r="Q2" s="107"/>
+      <c r="R2" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="S2" s="69"/>
-      <c r="T2" s="69"/>
-      <c r="U2" s="69"/>
-      <c r="V2" s="70"/>
-      <c r="W2" s="71" t="s">
+      <c r="S2" s="109"/>
+      <c r="T2" s="109"/>
+      <c r="U2" s="109"/>
+      <c r="V2" s="110"/>
+      <c r="W2" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="X2" s="72"/>
-      <c r="Y2" s="72"/>
-      <c r="Z2" s="72"/>
-      <c r="AA2" s="72"/>
-      <c r="AB2" s="72"/>
-      <c r="AC2" s="72"/>
-      <c r="AD2" s="72"/>
-      <c r="AE2" s="72"/>
-      <c r="AF2" s="73"/>
-      <c r="AG2" s="74" t="s">
+      <c r="X2" s="112"/>
+      <c r="Y2" s="112"/>
+      <c r="Z2" s="112"/>
+      <c r="AA2" s="112"/>
+      <c r="AB2" s="112"/>
+      <c r="AC2" s="112"/>
+      <c r="AD2" s="112"/>
+      <c r="AE2" s="112"/>
+      <c r="AF2" s="113"/>
+      <c r="AG2" s="114" t="s">
         <v>6</v>
       </c>
-      <c r="AH2" s="75"/>
-      <c r="AI2" s="75"/>
-      <c r="AJ2" s="75"/>
-      <c r="AK2" s="75"/>
-      <c r="AL2" s="75"/>
-      <c r="AM2" s="75"/>
-      <c r="AN2" s="76"/>
-      <c r="AO2" s="77" t="s">
+      <c r="AH2" s="115"/>
+      <c r="AI2" s="115"/>
+      <c r="AJ2" s="115"/>
+      <c r="AK2" s="115"/>
+      <c r="AL2" s="115"/>
+      <c r="AM2" s="115"/>
+      <c r="AN2" s="116"/>
+      <c r="AO2" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="AP2" s="78"/>
-      <c r="AQ2" s="78"/>
-      <c r="AR2" s="78"/>
-      <c r="AS2" s="78"/>
-      <c r="AT2" s="79"/>
-      <c r="AU2" s="80" t="s">
+      <c r="AP2" s="84"/>
+      <c r="AQ2" s="84"/>
+      <c r="AR2" s="84"/>
+      <c r="AS2" s="84"/>
+      <c r="AT2" s="85"/>
+      <c r="AU2" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="AV2" s="81"/>
-      <c r="AW2" s="82" t="s">
+      <c r="AV2" s="87"/>
+      <c r="AW2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="AX2" s="83"/>
-      <c r="AY2" s="83"/>
-      <c r="AZ2" s="83"/>
-      <c r="BA2" s="83"/>
-      <c r="BB2" s="83"/>
-      <c r="BC2" s="83"/>
-      <c r="BD2" s="84"/>
-      <c r="BE2" s="85" t="s">
+      <c r="AX2" s="89"/>
+      <c r="AY2" s="89"/>
+      <c r="AZ2" s="89"/>
+      <c r="BA2" s="89"/>
+      <c r="BB2" s="89"/>
+      <c r="BC2" s="89"/>
+      <c r="BD2" s="90"/>
+      <c r="BE2" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="BF2" s="86"/>
-      <c r="BG2" s="86"/>
-      <c r="BH2" s="87"/>
+      <c r="BF2" s="92"/>
+      <c r="BG2" s="92"/>
+      <c r="BH2" s="93"/>
       <c r="BI2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="BJ2" s="88" t="s">
+      <c r="BJ2" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="BK2" s="89"/>
-      <c r="BL2" s="90"/>
-      <c r="BM2" s="91" t="s">
+      <c r="BK2" s="95"/>
+      <c r="BL2" s="96"/>
+      <c r="BM2" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="BN2" s="92"/>
-      <c r="BO2" s="92"/>
-      <c r="BP2" s="92"/>
-      <c r="BQ2" s="92"/>
-      <c r="BR2" s="92"/>
-      <c r="BS2" s="93"/>
+      <c r="BN2" s="98"/>
+      <c r="BO2" s="98"/>
+      <c r="BP2" s="98"/>
+      <c r="BQ2" s="98"/>
+      <c r="BR2" s="98"/>
+      <c r="BS2" s="99"/>
     </row>
     <row r="3" spans="1:71" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
@@ -2806,18 +2800,18 @@
       <c r="F3" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="94">
+      <c r="G3" s="76">
         <v>2020</v>
       </c>
-      <c r="H3" s="95"/>
-      <c r="I3" s="96" t="s">
+      <c r="H3" s="77"/>
+      <c r="I3" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="97"/>
-      <c r="K3" s="98" t="s">
+      <c r="J3" s="79"/>
+      <c r="K3" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="96"/>
+      <c r="L3" s="78"/>
       <c r="M3" s="14" t="s">
         <v>21</v>
       </c>
@@ -2848,74 +2842,74 @@
       <c r="V3" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="W3" s="99" t="s">
+      <c r="W3" s="81" t="s">
         <v>26</v>
       </c>
-      <c r="X3" s="100"/>
-      <c r="Y3" s="99" t="s">
+      <c r="X3" s="82"/>
+      <c r="Y3" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="Z3" s="101"/>
-      <c r="AA3" s="101" t="s">
+      <c r="Z3" s="72"/>
+      <c r="AA3" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="AB3" s="101"/>
-      <c r="AC3" s="101" t="s">
+      <c r="AB3" s="72"/>
+      <c r="AC3" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="AD3" s="101"/>
-      <c r="AE3" s="101" t="s">
+      <c r="AD3" s="72"/>
+      <c r="AE3" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="AF3" s="101"/>
-      <c r="AG3" s="102" t="s">
+      <c r="AF3" s="72"/>
+      <c r="AG3" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="AH3" s="103"/>
-      <c r="AI3" s="104" t="s">
+      <c r="AH3" s="74"/>
+      <c r="AI3" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="AJ3" s="102"/>
-      <c r="AK3" s="102" t="s">
+      <c r="AJ3" s="73"/>
+      <c r="AK3" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="AL3" s="102"/>
-      <c r="AM3" s="102" t="s">
+      <c r="AL3" s="73"/>
+      <c r="AM3" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="AN3" s="103"/>
-      <c r="AO3" s="105" t="s">
+      <c r="AN3" s="74"/>
+      <c r="AO3" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="AP3" s="106"/>
-      <c r="AQ3" s="105" t="s">
+      <c r="AP3" s="67"/>
+      <c r="AQ3" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="AR3" s="107"/>
-      <c r="AS3" s="107" t="s">
+      <c r="AR3" s="68"/>
+      <c r="AS3" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="AT3" s="106"/>
-      <c r="AU3" s="108" t="s">
+      <c r="AT3" s="67"/>
+      <c r="AU3" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="AV3" s="109"/>
-      <c r="AW3" s="110" t="s">
+      <c r="AV3" s="70"/>
+      <c r="AW3" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="AX3" s="111"/>
-      <c r="AY3" s="111" t="s">
+      <c r="AX3" s="63"/>
+      <c r="AY3" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="AZ3" s="111"/>
-      <c r="BA3" s="111" t="s">
+      <c r="AZ3" s="63"/>
+      <c r="BA3" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="BB3" s="111"/>
-      <c r="BC3" s="112" t="s">
+      <c r="BB3" s="63"/>
+      <c r="BC3" s="64" t="s">
         <v>40</v>
       </c>
-      <c r="BD3" s="113"/>
+      <c r="BD3" s="65"/>
       <c r="BE3" s="22" t="s">
         <v>19</v>
       </c>
@@ -11806,6 +11800,30 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="BM2:BS2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="R2:V2"/>
+    <mergeCell ref="W2:AF2"/>
+    <mergeCell ref="AG2:AN2"/>
+    <mergeCell ref="AO2:AT2"/>
+    <mergeCell ref="AU2:AV2"/>
+    <mergeCell ref="AW2:BD2"/>
+    <mergeCell ref="BE2:BH2"/>
+    <mergeCell ref="BJ2:BL2"/>
+    <mergeCell ref="AM3:AN3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="Y3:Z3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="AI3:AJ3"/>
+    <mergeCell ref="AK3:AL3"/>
     <mergeCell ref="BA3:BB3"/>
     <mergeCell ref="BC3:BD3"/>
     <mergeCell ref="AO3:AP3"/>
@@ -11814,30 +11832,6 @@
     <mergeCell ref="AU3:AV3"/>
     <mergeCell ref="AW3:AX3"/>
     <mergeCell ref="AY3:AZ3"/>
-    <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="AI3:AJ3"/>
-    <mergeCell ref="AK3:AL3"/>
-    <mergeCell ref="AM3:AN3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="Y3:Z3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AO2:AT2"/>
-    <mergeCell ref="AU2:AV2"/>
-    <mergeCell ref="AW2:BD2"/>
-    <mergeCell ref="BE2:BH2"/>
-    <mergeCell ref="BJ2:BL2"/>
-    <mergeCell ref="BM2:BS2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="M2:Q2"/>
-    <mergeCell ref="R2:V2"/>
-    <mergeCell ref="W2:AF2"/>
-    <mergeCell ref="AG2:AN2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -11941,7 +11935,7 @@
       <c r="A2" t="s">
         <v>142</v>
       </c>
-      <c r="B2" s="115">
+      <c r="B2" s="61">
         <v>41304</v>
       </c>
       <c r="C2" t="s">
@@ -11953,10 +11947,10 @@
       <c r="E2" t="s">
         <v>152</v>
       </c>
-      <c r="F2" s="116" t="s">
+      <c r="F2" s="62" t="s">
         <v>267</v>
       </c>
-      <c r="G2" s="114" t="s">
+      <c r="G2" s="60" t="s">
         <v>149</v>
       </c>
       <c r="H2" t="s">
@@ -11976,7 +11970,7 @@
       <c r="A3" t="s">
         <v>150</v>
       </c>
-      <c r="B3" s="115">
+      <c r="B3" s="61">
         <v>41358</v>
       </c>
       <c r="C3" t="s">
@@ -11988,7 +11982,7 @@
       <c r="E3" t="s">
         <v>152</v>
       </c>
-      <c r="F3" s="116" t="s">
+      <c r="F3" s="62" t="s">
         <v>268</v>
       </c>
       <c r="G3" t="s">
@@ -12011,7 +12005,7 @@
       <c r="A4" t="s">
         <v>153</v>
       </c>
-      <c r="B4" s="115">
+      <c r="B4" s="61">
         <v>41390</v>
       </c>
       <c r="C4" t="s">
@@ -12023,7 +12017,7 @@
       <c r="E4" t="s">
         <v>154</v>
       </c>
-      <c r="F4" s="116" t="s">
+      <c r="F4" s="62" t="s">
         <v>269</v>
       </c>
       <c r="G4" t="s">
@@ -12046,7 +12040,7 @@
       <c r="A5" t="s">
         <v>157</v>
       </c>
-      <c r="B5" s="115">
+      <c r="B5" s="61">
         <v>41431</v>
       </c>
       <c r="C5" t="s">
@@ -12058,7 +12052,7 @@
       <c r="E5" t="s">
         <v>158</v>
       </c>
-      <c r="F5" s="116" t="s">
+      <c r="F5" s="62" t="s">
         <v>270</v>
       </c>
       <c r="G5" t="s">
@@ -12081,7 +12075,7 @@
       <c r="A6" t="s">
         <v>157</v>
       </c>
-      <c r="B6" s="115">
+      <c r="B6" s="61">
         <v>41431</v>
       </c>
       <c r="C6" t="s">
@@ -12093,7 +12087,7 @@
       <c r="E6" t="s">
         <v>161</v>
       </c>
-      <c r="F6" s="116" t="s">
+      <c r="F6" s="62" t="s">
         <v>271</v>
       </c>
       <c r="G6" t="s">
@@ -12116,7 +12110,7 @@
       <c r="A7" t="s">
         <v>162</v>
       </c>
-      <c r="B7" s="115">
+      <c r="B7" s="61">
         <v>41466</v>
       </c>
       <c r="C7" t="s">
@@ -12128,7 +12122,7 @@
       <c r="E7" t="s">
         <v>163</v>
       </c>
-      <c r="F7" s="116" t="s">
+      <c r="F7" s="62" t="s">
         <v>272</v>
       </c>
       <c r="G7" t="s">
@@ -12151,7 +12145,7 @@
       <c r="A8" t="s">
         <v>162</v>
       </c>
-      <c r="B8" s="115">
+      <c r="B8" s="61">
         <v>41466</v>
       </c>
       <c r="C8" t="s">
@@ -12163,7 +12157,7 @@
       <c r="E8" t="s">
         <v>154</v>
       </c>
-      <c r="F8" s="116" t="s">
+      <c r="F8" s="62" t="s">
         <v>273</v>
       </c>
       <c r="G8" t="s">
@@ -12186,7 +12180,7 @@
       <c r="A9" t="s">
         <v>164</v>
       </c>
-      <c r="B9" s="115">
+      <c r="B9" s="61">
         <v>41565</v>
       </c>
       <c r="C9" t="s">
@@ -12198,7 +12192,7 @@
       <c r="E9" t="s">
         <v>165</v>
       </c>
-      <c r="F9" s="116" t="s">
+      <c r="F9" s="62" t="s">
         <v>274</v>
       </c>
       <c r="G9" t="s">
@@ -12221,7 +12215,7 @@
       <c r="A10" t="s">
         <v>164</v>
       </c>
-      <c r="B10" s="115">
+      <c r="B10" s="61">
         <v>41565</v>
       </c>
       <c r="C10" t="s">
@@ -12233,7 +12227,7 @@
       <c r="E10" t="s">
         <v>152</v>
       </c>
-      <c r="F10" s="116" t="s">
+      <c r="F10" s="62" t="s">
         <v>275</v>
       </c>
       <c r="G10" t="s">
@@ -12256,7 +12250,7 @@
       <c r="A11" t="s">
         <v>167</v>
       </c>
-      <c r="B11" s="115">
+      <c r="B11" s="61">
         <v>41609</v>
       </c>
       <c r="C11" t="s">
@@ -12268,7 +12262,7 @@
       <c r="E11" t="s">
         <v>168</v>
       </c>
-      <c r="F11" s="116" t="s">
+      <c r="F11" s="62" t="s">
         <v>276</v>
       </c>
       <c r="G11" t="s">
@@ -12291,7 +12285,7 @@
       <c r="A12" t="s">
         <v>167</v>
       </c>
-      <c r="B12" s="115">
+      <c r="B12" s="61">
         <v>41609</v>
       </c>
       <c r="C12" t="s">
@@ -12303,7 +12297,7 @@
       <c r="E12" t="s">
         <v>169</v>
       </c>
-      <c r="F12" s="116" t="s">
+      <c r="F12" s="62" t="s">
         <v>277</v>
       </c>
       <c r="G12" t="s">
@@ -12338,7 +12332,7 @@
       <c r="A13" t="s">
         <v>167</v>
       </c>
-      <c r="B13" s="115">
+      <c r="B13" s="61">
         <v>41609</v>
       </c>
       <c r="C13" t="s">
@@ -12350,7 +12344,7 @@
       <c r="E13" t="s">
         <v>161</v>
       </c>
-      <c r="F13" s="116" t="s">
+      <c r="F13" s="62" t="s">
         <v>278</v>
       </c>
       <c r="G13" t="s">
@@ -12370,43 +12364,43 @@
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="F14" s="116"/>
+      <c r="F14" s="62"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="F15" s="116"/>
+      <c r="F15" s="62"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="F16" s="116"/>
+      <c r="F16" s="62"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F17" s="116"/>
+      <c r="F17" s="62"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F18" s="116"/>
+      <c r="F18" s="62"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F19" s="116"/>
+      <c r="F19" s="62"/>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F20" s="116"/>
+      <c r="F20" s="62"/>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F21" s="116"/>
+      <c r="F21" s="62"/>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F22" s="116"/>
+      <c r="F22" s="62"/>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F23" s="116"/>
+      <c r="F23" s="62"/>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F24" s="116"/>
+      <c r="F24" s="62"/>
     </row>
     <row r="25" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F25" s="116"/>
+      <c r="F25" s="62"/>
     </row>
     <row r="26" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F26" s="116"/>
+      <c r="F26" s="62"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12417,8 +12411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C60" sqref="C60"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12511,7 +12505,7 @@
       <c r="A2" t="s">
         <v>176</v>
       </c>
-      <c r="B2" s="115">
+      <c r="B2" s="61">
         <v>41657</v>
       </c>
       <c r="C2" t="s">
@@ -12523,10 +12517,10 @@
       <c r="E2" t="s">
         <v>177</v>
       </c>
-      <c r="F2" s="114" t="s">
+      <c r="F2" s="60" t="s">
         <v>279</v>
       </c>
-      <c r="G2" s="114" t="s">
+      <c r="G2" s="60" t="s">
         <v>149</v>
       </c>
       <c r="H2" t="s">
@@ -12546,7 +12540,7 @@
       <c r="A3" t="s">
         <v>176</v>
       </c>
-      <c r="B3" s="115">
+      <c r="B3" s="61">
         <v>41657</v>
       </c>
       <c r="C3" t="s">
@@ -12558,7 +12552,7 @@
       <c r="E3" t="s">
         <v>178</v>
       </c>
-      <c r="F3" s="114" t="s">
+      <c r="F3" s="60" t="s">
         <v>280</v>
       </c>
       <c r="G3" t="s">
@@ -12581,7 +12575,7 @@
       <c r="A4" t="s">
         <v>176</v>
       </c>
-      <c r="B4" s="115">
+      <c r="B4" s="61">
         <v>41657</v>
       </c>
       <c r="C4" t="s">
@@ -12593,7 +12587,7 @@
       <c r="E4" t="s">
         <v>152</v>
       </c>
-      <c r="F4" s="114" t="s">
+      <c r="F4" s="60" t="s">
         <v>281</v>
       </c>
       <c r="G4" t="s">
@@ -12616,7 +12610,7 @@
       <c r="A5" t="s">
         <v>180</v>
       </c>
-      <c r="B5" s="115">
+      <c r="B5" s="61">
         <v>41667</v>
       </c>
       <c r="C5" t="s">
@@ -12628,7 +12622,7 @@
       <c r="E5" t="s">
         <v>513</v>
       </c>
-      <c r="F5" s="114" t="s">
+      <c r="F5" s="60" t="s">
         <v>282</v>
       </c>
       <c r="G5" t="s">
@@ -12651,7 +12645,7 @@
       <c r="A6" t="s">
         <v>180</v>
       </c>
-      <c r="B6" s="115">
+      <c r="B6" s="61">
         <v>41667</v>
       </c>
       <c r="C6" t="s">
@@ -12663,7 +12657,7 @@
       <c r="E6" t="s">
         <v>183</v>
       </c>
-      <c r="F6" s="114" t="s">
+      <c r="F6" s="60" t="s">
         <v>283</v>
       </c>
       <c r="G6" t="s">
@@ -12686,7 +12680,7 @@
       <c r="A7" t="s">
         <v>180</v>
       </c>
-      <c r="B7" s="115">
+      <c r="B7" s="61">
         <v>41667</v>
       </c>
       <c r="C7" t="s">
@@ -12698,7 +12692,7 @@
       <c r="E7" t="s">
         <v>184</v>
       </c>
-      <c r="F7" s="114" t="s">
+      <c r="F7" s="60" t="s">
         <v>284</v>
       </c>
       <c r="G7" t="s">
@@ -12721,7 +12715,7 @@
       <c r="A8" t="s">
         <v>185</v>
       </c>
-      <c r="B8" s="115">
+      <c r="B8" s="61">
         <v>41685</v>
       </c>
       <c r="C8" t="s">
@@ -12733,7 +12727,7 @@
       <c r="E8" t="s">
         <v>187</v>
       </c>
-      <c r="F8" s="114" t="s">
+      <c r="F8" s="60" t="s">
         <v>285</v>
       </c>
       <c r="G8" t="s">
@@ -12756,7 +12750,7 @@
       <c r="A9" t="s">
         <v>185</v>
       </c>
-      <c r="B9" s="115">
+      <c r="B9" s="61">
         <v>41685</v>
       </c>
       <c r="C9" t="s">
@@ -12768,7 +12762,7 @@
       <c r="E9" t="s">
         <v>512</v>
       </c>
-      <c r="F9" s="114" t="s">
+      <c r="F9" s="60" t="s">
         <v>286</v>
       </c>
       <c r="G9" t="s">
@@ -12791,7 +12785,7 @@
       <c r="A10" t="s">
         <v>185</v>
       </c>
-      <c r="B10" s="115">
+      <c r="B10" s="61">
         <v>41685</v>
       </c>
       <c r="C10" t="s">
@@ -12803,7 +12797,7 @@
       <c r="E10" t="s">
         <v>188</v>
       </c>
-      <c r="F10" s="114" t="s">
+      <c r="F10" s="60" t="s">
         <v>287</v>
       </c>
       <c r="G10" t="s">
@@ -12838,7 +12832,7 @@
       <c r="A11" t="s">
         <v>189</v>
       </c>
-      <c r="B11" s="115">
+      <c r="B11" s="61">
         <v>41697</v>
       </c>
       <c r="C11" t="s">
@@ -12850,7 +12844,7 @@
       <c r="E11" t="s">
         <v>154</v>
       </c>
-      <c r="F11" s="114" t="s">
+      <c r="F11" s="60" t="s">
         <v>288</v>
       </c>
       <c r="G11" t="s">
@@ -12873,7 +12867,7 @@
       <c r="A12" t="s">
         <v>189</v>
       </c>
-      <c r="B12" s="115">
+      <c r="B12" s="61">
         <v>41697</v>
       </c>
       <c r="C12" t="s">
@@ -12885,7 +12879,7 @@
       <c r="E12" t="s">
         <v>514</v>
       </c>
-      <c r="F12" s="114" t="s">
+      <c r="F12" s="60" t="s">
         <v>282</v>
       </c>
       <c r="G12" t="s">
@@ -12914,7 +12908,7 @@
       <c r="A13" t="s">
         <v>189</v>
       </c>
-      <c r="B13" s="115">
+      <c r="B13" s="61">
         <v>41697</v>
       </c>
       <c r="C13" t="s">
@@ -12926,7 +12920,7 @@
       <c r="E13" t="s">
         <v>184</v>
       </c>
-      <c r="F13" s="114" t="s">
+      <c r="F13" s="60" t="s">
         <v>289</v>
       </c>
       <c r="G13" t="s">
@@ -12949,7 +12943,7 @@
       <c r="A14" t="s">
         <v>191</v>
       </c>
-      <c r="B14" s="115">
+      <c r="B14" s="61">
         <v>41713</v>
       </c>
       <c r="C14" t="s">
@@ -12961,7 +12955,7 @@
       <c r="E14" t="s">
         <v>212</v>
       </c>
-      <c r="F14" s="114" t="s">
+      <c r="F14" s="60" t="s">
         <v>290</v>
       </c>
       <c r="G14" t="s">
@@ -12987,7 +12981,7 @@
       <c r="A15" t="s">
         <v>191</v>
       </c>
-      <c r="B15" s="115">
+      <c r="B15" s="61">
         <v>41713</v>
       </c>
       <c r="C15" t="s">
@@ -12999,7 +12993,7 @@
       <c r="E15" t="s">
         <v>212</v>
       </c>
-      <c r="F15" s="114" t="s">
+      <c r="F15" s="60" t="s">
         <v>291</v>
       </c>
       <c r="G15" t="s">
@@ -13025,7 +13019,7 @@
       <c r="A16" t="s">
         <v>191</v>
       </c>
-      <c r="B16" s="115">
+      <c r="B16" s="61">
         <v>41713</v>
       </c>
       <c r="C16" t="s">
@@ -13037,7 +13031,7 @@
       <c r="E16" t="s">
         <v>192</v>
       </c>
-      <c r="F16" s="114" t="s">
+      <c r="F16" s="60" t="s">
         <v>292</v>
       </c>
       <c r="G16" t="s">
@@ -13060,7 +13054,7 @@
       <c r="A17" t="s">
         <v>191</v>
       </c>
-      <c r="B17" s="115">
+      <c r="B17" s="61">
         <v>41713</v>
       </c>
       <c r="C17" t="s">
@@ -13072,7 +13066,7 @@
       <c r="E17" t="s">
         <v>515</v>
       </c>
-      <c r="F17" s="114" t="s">
+      <c r="F17" s="60" t="s">
         <v>287</v>
       </c>
       <c r="G17" t="s">
@@ -13107,7 +13101,7 @@
       <c r="A18" t="s">
         <v>193</v>
       </c>
-      <c r="B18" s="115">
+      <c r="B18" s="61">
         <v>41734</v>
       </c>
       <c r="C18" t="s">
@@ -13119,7 +13113,7 @@
       <c r="E18" t="s">
         <v>195</v>
       </c>
-      <c r="F18" s="114" t="s">
+      <c r="F18" s="60" t="s">
         <v>293</v>
       </c>
       <c r="G18" t="s">
@@ -13142,7 +13136,7 @@
       <c r="A19" t="s">
         <v>193</v>
       </c>
-      <c r="B19" s="115">
+      <c r="B19" s="61">
         <v>41734</v>
       </c>
       <c r="C19" t="s">
@@ -13154,7 +13148,7 @@
       <c r="E19" t="s">
         <v>516</v>
       </c>
-      <c r="F19" s="114" t="s">
+      <c r="F19" s="60" t="s">
         <v>294</v>
       </c>
       <c r="G19" t="s">
@@ -13183,7 +13177,7 @@
       <c r="A20" t="s">
         <v>193</v>
       </c>
-      <c r="B20" s="115">
+      <c r="B20" s="61">
         <v>41734</v>
       </c>
       <c r="C20" t="s">
@@ -13195,7 +13189,7 @@
       <c r="E20" t="s">
         <v>196</v>
       </c>
-      <c r="F20" s="114" t="s">
+      <c r="F20" s="60" t="s">
         <v>295</v>
       </c>
       <c r="G20" t="s">
@@ -13218,7 +13212,7 @@
       <c r="A21" t="s">
         <v>193</v>
       </c>
-      <c r="B21" s="115">
+      <c r="B21" s="61">
         <v>41734</v>
       </c>
       <c r="C21" t="s">
@@ -13230,7 +13224,7 @@
       <c r="E21" t="s">
         <v>197</v>
       </c>
-      <c r="F21" s="114" t="s">
+      <c r="F21" s="60" t="s">
         <v>296</v>
       </c>
       <c r="G21" t="s">
@@ -13253,7 +13247,7 @@
       <c r="A22" t="s">
         <v>201</v>
       </c>
-      <c r="B22" s="115">
+      <c r="B22" s="61">
         <v>41755</v>
       </c>
       <c r="C22" t="s">
@@ -13265,7 +13259,7 @@
       <c r="E22" t="s">
         <v>202</v>
       </c>
-      <c r="F22" s="114" t="s">
+      <c r="F22" s="60" t="s">
         <v>297</v>
       </c>
       <c r="G22" t="s">
@@ -13288,7 +13282,7 @@
       <c r="A23" t="s">
         <v>201</v>
       </c>
-      <c r="B23" s="115">
+      <c r="B23" s="61">
         <v>41755</v>
       </c>
       <c r="C23" t="s">
@@ -13300,7 +13294,7 @@
       <c r="E23" t="s">
         <v>517</v>
       </c>
-      <c r="F23" s="114" t="s">
+      <c r="F23" s="60" t="s">
         <v>298</v>
       </c>
       <c r="G23" t="s">
@@ -13323,7 +13317,7 @@
       <c r="A24" t="s">
         <v>201</v>
       </c>
-      <c r="B24" s="115">
+      <c r="B24" s="61">
         <v>41755</v>
       </c>
       <c r="C24" t="s">
@@ -13335,7 +13329,7 @@
       <c r="E24" t="s">
         <v>203</v>
       </c>
-      <c r="F24" s="114" t="s">
+      <c r="F24" s="60" t="s">
         <v>299</v>
       </c>
       <c r="G24" t="s">
@@ -13370,7 +13364,7 @@
       <c r="A25" t="s">
         <v>204</v>
       </c>
-      <c r="B25" s="115">
+      <c r="B25" s="61">
         <v>41783</v>
       </c>
       <c r="C25" t="s">
@@ -13382,7 +13376,7 @@
       <c r="E25" t="s">
         <v>205</v>
       </c>
-      <c r="F25" s="114" t="s">
+      <c r="F25" s="60" t="s">
         <v>300</v>
       </c>
       <c r="G25" t="s">
@@ -13405,7 +13399,7 @@
       <c r="A26" t="s">
         <v>204</v>
       </c>
-      <c r="B26" s="115">
+      <c r="B26" s="61">
         <v>41783</v>
       </c>
       <c r="C26" t="s">
@@ -13417,7 +13411,7 @@
       <c r="E26" t="s">
         <v>518</v>
       </c>
-      <c r="F26" s="114" t="s">
+      <c r="F26" s="60" t="s">
         <v>301</v>
       </c>
       <c r="G26" t="s">
@@ -13452,7 +13446,7 @@
       <c r="A27" t="s">
         <v>204</v>
       </c>
-      <c r="B27" s="115">
+      <c r="B27" s="61">
         <v>41783</v>
       </c>
       <c r="C27" t="s">
@@ -13464,7 +13458,7 @@
       <c r="E27" t="s">
         <v>206</v>
       </c>
-      <c r="F27" s="114" t="s">
+      <c r="F27" s="60" t="s">
         <v>302</v>
       </c>
       <c r="G27" t="s">
@@ -13487,7 +13481,7 @@
       <c r="A28" t="s">
         <v>213</v>
       </c>
-      <c r="B28" s="115">
+      <c r="B28" s="61">
         <v>41794</v>
       </c>
       <c r="C28" t="s">
@@ -13499,7 +13493,7 @@
       <c r="E28" t="s">
         <v>214</v>
       </c>
-      <c r="F28" s="114" t="s">
+      <c r="F28" s="60" t="s">
         <v>303</v>
       </c>
       <c r="G28" t="s">
@@ -13525,7 +13519,7 @@
       <c r="A29" t="s">
         <v>213</v>
       </c>
-      <c r="B29" s="115">
+      <c r="B29" s="61">
         <v>41794</v>
       </c>
       <c r="C29" t="s">
@@ -13537,7 +13531,7 @@
       <c r="E29" t="s">
         <v>215</v>
       </c>
-      <c r="F29" s="114" t="s">
+      <c r="F29" s="60" t="s">
         <v>290</v>
       </c>
       <c r="G29" t="s">
@@ -13563,7 +13557,7 @@
       <c r="A30" t="s">
         <v>213</v>
       </c>
-      <c r="B30" s="115">
+      <c r="B30" s="61">
         <v>41794</v>
       </c>
       <c r="C30" t="s">
@@ -13575,7 +13569,7 @@
       <c r="E30" t="s">
         <v>202</v>
       </c>
-      <c r="F30" s="114" t="s">
+      <c r="F30" s="60" t="s">
         <v>290</v>
       </c>
       <c r="G30" t="s">
@@ -13601,7 +13595,7 @@
       <c r="A31" t="s">
         <v>213</v>
       </c>
-      <c r="B31" s="115">
+      <c r="B31" s="61">
         <v>41794</v>
       </c>
       <c r="C31" t="s">
@@ -13613,7 +13607,7 @@
       <c r="E31" t="s">
         <v>206</v>
       </c>
-      <c r="F31" s="114" t="s">
+      <c r="F31" s="60" t="s">
         <v>304</v>
       </c>
       <c r="G31" t="s">
@@ -13636,7 +13630,7 @@
       <c r="A32" t="s">
         <v>207</v>
       </c>
-      <c r="B32" s="115">
+      <c r="B32" s="61">
         <v>41812</v>
       </c>
       <c r="C32" t="s">
@@ -13648,7 +13642,7 @@
       <c r="E32" t="s">
         <v>208</v>
       </c>
-      <c r="F32" s="114" t="s">
+      <c r="F32" s="60" t="s">
         <v>305</v>
       </c>
       <c r="G32" t="s">
@@ -13677,7 +13671,7 @@
       <c r="A33" t="s">
         <v>207</v>
       </c>
-      <c r="B33" s="115">
+      <c r="B33" s="61">
         <v>41812</v>
       </c>
       <c r="C33" t="s">
@@ -13689,7 +13683,7 @@
       <c r="E33" t="s">
         <v>209</v>
       </c>
-      <c r="F33" s="114" t="s">
+      <c r="F33" s="60" t="s">
         <v>306</v>
       </c>
       <c r="G33" t="s">
@@ -13715,7 +13709,7 @@
       <c r="A34" t="s">
         <v>207</v>
       </c>
-      <c r="B34" s="115">
+      <c r="B34" s="61">
         <v>41812</v>
       </c>
       <c r="C34" t="s">
@@ -13727,7 +13721,7 @@
       <c r="E34" t="s">
         <v>202</v>
       </c>
-      <c r="F34" s="114" t="s">
+      <c r="F34" s="60" t="s">
         <v>307</v>
       </c>
       <c r="G34" t="s">
@@ -13753,7 +13747,7 @@
       <c r="A35" t="s">
         <v>217</v>
       </c>
-      <c r="B35" s="115">
+      <c r="B35" s="61">
         <v>41831</v>
       </c>
       <c r="C35" t="s">
@@ -13765,7 +13759,7 @@
       <c r="E35" t="s">
         <v>219</v>
       </c>
-      <c r="F35" s="114" t="s">
+      <c r="F35" s="60" t="s">
         <v>308</v>
       </c>
       <c r="G35" t="s">
@@ -13791,7 +13785,7 @@
       <c r="A36" t="s">
         <v>217</v>
       </c>
-      <c r="B36" s="115">
+      <c r="B36" s="61">
         <v>41831</v>
       </c>
       <c r="C36" t="s">
@@ -13803,7 +13797,7 @@
       <c r="E36" t="s">
         <v>220</v>
       </c>
-      <c r="F36" s="114" t="s">
+      <c r="F36" s="60" t="s">
         <v>309</v>
       </c>
       <c r="G36" t="s">
@@ -13826,7 +13820,7 @@
       <c r="A37" t="s">
         <v>217</v>
       </c>
-      <c r="B37" s="115">
+      <c r="B37" s="61">
         <v>41831</v>
       </c>
       <c r="C37" t="s">
@@ -13838,7 +13832,7 @@
       <c r="E37" t="s">
         <v>221</v>
       </c>
-      <c r="F37" s="114" t="s">
+      <c r="F37" s="60" t="s">
         <v>310</v>
       </c>
       <c r="G37" t="s">
@@ -13873,7 +13867,7 @@
       <c r="A38" t="s">
         <v>222</v>
       </c>
-      <c r="B38" s="115">
+      <c r="B38" s="61">
         <v>41839</v>
       </c>
       <c r="C38" t="s">
@@ -13885,7 +13879,7 @@
       <c r="E38" t="s">
         <v>224</v>
       </c>
-      <c r="F38" s="114" t="s">
+      <c r="F38" s="60" t="s">
         <v>311</v>
       </c>
       <c r="G38" t="s">
@@ -13920,7 +13914,7 @@
       <c r="A39" t="s">
         <v>222</v>
       </c>
-      <c r="B39" s="115">
+      <c r="B39" s="61">
         <v>41839</v>
       </c>
       <c r="C39" t="s">
@@ -13932,7 +13926,7 @@
       <c r="E39" t="s">
         <v>225</v>
       </c>
-      <c r="F39" s="114" t="s">
+      <c r="F39" s="60" t="s">
         <v>312</v>
       </c>
       <c r="G39" t="s">
@@ -13958,7 +13952,7 @@
       <c r="A40" t="s">
         <v>222</v>
       </c>
-      <c r="B40" s="115">
+      <c r="B40" s="61">
         <v>41839</v>
       </c>
       <c r="C40" t="s">
@@ -13970,7 +13964,7 @@
       <c r="E40" t="s">
         <v>226</v>
       </c>
-      <c r="F40" s="114" t="s">
+      <c r="F40" s="60" t="s">
         <v>313</v>
       </c>
       <c r="G40" t="s">
@@ -13996,7 +13990,7 @@
       <c r="A41" t="s">
         <v>228</v>
       </c>
-      <c r="B41" s="115">
+      <c r="B41" s="61">
         <v>41853</v>
       </c>
       <c r="C41" t="s">
@@ -14008,7 +14002,7 @@
       <c r="E41" t="s">
         <v>230</v>
       </c>
-      <c r="F41" s="114" t="s">
+      <c r="F41" s="60" t="s">
         <v>314</v>
       </c>
       <c r="G41" t="s">
@@ -14037,7 +14031,7 @@
       <c r="A42" t="s">
         <v>228</v>
       </c>
-      <c r="B42" s="115">
+      <c r="B42" s="61">
         <v>41853</v>
       </c>
       <c r="C42" t="s">
@@ -14049,7 +14043,7 @@
       <c r="E42" t="s">
         <v>231</v>
       </c>
-      <c r="F42" s="114" t="s">
+      <c r="F42" s="60" t="s">
         <v>315</v>
       </c>
       <c r="G42" t="s">
@@ -14075,7 +14069,7 @@
       <c r="A43" t="s">
         <v>228</v>
       </c>
-      <c r="B43" s="115">
+      <c r="B43" s="61">
         <v>41853</v>
       </c>
       <c r="C43" t="s">
@@ -14087,7 +14081,7 @@
       <c r="E43" t="s">
         <v>178</v>
       </c>
-      <c r="F43" s="114" t="s">
+      <c r="F43" s="60" t="s">
         <v>316</v>
       </c>
       <c r="G43" t="s">
@@ -14113,7 +14107,7 @@
       <c r="A44" t="s">
         <v>228</v>
       </c>
-      <c r="B44" s="115">
+      <c r="B44" s="61">
         <v>41853</v>
       </c>
       <c r="C44" t="s">
@@ -14125,7 +14119,7 @@
       <c r="E44" t="s">
         <v>154</v>
       </c>
-      <c r="F44" s="114" t="s">
+      <c r="F44" s="60" t="s">
         <v>317</v>
       </c>
       <c r="G44" t="s">
@@ -14148,7 +14142,7 @@
       <c r="A45" t="s">
         <v>228</v>
       </c>
-      <c r="B45" s="115">
+      <c r="B45" s="61">
         <v>41853</v>
       </c>
       <c r="C45" t="s">
@@ -14160,7 +14154,7 @@
       <c r="E45" t="s">
         <v>232</v>
       </c>
-      <c r="F45" s="114" t="s">
+      <c r="F45" s="60" t="s">
         <v>318</v>
       </c>
       <c r="G45" t="s">
@@ -14186,7 +14180,7 @@
       <c r="A46" t="s">
         <v>235</v>
       </c>
-      <c r="B46" s="115">
+      <c r="B46" s="61">
         <v>41881</v>
       </c>
       <c r="C46" t="s">
@@ -14198,7 +14192,7 @@
       <c r="E46" t="s">
         <v>236</v>
       </c>
-      <c r="F46" s="114" t="s">
+      <c r="F46" s="60" t="s">
         <v>319</v>
       </c>
       <c r="G46" t="s">
@@ -14221,7 +14215,7 @@
       <c r="A47" t="s">
         <v>235</v>
       </c>
-      <c r="B47" s="115">
+      <c r="B47" s="61">
         <v>41881</v>
       </c>
       <c r="C47" t="s">
@@ -14233,7 +14227,7 @@
       <c r="E47" t="s">
         <v>237</v>
       </c>
-      <c r="F47" s="114" t="s">
+      <c r="F47" s="60" t="s">
         <v>320</v>
       </c>
       <c r="G47" t="s">
@@ -14262,7 +14256,7 @@
       <c r="A48" t="s">
         <v>235</v>
       </c>
-      <c r="B48" s="115">
+      <c r="B48" s="61">
         <v>41881</v>
       </c>
       <c r="C48" t="s">
@@ -14274,7 +14268,7 @@
       <c r="E48" t="s">
         <v>238</v>
       </c>
-      <c r="F48" s="114" t="s">
+      <c r="F48" s="60" t="s">
         <v>316</v>
       </c>
       <c r="G48" t="s">
@@ -14309,7 +14303,7 @@
       <c r="A49" t="s">
         <v>239</v>
       </c>
-      <c r="B49" s="115">
+      <c r="B49" s="61">
         <v>41888</v>
       </c>
       <c r="C49" t="s">
@@ -14321,7 +14315,7 @@
       <c r="E49" t="s">
         <v>241</v>
       </c>
-      <c r="F49" s="114" t="s">
+      <c r="F49" s="60" t="s">
         <v>321</v>
       </c>
       <c r="G49" t="s">
@@ -14344,7 +14338,7 @@
       <c r="A50" t="s">
         <v>239</v>
       </c>
-      <c r="B50" s="115">
+      <c r="B50" s="61">
         <v>41888</v>
       </c>
       <c r="C50" t="s">
@@ -14356,7 +14350,7 @@
       <c r="E50" t="s">
         <v>215</v>
       </c>
-      <c r="F50" s="114" t="s">
+      <c r="F50" s="60" t="s">
         <v>322</v>
       </c>
       <c r="G50" t="s">
@@ -14379,7 +14373,7 @@
       <c r="A51" t="s">
         <v>239</v>
       </c>
-      <c r="B51" s="115">
+      <c r="B51" s="61">
         <v>41888</v>
       </c>
       <c r="C51" t="s">
@@ -14391,7 +14385,7 @@
       <c r="E51" t="s">
         <v>242</v>
       </c>
-      <c r="F51" s="114" t="s">
+      <c r="F51" s="60" t="s">
         <v>323</v>
       </c>
       <c r="G51" t="s">
@@ -14426,7 +14420,7 @@
       <c r="A52" t="s">
         <v>243</v>
       </c>
-      <c r="B52" s="115">
+      <c r="B52" s="61">
         <v>41909</v>
       </c>
       <c r="C52" t="s">
@@ -14438,7 +14432,7 @@
       <c r="E52" t="s">
         <v>244</v>
       </c>
-      <c r="F52" s="114" t="s">
+      <c r="F52" s="60" t="s">
         <v>324</v>
       </c>
       <c r="G52" t="s">
@@ -14461,7 +14455,7 @@
       <c r="A53" t="s">
         <v>243</v>
       </c>
-      <c r="B53" s="115">
+      <c r="B53" s="61">
         <v>41909</v>
       </c>
       <c r="C53" t="s">
@@ -14473,7 +14467,7 @@
       <c r="E53" t="s">
         <v>245</v>
       </c>
-      <c r="F53" s="114" t="s">
+      <c r="F53" s="60" t="s">
         <v>325</v>
       </c>
       <c r="G53" t="s">
@@ -14496,7 +14490,7 @@
       <c r="A54" t="s">
         <v>243</v>
       </c>
-      <c r="B54" s="115">
+      <c r="B54" s="61">
         <v>41909</v>
       </c>
       <c r="C54" t="s">
@@ -14508,7 +14502,7 @@
       <c r="E54" t="s">
         <v>246</v>
       </c>
-      <c r="F54" s="114" t="s">
+      <c r="F54" s="60" t="s">
         <v>326</v>
       </c>
       <c r="G54" t="s">
@@ -14543,7 +14537,7 @@
       <c r="A55" t="s">
         <v>247</v>
       </c>
-      <c r="B55" s="115">
+      <c r="B55" s="61">
         <v>41924</v>
       </c>
       <c r="C55" t="s">
@@ -14578,7 +14572,7 @@
       <c r="A56" t="s">
         <v>247</v>
       </c>
-      <c r="B56" s="115">
+      <c r="B56" s="61">
         <v>41924</v>
       </c>
       <c r="C56" t="s">
@@ -14625,7 +14619,7 @@
       <c r="A57" t="s">
         <v>519</v>
       </c>
-      <c r="B57" s="115">
+      <c r="B57" s="61">
         <v>41944</v>
       </c>
       <c r="C57" t="s">
@@ -14637,7 +14631,7 @@
       <c r="E57" t="s">
         <v>252</v>
       </c>
-      <c r="F57" s="114" t="s">
+      <c r="F57" s="60" t="s">
         <v>327</v>
       </c>
       <c r="G57" t="s">
@@ -14673,9 +14667,9 @@
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>520</v>
-      </c>
-      <c r="B58" s="115">
+        <v>519</v>
+      </c>
+      <c r="B58" s="61">
         <v>41944</v>
       </c>
       <c r="C58" t="s">
@@ -14687,7 +14681,7 @@
       <c r="E58" t="s">
         <v>254</v>
       </c>
-      <c r="F58" s="114" t="s">
+      <c r="F58" s="60" t="s">
         <v>328</v>
       </c>
       <c r="G58" t="s">
@@ -14723,9 +14717,9 @@
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>521</v>
-      </c>
-      <c r="B59" s="115">
+        <v>519</v>
+      </c>
+      <c r="B59" s="61">
         <v>41944</v>
       </c>
       <c r="C59" t="s">
@@ -14737,7 +14731,7 @@
       <c r="E59" t="s">
         <v>253</v>
       </c>
-      <c r="F59" s="114" t="s">
+      <c r="F59" s="60" t="s">
         <v>329</v>
       </c>
       <c r="G59" t="s">
@@ -14775,7 +14769,7 @@
       <c r="A60" t="s">
         <v>256</v>
       </c>
-      <c r="B60" s="115">
+      <c r="B60" s="61">
         <v>41946</v>
       </c>
       <c r="C60" t="s">
@@ -14787,7 +14781,7 @@
       <c r="E60" t="s">
         <v>258</v>
       </c>
-      <c r="F60" s="114" t="s">
+      <c r="F60" s="60" t="s">
         <v>330</v>
       </c>
       <c r="G60" t="s">
@@ -14810,7 +14804,7 @@
       <c r="A61" t="s">
         <v>256</v>
       </c>
-      <c r="B61" s="115">
+      <c r="B61" s="61">
         <v>41946</v>
       </c>
       <c r="C61" t="s">
@@ -14822,7 +14816,7 @@
       <c r="E61" t="s">
         <v>192</v>
       </c>
-      <c r="F61" s="114" t="s">
+      <c r="F61" s="60" t="s">
         <v>331</v>
       </c>
       <c r="G61" t="s">
@@ -14845,7 +14839,7 @@
       <c r="A62" t="s">
         <v>256</v>
       </c>
-      <c r="B62" s="115">
+      <c r="B62" s="61">
         <v>41946</v>
       </c>
       <c r="C62" t="s">
@@ -14857,7 +14851,7 @@
       <c r="E62" t="s">
         <v>259</v>
       </c>
-      <c r="F62" s="114" t="s">
+      <c r="F62" s="60" t="s">
         <v>280</v>
       </c>
       <c r="G62" t="s">
@@ -14880,7 +14874,7 @@
       <c r="A63" t="s">
         <v>256</v>
       </c>
-      <c r="B63" s="115">
+      <c r="B63" s="61">
         <v>41946</v>
       </c>
       <c r="C63" t="s">
@@ -14892,7 +14886,7 @@
       <c r="E63" t="s">
         <v>260</v>
       </c>
-      <c r="F63" s="114" t="s">
+      <c r="F63" s="60" t="s">
         <v>332</v>
       </c>
       <c r="G63" t="s">
@@ -14915,7 +14909,7 @@
       <c r="A64" t="s">
         <v>256</v>
       </c>
-      <c r="B64" s="115">
+      <c r="B64" s="61">
         <v>41946</v>
       </c>
       <c r="C64" t="s">
@@ -14927,7 +14921,7 @@
       <c r="E64" t="s">
         <v>152</v>
       </c>
-      <c r="F64" s="114" t="s">
+      <c r="F64" s="60" t="s">
         <v>333</v>
       </c>
       <c r="G64" t="s">
@@ -14950,7 +14944,7 @@
       <c r="A65" t="s">
         <v>261</v>
       </c>
-      <c r="B65" s="115">
+      <c r="B65" s="61">
         <v>41965</v>
       </c>
       <c r="C65" t="s">
@@ -14962,7 +14956,7 @@
       <c r="E65" t="s">
         <v>262</v>
       </c>
-      <c r="F65" s="114" t="s">
+      <c r="F65" s="60" t="s">
         <v>334</v>
       </c>
       <c r="G65" t="s">
@@ -14985,7 +14979,7 @@
       <c r="A66" t="s">
         <v>261</v>
       </c>
-      <c r="B66" s="115">
+      <c r="B66" s="61">
         <v>41965</v>
       </c>
       <c r="C66" t="s">
@@ -14997,7 +14991,7 @@
       <c r="E66" t="s">
         <v>263</v>
       </c>
-      <c r="F66" s="114" t="s">
+      <c r="F66" s="60" t="s">
         <v>335</v>
       </c>
       <c r="G66" t="s">
@@ -15026,7 +15020,7 @@
       <c r="A67" t="s">
         <v>261</v>
       </c>
-      <c r="B67" s="115">
+      <c r="B67" s="61">
         <v>41965</v>
       </c>
       <c r="C67" t="s">
@@ -15038,7 +15032,7 @@
       <c r="E67" t="s">
         <v>339</v>
       </c>
-      <c r="F67" s="114" t="s">
+      <c r="F67" s="60" t="s">
         <v>336</v>
       </c>
       <c r="G67" t="s">
@@ -15073,7 +15067,7 @@
       <c r="A68" t="s">
         <v>264</v>
       </c>
-      <c r="B68" s="115">
+      <c r="B68" s="61">
         <v>42001</v>
       </c>
       <c r="C68" t="s">
@@ -15085,7 +15079,7 @@
       <c r="E68" t="s">
         <v>265</v>
       </c>
-      <c r="F68" s="114" t="s">
+      <c r="F68" s="60" t="s">
         <v>337</v>
       </c>
       <c r="G68" t="s">
@@ -15114,7 +15108,7 @@
       <c r="A69" t="s">
         <v>264</v>
       </c>
-      <c r="B69" s="115">
+      <c r="B69" s="61">
         <v>42001</v>
       </c>
       <c r="C69" t="s">
@@ -15126,7 +15120,7 @@
       <c r="E69" t="s">
         <v>266</v>
       </c>
-      <c r="F69" s="114" t="s">
+      <c r="F69" s="60" t="s">
         <v>338</v>
       </c>
       <c r="G69" t="s">
@@ -15161,7 +15155,7 @@
       <c r="A70" t="s">
         <v>264</v>
       </c>
-      <c r="B70" s="115">
+      <c r="B70" s="61">
         <v>42001</v>
       </c>
       <c r="C70" t="s">
@@ -15173,7 +15167,7 @@
       <c r="E70" t="s">
         <v>219</v>
       </c>
-      <c r="F70" s="114" t="s">
+      <c r="F70" s="60" t="s">
         <v>312</v>
       </c>
       <c r="G70" t="s">
@@ -15295,7 +15289,7 @@
       <c r="A2" t="s">
         <v>340</v>
       </c>
-      <c r="B2" s="115">
+      <c r="B2" s="61">
         <v>42014</v>
       </c>
       <c r="C2" t="s">
@@ -15307,10 +15301,10 @@
       <c r="E2" t="s">
         <v>195</v>
       </c>
-      <c r="F2" s="114" t="s">
+      <c r="F2" s="60" t="s">
         <v>343</v>
       </c>
-      <c r="G2" s="114" t="s">
+      <c r="G2" s="60" t="s">
         <v>149</v>
       </c>
       <c r="H2" t="s">
@@ -15330,7 +15324,7 @@
       <c r="A3" t="s">
         <v>340</v>
       </c>
-      <c r="B3" s="115">
+      <c r="B3" s="61">
         <v>42014</v>
       </c>
       <c r="C3" t="s">
@@ -15342,7 +15336,7 @@
       <c r="E3" t="s">
         <v>341</v>
       </c>
-      <c r="F3" s="114" t="s">
+      <c r="F3" s="60" t="s">
         <v>344</v>
       </c>
       <c r="G3" t="s">
@@ -15365,7 +15359,7 @@
       <c r="A4" t="s">
         <v>340</v>
       </c>
-      <c r="B4" s="115">
+      <c r="B4" s="61">
         <v>42014</v>
       </c>
       <c r="C4" t="s">
@@ -15377,7 +15371,7 @@
       <c r="E4" t="s">
         <v>342</v>
       </c>
-      <c r="F4" s="114" t="s">
+      <c r="F4" s="60" t="s">
         <v>345</v>
       </c>
       <c r="G4" t="s">
@@ -15412,7 +15406,7 @@
       <c r="A5" t="s">
         <v>346</v>
       </c>
-      <c r="B5" s="115">
+      <c r="B5" s="61">
         <v>42043</v>
       </c>
       <c r="C5" t="s">
@@ -15424,7 +15418,7 @@
       <c r="E5" t="s">
         <v>347</v>
       </c>
-      <c r="F5" s="114" t="s">
+      <c r="F5" s="60" t="s">
         <v>349</v>
       </c>
       <c r="G5" t="s">
@@ -15447,7 +15441,7 @@
       <c r="A6" t="s">
         <v>346</v>
       </c>
-      <c r="B6" s="115">
+      <c r="B6" s="61">
         <v>42043</v>
       </c>
       <c r="C6" t="s">
@@ -15459,7 +15453,7 @@
       <c r="E6" t="s">
         <v>205</v>
       </c>
-      <c r="F6" s="114" t="s">
+      <c r="F6" s="60" t="s">
         <v>315</v>
       </c>
       <c r="G6" t="s">
@@ -15482,7 +15476,7 @@
       <c r="A7" t="s">
         <v>346</v>
       </c>
-      <c r="B7" s="115">
+      <c r="B7" s="61">
         <v>42043</v>
       </c>
       <c r="C7" t="s">
@@ -15494,7 +15488,7 @@
       <c r="E7" t="s">
         <v>348</v>
       </c>
-      <c r="F7" s="114" t="s">
+      <c r="F7" s="60" t="s">
         <v>350</v>
       </c>
       <c r="G7" t="s">
@@ -15529,7 +15523,7 @@
       <c r="A8" t="s">
         <v>352</v>
       </c>
-      <c r="B8" s="115">
+      <c r="B8" s="61">
         <v>42063</v>
       </c>
       <c r="C8" t="s">
@@ -15541,7 +15535,7 @@
       <c r="E8" t="s">
         <v>354</v>
       </c>
-      <c r="F8" s="114" t="s">
+      <c r="F8" s="60" t="s">
         <v>359</v>
       </c>
       <c r="G8" t="s">
@@ -15576,7 +15570,7 @@
       <c r="A9" t="s">
         <v>352</v>
       </c>
-      <c r="B9" s="115">
+      <c r="B9" s="61">
         <v>42063</v>
       </c>
       <c r="C9" t="s">
@@ -15588,7 +15582,7 @@
       <c r="E9" t="s">
         <v>355</v>
       </c>
-      <c r="F9" s="114" t="s">
+      <c r="F9" s="60" t="s">
         <v>360</v>
       </c>
       <c r="G9" t="s">
@@ -15611,7 +15605,7 @@
       <c r="A10" t="s">
         <v>352</v>
       </c>
-      <c r="B10" s="115">
+      <c r="B10" s="61">
         <v>42063</v>
       </c>
       <c r="C10" t="s">
@@ -15623,7 +15617,7 @@
       <c r="E10" t="s">
         <v>356</v>
       </c>
-      <c r="F10" s="114" t="s">
+      <c r="F10" s="60" t="s">
         <v>361</v>
       </c>
       <c r="G10" t="s">
@@ -15646,7 +15640,7 @@
       <c r="A11" t="s">
         <v>352</v>
       </c>
-      <c r="B11" s="115">
+      <c r="B11" s="61">
         <v>42063</v>
       </c>
       <c r="C11" t="s">
@@ -15658,7 +15652,7 @@
       <c r="E11" t="s">
         <v>358</v>
       </c>
-      <c r="F11" s="114" t="s">
+      <c r="F11" s="60" t="s">
         <v>362</v>
       </c>
       <c r="G11" t="s">
@@ -15681,7 +15675,7 @@
       <c r="A12" t="s">
         <v>352</v>
       </c>
-      <c r="B12" s="115">
+      <c r="B12" s="61">
         <v>42063</v>
       </c>
       <c r="C12" t="s">
@@ -15693,7 +15687,7 @@
       <c r="E12" t="s">
         <v>357</v>
       </c>
-      <c r="F12" s="114" t="s">
+      <c r="F12" s="60" t="s">
         <v>363</v>
       </c>
       <c r="G12" t="s">
@@ -15716,7 +15710,7 @@
       <c r="A13" t="s">
         <v>366</v>
       </c>
-      <c r="B13" s="115">
+      <c r="B13" s="61">
         <v>42085</v>
       </c>
       <c r="C13" t="s">
@@ -15728,7 +15722,7 @@
       <c r="E13" t="s">
         <v>367</v>
       </c>
-      <c r="F13" s="114" t="s">
+      <c r="F13" s="60" t="s">
         <v>371</v>
       </c>
       <c r="G13" t="s">
@@ -15751,7 +15745,7 @@
       <c r="A14" t="s">
         <v>366</v>
       </c>
-      <c r="B14" s="115">
+      <c r="B14" s="61">
         <v>42085</v>
       </c>
       <c r="C14" t="s">
@@ -15763,7 +15757,7 @@
       <c r="E14" t="s">
         <v>368</v>
       </c>
-      <c r="F14" s="114" t="s">
+      <c r="F14" s="60" t="s">
         <v>372</v>
       </c>
       <c r="G14" t="s">
@@ -15798,7 +15792,7 @@
       <c r="A15" t="s">
         <v>366</v>
       </c>
-      <c r="B15" s="115">
+      <c r="B15" s="61">
         <v>42085</v>
       </c>
       <c r="C15" t="s">
@@ -15810,7 +15804,7 @@
       <c r="E15" t="s">
         <v>369</v>
       </c>
-      <c r="F15" s="114" t="s">
+      <c r="F15" s="60" t="s">
         <v>373</v>
       </c>
       <c r="G15" t="s">
@@ -15833,7 +15827,7 @@
       <c r="A16" t="s">
         <v>366</v>
       </c>
-      <c r="B16" s="115">
+      <c r="B16" s="61">
         <v>42085</v>
       </c>
       <c r="C16" t="s">
@@ -15845,7 +15839,7 @@
       <c r="E16" t="s">
         <v>370</v>
       </c>
-      <c r="F16" s="114" t="s">
+      <c r="F16" s="60" t="s">
         <v>374</v>
       </c>
       <c r="G16" t="s">
@@ -15880,7 +15874,7 @@
       <c r="A17" t="s">
         <v>375</v>
       </c>
-      <c r="B17" s="115">
+      <c r="B17" s="61">
         <v>42112</v>
       </c>
       <c r="C17" t="s">
@@ -15892,7 +15886,7 @@
       <c r="E17" t="s">
         <v>376</v>
       </c>
-      <c r="F17" s="114" t="s">
+      <c r="F17" s="60" t="s">
         <v>280</v>
       </c>
       <c r="G17" t="s">
@@ -15915,7 +15909,7 @@
       <c r="A18" t="s">
         <v>375</v>
       </c>
-      <c r="B18" s="115">
+      <c r="B18" s="61">
         <v>42112</v>
       </c>
       <c r="C18" t="s">
@@ -15927,7 +15921,7 @@
       <c r="E18" t="s">
         <v>377</v>
       </c>
-      <c r="F18" s="114" t="s">
+      <c r="F18" s="60" t="s">
         <v>379</v>
       </c>
       <c r="G18" t="s">
@@ -15956,7 +15950,7 @@
       <c r="A19" t="s">
         <v>375</v>
       </c>
-      <c r="B19" s="115">
+      <c r="B19" s="61">
         <v>42112</v>
       </c>
       <c r="C19" t="s">
@@ -15968,7 +15962,7 @@
       <c r="E19" t="s">
         <v>378</v>
       </c>
-      <c r="F19" s="114" t="s">
+      <c r="F19" s="60" t="s">
         <v>380</v>
       </c>
       <c r="G19" t="s">
@@ -16003,7 +15997,7 @@
       <c r="A20" t="s">
         <v>375</v>
       </c>
-      <c r="B20" s="115">
+      <c r="B20" s="61">
         <v>42112</v>
       </c>
       <c r="C20" t="s">
@@ -16015,7 +16009,7 @@
       <c r="E20" t="s">
         <v>152</v>
       </c>
-      <c r="F20" s="114" t="s">
+      <c r="F20" s="60" t="s">
         <v>381</v>
       </c>
       <c r="G20" t="s">
@@ -16038,7 +16032,7 @@
       <c r="A21" t="s">
         <v>382</v>
       </c>
-      <c r="B21" s="115">
+      <c r="B21" s="61">
         <v>42147</v>
       </c>
       <c r="C21" t="s">
@@ -16050,7 +16044,7 @@
       <c r="E21" t="s">
         <v>383</v>
       </c>
-      <c r="F21" s="114" t="s">
+      <c r="F21" s="60" t="s">
         <v>388</v>
       </c>
       <c r="G21" t="s">
@@ -16073,7 +16067,7 @@
       <c r="A22" t="s">
         <v>382</v>
       </c>
-      <c r="B22" s="115">
+      <c r="B22" s="61">
         <v>42147</v>
       </c>
       <c r="C22" t="s">
@@ -16085,7 +16079,7 @@
       <c r="E22" t="s">
         <v>384</v>
       </c>
-      <c r="F22" s="114" t="s">
+      <c r="F22" s="60" t="s">
         <v>389</v>
       </c>
       <c r="G22" t="s">
@@ -16120,7 +16114,7 @@
       <c r="A23" t="s">
         <v>382</v>
       </c>
-      <c r="B23" s="115">
+      <c r="B23" s="61">
         <v>42147</v>
       </c>
       <c r="C23" t="s">
@@ -16132,7 +16126,7 @@
       <c r="E23" t="s">
         <v>385</v>
       </c>
-      <c r="F23" s="114" t="s">
+      <c r="F23" s="60" t="s">
         <v>390</v>
       </c>
       <c r="G23" t="s">
@@ -16155,7 +16149,7 @@
       <c r="A24" t="s">
         <v>382</v>
       </c>
-      <c r="B24" s="115">
+      <c r="B24" s="61">
         <v>42147</v>
       </c>
       <c r="C24" t="s">
@@ -16167,7 +16161,7 @@
       <c r="E24" t="s">
         <v>386</v>
       </c>
-      <c r="F24" s="114" t="s">
+      <c r="F24" s="60" t="s">
         <v>319</v>
       </c>
       <c r="G24" t="s">
@@ -16190,7 +16184,7 @@
       <c r="A25" t="s">
         <v>382</v>
       </c>
-      <c r="B25" s="115">
+      <c r="B25" s="61">
         <v>42147</v>
       </c>
       <c r="C25" t="s">
@@ -16202,7 +16196,7 @@
       <c r="E25" t="s">
         <v>387</v>
       </c>
-      <c r="F25" s="114" t="s">
+      <c r="F25" s="60" t="s">
         <v>391</v>
       </c>
       <c r="G25" t="s">
@@ -16225,7 +16219,7 @@
       <c r="A26" t="s">
         <v>392</v>
       </c>
-      <c r="B26" s="115">
+      <c r="B26" s="61">
         <v>42162</v>
       </c>
       <c r="C26" t="s">
@@ -16237,7 +16231,7 @@
       <c r="E26" t="s">
         <v>393</v>
       </c>
-      <c r="F26" s="114" t="s">
+      <c r="F26" s="60" t="s">
         <v>396</v>
       </c>
       <c r="G26" t="s">
@@ -16260,7 +16254,7 @@
       <c r="A27" t="s">
         <v>392</v>
       </c>
-      <c r="B27" s="115">
+      <c r="B27" s="61">
         <v>42162</v>
       </c>
       <c r="C27" t="s">
@@ -16272,7 +16266,7 @@
       <c r="E27" t="s">
         <v>178</v>
       </c>
-      <c r="F27" s="114" t="s">
+      <c r="F27" s="60" t="s">
         <v>397</v>
       </c>
       <c r="G27" t="s">
@@ -16295,7 +16289,7 @@
       <c r="A28" t="s">
         <v>392</v>
       </c>
-      <c r="B28" s="115">
+      <c r="B28" s="61">
         <v>42162</v>
       </c>
       <c r="C28" t="s">
@@ -16307,7 +16301,7 @@
       <c r="E28" t="s">
         <v>394</v>
       </c>
-      <c r="F28" s="114" t="s">
+      <c r="F28" s="60" t="s">
         <v>398</v>
       </c>
       <c r="G28" t="s">
@@ -16330,7 +16324,7 @@
       <c r="A29" t="s">
         <v>392</v>
       </c>
-      <c r="B29" s="115">
+      <c r="B29" s="61">
         <v>42162</v>
       </c>
       <c r="C29" t="s">
@@ -16342,7 +16336,7 @@
       <c r="E29" t="s">
         <v>395</v>
       </c>
-      <c r="F29" s="114" t="s">
+      <c r="F29" s="60" t="s">
         <v>399</v>
       </c>
       <c r="G29" t="s">
@@ -16377,7 +16371,7 @@
       <c r="A30" t="s">
         <v>400</v>
       </c>
-      <c r="B30" s="115">
+      <c r="B30" s="61">
         <v>42175</v>
       </c>
       <c r="C30" t="s">
@@ -16389,7 +16383,7 @@
       <c r="E30" t="s">
         <v>401</v>
       </c>
-      <c r="F30" s="114" t="s">
+      <c r="F30" s="60" t="s">
         <v>404</v>
       </c>
       <c r="G30" t="s">
@@ -16418,7 +16412,7 @@
       <c r="A31" t="s">
         <v>400</v>
       </c>
-      <c r="B31" s="115">
+      <c r="B31" s="61">
         <v>42175</v>
       </c>
       <c r="C31" t="s">
@@ -16430,7 +16424,7 @@
       <c r="E31" t="s">
         <v>402</v>
       </c>
-      <c r="F31" s="114" t="s">
+      <c r="F31" s="60" t="s">
         <v>288</v>
       </c>
       <c r="G31" t="s">
@@ -16453,7 +16447,7 @@
       <c r="A32" t="s">
         <v>400</v>
       </c>
-      <c r="B32" s="115">
+      <c r="B32" s="61">
         <v>42175</v>
       </c>
       <c r="C32" t="s">
@@ -16465,7 +16459,7 @@
       <c r="E32" t="s">
         <v>184</v>
       </c>
-      <c r="F32" s="114" t="s">
+      <c r="F32" s="60" t="s">
         <v>405</v>
       </c>
       <c r="G32" t="s">
@@ -16488,7 +16482,7 @@
       <c r="A33" t="s">
         <v>400</v>
       </c>
-      <c r="B33" s="115">
+      <c r="B33" s="61">
         <v>42175</v>
       </c>
       <c r="C33" t="s">
@@ -16500,7 +16494,7 @@
       <c r="E33" t="s">
         <v>403</v>
       </c>
-      <c r="F33" s="114" t="s">
+      <c r="F33" s="60" t="s">
         <v>406</v>
       </c>
       <c r="G33" t="s">
@@ -16535,7 +16529,7 @@
       <c r="A34" t="s">
         <v>407</v>
       </c>
-      <c r="B34" s="115">
+      <c r="B34" s="61">
         <v>42189</v>
       </c>
       <c r="C34" t="s">
@@ -16547,7 +16541,7 @@
       <c r="E34" t="s">
         <v>408</v>
       </c>
-      <c r="F34" s="114" t="s">
+      <c r="F34" s="60" t="s">
         <v>410</v>
       </c>
       <c r="G34" t="s">
@@ -16570,7 +16564,7 @@
       <c r="A35" t="s">
         <v>407</v>
       </c>
-      <c r="B35" s="115">
+      <c r="B35" s="61">
         <v>42189</v>
       </c>
       <c r="C35" t="s">
@@ -16582,7 +16576,7 @@
       <c r="E35" t="s">
         <v>402</v>
       </c>
-      <c r="F35" s="114" t="s">
+      <c r="F35" s="60" t="s">
         <v>388</v>
       </c>
       <c r="G35" t="s">
@@ -16608,7 +16602,7 @@
       <c r="A36" t="s">
         <v>407</v>
       </c>
-      <c r="B36" s="115">
+      <c r="B36" s="61">
         <v>42189</v>
       </c>
       <c r="C36" t="s">
@@ -16620,7 +16614,7 @@
       <c r="E36" t="s">
         <v>184</v>
       </c>
-      <c r="F36" s="114" t="s">
+      <c r="F36" s="60" t="s">
         <v>411</v>
       </c>
       <c r="G36" t="s">
@@ -16646,7 +16640,7 @@
       <c r="A37" t="s">
         <v>407</v>
       </c>
-      <c r="B37" s="115">
+      <c r="B37" s="61">
         <v>42189</v>
       </c>
       <c r="C37" t="s">
@@ -16658,7 +16652,7 @@
       <c r="E37" t="s">
         <v>409</v>
       </c>
-      <c r="F37" s="114" t="s">
+      <c r="F37" s="60" t="s">
         <v>412</v>
       </c>
       <c r="G37" t="s">
@@ -16693,7 +16687,7 @@
       <c r="A38" t="s">
         <v>414</v>
       </c>
-      <c r="B38" s="115">
+      <c r="B38" s="61">
         <v>42203</v>
       </c>
       <c r="C38" t="s">
@@ -16705,7 +16699,7 @@
       <c r="E38" t="s">
         <v>416</v>
       </c>
-      <c r="F38" s="114" t="s">
+      <c r="F38" s="60" t="s">
         <v>420</v>
       </c>
       <c r="G38" t="s">
@@ -16734,7 +16728,7 @@
       <c r="A39" t="s">
         <v>414</v>
       </c>
-      <c r="B39" s="115">
+      <c r="B39" s="61">
         <v>42203</v>
       </c>
       <c r="C39" t="s">
@@ -16746,7 +16740,7 @@
       <c r="E39" t="s">
         <v>417</v>
       </c>
-      <c r="F39" s="114" t="s">
+      <c r="F39" s="60" t="s">
         <v>372</v>
       </c>
       <c r="G39" t="s">
@@ -16781,7 +16775,7 @@
       <c r="A40" t="s">
         <v>414</v>
       </c>
-      <c r="B40" s="115">
+      <c r="B40" s="61">
         <v>42203</v>
       </c>
       <c r="C40" t="s">
@@ -16793,7 +16787,7 @@
       <c r="E40" t="s">
         <v>418</v>
       </c>
-      <c r="F40" s="114" t="s">
+      <c r="F40" s="60" t="s">
         <v>421</v>
       </c>
       <c r="G40" t="s">
@@ -16819,7 +16813,7 @@
       <c r="A41" t="s">
         <v>414</v>
       </c>
-      <c r="B41" s="115">
+      <c r="B41" s="61">
         <v>42203</v>
       </c>
       <c r="C41" t="s">
@@ -16831,7 +16825,7 @@
       <c r="E41" t="s">
         <v>419</v>
       </c>
-      <c r="F41" s="114" t="s">
+      <c r="F41" s="60" t="s">
         <v>422</v>
       </c>
       <c r="G41" t="s">
@@ -16857,7 +16851,7 @@
       <c r="A42" t="s">
         <v>424</v>
       </c>
-      <c r="B42" s="115">
+      <c r="B42" s="61">
         <v>42208</v>
       </c>
       <c r="C42" t="s">
@@ -16869,7 +16863,7 @@
       <c r="E42" t="s">
         <v>427</v>
       </c>
-      <c r="F42" s="114" t="s">
+      <c r="F42" s="60" t="s">
         <v>398</v>
       </c>
       <c r="G42" t="s">
@@ -16892,7 +16886,7 @@
       <c r="A43" t="s">
         <v>424</v>
       </c>
-      <c r="B43" s="115">
+      <c r="B43" s="61">
         <v>42208</v>
       </c>
       <c r="C43" t="s">
@@ -16904,7 +16898,7 @@
       <c r="E43" t="s">
         <v>428</v>
       </c>
-      <c r="F43" s="114" t="s">
+      <c r="F43" s="60" t="s">
         <v>430</v>
       </c>
       <c r="G43" t="s">
@@ -16927,7 +16921,7 @@
       <c r="A44" t="s">
         <v>424</v>
       </c>
-      <c r="B44" s="115">
+      <c r="B44" s="61">
         <v>42208</v>
       </c>
       <c r="C44" t="s">
@@ -16939,7 +16933,7 @@
       <c r="E44" t="s">
         <v>429</v>
       </c>
-      <c r="F44" s="114" t="s">
+      <c r="F44" s="60" t="s">
         <v>431</v>
       </c>
       <c r="G44" t="s">
@@ -16986,7 +16980,7 @@
       <c r="A45" t="s">
         <v>436</v>
       </c>
-      <c r="B45" s="115">
+      <c r="B45" s="61">
         <v>42224</v>
       </c>
       <c r="C45" t="s">
@@ -16998,7 +16992,7 @@
       <c r="E45" t="s">
         <v>262</v>
       </c>
-      <c r="F45" s="114" t="s">
+      <c r="F45" s="60" t="s">
         <v>439</v>
       </c>
       <c r="G45" t="s">
@@ -17024,7 +17018,7 @@
       <c r="A46" t="s">
         <v>436</v>
       </c>
-      <c r="B46" s="115">
+      <c r="B46" s="61">
         <v>42224</v>
       </c>
       <c r="C46" t="s">
@@ -17036,7 +17030,7 @@
       <c r="E46" t="s">
         <v>394</v>
       </c>
-      <c r="F46" s="114" t="s">
+      <c r="F46" s="60" t="s">
         <v>440</v>
       </c>
       <c r="G46" t="s">
@@ -17062,7 +17056,7 @@
       <c r="A47" t="s">
         <v>436</v>
       </c>
-      <c r="B47" s="115">
+      <c r="B47" s="61">
         <v>42224</v>
       </c>
       <c r="C47" t="s">
@@ -17074,7 +17068,7 @@
       <c r="E47" t="s">
         <v>437</v>
       </c>
-      <c r="F47" s="114" t="s">
+      <c r="F47" s="60" t="s">
         <v>441</v>
       </c>
       <c r="G47" t="s">
@@ -17103,7 +17097,7 @@
       <c r="A48" t="s">
         <v>436</v>
       </c>
-      <c r="B48" s="115">
+      <c r="B48" s="61">
         <v>42224</v>
       </c>
       <c r="C48" t="s">
@@ -17115,7 +17109,7 @@
       <c r="E48" t="s">
         <v>438</v>
       </c>
-      <c r="F48" s="114" t="s">
+      <c r="F48" s="60" t="s">
         <v>442</v>
       </c>
       <c r="G48" t="s">
@@ -17153,7 +17147,7 @@
       <c r="A49" t="s">
         <v>436</v>
       </c>
-      <c r="B49" s="115">
+      <c r="B49" s="61">
         <v>42224</v>
       </c>
       <c r="C49" t="s">
@@ -17165,7 +17159,7 @@
       <c r="E49" t="s">
         <v>214</v>
       </c>
-      <c r="F49" s="114" t="s">
+      <c r="F49" s="60" t="s">
         <v>443</v>
       </c>
       <c r="G49" t="s">
@@ -17191,7 +17185,7 @@
       <c r="A50" t="s">
         <v>447</v>
       </c>
-      <c r="B50" s="115">
+      <c r="B50" s="61">
         <v>42245</v>
       </c>
       <c r="C50" t="s">
@@ -17203,7 +17197,7 @@
       <c r="E50" t="s">
         <v>448</v>
       </c>
-      <c r="F50" s="114" t="s">
+      <c r="F50" s="60" t="s">
         <v>452</v>
       </c>
       <c r="G50" t="s">
@@ -17226,7 +17220,7 @@
       <c r="A51" t="s">
         <v>447</v>
       </c>
-      <c r="B51" s="115">
+      <c r="B51" s="61">
         <v>42245</v>
       </c>
       <c r="C51" t="s">
@@ -17238,7 +17232,7 @@
       <c r="E51" t="s">
         <v>449</v>
       </c>
-      <c r="F51" s="114" t="s">
+      <c r="F51" s="60" t="s">
         <v>453</v>
       </c>
       <c r="G51" t="s">
@@ -17261,7 +17255,7 @@
       <c r="A52" t="s">
         <v>447</v>
       </c>
-      <c r="B52" s="115">
+      <c r="B52" s="61">
         <v>42245</v>
       </c>
       <c r="C52" t="s">
@@ -17273,7 +17267,7 @@
       <c r="E52" t="s">
         <v>450</v>
       </c>
-      <c r="F52" s="114" t="s">
+      <c r="F52" s="60" t="s">
         <v>299</v>
       </c>
       <c r="G52" t="s">
@@ -17296,7 +17290,7 @@
       <c r="A53" t="s">
         <v>447</v>
       </c>
-      <c r="B53" s="115">
+      <c r="B53" s="61">
         <v>42245</v>
       </c>
       <c r="C53" t="s">
@@ -17308,7 +17302,7 @@
       <c r="E53" t="s">
         <v>451</v>
       </c>
-      <c r="F53" s="114" t="s">
+      <c r="F53" s="60" t="s">
         <v>431</v>
       </c>
       <c r="G53" t="s">
@@ -17343,7 +17337,7 @@
       <c r="A54" t="s">
         <v>455</v>
       </c>
-      <c r="B54" s="115">
+      <c r="B54" s="61">
         <v>42269</v>
       </c>
       <c r="C54" t="s">
@@ -17355,7 +17349,7 @@
       <c r="E54" t="s">
         <v>456</v>
       </c>
-      <c r="F54" s="114" t="s">
+      <c r="F54" s="60" t="s">
         <v>282</v>
       </c>
       <c r="G54" t="s">
@@ -17378,7 +17372,7 @@
       <c r="A55" t="s">
         <v>455</v>
       </c>
-      <c r="B55" s="115">
+      <c r="B55" s="61">
         <v>42269</v>
       </c>
       <c r="C55" t="s">
@@ -17390,7 +17384,7 @@
       <c r="E55" t="s">
         <v>457</v>
       </c>
-      <c r="F55" s="114" t="s">
+      <c r="F55" s="60" t="s">
         <v>331</v>
       </c>
       <c r="G55" t="s">
@@ -17413,7 +17407,7 @@
       <c r="A56" t="s">
         <v>455</v>
       </c>
-      <c r="B56" s="115">
+      <c r="B56" s="61">
         <v>42269</v>
       </c>
       <c r="C56" t="s">
@@ -17425,7 +17419,7 @@
       <c r="E56" t="s">
         <v>458</v>
       </c>
-      <c r="F56" s="114" t="s">
+      <c r="F56" s="60" t="s">
         <v>295</v>
       </c>
       <c r="G56" t="s">
@@ -17448,7 +17442,7 @@
       <c r="A57" t="s">
         <v>455</v>
       </c>
-      <c r="B57" s="115">
+      <c r="B57" s="61">
         <v>42269</v>
       </c>
       <c r="C57" t="s">
@@ -17460,7 +17454,7 @@
       <c r="E57" t="s">
         <v>459</v>
       </c>
-      <c r="F57" s="114" t="s">
+      <c r="F57" s="60" t="s">
         <v>461</v>
       </c>
       <c r="G57" t="s">
@@ -17495,7 +17489,7 @@
       <c r="A58" t="s">
         <v>455</v>
       </c>
-      <c r="B58" s="115">
+      <c r="B58" s="61">
         <v>42269</v>
       </c>
       <c r="C58" t="s">
@@ -17507,7 +17501,7 @@
       <c r="E58" t="s">
         <v>460</v>
       </c>
-      <c r="F58" s="114" t="s">
+      <c r="F58" s="60" t="s">
         <v>462</v>
       </c>
       <c r="G58" t="s">
@@ -17530,7 +17524,7 @@
       <c r="A59" t="s">
         <v>464</v>
       </c>
-      <c r="B59" s="115">
+      <c r="B59" s="61">
         <v>42289</v>
       </c>
       <c r="C59" t="s">
@@ -17542,7 +17536,7 @@
       <c r="E59" t="s">
         <v>367</v>
       </c>
-      <c r="F59" s="114" t="s">
+      <c r="F59" s="60" t="s">
         <v>391</v>
       </c>
       <c r="G59" t="s">
@@ -17565,7 +17559,7 @@
       <c r="A60" t="s">
         <v>464</v>
       </c>
-      <c r="B60" s="115">
+      <c r="B60" s="61">
         <v>42289</v>
       </c>
       <c r="C60" t="s">
@@ -17577,7 +17571,7 @@
       <c r="E60" t="s">
         <v>465</v>
       </c>
-      <c r="F60" s="114" t="s">
+      <c r="F60" s="60" t="s">
         <v>311</v>
       </c>
       <c r="G60" t="s">
@@ -17600,7 +17594,7 @@
       <c r="A61" t="s">
         <v>464</v>
       </c>
-      <c r="B61" s="115">
+      <c r="B61" s="61">
         <v>42289</v>
       </c>
       <c r="C61" t="s">
@@ -17612,7 +17606,7 @@
       <c r="E61" t="s">
         <v>466</v>
       </c>
-      <c r="F61" s="114" t="s">
+      <c r="F61" s="60" t="s">
         <v>468</v>
       </c>
       <c r="G61" t="s">
@@ -17641,7 +17635,7 @@
       <c r="A62" t="s">
         <v>464</v>
       </c>
-      <c r="B62" s="115">
+      <c r="B62" s="61">
         <v>42289</v>
       </c>
       <c r="C62" t="s">
@@ -17653,7 +17647,7 @@
       <c r="E62" t="s">
         <v>467</v>
       </c>
-      <c r="F62" s="114" t="s">
+      <c r="F62" s="60" t="s">
         <v>469</v>
       </c>
       <c r="G62" t="s">
@@ -17700,7 +17694,7 @@
       <c r="A63" t="s">
         <v>470</v>
       </c>
-      <c r="B63" s="115">
+      <c r="B63" s="61">
         <v>42295</v>
       </c>
       <c r="C63" t="s">
@@ -17712,7 +17706,7 @@
       <c r="E63" t="s">
         <v>472</v>
       </c>
-      <c r="F63" s="114" t="s">
+      <c r="F63" s="60" t="s">
         <v>473</v>
       </c>
       <c r="G63" t="s">
@@ -17750,7 +17744,7 @@
       <c r="A64" t="s">
         <v>475</v>
       </c>
-      <c r="B64" s="115">
+      <c r="B64" s="61">
         <v>42301</v>
       </c>
       <c r="C64" t="s">
@@ -17762,7 +17756,7 @@
       <c r="E64" t="s">
         <v>476</v>
       </c>
-      <c r="F64" s="114" t="s">
+      <c r="F64" s="60" t="s">
         <v>479</v>
       </c>
       <c r="G64" t="s">
@@ -17791,7 +17785,7 @@
       <c r="A65" t="s">
         <v>475</v>
       </c>
-      <c r="B65" s="115">
+      <c r="B65" s="61">
         <v>42301</v>
       </c>
       <c r="C65" t="s">
@@ -17803,7 +17797,7 @@
       <c r="E65" t="s">
         <v>477</v>
       </c>
-      <c r="F65" s="114" t="s">
+      <c r="F65" s="60" t="s">
         <v>480</v>
       </c>
       <c r="G65" t="s">
@@ -17850,7 +17844,7 @@
       <c r="A66" t="s">
         <v>475</v>
       </c>
-      <c r="B66" s="115">
+      <c r="B66" s="61">
         <v>42301</v>
       </c>
       <c r="C66" t="s">
@@ -17862,7 +17856,7 @@
       <c r="E66" t="s">
         <v>478</v>
       </c>
-      <c r="F66" s="114" t="s">
+      <c r="F66" s="60" t="s">
         <v>481</v>
       </c>
       <c r="G66" t="s">
@@ -17885,7 +17879,7 @@
       <c r="A67" t="s">
         <v>475</v>
       </c>
-      <c r="B67" s="115">
+      <c r="B67" s="61">
         <v>42301</v>
       </c>
       <c r="C67" t="s">
@@ -17897,7 +17891,7 @@
       <c r="E67" t="s">
         <v>478</v>
       </c>
-      <c r="F67" s="114" t="s">
+      <c r="F67" s="60" t="s">
         <v>482</v>
       </c>
       <c r="G67" t="s">
@@ -17923,7 +17917,7 @@
       <c r="A68" t="s">
         <v>475</v>
       </c>
-      <c r="B68" s="115">
+      <c r="B68" s="61">
         <v>42301</v>
       </c>
       <c r="C68" t="s">
@@ -17935,7 +17929,7 @@
       <c r="E68" t="s">
         <v>219</v>
       </c>
-      <c r="F68" s="114" t="s">
+      <c r="F68" s="60" t="s">
         <v>280</v>
       </c>
       <c r="G68" t="s">
@@ -17961,7 +17955,7 @@
       <c r="A69" t="s">
         <v>486</v>
       </c>
-      <c r="B69" s="115">
+      <c r="B69" s="61">
         <v>42315</v>
       </c>
       <c r="C69" t="s">
@@ -17973,7 +17967,7 @@
       <c r="E69" t="s">
         <v>488</v>
       </c>
-      <c r="F69" s="114" t="s">
+      <c r="F69" s="60" t="s">
         <v>492</v>
       </c>
       <c r="G69" t="s">
@@ -18002,7 +17996,7 @@
       <c r="A70" t="s">
         <v>486</v>
       </c>
-      <c r="B70" s="115">
+      <c r="B70" s="61">
         <v>42315</v>
       </c>
       <c r="C70" t="s">
@@ -18014,7 +18008,7 @@
       <c r="E70" t="s">
         <v>489</v>
       </c>
-      <c r="F70" s="114" t="s">
+      <c r="F70" s="60" t="s">
         <v>493</v>
       </c>
       <c r="G70" t="s">
@@ -18061,7 +18055,7 @@
       <c r="A71" t="s">
         <v>486</v>
       </c>
-      <c r="B71" s="115">
+      <c r="B71" s="61">
         <v>42315</v>
       </c>
       <c r="C71" t="s">
@@ -18073,7 +18067,7 @@
       <c r="E71" t="s">
         <v>490</v>
       </c>
-      <c r="F71" s="114" t="s">
+      <c r="F71" s="60" t="s">
         <v>494</v>
       </c>
       <c r="G71" t="s">
@@ -18108,7 +18102,7 @@
       <c r="A72" t="s">
         <v>486</v>
       </c>
-      <c r="B72" s="115">
+      <c r="B72" s="61">
         <v>42315</v>
       </c>
       <c r="C72" t="s">
@@ -18120,7 +18114,7 @@
       <c r="E72" t="s">
         <v>491</v>
       </c>
-      <c r="F72" s="114" t="s">
+      <c r="F72" s="60" t="s">
         <v>495</v>
       </c>
       <c r="G72" t="s">
@@ -18146,7 +18140,7 @@
       <c r="A73" t="s">
         <v>498</v>
       </c>
-      <c r="B73" s="115">
+      <c r="B73" s="61">
         <v>42360</v>
       </c>
       <c r="C73" t="s">
@@ -18158,7 +18152,7 @@
       <c r="E73" t="s">
         <v>500</v>
       </c>
-      <c r="F73" s="114" t="s">
+      <c r="F73" s="60" t="s">
         <v>505</v>
       </c>
       <c r="G73" t="s">
@@ -18184,7 +18178,7 @@
       <c r="A74" t="s">
         <v>498</v>
       </c>
-      <c r="B74" s="115">
+      <c r="B74" s="61">
         <v>42360</v>
       </c>
       <c r="C74" t="s">
@@ -18196,7 +18190,7 @@
       <c r="E74" t="s">
         <v>501</v>
       </c>
-      <c r="F74" s="114" t="s">
+      <c r="F74" s="60" t="s">
         <v>506</v>
       </c>
       <c r="G74" t="s">
@@ -18219,7 +18213,7 @@
       <c r="A75" t="s">
         <v>498</v>
       </c>
-      <c r="B75" s="115">
+      <c r="B75" s="61">
         <v>42360</v>
       </c>
       <c r="C75" t="s">
@@ -18231,7 +18225,7 @@
       <c r="E75" t="s">
         <v>502</v>
       </c>
-      <c r="F75" s="114" t="s">
+      <c r="F75" s="60" t="s">
         <v>507</v>
       </c>
       <c r="G75" t="s">
@@ -18260,7 +18254,7 @@
       <c r="A76" t="s">
         <v>498</v>
       </c>
-      <c r="B76" s="115">
+      <c r="B76" s="61">
         <v>42360</v>
       </c>
       <c r="C76" t="s">
@@ -18272,7 +18266,7 @@
       <c r="E76" t="s">
         <v>503</v>
       </c>
-      <c r="F76" s="114" t="s">
+      <c r="F76" s="60" t="s">
         <v>508</v>
       </c>
       <c r="G76" t="s">
@@ -18307,7 +18301,7 @@
       <c r="A77" t="s">
         <v>498</v>
       </c>
-      <c r="B77" s="115">
+      <c r="B77" s="61">
         <v>42360</v>
       </c>
       <c r="C77" t="s">
@@ -18319,7 +18313,7 @@
       <c r="E77" t="s">
         <v>504</v>
       </c>
-      <c r="F77" s="114" t="s">
+      <c r="F77" s="60" t="s">
         <v>508</v>
       </c>
       <c r="G77" t="s">
@@ -18342,7 +18336,7 @@
       <c r="A78" t="s">
         <v>498</v>
       </c>
-      <c r="B78" s="115">
+      <c r="B78" s="61">
         <v>42360</v>
       </c>
       <c r="C78" t="s">
@@ -18354,7 +18348,7 @@
       <c r="E78" t="s">
         <v>152</v>
       </c>
-      <c r="F78" s="114" t="s">
+      <c r="F78" s="60" t="s">
         <v>509</v>
       </c>
       <c r="G78" t="s">

--- a/TJPW Metrics.xlsx
+++ b/TJPW Metrics.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7935" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7935" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2134,108 +2134,6 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2295,6 +2193,108 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2689,52 +2689,52 @@
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="100" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="101"/>
-      <c r="I2" s="102" t="s">
-        <v>2</v>
-      </c>
-      <c r="J2" s="103"/>
-      <c r="K2" s="103"/>
-      <c r="L2" s="104"/>
-      <c r="M2" s="105" t="s">
+      <c r="G2" s="66" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="67"/>
+      <c r="I2" s="68" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="106"/>
-      <c r="O2" s="106"/>
-      <c r="P2" s="106"/>
-      <c r="Q2" s="107"/>
-      <c r="R2" s="108" t="s">
+      <c r="N2" s="72"/>
+      <c r="O2" s="72"/>
+      <c r="P2" s="72"/>
+      <c r="Q2" s="73"/>
+      <c r="R2" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="S2" s="109"/>
-      <c r="T2" s="109"/>
-      <c r="U2" s="109"/>
-      <c r="V2" s="110"/>
-      <c r="W2" s="111" t="s">
+      <c r="S2" s="75"/>
+      <c r="T2" s="75"/>
+      <c r="U2" s="75"/>
+      <c r="V2" s="76"/>
+      <c r="W2" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="X2" s="112"/>
-      <c r="Y2" s="112"/>
-      <c r="Z2" s="112"/>
-      <c r="AA2" s="112"/>
-      <c r="AB2" s="112"/>
-      <c r="AC2" s="112"/>
-      <c r="AD2" s="112"/>
-      <c r="AE2" s="112"/>
-      <c r="AF2" s="113"/>
-      <c r="AG2" s="114" t="s">
+      <c r="X2" s="78"/>
+      <c r="Y2" s="78"/>
+      <c r="Z2" s="78"/>
+      <c r="AA2" s="78"/>
+      <c r="AB2" s="78"/>
+      <c r="AC2" s="78"/>
+      <c r="AD2" s="78"/>
+      <c r="AE2" s="78"/>
+      <c r="AF2" s="79"/>
+      <c r="AG2" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="AH2" s="115"/>
-      <c r="AI2" s="115"/>
-      <c r="AJ2" s="115"/>
-      <c r="AK2" s="115"/>
-      <c r="AL2" s="115"/>
-      <c r="AM2" s="115"/>
-      <c r="AN2" s="116"/>
+      <c r="AH2" s="81"/>
+      <c r="AI2" s="81"/>
+      <c r="AJ2" s="81"/>
+      <c r="AK2" s="81"/>
+      <c r="AL2" s="81"/>
+      <c r="AM2" s="81"/>
+      <c r="AN2" s="82"/>
       <c r="AO2" s="83" t="s">
         <v>7</v>
       </c>
@@ -2771,15 +2771,15 @@
       </c>
       <c r="BK2" s="95"/>
       <c r="BL2" s="96"/>
-      <c r="BM2" s="97" t="s">
+      <c r="BM2" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="BN2" s="98"/>
-      <c r="BO2" s="98"/>
-      <c r="BP2" s="98"/>
-      <c r="BQ2" s="98"/>
-      <c r="BR2" s="98"/>
-      <c r="BS2" s="99"/>
+      <c r="BN2" s="64"/>
+      <c r="BO2" s="64"/>
+      <c r="BP2" s="64"/>
+      <c r="BQ2" s="64"/>
+      <c r="BR2" s="64"/>
+      <c r="BS2" s="65"/>
     </row>
     <row r="3" spans="1:71" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
@@ -2800,18 +2800,18 @@
       <c r="F3" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="76">
+      <c r="G3" s="99">
         <v>2020</v>
       </c>
-      <c r="H3" s="77"/>
-      <c r="I3" s="78" t="s">
+      <c r="H3" s="100"/>
+      <c r="I3" s="101" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="79"/>
-      <c r="K3" s="80" t="s">
+      <c r="J3" s="102"/>
+      <c r="K3" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="78"/>
+      <c r="L3" s="101"/>
       <c r="M3" s="14" t="s">
         <v>21</v>
       </c>
@@ -2842,74 +2842,74 @@
       <c r="V3" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="W3" s="81" t="s">
+      <c r="W3" s="104" t="s">
         <v>26</v>
       </c>
-      <c r="X3" s="82"/>
-      <c r="Y3" s="81" t="s">
+      <c r="X3" s="105"/>
+      <c r="Y3" s="104" t="s">
         <v>27</v>
       </c>
-      <c r="Z3" s="72"/>
-      <c r="AA3" s="72" t="s">
+      <c r="Z3" s="106"/>
+      <c r="AA3" s="106" t="s">
         <v>28</v>
       </c>
-      <c r="AB3" s="72"/>
-      <c r="AC3" s="72" t="s">
+      <c r="AB3" s="106"/>
+      <c r="AC3" s="106" t="s">
         <v>29</v>
       </c>
-      <c r="AD3" s="72"/>
-      <c r="AE3" s="72" t="s">
+      <c r="AD3" s="106"/>
+      <c r="AE3" s="106" t="s">
         <v>30</v>
       </c>
-      <c r="AF3" s="72"/>
-      <c r="AG3" s="73" t="s">
+      <c r="AF3" s="106"/>
+      <c r="AG3" s="97" t="s">
         <v>31</v>
       </c>
-      <c r="AH3" s="74"/>
-      <c r="AI3" s="75" t="s">
+      <c r="AH3" s="98"/>
+      <c r="AI3" s="107" t="s">
         <v>32</v>
       </c>
-      <c r="AJ3" s="73"/>
-      <c r="AK3" s="73" t="s">
+      <c r="AJ3" s="97"/>
+      <c r="AK3" s="97" t="s">
         <v>33</v>
       </c>
-      <c r="AL3" s="73"/>
-      <c r="AM3" s="73" t="s">
+      <c r="AL3" s="97"/>
+      <c r="AM3" s="97" t="s">
         <v>34</v>
       </c>
-      <c r="AN3" s="74"/>
-      <c r="AO3" s="66" t="s">
+      <c r="AN3" s="98"/>
+      <c r="AO3" s="111" t="s">
         <v>35</v>
       </c>
-      <c r="AP3" s="67"/>
-      <c r="AQ3" s="66" t="s">
+      <c r="AP3" s="112"/>
+      <c r="AQ3" s="111" t="s">
         <v>36</v>
       </c>
-      <c r="AR3" s="68"/>
-      <c r="AS3" s="68" t="s">
+      <c r="AR3" s="113"/>
+      <c r="AS3" s="113" t="s">
         <v>37</v>
       </c>
-      <c r="AT3" s="67"/>
-      <c r="AU3" s="69" t="s">
+      <c r="AT3" s="112"/>
+      <c r="AU3" s="114" t="s">
         <v>19</v>
       </c>
-      <c r="AV3" s="70"/>
-      <c r="AW3" s="71" t="s">
+      <c r="AV3" s="115"/>
+      <c r="AW3" s="116" t="s">
         <v>38</v>
       </c>
-      <c r="AX3" s="63"/>
-      <c r="AY3" s="63" t="s">
+      <c r="AX3" s="108"/>
+      <c r="AY3" s="108" t="s">
         <v>39</v>
       </c>
-      <c r="AZ3" s="63"/>
-      <c r="BA3" s="63" t="s">
+      <c r="AZ3" s="108"/>
+      <c r="BA3" s="108" t="s">
         <v>16</v>
       </c>
-      <c r="BB3" s="63"/>
-      <c r="BC3" s="64" t="s">
+      <c r="BB3" s="108"/>
+      <c r="BC3" s="109" t="s">
         <v>40</v>
       </c>
-      <c r="BD3" s="65"/>
+      <c r="BD3" s="110"/>
       <c r="BE3" s="22" t="s">
         <v>19</v>
       </c>
@@ -11800,6 +11800,26 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="BA3:BB3"/>
+    <mergeCell ref="BC3:BD3"/>
+    <mergeCell ref="AO3:AP3"/>
+    <mergeCell ref="AQ3:AR3"/>
+    <mergeCell ref="AS3:AT3"/>
+    <mergeCell ref="AU3:AV3"/>
+    <mergeCell ref="AW3:AX3"/>
+    <mergeCell ref="AY3:AZ3"/>
+    <mergeCell ref="AM3:AN3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="Y3:Z3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="AI3:AJ3"/>
+    <mergeCell ref="AK3:AL3"/>
     <mergeCell ref="BM2:BS2"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:L2"/>
@@ -11812,26 +11832,6 @@
     <mergeCell ref="AW2:BD2"/>
     <mergeCell ref="BE2:BH2"/>
     <mergeCell ref="BJ2:BL2"/>
-    <mergeCell ref="AM3:AN3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="Y3:Z3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="AI3:AJ3"/>
-    <mergeCell ref="AK3:AL3"/>
-    <mergeCell ref="BA3:BB3"/>
-    <mergeCell ref="BC3:BD3"/>
-    <mergeCell ref="AO3:AP3"/>
-    <mergeCell ref="AQ3:AR3"/>
-    <mergeCell ref="AS3:AT3"/>
-    <mergeCell ref="AU3:AV3"/>
-    <mergeCell ref="AW3:AX3"/>
-    <mergeCell ref="AY3:AZ3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12411,7 +12411,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="H40" workbookViewId="0">
       <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
@@ -15195,7 +15195,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T78"/>
   <sheetViews>
-    <sheetView topLeftCell="A54" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
       <selection activeCell="T68" sqref="T68"/>
     </sheetView>
   </sheetViews>

--- a/TJPW Metrics.xlsx
+++ b/TJPW Metrics.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7935" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7935" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3819" uniqueCount="806">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3819" uniqueCount="805">
   <si>
     <t>`</t>
   </si>
@@ -1893,9 +1893,6 @@
     <t>Coconeri Hall</t>
   </si>
   <si>
-    <t>Maho vs Hinako</t>
-  </si>
-  <si>
     <t>KANNA vs Nodoka-Oneesan</t>
   </si>
   <si>
@@ -1920,9 +1917,6 @@
     <t>10m55s</t>
   </si>
   <si>
-    <t>Maho</t>
-  </si>
-  <si>
     <t>Hinako</t>
   </si>
   <si>
@@ -2437,6 +2431,9 @@
   </si>
   <si>
     <t>20m00s</t>
+  </si>
+  <si>
+    <t>Maho (Maho Kurone) vs Hinako</t>
   </si>
 </sst>
 </file>
@@ -14561,7 +14558,7 @@
         <v>52</v>
       </c>
       <c r="T33" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
@@ -14599,7 +14596,7 @@
         <v>52</v>
       </c>
       <c r="T34" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
@@ -14804,7 +14801,7 @@
         <v>52</v>
       </c>
       <c r="T39" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
@@ -14842,7 +14839,7 @@
         <v>52</v>
       </c>
       <c r="T40" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
@@ -16054,7 +16051,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+    <sheetView topLeftCell="A58" workbookViewId="0">
       <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
@@ -17454,7 +17451,7 @@
         <v>52</v>
       </c>
       <c r="T35" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
@@ -17492,7 +17489,7 @@
         <v>52</v>
       </c>
       <c r="T36" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
@@ -17665,7 +17662,7 @@
         <v>52</v>
       </c>
       <c r="T40" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
@@ -17703,7 +17700,7 @@
         <v>52</v>
       </c>
       <c r="T41" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
@@ -19188,8 +19185,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T142"/>
   <sheetViews>
-    <sheetView topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="H143" sqref="H143"/>
+    <sheetView tabSelected="1" topLeftCell="B51" workbookViewId="0">
+      <selection activeCell="H56" sqref="H56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21444,23 +21441,23 @@
         <v>209</v>
       </c>
       <c r="E55" t="s">
-        <v>624</v>
+        <v>804</v>
       </c>
       <c r="F55" s="60"/>
       <c r="H55" t="s">
-        <v>633</v>
+        <v>701</v>
       </c>
       <c r="I55" t="s">
         <v>51</v>
       </c>
       <c r="J55" t="s">
+        <v>632</v>
+      </c>
+      <c r="K55" t="s">
+        <v>52</v>
+      </c>
+      <c r="T55" t="s">
         <v>634</v>
-      </c>
-      <c r="K55" t="s">
-        <v>52</v>
-      </c>
-      <c r="T55" t="s">
-        <v>636</v>
       </c>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.25">
@@ -21477,10 +21474,10 @@
         <v>19</v>
       </c>
       <c r="E56" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F56" s="60" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="G56" t="s">
         <v>149</v>
@@ -21512,10 +21509,10 @@
         <v>189</v>
       </c>
       <c r="E57" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="F57" s="60" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="G57" t="s">
         <v>149</v>
@@ -21553,16 +21550,16 @@
         <v>19</v>
       </c>
       <c r="E58" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F58" s="60" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="G58" t="s">
         <v>155</v>
       </c>
       <c r="H58" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="I58" t="s">
         <v>51</v>
@@ -21588,10 +21585,10 @@
         <v>20</v>
       </c>
       <c r="E59" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="F59" s="60" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="G59" t="s">
         <v>149</v>
@@ -21623,13 +21620,13 @@
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B60" s="61">
         <v>42539</v>
       </c>
       <c r="C60" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="D60" t="s">
         <v>19</v>
@@ -21638,7 +21635,7 @@
         <v>618</v>
       </c>
       <c r="F60" s="60" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="G60" t="s">
         <v>149</v>
@@ -21658,13 +21655,13 @@
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B61" s="61">
         <v>42539</v>
       </c>
       <c r="C61" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="D61" t="s">
         <v>19</v>
@@ -21673,7 +21670,7 @@
         <v>577</v>
       </c>
       <c r="F61" s="60" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="G61" t="s">
         <v>155</v>
@@ -21693,13 +21690,13 @@
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B62" s="61">
         <v>42539</v>
       </c>
       <c r="C62" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="D62" t="s">
         <v>19</v>
@@ -21708,7 +21705,7 @@
         <v>577</v>
       </c>
       <c r="F62" s="60" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="G62" t="s">
         <v>155</v>
@@ -21731,22 +21728,22 @@
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B63" s="61">
         <v>42539</v>
       </c>
       <c r="C63" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="D63" t="s">
         <v>20</v>
       </c>
       <c r="E63" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="F63" s="60" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="G63" t="s">
         <v>149</v>
@@ -21778,19 +21775,19 @@
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B64" s="61">
         <v>42539</v>
       </c>
       <c r="C64" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="D64" t="s">
         <v>19</v>
       </c>
       <c r="E64" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="F64" s="60" t="s">
         <v>499</v>
@@ -21813,22 +21810,22 @@
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B65" s="61">
         <v>42539</v>
       </c>
       <c r="C65" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="D65" t="s">
         <v>19</v>
       </c>
       <c r="E65" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F65" s="60" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="G65" t="s">
         <v>149</v>
@@ -21848,22 +21845,22 @@
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B66" s="61">
         <v>42539</v>
       </c>
       <c r="C66" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="D66" t="s">
         <v>20</v>
       </c>
       <c r="E66" t="s">
+        <v>644</v>
+      </c>
+      <c r="F66" s="60" t="s">
         <v>646</v>
-      </c>
-      <c r="F66" s="60" t="s">
-        <v>648</v>
       </c>
       <c r="G66" t="s">
         <v>155</v>
@@ -21895,7 +21892,7 @@
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B67" s="61">
         <v>42548</v>
@@ -21907,10 +21904,10 @@
         <v>19</v>
       </c>
       <c r="E67" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="F67" s="60" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="G67" t="s">
         <v>155</v>
@@ -21930,7 +21927,7 @@
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B68" s="61">
         <v>42548</v>
@@ -21942,7 +21939,7 @@
         <v>189</v>
       </c>
       <c r="E68" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="F68" s="60" t="s">
         <v>369</v>
@@ -21971,7 +21968,7 @@
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B69" s="61">
         <v>42548</v>
@@ -21983,7 +21980,7 @@
         <v>20</v>
       </c>
       <c r="E69" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="F69" s="60" t="s">
         <v>522</v>
@@ -22018,7 +22015,7 @@
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B70" s="61">
         <v>42560</v>
@@ -22030,10 +22027,10 @@
         <v>19</v>
       </c>
       <c r="E70" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="F70" s="60" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="G70" t="s">
         <v>149</v>
@@ -22051,12 +22048,12 @@
         <v>52</v>
       </c>
       <c r="T70" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B71" s="61">
         <v>42560</v>
@@ -22089,12 +22086,12 @@
         <v>52</v>
       </c>
       <c r="T71" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B72" s="61">
         <v>42560</v>
@@ -22106,10 +22103,10 @@
         <v>20</v>
       </c>
       <c r="E72" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="F72" s="60" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="G72" t="s">
         <v>149</v>
@@ -22133,7 +22130,7 @@
         <v>175</v>
       </c>
       <c r="N72" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="O72" t="s">
         <v>52</v>
@@ -22141,7 +22138,7 @@
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B73" s="61">
         <v>42560</v>
@@ -22153,10 +22150,10 @@
         <v>19</v>
       </c>
       <c r="E73" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="F73" s="60" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="G73" t="s">
         <v>149</v>
@@ -22174,12 +22171,12 @@
         <v>52</v>
       </c>
       <c r="T73" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B74" s="61">
         <v>42560</v>
@@ -22191,10 +22188,10 @@
         <v>19</v>
       </c>
       <c r="E74" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="F74" s="60" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="G74" t="s">
         <v>149</v>
@@ -22212,12 +22209,12 @@
         <v>52</v>
       </c>
       <c r="T74" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B75" s="61">
         <v>42574</v>
@@ -22232,7 +22229,7 @@
         <v>608</v>
       </c>
       <c r="F75" s="60" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="G75" t="s">
         <v>155</v>
@@ -22250,12 +22247,12 @@
         <v>52</v>
       </c>
       <c r="T75" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B76" s="61">
         <v>42574</v>
@@ -22267,7 +22264,7 @@
         <v>19</v>
       </c>
       <c r="E76" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="F76" s="60" t="s">
         <v>279</v>
@@ -22288,12 +22285,12 @@
         <v>52</v>
       </c>
       <c r="T76" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B77" s="61">
         <v>42574</v>
@@ -22305,16 +22302,16 @@
         <v>19</v>
       </c>
       <c r="E77" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="F77" s="60" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="G77" t="s">
         <v>155</v>
       </c>
       <c r="H77" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="I77" t="s">
         <v>51</v>
@@ -22328,7 +22325,7 @@
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B78" s="61">
         <v>42574</v>
@@ -22340,10 +22337,10 @@
         <v>189</v>
       </c>
       <c r="E78" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="F78" s="60" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="G78" t="s">
         <v>155</v>
@@ -22369,7 +22366,7 @@
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B79" s="61">
         <v>42574</v>
@@ -22384,7 +22381,7 @@
         <v>600</v>
       </c>
       <c r="F79" s="60" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="G79" t="s">
         <v>149</v>
@@ -22402,12 +22399,12 @@
         <v>52</v>
       </c>
       <c r="T79" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B80" s="61">
         <v>42574</v>
@@ -22419,10 +22416,10 @@
         <v>19</v>
       </c>
       <c r="E80" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="F80" s="60" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="G80" t="s">
         <v>149</v>
@@ -22440,18 +22437,18 @@
         <v>52</v>
       </c>
       <c r="T80" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B81" s="61">
         <v>42581</v>
       </c>
       <c r="C81" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D81" t="s">
         <v>19</v>
@@ -22460,7 +22457,7 @@
         <v>598</v>
       </c>
       <c r="F81" s="60" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="G81" t="s">
         <v>149</v>
@@ -22480,22 +22477,22 @@
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B82" s="61">
         <v>42581</v>
       </c>
       <c r="C82" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D82" t="s">
         <v>20</v>
       </c>
       <c r="E82" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="F82" s="60" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="G82" t="s">
         <v>155</v>
@@ -22519,7 +22516,7 @@
         <v>175</v>
       </c>
       <c r="N82" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="O82" t="s">
         <v>52</v>
@@ -22527,13 +22524,13 @@
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B83" s="61">
         <v>42581</v>
       </c>
       <c r="C83" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D83" t="s">
         <v>19</v>
@@ -22542,7 +22539,7 @@
         <v>424</v>
       </c>
       <c r="F83" s="60" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="G83" t="s">
         <v>149</v>
@@ -22562,22 +22559,22 @@
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B84" s="61">
         <v>42581</v>
       </c>
       <c r="C84" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D84" t="s">
         <v>20</v>
       </c>
       <c r="E84" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="F84" s="60" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="G84" t="s">
         <v>149</v>
@@ -22609,22 +22606,22 @@
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="B85" s="61">
         <v>42582</v>
       </c>
       <c r="C85" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D85" t="s">
         <v>19</v>
       </c>
       <c r="E85" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F85" s="60" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="G85" t="s">
         <v>155</v>
@@ -22644,22 +22641,22 @@
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="B86" s="61">
         <v>42582</v>
       </c>
       <c r="C86" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D86" t="s">
         <v>19</v>
       </c>
       <c r="E86" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="F86" s="60" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="G86" t="s">
         <v>149</v>
@@ -22679,22 +22676,22 @@
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="B87" s="61">
         <v>42582</v>
       </c>
       <c r="C87" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D87" t="s">
         <v>20</v>
       </c>
       <c r="E87" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="F87" s="60" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="G87" t="s">
         <v>149</v>
@@ -22726,22 +22723,22 @@
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="B88" s="61">
         <v>42582</v>
       </c>
       <c r="C88" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D88" t="s">
         <v>20</v>
       </c>
       <c r="E88" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="F88" s="60" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="G88" t="s">
         <v>149</v>
@@ -22773,7 +22770,7 @@
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="B89" s="61">
         <v>42595</v>
@@ -22785,7 +22782,7 @@
         <v>19</v>
       </c>
       <c r="E89" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="F89" s="60" t="s">
         <v>541</v>
@@ -22794,7 +22791,7 @@
         <v>149</v>
       </c>
       <c r="H89" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="I89" t="s">
         <v>51</v>
@@ -22808,7 +22805,7 @@
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="B90" s="61">
         <v>42595</v>
@@ -22823,7 +22820,7 @@
         <v>367</v>
       </c>
       <c r="F90" s="60" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="G90" t="s">
         <v>149</v>
@@ -22841,12 +22838,12 @@
         <v>52</v>
       </c>
       <c r="T90" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="B91" s="61">
         <v>42595</v>
@@ -22858,13 +22855,13 @@
         <v>19</v>
       </c>
       <c r="E91" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="F91" s="60" t="s">
         <v>308</v>
       </c>
       <c r="G91" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="H91" t="s">
         <v>502</v>
@@ -22879,12 +22876,12 @@
         <v>52</v>
       </c>
       <c r="T91" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="B92" s="61">
         <v>42595</v>
@@ -22896,10 +22893,10 @@
         <v>20</v>
       </c>
       <c r="E92" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="F92" s="60" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="G92" t="s">
         <v>149</v>
@@ -22929,12 +22926,12 @@
         <v>52</v>
       </c>
       <c r="T92" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="B93" s="61">
         <v>42595</v>
@@ -22946,10 +22943,10 @@
         <v>20</v>
       </c>
       <c r="E93" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="F93" s="60" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="G93" t="s">
         <v>149</v>
@@ -22973,7 +22970,7 @@
         <v>175</v>
       </c>
       <c r="N93" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="O93" t="s">
         <v>52</v>
@@ -22981,7 +22978,7 @@
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="B94" s="61">
         <v>42595</v>
@@ -22993,10 +22990,10 @@
         <v>19</v>
       </c>
       <c r="E94" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="F94" s="60" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="G94" t="s">
         <v>155</v>
@@ -23014,12 +23011,12 @@
         <v>52</v>
       </c>
       <c r="T94" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="B95" s="61">
         <v>42613</v>
@@ -23031,10 +23028,10 @@
         <v>189</v>
       </c>
       <c r="E95" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="F95" s="60" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="G95" t="s">
         <v>149</v>
@@ -23052,7 +23049,7 @@
         <v>175</v>
       </c>
       <c r="L95" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="M95" t="s">
         <v>52</v>
@@ -23060,7 +23057,7 @@
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="B96" s="61">
         <v>42613</v>
@@ -23072,7 +23069,7 @@
         <v>19</v>
       </c>
       <c r="E96" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="F96" s="60" t="s">
         <v>308</v>
@@ -23081,7 +23078,7 @@
         <v>155</v>
       </c>
       <c r="H96" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="I96" t="s">
         <v>51</v>
@@ -23095,7 +23092,7 @@
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="B97" s="61">
         <v>42613</v>
@@ -23107,10 +23104,10 @@
         <v>19</v>
       </c>
       <c r="E97" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="F97" s="60" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="G97" t="s">
         <v>149</v>
@@ -23130,7 +23127,7 @@
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="B98" s="61">
         <v>42613</v>
@@ -23142,10 +23139,10 @@
         <v>20</v>
       </c>
       <c r="E98" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="F98" s="60" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="G98" t="s">
         <v>155</v>
@@ -23177,7 +23174,7 @@
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="B99" s="61">
         <v>42613</v>
@@ -23192,7 +23189,7 @@
         <v>152</v>
       </c>
       <c r="F99" s="60" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="G99" t="s">
         <v>149</v>
@@ -23212,22 +23209,22 @@
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="B100" s="61">
         <v>42630</v>
       </c>
       <c r="C100" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="D100" t="s">
         <v>19</v>
       </c>
       <c r="E100" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="F100" s="60" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="G100" t="s">
         <v>149</v>
@@ -23239,7 +23236,7 @@
         <v>51</v>
       </c>
       <c r="J100" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="K100" t="s">
         <v>52</v>
@@ -23247,19 +23244,19 @@
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="B101" s="61">
         <v>42630</v>
       </c>
       <c r="C101" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="D101" t="s">
         <v>20</v>
       </c>
       <c r="E101" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="F101" s="60" t="s">
         <v>297</v>
@@ -23294,22 +23291,22 @@
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="B102" s="61">
         <v>42630</v>
       </c>
       <c r="C102" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="D102" t="s">
         <v>189</v>
       </c>
       <c r="E102" t="s">
+        <v>719</v>
+      </c>
+      <c r="F102" s="60" t="s">
         <v>721</v>
-      </c>
-      <c r="F102" s="60" t="s">
-        <v>723</v>
       </c>
       <c r="G102" t="s">
         <v>149</v>
@@ -23335,13 +23332,13 @@
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="B103" s="61">
         <v>42630</v>
       </c>
       <c r="C103" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="D103" t="s">
         <v>19</v>
@@ -23350,7 +23347,7 @@
         <v>598</v>
       </c>
       <c r="F103" s="60" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="G103" t="s">
         <v>149</v>
@@ -23370,13 +23367,13 @@
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="B104" s="61">
         <v>42630</v>
       </c>
       <c r="C104" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="D104" t="s">
         <v>20</v>
@@ -23385,7 +23382,7 @@
         <v>530</v>
       </c>
       <c r="F104" s="60" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="G104" t="s">
         <v>149</v>
@@ -23417,22 +23414,22 @@
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="B105" s="61">
         <v>42631</v>
       </c>
       <c r="C105" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="D105" t="s">
         <v>20</v>
       </c>
       <c r="E105" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="F105" s="60" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="G105" t="s">
         <v>149</v>
@@ -23464,19 +23461,19 @@
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="B106" s="61">
         <v>42631</v>
       </c>
       <c r="C106" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="D106" t="s">
         <v>19</v>
       </c>
       <c r="E106" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="F106" s="60" t="s">
         <v>310</v>
@@ -23499,19 +23496,19 @@
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="B107" s="61">
         <v>42631</v>
       </c>
       <c r="C107" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="D107" t="s">
         <v>19</v>
       </c>
       <c r="E107" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="F107" s="60" t="s">
         <v>369</v>
@@ -23526,7 +23523,7 @@
         <v>51</v>
       </c>
       <c r="J107" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="K107" t="s">
         <v>52</v>
@@ -23534,22 +23531,22 @@
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="B108" s="61">
         <v>42631</v>
       </c>
       <c r="C108" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="D108" t="s">
         <v>19</v>
       </c>
       <c r="E108" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="F108" s="60" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="G108" t="s">
         <v>149</v>
@@ -23569,22 +23566,22 @@
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="B109" s="61">
         <v>42631</v>
       </c>
       <c r="C109" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="D109" t="s">
         <v>20</v>
       </c>
       <c r="E109" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="F109" s="60" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="G109" t="s">
         <v>149</v>
@@ -23616,7 +23613,7 @@
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="B110" s="61">
         <v>42635</v>
@@ -23628,10 +23625,10 @@
         <v>19</v>
       </c>
       <c r="E110" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="F110" s="60" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="G110" t="s">
         <v>149</v>
@@ -23651,7 +23648,7 @@
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="B111" s="61">
         <v>42635</v>
@@ -23663,7 +23660,7 @@
         <v>189</v>
       </c>
       <c r="E111" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="F111" s="60" t="s">
         <v>585</v>
@@ -23692,7 +23689,7 @@
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="B112" s="61">
         <v>42635</v>
@@ -23704,10 +23701,10 @@
         <v>19</v>
       </c>
       <c r="E112" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="F112" s="60" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="G112" t="s">
         <v>149</v>
@@ -23727,7 +23724,7 @@
     </row>
     <row r="113" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="B113" s="61">
         <v>42635</v>
@@ -23739,10 +23736,10 @@
         <v>423</v>
       </c>
       <c r="E113" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="F113" s="60" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="G113" t="s">
         <v>149</v>
@@ -23766,7 +23763,7 @@
         <v>51</v>
       </c>
       <c r="N113" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="O113" t="s">
         <v>175</v>
@@ -23784,12 +23781,12 @@
         <v>52</v>
       </c>
       <c r="T113" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
     </row>
     <row r="114" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="B114" s="61">
         <v>42635</v>
@@ -23801,13 +23798,13 @@
         <v>19</v>
       </c>
       <c r="E114" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="F114" s="60" t="s">
         <v>562</v>
       </c>
       <c r="G114" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="H114" t="s">
         <v>502</v>
@@ -23822,27 +23819,27 @@
         <v>52</v>
       </c>
       <c r="T114" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
     </row>
     <row r="115" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="B115" s="61">
         <v>42659</v>
       </c>
       <c r="C115" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="D115" t="s">
         <v>19</v>
       </c>
       <c r="E115" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="F115" s="60" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="G115" t="s">
         <v>149</v>
@@ -23862,22 +23859,22 @@
     </row>
     <row r="116" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="B116" s="61">
         <v>42659</v>
       </c>
       <c r="C116" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="D116" t="s">
         <v>189</v>
       </c>
       <c r="E116" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="F116" s="60" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="G116" t="s">
         <v>149</v>
@@ -23895,7 +23892,7 @@
         <v>175</v>
       </c>
       <c r="L116" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="M116" t="s">
         <v>52</v>
@@ -23903,28 +23900,28 @@
     </row>
     <row r="117" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="B117" s="61">
         <v>42659</v>
       </c>
       <c r="C117" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="D117" t="s">
         <v>19</v>
       </c>
       <c r="E117" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="F117" s="60" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="G117" t="s">
         <v>155</v>
       </c>
       <c r="H117" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="I117" t="s">
         <v>51</v>
@@ -23938,28 +23935,28 @@
     </row>
     <row r="118" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="B118" s="61">
         <v>42659</v>
       </c>
       <c r="C118" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="D118" t="s">
         <v>19</v>
       </c>
       <c r="E118" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="F118" s="60" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="G118" t="s">
         <v>149</v>
       </c>
       <c r="H118" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="I118" t="s">
         <v>51</v>
@@ -23973,22 +23970,22 @@
     </row>
     <row r="119" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="B119" s="61">
         <v>42659</v>
       </c>
       <c r="C119" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="D119" t="s">
         <v>20</v>
       </c>
       <c r="E119" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="F119" s="60" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="G119" t="s">
         <v>149</v>
@@ -24020,22 +24017,22 @@
     </row>
     <row r="120" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="B120" s="61">
         <v>42665</v>
       </c>
       <c r="C120" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="D120" t="s">
         <v>19</v>
       </c>
       <c r="E120" t="s">
+        <v>761</v>
+      </c>
+      <c r="F120" s="60" t="s">
         <v>763</v>
-      </c>
-      <c r="F120" s="60" t="s">
-        <v>765</v>
       </c>
       <c r="G120" t="s">
         <v>149</v>
@@ -24047,7 +24044,7 @@
         <v>51</v>
       </c>
       <c r="J120" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="K120" t="s">
         <v>52</v>
@@ -24055,13 +24052,13 @@
     </row>
     <row r="121" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="B121" s="61">
         <v>42665</v>
       </c>
       <c r="C121" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="D121" t="s">
         <v>19</v>
@@ -24070,7 +24067,7 @@
         <v>537</v>
       </c>
       <c r="F121" s="60" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="G121" t="s">
         <v>149</v>
@@ -24090,22 +24087,22 @@
     </row>
     <row r="122" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="B122" s="61">
         <v>42665</v>
       </c>
       <c r="C122" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="D122" t="s">
         <v>20</v>
       </c>
       <c r="E122" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="F122" s="60" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="G122" t="s">
         <v>155</v>
@@ -24137,13 +24134,13 @@
     </row>
     <row r="123" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="B123" s="61">
         <v>42665</v>
       </c>
       <c r="C123" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="D123" t="s">
         <v>19</v>
@@ -24152,7 +24149,7 @@
         <v>462</v>
       </c>
       <c r="F123" s="60" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="G123" t="s">
         <v>149</v>
@@ -24172,19 +24169,19 @@
     </row>
     <row r="124" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="B124" s="61">
         <v>42665</v>
       </c>
       <c r="C124" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="D124" t="s">
         <v>19</v>
       </c>
       <c r="E124" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="F124" s="60" t="s">
         <v>330</v>
@@ -24193,7 +24190,7 @@
         <v>149</v>
       </c>
       <c r="H124" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="I124" t="s">
         <v>51</v>
@@ -24207,22 +24204,22 @@
     </row>
     <row r="125" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="B125" s="61">
         <v>42665</v>
       </c>
       <c r="C125" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="D125" t="s">
         <v>20</v>
       </c>
       <c r="E125" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="F125" s="60" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="G125" t="s">
         <v>149</v>
@@ -24254,7 +24251,7 @@
     </row>
     <row r="126" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="B126" s="61">
         <v>42672</v>
@@ -24269,7 +24266,7 @@
         <v>462</v>
       </c>
       <c r="F126" s="60" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="G126" t="s">
         <v>149</v>
@@ -24289,7 +24286,7 @@
     </row>
     <row r="127" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="B127" s="61">
         <v>42672</v>
@@ -24301,16 +24298,16 @@
         <v>20</v>
       </c>
       <c r="E127" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="F127" s="60" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="G127" t="s">
         <v>155</v>
       </c>
       <c r="H127" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="I127" t="s">
         <v>174</v>
@@ -24322,7 +24319,7 @@
         <v>51</v>
       </c>
       <c r="L127" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="M127" t="s">
         <v>175</v>
@@ -24336,7 +24333,7 @@
     </row>
     <row r="128" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="B128" s="61">
         <v>42672</v>
@@ -24348,16 +24345,16 @@
         <v>189</v>
       </c>
       <c r="E128" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="F128" s="60" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="G128" t="s">
         <v>149</v>
       </c>
       <c r="H128" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="I128" t="s">
         <v>51</v>
@@ -24377,7 +24374,7 @@
     </row>
     <row r="129" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="B129" s="61">
         <v>42672</v>
@@ -24389,10 +24386,10 @@
         <v>19</v>
       </c>
       <c r="E129" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="F129" s="60" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="G129" t="s">
         <v>149</v>
@@ -24410,12 +24407,12 @@
         <v>52</v>
       </c>
       <c r="T129" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="130" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="B130" s="61">
         <v>42672</v>
@@ -24427,10 +24424,10 @@
         <v>19</v>
       </c>
       <c r="E130" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="F130" s="60" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="G130" t="s">
         <v>155</v>
@@ -24453,7 +24450,7 @@
     </row>
     <row r="131" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="B131" s="61">
         <v>42686</v>
@@ -24465,10 +24462,10 @@
         <v>19</v>
       </c>
       <c r="E131" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F131" s="60" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="G131" t="s">
         <v>155</v>
@@ -24488,7 +24485,7 @@
     </row>
     <row r="132" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="B132" s="61">
         <v>42686</v>
@@ -24500,7 +24497,7 @@
         <v>20</v>
       </c>
       <c r="E132" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="F132" s="60" t="s">
         <v>465</v>
@@ -24509,7 +24506,7 @@
         <v>149</v>
       </c>
       <c r="H132" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="I132" t="s">
         <v>174</v>
@@ -24535,7 +24532,7 @@
     </row>
     <row r="133" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="B133" s="61">
         <v>42686</v>
@@ -24547,7 +24544,7 @@
         <v>19</v>
       </c>
       <c r="E133" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="F133" s="60" t="s">
         <v>316</v>
@@ -24556,13 +24553,13 @@
         <v>149</v>
       </c>
       <c r="H133" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="I133" t="s">
         <v>51</v>
       </c>
       <c r="J133" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="K133" t="s">
         <v>52</v>
@@ -24570,7 +24567,7 @@
     </row>
     <row r="134" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="B134" s="61">
         <v>42686</v>
@@ -24582,10 +24579,10 @@
         <v>20</v>
       </c>
       <c r="E134" t="s">
+        <v>781</v>
+      </c>
+      <c r="F134" s="60" t="s">
         <v>783</v>
-      </c>
-      <c r="F134" s="60" t="s">
-        <v>785</v>
       </c>
       <c r="G134" t="s">
         <v>149</v>
@@ -24617,7 +24614,7 @@
     </row>
     <row r="135" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="B135" s="61">
         <v>42694</v>
@@ -24629,10 +24626,10 @@
         <v>19</v>
       </c>
       <c r="E135" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="F135" s="60" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="G135" t="s">
         <v>149</v>
@@ -24644,7 +24641,7 @@
         <v>51</v>
       </c>
       <c r="J135" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="K135" t="s">
         <v>52</v>
@@ -24652,7 +24649,7 @@
     </row>
     <row r="136" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="B136" s="61">
         <v>42694</v>
@@ -24664,16 +24661,16 @@
         <v>20</v>
       </c>
       <c r="E136" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="F136" s="60" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="G136" t="s">
         <v>149</v>
       </c>
       <c r="H136" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="I136" t="s">
         <v>174</v>
@@ -24699,7 +24696,7 @@
     </row>
     <row r="137" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="B137" s="61">
         <v>42694</v>
@@ -24711,7 +24708,7 @@
         <v>19</v>
       </c>
       <c r="E137" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="F137" s="60" t="s">
         <v>553</v>
@@ -24734,7 +24731,7 @@
     </row>
     <row r="138" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="B138" s="61">
         <v>42694</v>
@@ -24743,28 +24740,28 @@
         <v>527</v>
       </c>
       <c r="D138" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="E138" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="F138" s="60" t="s">
         <v>459</v>
       </c>
       <c r="G138" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="H138" t="s">
         <v>101</v>
       </c>
       <c r="I138" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="J138" t="s">
         <v>214</v>
       </c>
       <c r="K138" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="L138" t="s">
         <v>144</v>
@@ -24773,12 +24770,12 @@
         <v>175</v>
       </c>
       <c r="T138" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="139" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B139" s="61">
         <v>42714</v>
@@ -24790,10 +24787,10 @@
         <v>19</v>
       </c>
       <c r="E139" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="F139" s="60" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="G139" t="s">
         <v>149</v>
@@ -24813,7 +24810,7 @@
     </row>
     <row r="140" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B140" s="61">
         <v>42714</v>
@@ -24825,10 +24822,10 @@
         <v>20</v>
       </c>
       <c r="E140" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="F140" s="60" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="G140" t="s">
         <v>155</v>
@@ -24860,7 +24857,7 @@
     </row>
     <row r="141" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B141" s="61">
         <v>42714</v>
@@ -24872,22 +24869,22 @@
         <v>19</v>
       </c>
       <c r="E141" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="F141" s="60" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="G141" t="s">
         <v>155</v>
       </c>
       <c r="H141" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="I141" t="s">
         <v>51</v>
       </c>
       <c r="J141" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="K141" t="s">
         <v>52</v>
@@ -24895,7 +24892,7 @@
     </row>
     <row r="142" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B142" s="61">
         <v>42714</v>
@@ -24907,10 +24904,10 @@
         <v>20</v>
       </c>
       <c r="E142" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="F142" s="60" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="G142" t="s">
         <v>159</v>
@@ -24934,7 +24931,7 @@
         <v>160</v>
       </c>
       <c r="N142" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="O142" t="s">
         <v>160</v>

--- a/TJPW Metrics.xlsx
+++ b/TJPW Metrics.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7935" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7935" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,14 +12,15 @@
     <sheet name="2014 Matches" sheetId="4" r:id="rId3"/>
     <sheet name="2015 Matches" sheetId="5" r:id="rId4"/>
     <sheet name="2016 Matches" sheetId="6" r:id="rId5"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId6"/>
+    <sheet name="2017 Matches" sheetId="7" r:id="rId6"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId7"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3819" uniqueCount="805">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5729" uniqueCount="1107">
   <si>
     <t>`</t>
   </si>
@@ -2434,6 +2435,912 @@
   </si>
   <si>
     <t>Maho (Maho Kurone) vs Hinako</t>
+  </si>
+  <si>
+    <t>Tokyo Joshi Pro '17</t>
+  </si>
+  <si>
+    <t>Cherry vs Nodoka-Oneesan</t>
+  </si>
+  <si>
+    <t>Rika Tatsumi vs Hyper Misao (w/ Minami Momochi) vs Maho Kurone</t>
+  </si>
+  <si>
+    <t>Ai Shimizu &amp; Laura James vs Azusa Takigawa &amp; Nonoko</t>
+  </si>
+  <si>
+    <t>Reika Saiki vs Maki Itoh</t>
+  </si>
+  <si>
+    <t>Mil Clown vs Candice LeRae</t>
+  </si>
+  <si>
+    <t>Yuu (c) vs Shoko Nakajima</t>
+  </si>
+  <si>
+    <t>7m03s</t>
+  </si>
+  <si>
+    <t>7m40s</t>
+  </si>
+  <si>
+    <t>7m52s</t>
+  </si>
+  <si>
+    <t>10m31s</t>
+  </si>
+  <si>
+    <t>12m09s</t>
+  </si>
+  <si>
+    <t>21m34s</t>
+  </si>
+  <si>
+    <t>Cherry</t>
+  </si>
+  <si>
+    <t>Laura James</t>
+  </si>
+  <si>
+    <t>Maki Itoh</t>
+  </si>
+  <si>
+    <t>Girls Fight Out #1</t>
+  </si>
+  <si>
+    <t>Maho Kurone vs Maki Itoh</t>
+  </si>
+  <si>
+    <t>Shoko Nakajima &amp; Akane Miura vs Azusa Takigawa &amp; Nonoko</t>
+  </si>
+  <si>
+    <t>Sakisama &amp; Martha vs Miyu Yamashita &amp; Rika Tatsumi</t>
+  </si>
+  <si>
+    <t>6m43s</t>
+  </si>
+  <si>
+    <t>10m10s</t>
+  </si>
+  <si>
+    <t>Sakisama</t>
+  </si>
+  <si>
+    <t>Martha</t>
+  </si>
+  <si>
+    <t>Girls Fight Out #2</t>
+  </si>
+  <si>
+    <t>Akane Miura vs Maki Itoh</t>
+  </si>
+  <si>
+    <t>Miyu Yamashita &amp; Mil Clown vs Azusa Takigawa &amp; Nonoko</t>
+  </si>
+  <si>
+    <t>Sakisama &amp; Martha vs Rika Tatsumi &amp; Maho Kurone</t>
+  </si>
+  <si>
+    <t>Reika Saiki &amp; Shoko Nakajima vs Yuu &amp; Nodoka-Oneesan</t>
+  </si>
+  <si>
+    <t>5m34s</t>
+  </si>
+  <si>
+    <t>12m02s</t>
+  </si>
+  <si>
+    <t>11m00s</t>
+  </si>
+  <si>
+    <t>17m25s</t>
+  </si>
+  <si>
+    <t>Girls Fight Out #3</t>
+  </si>
+  <si>
+    <t>Yuu &amp; Miyu Yamashita vs Mil Clown &amp; Rika Tatsumi</t>
+  </si>
+  <si>
+    <t>Akane Miura vs Maho Kurone</t>
+  </si>
+  <si>
+    <t>Sakisama &amp; Martha vs Azusa Takigawa &amp; Nonoko</t>
+  </si>
+  <si>
+    <t>7m56s</t>
+  </si>
+  <si>
+    <t>14m53s</t>
+  </si>
+  <si>
+    <t>15m34s</t>
+  </si>
+  <si>
+    <t>Dramatic Fan Club Members Only Entertainment ~At This Time, Excitement In Ichigaya</t>
+  </si>
+  <si>
+    <t>Shoko Nakajima vs Azusa Takigawa</t>
+  </si>
+  <si>
+    <t>Mil Clown vs Akane Miura</t>
+  </si>
+  <si>
+    <t>Miyu Yamashita &amp; Rika Tatsumi vs Yuu &amp; Nodoka-Oneesan</t>
+  </si>
+  <si>
+    <t>Yokodai Station Event Wrestling Part 1 (2017)</t>
+  </si>
+  <si>
+    <t>Yokodai Station Event Wrestling Part 2 (2017)</t>
+  </si>
+  <si>
+    <t>Nodoka-Oneesan vs Nonoko</t>
+  </si>
+  <si>
+    <t>Akane Miura vs Azusa Takigawa</t>
+  </si>
+  <si>
+    <t>Miyu Yamashita &amp; Mil Clown vs Shoko Nakajima &amp; Maho Kurone</t>
+  </si>
+  <si>
+    <t>5m09s</t>
+  </si>
+  <si>
+    <t>6m59s</t>
+  </si>
+  <si>
+    <t>11m26s</t>
+  </si>
+  <si>
+    <t>Mil Clown vs Azusa Takigawa</t>
+  </si>
+  <si>
+    <t>Rika Tatsumi vs Akane Miura</t>
+  </si>
+  <si>
+    <t>Yuu &amp; Shoko Nakajima vs Miyu Yamashita &amp; Nodoka-Oneesan</t>
+  </si>
+  <si>
+    <t>9m58s</t>
+  </si>
+  <si>
+    <t>11m43s</t>
+  </si>
+  <si>
+    <t>At This Time, Get Excited In Nerima!</t>
+  </si>
+  <si>
+    <t>Nerima Coconeri Hall</t>
+  </si>
+  <si>
+    <t>Mil Clown vs Maho Kurone vs Maki Itoh</t>
+  </si>
+  <si>
+    <t>Yuna Manase vs Nodoka-Oneesan</t>
+  </si>
+  <si>
+    <t>Miyu Yamashita &amp; Shoko Nakajima vs Nonoko &amp; Akane Miura</t>
+  </si>
+  <si>
+    <t>Sakisama &amp; Martha vs Rika Tatsumi &amp; Azusa Takigawa</t>
+  </si>
+  <si>
+    <t>Yuu (c) vs Reika Saiki</t>
+  </si>
+  <si>
+    <t>6m48s</t>
+  </si>
+  <si>
+    <t>18m15s</t>
+  </si>
+  <si>
+    <t>15m01s</t>
+  </si>
+  <si>
+    <t>13m18s</t>
+  </si>
+  <si>
+    <t>Yuna Manase</t>
+  </si>
+  <si>
+    <t>At This Time, Get Excited In Yokohama!</t>
+  </si>
+  <si>
+    <t>Yuna Manase vs Maho Kurone</t>
+  </si>
+  <si>
+    <t>Mil Clown &amp; Nodoka-Oneesan vs Reika Saiki &amp; Maki Itoh</t>
+  </si>
+  <si>
+    <t>Yuu &amp; Shoko Nakajima vs Azusa Takigawa &amp; Nonoko</t>
+  </si>
+  <si>
+    <t>Sakisama (w/ Martha) vs Rika Tatsumi</t>
+  </si>
+  <si>
+    <t>10m14s</t>
+  </si>
+  <si>
+    <t>11m09s</t>
+  </si>
+  <si>
+    <t>10m16s</t>
+  </si>
+  <si>
+    <t>10m49s</t>
+  </si>
+  <si>
+    <t>At This Time, Get Excited In Narimasu!</t>
+  </si>
+  <si>
+    <t>Narimasu Act Hall</t>
+  </si>
+  <si>
+    <t>Mizuki vs Maki Itoh</t>
+  </si>
+  <si>
+    <t>Nonoko &amp; Mil Clown vs Miyu Yamashita &amp; Marika Kobashi</t>
+  </si>
+  <si>
+    <t>Shoko Nakajima &amp; Reika Saiki vs Yuna Manase &amp; Nodoka-Oneesan</t>
+  </si>
+  <si>
+    <t>Yuu (c) vs Azusa Takigawa</t>
+  </si>
+  <si>
+    <t>12m13s</t>
+  </si>
+  <si>
+    <t>13m09s</t>
+  </si>
+  <si>
+    <t>10m13s</t>
+  </si>
+  <si>
+    <t>Double Countout</t>
+  </si>
+  <si>
+    <t>Mizuki</t>
+  </si>
+  <si>
+    <t>At This Time, Get Excited In Osaka!</t>
+  </si>
+  <si>
+    <t>Osaka Hirano Community Hall</t>
+  </si>
+  <si>
+    <t>Reika Saiki &amp; Marika Kobashi vs Maki Itoh &amp; Mizuki</t>
+  </si>
+  <si>
+    <t>Yuna Manase vs Azusa Takigawa</t>
+  </si>
+  <si>
+    <t>Shoko Nakajima &amp; Mil Clown vs Yuu &amp; Nodoka-Oneesan</t>
+  </si>
+  <si>
+    <t>11m36s</t>
+  </si>
+  <si>
+    <t>7m44s</t>
+  </si>
+  <si>
+    <t>16m04s</t>
+  </si>
+  <si>
+    <t>11m44s</t>
+  </si>
+  <si>
+    <t>No Countout Rules</t>
+  </si>
+  <si>
+    <t>Girls Fight Out #4</t>
+  </si>
+  <si>
+    <t>Mizuki vs Azusa Takigawa</t>
+  </si>
+  <si>
+    <t>Nonoko vs Yuna Manase vs Marika Kobashi</t>
+  </si>
+  <si>
+    <t>Mil Clown &amp; Miyu Yamashita &amp; Reika Saiki vs Yuu &amp; Shoko Nakajima &amp; Nodoka-Oneesan</t>
+  </si>
+  <si>
+    <t>8m21s</t>
+  </si>
+  <si>
+    <t>11m07s</t>
+  </si>
+  <si>
+    <t>At This Time, Get Excited In Kasukabe!</t>
+  </si>
+  <si>
+    <t>Mizuki vs Nodoka-Oneesan</t>
+  </si>
+  <si>
+    <t>Yuna Manase vs Nonoko vs Maho Kurone</t>
+  </si>
+  <si>
+    <t>Sakisama vs Rika Tatsumi</t>
+  </si>
+  <si>
+    <t>Yuu &amp; Shoko Nakajima vs Yuka Sakazaki &amp; Reika Saiki</t>
+  </si>
+  <si>
+    <t>7m16s</t>
+  </si>
+  <si>
+    <t>10m24s</t>
+  </si>
+  <si>
+    <t>12m23s</t>
+  </si>
+  <si>
+    <t>At This Time, Get Excited In Shinjuku!</t>
+  </si>
+  <si>
+    <t>Nodoka-Oneesan vs Marika Kobashi</t>
+  </si>
+  <si>
+    <t>Maki Itoh vs Azusa Takigawa</t>
+  </si>
+  <si>
+    <t>Miyu Yamashita vs Mizuki</t>
+  </si>
+  <si>
+    <t>Yuna Manase vs Nonoko</t>
+  </si>
+  <si>
+    <t>Shoko Nakajima vs Reika Saiki</t>
+  </si>
+  <si>
+    <t>Rika Tatsumi &amp; Maho Kurone vs Sakisama &amp; Martha (w/ Dr. Hayashi)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yuka Sakazaki vs Yuu (c) </t>
+  </si>
+  <si>
+    <t>11m17s</t>
+  </si>
+  <si>
+    <t>12m51s</t>
+  </si>
+  <si>
+    <t>20m07s</t>
+  </si>
+  <si>
+    <t>Girls Fight Out #5</t>
+  </si>
+  <si>
+    <t>Mizuki vs Azusa Takigawa vs Maho Kurone</t>
+  </si>
+  <si>
+    <t>Yuu &amp; Yuna Manase vs Rika Tatsumi &amp; Nonoko</t>
+  </si>
+  <si>
+    <t>Yuka Sakazaki &amp; Reika Saiki vs Miyu Yamashita &amp; Nodoka-Oneesan</t>
+  </si>
+  <si>
+    <t>7m33s</t>
+  </si>
+  <si>
+    <t>12m49s</t>
+  </si>
+  <si>
+    <t>11m39s</t>
+  </si>
+  <si>
+    <t>The 4th Tokyo Princess Cup Opener</t>
+  </si>
+  <si>
+    <t>Shinjuku Village Studio C 106</t>
+  </si>
+  <si>
+    <t>Mizuki vs Nonoko</t>
+  </si>
+  <si>
+    <t>Yuu vs Azusa Takigawa vs Maki Itoh</t>
+  </si>
+  <si>
+    <t>Rika Tatsumi vs Yuna Manase</t>
+  </si>
+  <si>
+    <t>Yuka Sakazaki vs Miyu Yamashita</t>
+  </si>
+  <si>
+    <t>8m23s</t>
+  </si>
+  <si>
+    <t>17m15s</t>
+  </si>
+  <si>
+    <t>Tokyo Princess Cup 2017 Round 1</t>
+  </si>
+  <si>
+    <t>The 4th Tokyo Princess Cup 2nd Round</t>
+  </si>
+  <si>
+    <t>Shoko Nakajima vs Maki Itoh</t>
+  </si>
+  <si>
+    <t>Miyu Yamashita &amp; Nonoko &amp; Marika Kobashi vs Yuna Manase &amp; Nodoka-Oneesan &amp; Maho Kurone</t>
+  </si>
+  <si>
+    <t>Reika Saiki vs Yuu</t>
+  </si>
+  <si>
+    <t>Yuka Sakazaki vs Rika Tatsumi</t>
+  </si>
+  <si>
+    <t>9m35s</t>
+  </si>
+  <si>
+    <t>19m16s</t>
+  </si>
+  <si>
+    <t>Tokyo Princess Cup 2017 Round 2</t>
+  </si>
+  <si>
+    <t>Delicious Sacas Pro Wrestling 2017 ~Tokyo Joshi Pro~</t>
+  </si>
+  <si>
+    <t>Rika Tatsumi vs Maki Itoh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miyu Yamashita &amp; Marika Kobashi vs Nonoko &amp; Maho Kurone (c) </t>
+  </si>
+  <si>
+    <t>Yuka Sakazaki &amp; Yuu vs Shoko Nakajima &amp; Nodoka-Oneesan</t>
+  </si>
+  <si>
+    <t>11m53s</t>
+  </si>
+  <si>
+    <t>9m05s</t>
+  </si>
+  <si>
+    <t>9m49s</t>
+  </si>
+  <si>
+    <t>Iron Man Heavymetalweight Title -- Title Change!!!</t>
+  </si>
+  <si>
+    <t>Fighting Beer Garden 2017 ~The 4th Tokyo Princess Cup Final Round~</t>
+  </si>
+  <si>
+    <t>Reika Saiki vs Shoko Nakajima</t>
+  </si>
+  <si>
+    <t>Yuka Sakazaki vs Mizuki</t>
+  </si>
+  <si>
+    <t>Yuu &amp; Nodoka-Oneesan &amp; Marika Kobashi vs Miyu Yamashita &amp; Nonoko &amp; Yuna Manase</t>
+  </si>
+  <si>
+    <t>Yukio Saint Laurent &amp; Martha (w/ Sakisama) vs Rika Tatsumi &amp; Maho Kurone</t>
+  </si>
+  <si>
+    <t>Reika Saiki vs Yuka Sakazaki</t>
+  </si>
+  <si>
+    <t>10m23s</t>
+  </si>
+  <si>
+    <t>9m03s</t>
+  </si>
+  <si>
+    <t>9m30s</t>
+  </si>
+  <si>
+    <t>10m47s</t>
+  </si>
+  <si>
+    <t>Yukio Saint Laurent</t>
+  </si>
+  <si>
+    <t>Tokyo Princess Cup 2017 Semifinal</t>
+  </si>
+  <si>
+    <t>Tokyo Princess Cup 2017 Final</t>
+  </si>
+  <si>
+    <t>Beer Garden Special (floating pool rings)</t>
+  </si>
+  <si>
+    <t>At This Time, Get Excited In Itabashi!</t>
+  </si>
+  <si>
+    <t>Itabashi Green Hall</t>
+  </si>
+  <si>
+    <t>Mizuki v Marika Kobashi</t>
+  </si>
+  <si>
+    <t>Shoko Nakajima v Nodoka-Oneesan</t>
+  </si>
+  <si>
+    <t>Rika Tatsumi &amp; Maho Kurone vs Azusa Takigawa &amp; Nonoko</t>
+  </si>
+  <si>
+    <t>Yuu vs Yuna Manase</t>
+  </si>
+  <si>
+    <t>Yuka Sakazaki &amp; Miyu Yamashita vs Reika Saiki &amp; Maki Itoh</t>
+  </si>
+  <si>
+    <t>8m40s</t>
+  </si>
+  <si>
+    <t>12m34s</t>
+  </si>
+  <si>
+    <t>15m40s</t>
+  </si>
+  <si>
+    <t>Brand New Wrestling ~The Beginning Of The New Era~</t>
+  </si>
+  <si>
+    <t>Mizuki &amp; Nonoko vs Yuna Manase &amp; Yuki Kamifuku</t>
+  </si>
+  <si>
+    <t>Maki Itoh vs Azusa Takigawa (Special Referee: Sanshiro Takagi)</t>
+  </si>
+  <si>
+    <t>Yuu (c) vs Nodoka-Oneesan vs Marika Kobashi</t>
+  </si>
+  <si>
+    <t>Shoko Nakajima vs Solo Darling</t>
+  </si>
+  <si>
+    <t>Meiko Satomura vs Miyu Yamashita</t>
+  </si>
+  <si>
+    <t>Rika Tatsumi &amp; Maho Kurone &amp; Shiro Koshinaka vs Sakisama &amp; Martha &amp; Yukio Saint Laurent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reika Saiki vs Yuka Sakazaki (c) </t>
+  </si>
+  <si>
+    <t>10m35s</t>
+  </si>
+  <si>
+    <t>8m52s</t>
+  </si>
+  <si>
+    <t>10m50s</t>
+  </si>
+  <si>
+    <t>10m36s</t>
+  </si>
+  <si>
+    <t>14m13s</t>
+  </si>
+  <si>
+    <t>Yuki Kamifuku</t>
+  </si>
+  <si>
+    <t>Solo Darling</t>
+  </si>
+  <si>
+    <t>Meiko Satomura</t>
+  </si>
+  <si>
+    <t>Shiro Koshinaka</t>
+  </si>
+  <si>
+    <t>Iron Man Heavymetalweight Title</t>
+  </si>
+  <si>
+    <t>Idol Lumberjack Death Match</t>
+  </si>
+  <si>
+    <t>Cherry vs Marika Kobashi</t>
+  </si>
+  <si>
+    <t>Yuna Manase vs Yuki Kamifuku</t>
+  </si>
+  <si>
+    <t>Rika Tatsumi &amp; Maho Kurone vs Yuu &amp; Nodoka-Oneesan</t>
+  </si>
+  <si>
+    <t>Yuka Sakazaki &amp; Shoko Nakajima vs Azusa Takigawa &amp; Nonoko</t>
+  </si>
+  <si>
+    <t>Maki Itoh &amp; Mizuki vs Reika Saiki &amp; Miyu Yamashita</t>
+  </si>
+  <si>
+    <t>5m41s</t>
+  </si>
+  <si>
+    <t>11m34s</t>
+  </si>
+  <si>
+    <t>12m30s</t>
+  </si>
+  <si>
+    <t>12m44s</t>
+  </si>
+  <si>
+    <t>TOKYO Princess Tag Team Titles Tournament Round 1</t>
+  </si>
+  <si>
+    <t>Shinkiba De Bakoon!</t>
+  </si>
+  <si>
+    <t>Yokohama De Bakoon!</t>
+  </si>
+  <si>
+    <t>Miyu Yamashita vs Yuki Kamifuku</t>
+  </si>
+  <si>
+    <t>Yuu (c) vs Nonoko</t>
+  </si>
+  <si>
+    <t>Reika Saiki vs Azusa Takigawa vs Nodoka-Oneesan</t>
+  </si>
+  <si>
+    <t>Rika Tatsumi &amp; Maho Kurone vs Yuna Manase &amp; Marika Kobashi</t>
+  </si>
+  <si>
+    <t>Yuka Sakazaki &amp; Shoko Nakajima vs Maki Itoh &amp; Mizuki</t>
+  </si>
+  <si>
+    <t>7m26s</t>
+  </si>
+  <si>
+    <t>8m39s</t>
+  </si>
+  <si>
+    <t>14m42s</t>
+  </si>
+  <si>
+    <t>TOKYO Princess Tag Team Titles Tournament Semifinal</t>
+  </si>
+  <si>
+    <t>Osaka De Bakoon!</t>
+  </si>
+  <si>
+    <t>Miyakojima Kumin Center</t>
+  </si>
+  <si>
+    <t>Maho Kurone vs Yuki Kamifuku</t>
+  </si>
+  <si>
+    <t>Yuu (c) vs Marika Kobashi</t>
+  </si>
+  <si>
+    <t>Nodoka-Oneesan vs Shoko Nakajima vs Maki Itoh</t>
+  </si>
+  <si>
+    <t>Rika Tatsumi vs Nonoko</t>
+  </si>
+  <si>
+    <t>Yuka Sakazaki &amp; Yuna Manase vs Miyu Yamashita &amp; Azusa Takigawa</t>
+  </si>
+  <si>
+    <t>Reika Saiki (c) vs Mizuki</t>
+  </si>
+  <si>
+    <t>6m57s</t>
+  </si>
+  <si>
+    <t>14m20s</t>
+  </si>
+  <si>
+    <t>14m36s</t>
+  </si>
+  <si>
+    <t>Smile YES Yokohama</t>
+  </si>
+  <si>
+    <t>Yuu (c) vs Yuki Kamifuku</t>
+  </si>
+  <si>
+    <t>Miyu Yamashita vs Yuna Manase vs Nodoka-Oneesan</t>
+  </si>
+  <si>
+    <t>Yuka Sakazaki &amp; Shoko Nakajima vs Rika Tatsumi &amp; Maho Kurone</t>
+  </si>
+  <si>
+    <t>5m18s</t>
+  </si>
+  <si>
+    <t>9m15s</t>
+  </si>
+  <si>
+    <t>11m55s</t>
+  </si>
+  <si>
+    <t>13m50s</t>
+  </si>
+  <si>
+    <t>TOKYO Princess Tag Team Titles Tournament Final (vacant)</t>
+  </si>
+  <si>
+    <t>Yokodai Station Pro Wrestling Part 1</t>
+  </si>
+  <si>
+    <t>Yokodai Station Pro Wrestling Part 2</t>
+  </si>
+  <si>
+    <t>Rika Tatsumi &amp; Nonoko vs Shoko Nakajima &amp; Yuu</t>
+  </si>
+  <si>
+    <t>8m55s</t>
+  </si>
+  <si>
+    <t>13m40s</t>
+  </si>
+  <si>
+    <t>Mizuki vs Maho Kurone</t>
+  </si>
+  <si>
+    <t>Yuka Sakazaki vs Yuna Manase</t>
+  </si>
+  <si>
+    <t>Miyu Yamashita &amp; Marika Kobashi vs Shoko Nakajima &amp; Maki Itoh</t>
+  </si>
+  <si>
+    <t>7m18s</t>
+  </si>
+  <si>
+    <t>14m50s</t>
+  </si>
+  <si>
+    <t>Girls Fight Out #6</t>
+  </si>
+  <si>
+    <t>Maho Kurone vs Marika Kobashi</t>
+  </si>
+  <si>
+    <t>Maki Itoh &amp; Mizuki vs Yuna Manase &amp; Yuki Kamifuku</t>
+  </si>
+  <si>
+    <t>Sakisama vs Nodoka-Oneesan</t>
+  </si>
+  <si>
+    <t>Rika Tatsumi &amp; Yuka Sakazaki &amp; Yuu vs Reika Saiki &amp; Miyu Yamashita &amp; Azusa Takigawa</t>
+  </si>
+  <si>
+    <t>8m27s</t>
+  </si>
+  <si>
+    <t>7m15s</t>
+  </si>
+  <si>
+    <t>14m12s</t>
+  </si>
+  <si>
+    <t>Smile YES Shin-Kiba</t>
+  </si>
+  <si>
+    <t>Shoko Nakajima vs Yuki Kamifuku</t>
+  </si>
+  <si>
+    <t>Yuu &amp; Marika Kobashi vs Miyu Yamashita &amp; Maki Itoh</t>
+  </si>
+  <si>
+    <t>Azusa Takigawa vs Nodoka-Oneesan</t>
+  </si>
+  <si>
+    <t>Sakisama vs Mizuki</t>
+  </si>
+  <si>
+    <t>Nonoko &amp; Yuna Manase vs Yuka Sakazaki &amp; Maho Kurone</t>
+  </si>
+  <si>
+    <t>Reika Saiki (c) vs Rika Tatsumi</t>
+  </si>
+  <si>
+    <t>10m30s</t>
+  </si>
+  <si>
+    <t>15m27s</t>
+  </si>
+  <si>
+    <t>10m07s</t>
+  </si>
+  <si>
+    <t>Smile YES Shinjuku</t>
+  </si>
+  <si>
+    <t>Maki Itoh &amp; Mizuki vs Nodoka-Oneesan &amp; Marika Kobashi</t>
+  </si>
+  <si>
+    <t>Rika Tatsumi vs Hyper Misao</t>
+  </si>
+  <si>
+    <t>Sakisama vs Azusa Takigawa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miyu Yamashita vs Yuu (c) </t>
+  </si>
+  <si>
+    <t>Yuka Sakazaki (c) &amp; Shoko Nakajima (c) vs Nonoko &amp; Yuna Manase</t>
+  </si>
+  <si>
+    <t>6m07s</t>
+  </si>
+  <si>
+    <t>12m15s</t>
+  </si>
+  <si>
+    <t>9m43s</t>
+  </si>
+  <si>
+    <t>13m00s</t>
+  </si>
+  <si>
+    <t>17m02s</t>
+  </si>
+  <si>
+    <t>TOKYO Princess Tag Team Title</t>
+  </si>
+  <si>
+    <t>TOKYO Princess Of Princess Title #1 Contendership &amp; Iron Man Heavymetalweight Title -- Title Change!!!</t>
+  </si>
+  <si>
+    <t>I Tighten My Helmet And Leave For Korakuen</t>
+  </si>
+  <si>
+    <t>Rika Tatsumi vs Yuki Kamifuku</t>
+  </si>
+  <si>
+    <t>Nonoko &amp; Yuna Manase vs Yuu &amp; Hyper Misao</t>
+  </si>
+  <si>
+    <t>Sakisama &amp; Azusa Christie vs Shoko Nakajima &amp; Marika Kobashi</t>
+  </si>
+  <si>
+    <t>Reika Saiki &amp; Maho Kurone vs Miyu Yamashita &amp; Nodoka-Oneesan</t>
+  </si>
+  <si>
+    <t>8m49s</t>
+  </si>
+  <si>
+    <t>15m29s</t>
+  </si>
+  <si>
+    <t>15m00s</t>
+  </si>
+  <si>
+    <t>14m06s</t>
+  </si>
+  <si>
+    <t>16m01s</t>
+  </si>
+  <si>
+    <t>Se No, Merry Christmas!</t>
+  </si>
+  <si>
+    <t>Miyu Yamashita (c) vs Marika Kobashi</t>
+  </si>
+  <si>
+    <t>Nonoko vs Yuna Manase vs Yuki Kamifuku</t>
+  </si>
+  <si>
+    <t>Rika Tatsumi vs Nodoka-Oneesan</t>
+  </si>
+  <si>
+    <t>Yuu vs Maki Itoh</t>
+  </si>
+  <si>
+    <t>Sakisama &amp; Azusa Christie vs Hyper Misao &amp; Maho Kurone</t>
+  </si>
+  <si>
+    <t>Shoko Nakajima vs Mizuki</t>
+  </si>
+  <si>
+    <t>7m07s</t>
+  </si>
+  <si>
+    <t>9m24s</t>
+  </si>
+  <si>
+    <t>Iron Man Heavymetalweight Title &amp; Christmas Special Big 5 Single Match</t>
+  </si>
+  <si>
+    <t>Christmas Special Big 5 Single Match</t>
   </si>
 </sst>
 </file>
@@ -2990,66 +3897,6 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3151,6 +3998,66 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3545,97 +4452,97 @@
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="86" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="87"/>
-      <c r="I2" s="88" t="s">
+      <c r="G2" s="66" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="67"/>
+      <c r="I2" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="89"/>
-      <c r="K2" s="89"/>
-      <c r="L2" s="90"/>
-      <c r="M2" s="91" t="s">
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="92"/>
-      <c r="O2" s="92"/>
-      <c r="P2" s="92"/>
-      <c r="Q2" s="93"/>
-      <c r="R2" s="94" t="s">
+      <c r="N2" s="72"/>
+      <c r="O2" s="72"/>
+      <c r="P2" s="72"/>
+      <c r="Q2" s="73"/>
+      <c r="R2" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="S2" s="95"/>
-      <c r="T2" s="95"/>
-      <c r="U2" s="95"/>
-      <c r="V2" s="96"/>
-      <c r="W2" s="97" t="s">
+      <c r="S2" s="75"/>
+      <c r="T2" s="75"/>
+      <c r="U2" s="75"/>
+      <c r="V2" s="76"/>
+      <c r="W2" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="X2" s="98"/>
-      <c r="Y2" s="98"/>
-      <c r="Z2" s="98"/>
-      <c r="AA2" s="98"/>
-      <c r="AB2" s="98"/>
-      <c r="AC2" s="98"/>
-      <c r="AD2" s="98"/>
-      <c r="AE2" s="98"/>
-      <c r="AF2" s="99"/>
-      <c r="AG2" s="100" t="s">
+      <c r="X2" s="78"/>
+      <c r="Y2" s="78"/>
+      <c r="Z2" s="78"/>
+      <c r="AA2" s="78"/>
+      <c r="AB2" s="78"/>
+      <c r="AC2" s="78"/>
+      <c r="AD2" s="78"/>
+      <c r="AE2" s="78"/>
+      <c r="AF2" s="79"/>
+      <c r="AG2" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="AH2" s="101"/>
-      <c r="AI2" s="101"/>
-      <c r="AJ2" s="101"/>
-      <c r="AK2" s="101"/>
-      <c r="AL2" s="101"/>
-      <c r="AM2" s="101"/>
-      <c r="AN2" s="102"/>
-      <c r="AO2" s="103" t="s">
+      <c r="AH2" s="81"/>
+      <c r="AI2" s="81"/>
+      <c r="AJ2" s="81"/>
+      <c r="AK2" s="81"/>
+      <c r="AL2" s="81"/>
+      <c r="AM2" s="81"/>
+      <c r="AN2" s="82"/>
+      <c r="AO2" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="AP2" s="104"/>
-      <c r="AQ2" s="104"/>
-      <c r="AR2" s="104"/>
-      <c r="AS2" s="104"/>
-      <c r="AT2" s="105"/>
-      <c r="AU2" s="106" t="s">
+      <c r="AP2" s="84"/>
+      <c r="AQ2" s="84"/>
+      <c r="AR2" s="84"/>
+      <c r="AS2" s="84"/>
+      <c r="AT2" s="85"/>
+      <c r="AU2" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="AV2" s="107"/>
-      <c r="AW2" s="108" t="s">
+      <c r="AV2" s="87"/>
+      <c r="AW2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="AX2" s="109"/>
-      <c r="AY2" s="109"/>
-      <c r="AZ2" s="109"/>
-      <c r="BA2" s="109"/>
-      <c r="BB2" s="109"/>
-      <c r="BC2" s="109"/>
-      <c r="BD2" s="110"/>
-      <c r="BE2" s="111" t="s">
+      <c r="AX2" s="89"/>
+      <c r="AY2" s="89"/>
+      <c r="AZ2" s="89"/>
+      <c r="BA2" s="89"/>
+      <c r="BB2" s="89"/>
+      <c r="BC2" s="89"/>
+      <c r="BD2" s="90"/>
+      <c r="BE2" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="BF2" s="112"/>
-      <c r="BG2" s="112"/>
-      <c r="BH2" s="113"/>
+      <c r="BF2" s="92"/>
+      <c r="BG2" s="92"/>
+      <c r="BH2" s="93"/>
       <c r="BI2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="BJ2" s="114" t="s">
+      <c r="BJ2" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="BK2" s="115"/>
-      <c r="BL2" s="116"/>
-      <c r="BM2" s="83" t="s">
+      <c r="BK2" s="95"/>
+      <c r="BL2" s="96"/>
+      <c r="BM2" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="BN2" s="84"/>
-      <c r="BO2" s="84"/>
-      <c r="BP2" s="84"/>
-      <c r="BQ2" s="84"/>
-      <c r="BR2" s="84"/>
-      <c r="BS2" s="85"/>
+      <c r="BN2" s="64"/>
+      <c r="BO2" s="64"/>
+      <c r="BP2" s="64"/>
+      <c r="BQ2" s="64"/>
+      <c r="BR2" s="64"/>
+      <c r="BS2" s="65"/>
     </row>
     <row r="3" spans="1:71" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
@@ -3656,18 +4563,18 @@
       <c r="F3" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="74">
+      <c r="G3" s="99">
         <v>2020</v>
       </c>
-      <c r="H3" s="75"/>
-      <c r="I3" s="76" t="s">
+      <c r="H3" s="100"/>
+      <c r="I3" s="101" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="77"/>
-      <c r="K3" s="78" t="s">
+      <c r="J3" s="102"/>
+      <c r="K3" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="76"/>
+      <c r="L3" s="101"/>
       <c r="M3" s="14" t="s">
         <v>21</v>
       </c>
@@ -3698,74 +4605,74 @@
       <c r="V3" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="W3" s="79" t="s">
+      <c r="W3" s="104" t="s">
         <v>26</v>
       </c>
-      <c r="X3" s="80"/>
-      <c r="Y3" s="79" t="s">
+      <c r="X3" s="105"/>
+      <c r="Y3" s="104" t="s">
         <v>27</v>
       </c>
-      <c r="Z3" s="81"/>
-      <c r="AA3" s="81" t="s">
+      <c r="Z3" s="106"/>
+      <c r="AA3" s="106" t="s">
         <v>28</v>
       </c>
-      <c r="AB3" s="81"/>
-      <c r="AC3" s="81" t="s">
+      <c r="AB3" s="106"/>
+      <c r="AC3" s="106" t="s">
         <v>29</v>
       </c>
-      <c r="AD3" s="81"/>
-      <c r="AE3" s="81" t="s">
+      <c r="AD3" s="106"/>
+      <c r="AE3" s="106" t="s">
         <v>30</v>
       </c>
-      <c r="AF3" s="81"/>
-      <c r="AG3" s="72" t="s">
+      <c r="AF3" s="106"/>
+      <c r="AG3" s="97" t="s">
         <v>31</v>
       </c>
-      <c r="AH3" s="73"/>
-      <c r="AI3" s="82" t="s">
+      <c r="AH3" s="98"/>
+      <c r="AI3" s="107" t="s">
         <v>32</v>
       </c>
-      <c r="AJ3" s="72"/>
-      <c r="AK3" s="72" t="s">
+      <c r="AJ3" s="97"/>
+      <c r="AK3" s="97" t="s">
         <v>33</v>
       </c>
-      <c r="AL3" s="72"/>
-      <c r="AM3" s="72" t="s">
+      <c r="AL3" s="97"/>
+      <c r="AM3" s="97" t="s">
         <v>34</v>
       </c>
-      <c r="AN3" s="73"/>
-      <c r="AO3" s="66" t="s">
+      <c r="AN3" s="98"/>
+      <c r="AO3" s="111" t="s">
         <v>35</v>
       </c>
-      <c r="AP3" s="67"/>
-      <c r="AQ3" s="66" t="s">
+      <c r="AP3" s="112"/>
+      <c r="AQ3" s="111" t="s">
         <v>36</v>
       </c>
-      <c r="AR3" s="68"/>
-      <c r="AS3" s="68" t="s">
+      <c r="AR3" s="113"/>
+      <c r="AS3" s="113" t="s">
         <v>37</v>
       </c>
-      <c r="AT3" s="67"/>
-      <c r="AU3" s="69" t="s">
+      <c r="AT3" s="112"/>
+      <c r="AU3" s="114" t="s">
         <v>19</v>
       </c>
-      <c r="AV3" s="70"/>
-      <c r="AW3" s="71" t="s">
+      <c r="AV3" s="115"/>
+      <c r="AW3" s="116" t="s">
         <v>38</v>
       </c>
-      <c r="AX3" s="63"/>
-      <c r="AY3" s="63" t="s">
+      <c r="AX3" s="108"/>
+      <c r="AY3" s="108" t="s">
         <v>39</v>
       </c>
-      <c r="AZ3" s="63"/>
-      <c r="BA3" s="63" t="s">
+      <c r="AZ3" s="108"/>
+      <c r="BA3" s="108" t="s">
         <v>16</v>
       </c>
-      <c r="BB3" s="63"/>
-      <c r="BC3" s="64" t="s">
+      <c r="BB3" s="108"/>
+      <c r="BC3" s="109" t="s">
         <v>40</v>
       </c>
-      <c r="BD3" s="65"/>
+      <c r="BD3" s="110"/>
       <c r="BE3" s="22" t="s">
         <v>19</v>
       </c>
@@ -12656,6 +13563,26 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="BA3:BB3"/>
+    <mergeCell ref="BC3:BD3"/>
+    <mergeCell ref="AO3:AP3"/>
+    <mergeCell ref="AQ3:AR3"/>
+    <mergeCell ref="AS3:AT3"/>
+    <mergeCell ref="AU3:AV3"/>
+    <mergeCell ref="AW3:AX3"/>
+    <mergeCell ref="AY3:AZ3"/>
+    <mergeCell ref="AM3:AN3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="Y3:Z3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="AI3:AJ3"/>
+    <mergeCell ref="AK3:AL3"/>
     <mergeCell ref="BM2:BS2"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:L2"/>
@@ -12668,26 +13595,6 @@
     <mergeCell ref="AW2:BD2"/>
     <mergeCell ref="BE2:BH2"/>
     <mergeCell ref="BJ2:BL2"/>
-    <mergeCell ref="AM3:AN3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="Y3:Z3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="AI3:AJ3"/>
-    <mergeCell ref="AK3:AL3"/>
-    <mergeCell ref="BA3:BB3"/>
-    <mergeCell ref="BC3:BD3"/>
-    <mergeCell ref="AO3:AP3"/>
-    <mergeCell ref="AQ3:AR3"/>
-    <mergeCell ref="AS3:AT3"/>
-    <mergeCell ref="AU3:AV3"/>
-    <mergeCell ref="AW3:AX3"/>
-    <mergeCell ref="AY3:AZ3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -13267,7 +14174,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T70"/>
   <sheetViews>
-    <sheetView topLeftCell="H19" workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="T41" sqref="T41"/>
     </sheetView>
   </sheetViews>
@@ -16051,7 +16958,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T77"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
+    <sheetView topLeftCell="A36" workbookViewId="0">
       <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
@@ -19185,8 +20092,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B51" workbookViewId="0">
-      <selection activeCell="H56" sqref="H56"/>
+    <sheetView topLeftCell="J118" workbookViewId="0">
+      <selection activeCell="T114" sqref="T114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24945,9 +25852,6571 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T159"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A143" workbookViewId="0">
+      <selection activeCell="A160" sqref="A160"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.5703125" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="32.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
+    <col min="5" max="5" width="77" customWidth="1"/>
+    <col min="6" max="6" width="7.28515625" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" customWidth="1"/>
+    <col min="11" max="11" width="10" customWidth="1"/>
+    <col min="12" max="12" width="16.5703125" customWidth="1"/>
+    <col min="13" max="13" width="10" customWidth="1"/>
+    <col min="14" max="14" width="15.28515625" customWidth="1"/>
+    <col min="15" max="15" width="10.140625" customWidth="1"/>
+    <col min="16" max="16" width="15.28515625" customWidth="1"/>
+    <col min="17" max="17" width="10.140625" customWidth="1"/>
+    <col min="18" max="18" width="16.28515625" customWidth="1"/>
+    <col min="19" max="19" width="10.140625" customWidth="1"/>
+    <col min="20" max="20" width="50.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G1" t="s">
+        <v>148</v>
+      </c>
+      <c r="H1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I1" t="s">
+        <v>139</v>
+      </c>
+      <c r="J1" t="s">
+        <v>135</v>
+      </c>
+      <c r="K1" t="s">
+        <v>138</v>
+      </c>
+      <c r="L1" t="s">
+        <v>136</v>
+      </c>
+      <c r="M1" t="s">
+        <v>140</v>
+      </c>
+      <c r="N1" t="s">
+        <v>137</v>
+      </c>
+      <c r="O1" t="s">
+        <v>141</v>
+      </c>
+      <c r="P1" t="s">
+        <v>429</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>430</v>
+      </c>
+      <c r="R1" t="s">
+        <v>431</v>
+      </c>
+      <c r="S1" t="s">
+        <v>432</v>
+      </c>
+      <c r="T1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>805</v>
+      </c>
+      <c r="B2" s="61">
+        <v>42739</v>
+      </c>
+      <c r="C2" t="s">
+        <v>513</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>806</v>
+      </c>
+      <c r="F2" s="60" t="s">
+        <v>812</v>
+      </c>
+      <c r="G2" s="60" t="s">
+        <v>149</v>
+      </c>
+      <c r="H2" t="s">
+        <v>818</v>
+      </c>
+      <c r="I2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J2" t="s">
+        <v>503</v>
+      </c>
+      <c r="K2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>805</v>
+      </c>
+      <c r="B3" s="61">
+        <v>42739</v>
+      </c>
+      <c r="C3" t="s">
+        <v>513</v>
+      </c>
+      <c r="D3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E3" t="s">
+        <v>807</v>
+      </c>
+      <c r="F3" s="60" t="s">
+        <v>813</v>
+      </c>
+      <c r="G3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H3" t="s">
+        <v>420</v>
+      </c>
+      <c r="I3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J3" t="s">
+        <v>701</v>
+      </c>
+      <c r="K3" t="s">
+        <v>175</v>
+      </c>
+      <c r="L3" t="s">
+        <v>362</v>
+      </c>
+      <c r="M3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>805</v>
+      </c>
+      <c r="B4" s="61">
+        <v>42739</v>
+      </c>
+      <c r="C4" t="s">
+        <v>513</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>808</v>
+      </c>
+      <c r="F4" s="60" t="s">
+        <v>290</v>
+      </c>
+      <c r="G4" t="s">
+        <v>149</v>
+      </c>
+      <c r="H4" t="s">
+        <v>225</v>
+      </c>
+      <c r="I4" t="s">
+        <v>174</v>
+      </c>
+      <c r="J4" t="s">
+        <v>819</v>
+      </c>
+      <c r="K4" t="s">
+        <v>51</v>
+      </c>
+      <c r="L4" t="s">
+        <v>460</v>
+      </c>
+      <c r="M4" t="s">
+        <v>175</v>
+      </c>
+      <c r="N4" t="s">
+        <v>171</v>
+      </c>
+      <c r="O4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>805</v>
+      </c>
+      <c r="B5" s="61">
+        <v>42739</v>
+      </c>
+      <c r="C5" t="s">
+        <v>513</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>809</v>
+      </c>
+      <c r="F5" s="60" t="s">
+        <v>814</v>
+      </c>
+      <c r="G5" t="s">
+        <v>155</v>
+      </c>
+      <c r="H5" t="s">
+        <v>633</v>
+      </c>
+      <c r="I5" t="s">
+        <v>51</v>
+      </c>
+      <c r="J5" t="s">
+        <v>820</v>
+      </c>
+      <c r="K5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>805</v>
+      </c>
+      <c r="B6" s="61">
+        <v>42739</v>
+      </c>
+      <c r="C6" t="s">
+        <v>513</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>810</v>
+      </c>
+      <c r="F6" s="60" t="s">
+        <v>815</v>
+      </c>
+      <c r="G6" t="s">
+        <v>149</v>
+      </c>
+      <c r="H6" t="s">
+        <v>757</v>
+      </c>
+      <c r="I6" t="s">
+        <v>51</v>
+      </c>
+      <c r="J6" t="s">
+        <v>525</v>
+      </c>
+      <c r="K6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>805</v>
+      </c>
+      <c r="B7" s="61">
+        <v>42739</v>
+      </c>
+      <c r="C7" t="s">
+        <v>513</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" t="s">
+        <v>385</v>
+      </c>
+      <c r="F7" s="60" t="s">
+        <v>816</v>
+      </c>
+      <c r="G7" t="s">
+        <v>149</v>
+      </c>
+      <c r="H7" t="s">
+        <v>199</v>
+      </c>
+      <c r="I7" t="s">
+        <v>51</v>
+      </c>
+      <c r="J7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>805</v>
+      </c>
+      <c r="B8" s="61">
+        <v>42739</v>
+      </c>
+      <c r="C8" t="s">
+        <v>513</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" t="s">
+        <v>811</v>
+      </c>
+      <c r="F8" s="60" t="s">
+        <v>817</v>
+      </c>
+      <c r="G8" t="s">
+        <v>149</v>
+      </c>
+      <c r="H8" t="s">
+        <v>502</v>
+      </c>
+      <c r="I8" t="s">
+        <v>51</v>
+      </c>
+      <c r="J8" t="s">
+        <v>101</v>
+      </c>
+      <c r="K8" t="s">
+        <v>52</v>
+      </c>
+      <c r="T8" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>821</v>
+      </c>
+      <c r="B9" s="61">
+        <v>42756</v>
+      </c>
+      <c r="C9" t="s">
+        <v>527</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" t="s">
+        <v>822</v>
+      </c>
+      <c r="F9" s="60" t="s">
+        <v>825</v>
+      </c>
+      <c r="G9" t="s">
+        <v>149</v>
+      </c>
+      <c r="H9" t="s">
+        <v>701</v>
+      </c>
+      <c r="I9" t="s">
+        <v>51</v>
+      </c>
+      <c r="J9" t="s">
+        <v>820</v>
+      </c>
+      <c r="K9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>821</v>
+      </c>
+      <c r="B10" s="61">
+        <v>42756</v>
+      </c>
+      <c r="C10" t="s">
+        <v>527</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" t="s">
+        <v>823</v>
+      </c>
+      <c r="F10" s="60" t="s">
+        <v>404</v>
+      </c>
+      <c r="G10" t="s">
+        <v>149</v>
+      </c>
+      <c r="H10" t="s">
+        <v>101</v>
+      </c>
+      <c r="I10" t="s">
+        <v>174</v>
+      </c>
+      <c r="J10" t="s">
+        <v>214</v>
+      </c>
+      <c r="K10" t="s">
+        <v>51</v>
+      </c>
+      <c r="L10" t="s">
+        <v>460</v>
+      </c>
+      <c r="M10" t="s">
+        <v>175</v>
+      </c>
+      <c r="N10" t="s">
+        <v>171</v>
+      </c>
+      <c r="O10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>821</v>
+      </c>
+      <c r="B11" s="61">
+        <v>42756</v>
+      </c>
+      <c r="C11" t="s">
+        <v>527</v>
+      </c>
+      <c r="D11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" t="s">
+        <v>514</v>
+      </c>
+      <c r="F11" s="60" t="s">
+        <v>311</v>
+      </c>
+      <c r="G11" t="s">
+        <v>155</v>
+      </c>
+      <c r="H11" t="s">
+        <v>502</v>
+      </c>
+      <c r="I11" t="s">
+        <v>51</v>
+      </c>
+      <c r="J11" t="s">
+        <v>503</v>
+      </c>
+      <c r="K11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>821</v>
+      </c>
+      <c r="B12" s="61">
+        <v>42756</v>
+      </c>
+      <c r="C12" t="s">
+        <v>527</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" t="s">
+        <v>824</v>
+      </c>
+      <c r="F12" s="60" t="s">
+        <v>826</v>
+      </c>
+      <c r="G12" t="s">
+        <v>149</v>
+      </c>
+      <c r="H12" t="s">
+        <v>827</v>
+      </c>
+      <c r="I12" t="s">
+        <v>174</v>
+      </c>
+      <c r="J12" t="s">
+        <v>828</v>
+      </c>
+      <c r="K12" t="s">
+        <v>51</v>
+      </c>
+      <c r="L12" t="s">
+        <v>420</v>
+      </c>
+      <c r="M12" t="s">
+        <v>175</v>
+      </c>
+      <c r="N12" t="s">
+        <v>144</v>
+      </c>
+      <c r="O12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>829</v>
+      </c>
+      <c r="B13" s="61">
+        <v>42771</v>
+      </c>
+      <c r="C13" t="s">
+        <v>527</v>
+      </c>
+      <c r="D13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" t="s">
+        <v>830</v>
+      </c>
+      <c r="F13" s="60" t="s">
+        <v>834</v>
+      </c>
+      <c r="G13" t="s">
+        <v>149</v>
+      </c>
+      <c r="H13" t="s">
+        <v>214</v>
+      </c>
+      <c r="I13" t="s">
+        <v>51</v>
+      </c>
+      <c r="J13" t="s">
+        <v>820</v>
+      </c>
+      <c r="K13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>829</v>
+      </c>
+      <c r="B14" s="61">
+        <v>42771</v>
+      </c>
+      <c r="C14" t="s">
+        <v>527</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" t="s">
+        <v>831</v>
+      </c>
+      <c r="F14" s="60" t="s">
+        <v>835</v>
+      </c>
+      <c r="G14" t="s">
+        <v>149</v>
+      </c>
+      <c r="H14" t="s">
+        <v>757</v>
+      </c>
+      <c r="I14" t="s">
+        <v>174</v>
+      </c>
+      <c r="J14" t="s">
+        <v>144</v>
+      </c>
+      <c r="K14" t="s">
+        <v>51</v>
+      </c>
+      <c r="L14" t="s">
+        <v>460</v>
+      </c>
+      <c r="M14" t="s">
+        <v>175</v>
+      </c>
+      <c r="N14" t="s">
+        <v>171</v>
+      </c>
+      <c r="O14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>829</v>
+      </c>
+      <c r="B15" s="61">
+        <v>42771</v>
+      </c>
+      <c r="C15" t="s">
+        <v>527</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" t="s">
+        <v>832</v>
+      </c>
+      <c r="F15" s="60" t="s">
+        <v>836</v>
+      </c>
+      <c r="G15" t="s">
+        <v>149</v>
+      </c>
+      <c r="H15" t="s">
+        <v>827</v>
+      </c>
+      <c r="I15" t="s">
+        <v>174</v>
+      </c>
+      <c r="J15" t="s">
+        <v>828</v>
+      </c>
+      <c r="K15" t="s">
+        <v>51</v>
+      </c>
+      <c r="L15" t="s">
+        <v>420</v>
+      </c>
+      <c r="M15" t="s">
+        <v>175</v>
+      </c>
+      <c r="N15" t="s">
+        <v>701</v>
+      </c>
+      <c r="O15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>829</v>
+      </c>
+      <c r="B16" s="61">
+        <v>42771</v>
+      </c>
+      <c r="C16" t="s">
+        <v>527</v>
+      </c>
+      <c r="D16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" t="s">
+        <v>833</v>
+      </c>
+      <c r="F16" s="60" t="s">
+        <v>837</v>
+      </c>
+      <c r="G16" t="s">
+        <v>149</v>
+      </c>
+      <c r="H16" t="s">
+        <v>633</v>
+      </c>
+      <c r="I16" t="s">
+        <v>174</v>
+      </c>
+      <c r="J16" t="s">
+        <v>101</v>
+      </c>
+      <c r="K16" t="s">
+        <v>51</v>
+      </c>
+      <c r="L16" t="s">
+        <v>503</v>
+      </c>
+      <c r="M16" t="s">
+        <v>175</v>
+      </c>
+      <c r="N16" t="s">
+        <v>502</v>
+      </c>
+      <c r="O16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>838</v>
+      </c>
+      <c r="B17" s="61">
+        <v>42784</v>
+      </c>
+      <c r="C17" t="s">
+        <v>527</v>
+      </c>
+      <c r="D17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" t="s">
+        <v>618</v>
+      </c>
+      <c r="F17" s="60" t="s">
+        <v>842</v>
+      </c>
+      <c r="G17" t="s">
+        <v>149</v>
+      </c>
+      <c r="H17" t="s">
+        <v>101</v>
+      </c>
+      <c r="I17" t="s">
+        <v>51</v>
+      </c>
+      <c r="J17" t="s">
+        <v>503</v>
+      </c>
+      <c r="K17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>838</v>
+      </c>
+      <c r="B18" s="61">
+        <v>42784</v>
+      </c>
+      <c r="C18" t="s">
+        <v>527</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" t="s">
+        <v>839</v>
+      </c>
+      <c r="F18" s="60" t="s">
+        <v>843</v>
+      </c>
+      <c r="G18" t="s">
+        <v>149</v>
+      </c>
+      <c r="H18" t="s">
+        <v>144</v>
+      </c>
+      <c r="I18" t="s">
+        <v>174</v>
+      </c>
+      <c r="J18" t="s">
+        <v>502</v>
+      </c>
+      <c r="K18" t="s">
+        <v>51</v>
+      </c>
+      <c r="L18" t="s">
+        <v>420</v>
+      </c>
+      <c r="M18" t="s">
+        <v>175</v>
+      </c>
+      <c r="N18" t="s">
+        <v>757</v>
+      </c>
+      <c r="O18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>838</v>
+      </c>
+      <c r="B19" s="61">
+        <v>42784</v>
+      </c>
+      <c r="C19" t="s">
+        <v>527</v>
+      </c>
+      <c r="D19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" t="s">
+        <v>840</v>
+      </c>
+      <c r="F19" s="60" t="s">
+        <v>304</v>
+      </c>
+      <c r="G19" t="s">
+        <v>149</v>
+      </c>
+      <c r="H19" t="s">
+        <v>214</v>
+      </c>
+      <c r="I19" t="s">
+        <v>51</v>
+      </c>
+      <c r="J19" t="s">
+        <v>701</v>
+      </c>
+      <c r="K19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>838</v>
+      </c>
+      <c r="B20" s="61">
+        <v>42784</v>
+      </c>
+      <c r="C20" t="s">
+        <v>527</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" t="s">
+        <v>841</v>
+      </c>
+      <c r="F20" s="60" t="s">
+        <v>844</v>
+      </c>
+      <c r="G20" t="s">
+        <v>155</v>
+      </c>
+      <c r="H20" t="s">
+        <v>827</v>
+      </c>
+      <c r="I20" t="s">
+        <v>174</v>
+      </c>
+      <c r="J20" t="s">
+        <v>828</v>
+      </c>
+      <c r="K20" t="s">
+        <v>51</v>
+      </c>
+      <c r="L20" t="s">
+        <v>460</v>
+      </c>
+      <c r="M20" t="s">
+        <v>175</v>
+      </c>
+      <c r="N20" t="s">
+        <v>171</v>
+      </c>
+      <c r="O20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>845</v>
+      </c>
+      <c r="B21" s="61">
+        <v>42792</v>
+      </c>
+      <c r="C21" t="s">
+        <v>216</v>
+      </c>
+      <c r="D21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" t="s">
+        <v>846</v>
+      </c>
+      <c r="F21" s="60" t="s">
+        <v>563</v>
+      </c>
+      <c r="G21" t="s">
+        <v>149</v>
+      </c>
+      <c r="H21" t="s">
+        <v>101</v>
+      </c>
+      <c r="I21" t="s">
+        <v>51</v>
+      </c>
+      <c r="J21" t="s">
+        <v>460</v>
+      </c>
+      <c r="K21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>845</v>
+      </c>
+      <c r="B22" s="61">
+        <v>42792</v>
+      </c>
+      <c r="C22" t="s">
+        <v>216</v>
+      </c>
+      <c r="D22" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" t="s">
+        <v>786</v>
+      </c>
+      <c r="F22" s="60" t="s">
+        <v>720</v>
+      </c>
+      <c r="G22" t="s">
+        <v>149</v>
+      </c>
+      <c r="H22" t="s">
+        <v>171</v>
+      </c>
+      <c r="I22" t="s">
+        <v>51</v>
+      </c>
+      <c r="J22" t="s">
+        <v>701</v>
+      </c>
+      <c r="K22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>845</v>
+      </c>
+      <c r="B23" s="61">
+        <v>42792</v>
+      </c>
+      <c r="C23" t="s">
+        <v>216</v>
+      </c>
+      <c r="D23" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" t="s">
+        <v>847</v>
+      </c>
+      <c r="F23" s="60" t="s">
+        <v>285</v>
+      </c>
+      <c r="G23" t="s">
+        <v>159</v>
+      </c>
+      <c r="H23" t="s">
+        <v>757</v>
+      </c>
+      <c r="I23" t="s">
+        <v>160</v>
+      </c>
+      <c r="J23" t="s">
+        <v>214</v>
+      </c>
+      <c r="K23" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>845</v>
+      </c>
+      <c r="B24" s="61">
+        <v>42792</v>
+      </c>
+      <c r="C24" t="s">
+        <v>216</v>
+      </c>
+      <c r="D24" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" t="s">
+        <v>848</v>
+      </c>
+      <c r="F24" s="60" t="s">
+        <v>775</v>
+      </c>
+      <c r="G24" t="s">
+        <v>155</v>
+      </c>
+      <c r="H24" t="s">
+        <v>420</v>
+      </c>
+      <c r="I24" t="s">
+        <v>174</v>
+      </c>
+      <c r="J24" t="s">
+        <v>144</v>
+      </c>
+      <c r="K24" t="s">
+        <v>51</v>
+      </c>
+      <c r="L24" t="s">
+        <v>503</v>
+      </c>
+      <c r="M24" t="s">
+        <v>175</v>
+      </c>
+      <c r="N24" t="s">
+        <v>502</v>
+      </c>
+      <c r="O24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>849</v>
+      </c>
+      <c r="B25" s="61">
+        <v>42798</v>
+      </c>
+      <c r="C25" t="s">
+        <v>636</v>
+      </c>
+      <c r="D25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" t="s">
+        <v>851</v>
+      </c>
+      <c r="F25" s="60" t="s">
+        <v>854</v>
+      </c>
+      <c r="G25" t="s">
+        <v>149</v>
+      </c>
+      <c r="H25" t="s">
+        <v>503</v>
+      </c>
+      <c r="I25" t="s">
+        <v>51</v>
+      </c>
+      <c r="J25" t="s">
+        <v>171</v>
+      </c>
+      <c r="K25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>849</v>
+      </c>
+      <c r="B26" s="61">
+        <v>42798</v>
+      </c>
+      <c r="C26" t="s">
+        <v>636</v>
+      </c>
+      <c r="D26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" t="s">
+        <v>852</v>
+      </c>
+      <c r="F26" s="60" t="s">
+        <v>855</v>
+      </c>
+      <c r="G26" t="s">
+        <v>149</v>
+      </c>
+      <c r="H26" t="s">
+        <v>214</v>
+      </c>
+      <c r="I26" t="s">
+        <v>51</v>
+      </c>
+      <c r="J26" t="s">
+        <v>460</v>
+      </c>
+      <c r="K26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>849</v>
+      </c>
+      <c r="B27" s="61">
+        <v>42798</v>
+      </c>
+      <c r="C27" t="s">
+        <v>636</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" t="s">
+        <v>853</v>
+      </c>
+      <c r="F27" s="60" t="s">
+        <v>856</v>
+      </c>
+      <c r="G27" t="s">
+        <v>149</v>
+      </c>
+      <c r="H27" t="s">
+        <v>144</v>
+      </c>
+      <c r="I27" t="s">
+        <v>174</v>
+      </c>
+      <c r="J27" t="s">
+        <v>757</v>
+      </c>
+      <c r="K27" t="s">
+        <v>51</v>
+      </c>
+      <c r="L27" t="s">
+        <v>701</v>
+      </c>
+      <c r="M27" t="s">
+        <v>175</v>
+      </c>
+      <c r="N27" t="s">
+        <v>101</v>
+      </c>
+      <c r="O27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>850</v>
+      </c>
+      <c r="B28" s="61">
+        <v>42798</v>
+      </c>
+      <c r="C28" t="s">
+        <v>636</v>
+      </c>
+      <c r="D28" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" t="s">
+        <v>857</v>
+      </c>
+      <c r="F28" s="60" t="s">
+        <v>860</v>
+      </c>
+      <c r="G28" t="s">
+        <v>149</v>
+      </c>
+      <c r="H28" t="s">
+        <v>757</v>
+      </c>
+      <c r="I28" t="s">
+        <v>51</v>
+      </c>
+      <c r="J28" t="s">
+        <v>460</v>
+      </c>
+      <c r="K28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>850</v>
+      </c>
+      <c r="B29" s="61">
+        <v>42798</v>
+      </c>
+      <c r="C29" t="s">
+        <v>636</v>
+      </c>
+      <c r="D29" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" t="s">
+        <v>858</v>
+      </c>
+      <c r="F29" s="60" t="s">
+        <v>471</v>
+      </c>
+      <c r="G29" t="s">
+        <v>149</v>
+      </c>
+      <c r="H29" t="s">
+        <v>420</v>
+      </c>
+      <c r="I29" t="s">
+        <v>51</v>
+      </c>
+      <c r="J29" t="s">
+        <v>214</v>
+      </c>
+      <c r="K29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>850</v>
+      </c>
+      <c r="B30" s="61">
+        <v>42798</v>
+      </c>
+      <c r="C30" t="s">
+        <v>636</v>
+      </c>
+      <c r="D30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30" t="s">
+        <v>859</v>
+      </c>
+      <c r="F30" s="60" t="s">
+        <v>861</v>
+      </c>
+      <c r="G30" t="s">
+        <v>149</v>
+      </c>
+      <c r="H30" t="s">
+        <v>502</v>
+      </c>
+      <c r="I30" t="s">
+        <v>174</v>
+      </c>
+      <c r="J30" t="s">
+        <v>101</v>
+      </c>
+      <c r="K30" t="s">
+        <v>51</v>
+      </c>
+      <c r="L30" t="s">
+        <v>503</v>
+      </c>
+      <c r="M30" t="s">
+        <v>175</v>
+      </c>
+      <c r="N30" t="s">
+        <v>144</v>
+      </c>
+      <c r="O30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>862</v>
+      </c>
+      <c r="B31" s="61">
+        <v>42806</v>
+      </c>
+      <c r="C31" t="s">
+        <v>863</v>
+      </c>
+      <c r="D31" t="s">
+        <v>189</v>
+      </c>
+      <c r="E31" t="s">
+        <v>864</v>
+      </c>
+      <c r="F31" s="60" t="s">
+        <v>540</v>
+      </c>
+      <c r="G31" t="s">
+        <v>149</v>
+      </c>
+      <c r="H31" t="s">
+        <v>757</v>
+      </c>
+      <c r="I31" t="s">
+        <v>51</v>
+      </c>
+      <c r="J31" t="s">
+        <v>820</v>
+      </c>
+      <c r="K31" t="s">
+        <v>175</v>
+      </c>
+      <c r="L31" t="s">
+        <v>701</v>
+      </c>
+      <c r="M31" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>862</v>
+      </c>
+      <c r="B32" s="61">
+        <v>42806</v>
+      </c>
+      <c r="C32" t="s">
+        <v>863</v>
+      </c>
+      <c r="D32" t="s">
+        <v>19</v>
+      </c>
+      <c r="E32" t="s">
+        <v>865</v>
+      </c>
+      <c r="F32" s="60" t="s">
+        <v>869</v>
+      </c>
+      <c r="G32" t="s">
+        <v>149</v>
+      </c>
+      <c r="H32" t="s">
+        <v>873</v>
+      </c>
+      <c r="I32" t="s">
+        <v>51</v>
+      </c>
+      <c r="J32" t="s">
+        <v>503</v>
+      </c>
+      <c r="K32" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>862</v>
+      </c>
+      <c r="B33" s="61">
+        <v>42806</v>
+      </c>
+      <c r="C33" t="s">
+        <v>863</v>
+      </c>
+      <c r="D33" t="s">
+        <v>20</v>
+      </c>
+      <c r="E33" t="s">
+        <v>866</v>
+      </c>
+      <c r="F33" s="60" t="s">
+        <v>870</v>
+      </c>
+      <c r="G33" t="s">
+        <v>149</v>
+      </c>
+      <c r="H33" t="s">
+        <v>144</v>
+      </c>
+      <c r="I33" t="s">
+        <v>174</v>
+      </c>
+      <c r="J33" t="s">
+        <v>101</v>
+      </c>
+      <c r="K33" t="s">
+        <v>51</v>
+      </c>
+      <c r="L33" t="s">
+        <v>171</v>
+      </c>
+      <c r="M33" t="s">
+        <v>175</v>
+      </c>
+      <c r="N33" t="s">
+        <v>214</v>
+      </c>
+      <c r="O33" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>862</v>
+      </c>
+      <c r="B34" s="61">
+        <v>42806</v>
+      </c>
+      <c r="C34" t="s">
+        <v>863</v>
+      </c>
+      <c r="D34" t="s">
+        <v>20</v>
+      </c>
+      <c r="E34" t="s">
+        <v>867</v>
+      </c>
+      <c r="F34" s="60" t="s">
+        <v>871</v>
+      </c>
+      <c r="G34" t="s">
+        <v>155</v>
+      </c>
+      <c r="H34" t="s">
+        <v>827</v>
+      </c>
+      <c r="I34" t="s">
+        <v>174</v>
+      </c>
+      <c r="J34" t="s">
+        <v>828</v>
+      </c>
+      <c r="K34" t="s">
+        <v>51</v>
+      </c>
+      <c r="L34" t="s">
+        <v>460</v>
+      </c>
+      <c r="M34" t="s">
+        <v>175</v>
+      </c>
+      <c r="N34" t="s">
+        <v>420</v>
+      </c>
+      <c r="O34" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>862</v>
+      </c>
+      <c r="B35" s="61">
+        <v>42806</v>
+      </c>
+      <c r="C35" t="s">
+        <v>863</v>
+      </c>
+      <c r="D35" t="s">
+        <v>19</v>
+      </c>
+      <c r="E35" t="s">
+        <v>868</v>
+      </c>
+      <c r="F35" s="60" t="s">
+        <v>872</v>
+      </c>
+      <c r="G35" t="s">
+        <v>149</v>
+      </c>
+      <c r="H35" t="s">
+        <v>502</v>
+      </c>
+      <c r="I35" t="s">
+        <v>51</v>
+      </c>
+      <c r="J35" t="s">
+        <v>633</v>
+      </c>
+      <c r="K35" t="s">
+        <v>52</v>
+      </c>
+      <c r="T35" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>874</v>
+      </c>
+      <c r="B36" s="61">
+        <v>42819</v>
+      </c>
+      <c r="C36" t="s">
+        <v>255</v>
+      </c>
+      <c r="D36" t="s">
+        <v>19</v>
+      </c>
+      <c r="E36" t="s">
+        <v>875</v>
+      </c>
+      <c r="F36" s="60" t="s">
+        <v>552</v>
+      </c>
+      <c r="G36" t="s">
+        <v>149</v>
+      </c>
+      <c r="H36" t="s">
+        <v>873</v>
+      </c>
+      <c r="I36" t="s">
+        <v>51</v>
+      </c>
+      <c r="J36" t="s">
+        <v>701</v>
+      </c>
+      <c r="K36" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>874</v>
+      </c>
+      <c r="B37" s="61">
+        <v>42819</v>
+      </c>
+      <c r="C37" t="s">
+        <v>255</v>
+      </c>
+      <c r="D37" t="s">
+        <v>20</v>
+      </c>
+      <c r="E37" t="s">
+        <v>876</v>
+      </c>
+      <c r="F37" s="60" t="s">
+        <v>879</v>
+      </c>
+      <c r="G37" t="s">
+        <v>149</v>
+      </c>
+      <c r="H37" t="s">
+        <v>757</v>
+      </c>
+      <c r="I37" t="s">
+        <v>174</v>
+      </c>
+      <c r="J37" t="s">
+        <v>503</v>
+      </c>
+      <c r="K37" t="s">
+        <v>51</v>
+      </c>
+      <c r="L37" t="s">
+        <v>820</v>
+      </c>
+      <c r="M37" t="s">
+        <v>175</v>
+      </c>
+      <c r="N37" t="s">
+        <v>633</v>
+      </c>
+      <c r="O37" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>874</v>
+      </c>
+      <c r="B38" s="61">
+        <v>42819</v>
+      </c>
+      <c r="C38" t="s">
+        <v>255</v>
+      </c>
+      <c r="D38" t="s">
+        <v>20</v>
+      </c>
+      <c r="E38" t="s">
+        <v>877</v>
+      </c>
+      <c r="F38" s="60" t="s">
+        <v>880</v>
+      </c>
+      <c r="G38" t="s">
+        <v>155</v>
+      </c>
+      <c r="H38" t="s">
+        <v>502</v>
+      </c>
+      <c r="I38" t="s">
+        <v>174</v>
+      </c>
+      <c r="J38" t="s">
+        <v>101</v>
+      </c>
+      <c r="K38" t="s">
+        <v>51</v>
+      </c>
+      <c r="L38" t="s">
+        <v>460</v>
+      </c>
+      <c r="M38" t="s">
+        <v>175</v>
+      </c>
+      <c r="N38" t="s">
+        <v>171</v>
+      </c>
+      <c r="O38" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>874</v>
+      </c>
+      <c r="B39" s="61">
+        <v>42819</v>
+      </c>
+      <c r="C39" t="s">
+        <v>255</v>
+      </c>
+      <c r="D39" t="s">
+        <v>19</v>
+      </c>
+      <c r="E39" t="s">
+        <v>878</v>
+      </c>
+      <c r="F39" s="60" t="s">
+        <v>881</v>
+      </c>
+      <c r="G39" t="s">
+        <v>155</v>
+      </c>
+      <c r="H39" t="s">
+        <v>827</v>
+      </c>
+      <c r="I39" t="s">
+        <v>51</v>
+      </c>
+      <c r="J39" t="s">
+        <v>420</v>
+      </c>
+      <c r="K39" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>874</v>
+      </c>
+      <c r="B40" s="61">
+        <v>42819</v>
+      </c>
+      <c r="C40" t="s">
+        <v>255</v>
+      </c>
+      <c r="D40" t="s">
+        <v>19</v>
+      </c>
+      <c r="E40" t="s">
+        <v>217</v>
+      </c>
+      <c r="F40" s="60" t="s">
+        <v>882</v>
+      </c>
+      <c r="G40" t="s">
+        <v>149</v>
+      </c>
+      <c r="H40" t="s">
+        <v>144</v>
+      </c>
+      <c r="I40" t="s">
+        <v>51</v>
+      </c>
+      <c r="J40" t="s">
+        <v>214</v>
+      </c>
+      <c r="K40" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>883</v>
+      </c>
+      <c r="B41" s="61">
+        <v>42833</v>
+      </c>
+      <c r="C41" t="s">
+        <v>884</v>
+      </c>
+      <c r="D41" t="s">
+        <v>19</v>
+      </c>
+      <c r="E41" t="s">
+        <v>885</v>
+      </c>
+      <c r="F41" s="60" t="s">
+        <v>325</v>
+      </c>
+      <c r="G41" t="s">
+        <v>149</v>
+      </c>
+      <c r="H41" t="s">
+        <v>893</v>
+      </c>
+      <c r="I41" t="s">
+        <v>51</v>
+      </c>
+      <c r="J41" t="s">
+        <v>820</v>
+      </c>
+      <c r="K41" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>883</v>
+      </c>
+      <c r="B42" s="61">
+        <v>42833</v>
+      </c>
+      <c r="C42" t="s">
+        <v>884</v>
+      </c>
+      <c r="D42" t="s">
+        <v>20</v>
+      </c>
+      <c r="E42" t="s">
+        <v>886</v>
+      </c>
+      <c r="F42" s="60" t="s">
+        <v>889</v>
+      </c>
+      <c r="G42" t="s">
+        <v>149</v>
+      </c>
+      <c r="H42" t="s">
+        <v>757</v>
+      </c>
+      <c r="I42" t="s">
+        <v>174</v>
+      </c>
+      <c r="J42" t="s">
+        <v>171</v>
+      </c>
+      <c r="K42" t="s">
+        <v>51</v>
+      </c>
+      <c r="L42" t="s">
+        <v>524</v>
+      </c>
+      <c r="M42" t="s">
+        <v>175</v>
+      </c>
+      <c r="N42" t="s">
+        <v>144</v>
+      </c>
+      <c r="O42" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>883</v>
+      </c>
+      <c r="B43" s="61">
+        <v>42833</v>
+      </c>
+      <c r="C43" t="s">
+        <v>884</v>
+      </c>
+      <c r="D43" t="s">
+        <v>20</v>
+      </c>
+      <c r="E43" t="s">
+        <v>832</v>
+      </c>
+      <c r="F43" s="60" t="s">
+        <v>890</v>
+      </c>
+      <c r="G43" t="s">
+        <v>892</v>
+      </c>
+      <c r="H43" t="s">
+        <v>827</v>
+      </c>
+      <c r="I43" t="s">
+        <v>160</v>
+      </c>
+      <c r="J43" t="s">
+        <v>828</v>
+      </c>
+      <c r="K43" t="s">
+        <v>160</v>
+      </c>
+      <c r="L43" t="s">
+        <v>420</v>
+      </c>
+      <c r="M43" t="s">
+        <v>160</v>
+      </c>
+      <c r="N43" t="s">
+        <v>701</v>
+      </c>
+      <c r="O43" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>883</v>
+      </c>
+      <c r="B44" s="61">
+        <v>42833</v>
+      </c>
+      <c r="C44" t="s">
+        <v>884</v>
+      </c>
+      <c r="D44" t="s">
+        <v>20</v>
+      </c>
+      <c r="E44" t="s">
+        <v>887</v>
+      </c>
+      <c r="F44" s="60" t="s">
+        <v>891</v>
+      </c>
+      <c r="G44" t="s">
+        <v>149</v>
+      </c>
+      <c r="H44" t="s">
+        <v>101</v>
+      </c>
+      <c r="I44" t="s">
+        <v>174</v>
+      </c>
+      <c r="J44" t="s">
+        <v>633</v>
+      </c>
+      <c r="K44" t="s">
+        <v>51</v>
+      </c>
+      <c r="L44" t="s">
+        <v>503</v>
+      </c>
+      <c r="M44" t="s">
+        <v>175</v>
+      </c>
+      <c r="N44" t="s">
+        <v>873</v>
+      </c>
+      <c r="O44" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>883</v>
+      </c>
+      <c r="B45" s="61">
+        <v>42833</v>
+      </c>
+      <c r="C45" t="s">
+        <v>884</v>
+      </c>
+      <c r="D45" t="s">
+        <v>19</v>
+      </c>
+      <c r="E45" t="s">
+        <v>888</v>
+      </c>
+      <c r="F45" s="60" t="s">
+        <v>458</v>
+      </c>
+      <c r="G45" t="s">
+        <v>700</v>
+      </c>
+      <c r="H45" t="s">
+        <v>502</v>
+      </c>
+      <c r="I45" t="s">
+        <v>51</v>
+      </c>
+      <c r="J45" t="s">
+        <v>460</v>
+      </c>
+      <c r="K45" t="s">
+        <v>52</v>
+      </c>
+      <c r="T45" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>894</v>
+      </c>
+      <c r="B46" s="61">
+        <v>42855</v>
+      </c>
+      <c r="C46" t="s">
+        <v>895</v>
+      </c>
+      <c r="D46" t="s">
+        <v>20</v>
+      </c>
+      <c r="E46" t="s">
+        <v>896</v>
+      </c>
+      <c r="F46" s="60" t="s">
+        <v>899</v>
+      </c>
+      <c r="G46" t="s">
+        <v>155</v>
+      </c>
+      <c r="H46" t="s">
+        <v>633</v>
+      </c>
+      <c r="I46" t="s">
+        <v>174</v>
+      </c>
+      <c r="J46" t="s">
+        <v>524</v>
+      </c>
+      <c r="K46" t="s">
+        <v>51</v>
+      </c>
+      <c r="L46" t="s">
+        <v>820</v>
+      </c>
+      <c r="M46" t="s">
+        <v>175</v>
+      </c>
+      <c r="N46" t="s">
+        <v>893</v>
+      </c>
+      <c r="O46" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>894</v>
+      </c>
+      <c r="B47" s="61">
+        <v>42855</v>
+      </c>
+      <c r="C47" t="s">
+        <v>895</v>
+      </c>
+      <c r="D47" t="s">
+        <v>19</v>
+      </c>
+      <c r="E47" t="s">
+        <v>897</v>
+      </c>
+      <c r="F47" s="60" t="s">
+        <v>573</v>
+      </c>
+      <c r="G47" t="s">
+        <v>149</v>
+      </c>
+      <c r="H47" t="s">
+        <v>873</v>
+      </c>
+      <c r="I47" t="s">
+        <v>51</v>
+      </c>
+      <c r="J47" t="s">
+        <v>460</v>
+      </c>
+      <c r="K47" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>894</v>
+      </c>
+      <c r="B48" s="61">
+        <v>42855</v>
+      </c>
+      <c r="C48" t="s">
+        <v>895</v>
+      </c>
+      <c r="D48" t="s">
+        <v>19</v>
+      </c>
+      <c r="E48" t="s">
+        <v>355</v>
+      </c>
+      <c r="F48" s="60" t="s">
+        <v>900</v>
+      </c>
+      <c r="G48" t="s">
+        <v>149</v>
+      </c>
+      <c r="H48" t="s">
+        <v>144</v>
+      </c>
+      <c r="I48" t="s">
+        <v>51</v>
+      </c>
+      <c r="J48" t="s">
+        <v>171</v>
+      </c>
+      <c r="K48" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>894</v>
+      </c>
+      <c r="B49" s="61">
+        <v>42855</v>
+      </c>
+      <c r="C49" t="s">
+        <v>895</v>
+      </c>
+      <c r="D49" t="s">
+        <v>20</v>
+      </c>
+      <c r="E49" t="s">
+        <v>832</v>
+      </c>
+      <c r="F49" s="60" t="s">
+        <v>901</v>
+      </c>
+      <c r="G49" t="s">
+        <v>149</v>
+      </c>
+      <c r="H49" t="s">
+        <v>828</v>
+      </c>
+      <c r="I49" t="s">
+        <v>174</v>
+      </c>
+      <c r="J49" t="s">
+        <v>827</v>
+      </c>
+      <c r="K49" t="s">
+        <v>51</v>
+      </c>
+      <c r="L49" t="s">
+        <v>701</v>
+      </c>
+      <c r="M49" t="s">
+        <v>175</v>
+      </c>
+      <c r="N49" t="s">
+        <v>420</v>
+      </c>
+      <c r="O49" t="s">
+        <v>52</v>
+      </c>
+      <c r="T49" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>894</v>
+      </c>
+      <c r="B50" s="61">
+        <v>42855</v>
+      </c>
+      <c r="C50" t="s">
+        <v>895</v>
+      </c>
+      <c r="D50" t="s">
+        <v>20</v>
+      </c>
+      <c r="E50" t="s">
+        <v>898</v>
+      </c>
+      <c r="F50" s="60" t="s">
+        <v>902</v>
+      </c>
+      <c r="G50" t="s">
+        <v>149</v>
+      </c>
+      <c r="H50" t="s">
+        <v>757</v>
+      </c>
+      <c r="I50" t="s">
+        <v>174</v>
+      </c>
+      <c r="J50" t="s">
+        <v>101</v>
+      </c>
+      <c r="K50" t="s">
+        <v>51</v>
+      </c>
+      <c r="L50" t="s">
+        <v>503</v>
+      </c>
+      <c r="M50" t="s">
+        <v>175</v>
+      </c>
+      <c r="N50" t="s">
+        <v>502</v>
+      </c>
+      <c r="O50" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>904</v>
+      </c>
+      <c r="B51" s="61">
+        <v>42862</v>
+      </c>
+      <c r="C51" t="s">
+        <v>527</v>
+      </c>
+      <c r="D51" t="s">
+        <v>19</v>
+      </c>
+      <c r="E51" t="s">
+        <v>905</v>
+      </c>
+      <c r="F51" s="60" t="s">
+        <v>908</v>
+      </c>
+      <c r="G51" t="s">
+        <v>149</v>
+      </c>
+      <c r="H51" t="s">
+        <v>893</v>
+      </c>
+      <c r="I51" t="s">
+        <v>51</v>
+      </c>
+      <c r="J51" t="s">
+        <v>460</v>
+      </c>
+      <c r="K51" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>904</v>
+      </c>
+      <c r="B52" s="61">
+        <v>42862</v>
+      </c>
+      <c r="C52" t="s">
+        <v>527</v>
+      </c>
+      <c r="D52" t="s">
+        <v>189</v>
+      </c>
+      <c r="E52" t="s">
+        <v>906</v>
+      </c>
+      <c r="F52" s="60" t="s">
+        <v>485</v>
+      </c>
+      <c r="G52" t="s">
+        <v>149</v>
+      </c>
+      <c r="H52" t="s">
+        <v>171</v>
+      </c>
+      <c r="I52" t="s">
+        <v>51</v>
+      </c>
+      <c r="J52" t="s">
+        <v>524</v>
+      </c>
+      <c r="K52" t="s">
+        <v>175</v>
+      </c>
+      <c r="L52" t="s">
+        <v>171</v>
+      </c>
+      <c r="M52" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>904</v>
+      </c>
+      <c r="B53" s="61">
+        <v>42862</v>
+      </c>
+      <c r="C53" t="s">
+        <v>527</v>
+      </c>
+      <c r="D53" t="s">
+        <v>20</v>
+      </c>
+      <c r="E53" t="s">
+        <v>832</v>
+      </c>
+      <c r="F53" s="60" t="s">
+        <v>324</v>
+      </c>
+      <c r="G53" t="s">
+        <v>155</v>
+      </c>
+      <c r="H53" t="s">
+        <v>827</v>
+      </c>
+      <c r="I53" t="s">
+        <v>174</v>
+      </c>
+      <c r="J53" t="s">
+        <v>828</v>
+      </c>
+      <c r="K53" t="s">
+        <v>51</v>
+      </c>
+      <c r="L53" t="s">
+        <v>420</v>
+      </c>
+      <c r="M53" t="s">
+        <v>175</v>
+      </c>
+      <c r="N53" t="s">
+        <v>701</v>
+      </c>
+      <c r="O53" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>904</v>
+      </c>
+      <c r="B54" s="61">
+        <v>42862</v>
+      </c>
+      <c r="C54" t="s">
+        <v>527</v>
+      </c>
+      <c r="D54" t="s">
+        <v>423</v>
+      </c>
+      <c r="E54" t="s">
+        <v>907</v>
+      </c>
+      <c r="F54" s="60" t="s">
+        <v>909</v>
+      </c>
+      <c r="G54" t="s">
+        <v>155</v>
+      </c>
+      <c r="H54" t="s">
+        <v>633</v>
+      </c>
+      <c r="I54" t="s">
+        <v>174</v>
+      </c>
+      <c r="J54" t="s">
+        <v>757</v>
+      </c>
+      <c r="K54" t="s">
+        <v>51</v>
+      </c>
+      <c r="L54" t="s">
+        <v>144</v>
+      </c>
+      <c r="M54" t="s">
+        <v>51</v>
+      </c>
+      <c r="N54" t="s">
+        <v>503</v>
+      </c>
+      <c r="O54" t="s">
+        <v>175</v>
+      </c>
+      <c r="P54" t="s">
+        <v>502</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>52</v>
+      </c>
+      <c r="R54" t="s">
+        <v>101</v>
+      </c>
+      <c r="S54" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>910</v>
+      </c>
+      <c r="B55" s="61">
+        <v>42869</v>
+      </c>
+      <c r="C55" t="s">
+        <v>491</v>
+      </c>
+      <c r="D55" t="s">
+        <v>19</v>
+      </c>
+      <c r="E55" t="s">
+        <v>911</v>
+      </c>
+      <c r="F55" s="60" t="s">
+        <v>308</v>
+      </c>
+      <c r="G55" t="s">
+        <v>149</v>
+      </c>
+      <c r="H55" t="s">
+        <v>893</v>
+      </c>
+      <c r="I55" t="s">
+        <v>51</v>
+      </c>
+      <c r="J55" t="s">
+        <v>503</v>
+      </c>
+      <c r="K55" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>910</v>
+      </c>
+      <c r="B56" s="61">
+        <v>42869</v>
+      </c>
+      <c r="C56" t="s">
+        <v>491</v>
+      </c>
+      <c r="D56" t="s">
+        <v>189</v>
+      </c>
+      <c r="E56" t="s">
+        <v>912</v>
+      </c>
+      <c r="F56" s="60" t="s">
+        <v>915</v>
+      </c>
+      <c r="G56" t="s">
+        <v>149</v>
+      </c>
+      <c r="H56" t="s">
+        <v>873</v>
+      </c>
+      <c r="I56" t="s">
+        <v>51</v>
+      </c>
+      <c r="J56" t="s">
+        <v>171</v>
+      </c>
+      <c r="K56" t="s">
+        <v>175</v>
+      </c>
+      <c r="L56" t="s">
+        <v>701</v>
+      </c>
+      <c r="M56" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>910</v>
+      </c>
+      <c r="B57" s="61">
+        <v>42869</v>
+      </c>
+      <c r="C57" t="s">
+        <v>491</v>
+      </c>
+      <c r="D57" t="s">
+        <v>19</v>
+      </c>
+      <c r="E57" t="s">
+        <v>455</v>
+      </c>
+      <c r="F57" s="60" t="s">
+        <v>916</v>
+      </c>
+      <c r="G57" t="s">
+        <v>149</v>
+      </c>
+      <c r="H57" t="s">
+        <v>144</v>
+      </c>
+      <c r="I57" t="s">
+        <v>51</v>
+      </c>
+      <c r="J57" t="s">
+        <v>460</v>
+      </c>
+      <c r="K57" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>910</v>
+      </c>
+      <c r="B58" s="61">
+        <v>42869</v>
+      </c>
+      <c r="C58" t="s">
+        <v>491</v>
+      </c>
+      <c r="D58" t="s">
+        <v>19</v>
+      </c>
+      <c r="E58" t="s">
+        <v>913</v>
+      </c>
+      <c r="F58" s="60" t="s">
+        <v>917</v>
+      </c>
+      <c r="G58" t="s">
+        <v>149</v>
+      </c>
+      <c r="H58" t="s">
+        <v>827</v>
+      </c>
+      <c r="I58" t="s">
+        <v>51</v>
+      </c>
+      <c r="J58" t="s">
+        <v>420</v>
+      </c>
+      <c r="K58" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>910</v>
+      </c>
+      <c r="B59" s="61">
+        <v>42869</v>
+      </c>
+      <c r="C59" t="s">
+        <v>491</v>
+      </c>
+      <c r="D59" t="s">
+        <v>20</v>
+      </c>
+      <c r="E59" t="s">
+        <v>914</v>
+      </c>
+      <c r="F59" s="60" t="s">
+        <v>621</v>
+      </c>
+      <c r="G59" t="s">
+        <v>149</v>
+      </c>
+      <c r="H59" t="s">
+        <v>101</v>
+      </c>
+      <c r="I59" t="s">
+        <v>174</v>
+      </c>
+      <c r="J59" t="s">
+        <v>502</v>
+      </c>
+      <c r="K59" t="s">
+        <v>51</v>
+      </c>
+      <c r="L59" t="s">
+        <v>633</v>
+      </c>
+      <c r="M59" t="s">
+        <v>175</v>
+      </c>
+      <c r="N59" t="s">
+        <v>75</v>
+      </c>
+      <c r="O59" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>918</v>
+      </c>
+      <c r="B60" s="61">
+        <v>42890</v>
+      </c>
+      <c r="C60" t="s">
+        <v>351</v>
+      </c>
+      <c r="D60" t="s">
+        <v>19</v>
+      </c>
+      <c r="E60" t="s">
+        <v>919</v>
+      </c>
+      <c r="F60" s="60" t="s">
+        <v>721</v>
+      </c>
+      <c r="G60" t="s">
+        <v>149</v>
+      </c>
+      <c r="H60" t="s">
+        <v>503</v>
+      </c>
+      <c r="I60" t="s">
+        <v>51</v>
+      </c>
+      <c r="J60" t="s">
+        <v>524</v>
+      </c>
+      <c r="K60" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>918</v>
+      </c>
+      <c r="B61" s="61">
+        <v>42890</v>
+      </c>
+      <c r="C61" t="s">
+        <v>351</v>
+      </c>
+      <c r="D61" t="s">
+        <v>19</v>
+      </c>
+      <c r="E61" t="s">
+        <v>920</v>
+      </c>
+      <c r="F61" s="60" t="s">
+        <v>926</v>
+      </c>
+      <c r="G61" t="s">
+        <v>892</v>
+      </c>
+      <c r="H61" t="s">
+        <v>820</v>
+      </c>
+      <c r="I61" t="s">
+        <v>160</v>
+      </c>
+      <c r="J61" t="s">
+        <v>460</v>
+      </c>
+      <c r="K61" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>918</v>
+      </c>
+      <c r="B62" s="61">
+        <v>42890</v>
+      </c>
+      <c r="C62" t="s">
+        <v>351</v>
+      </c>
+      <c r="D62" t="s">
+        <v>19</v>
+      </c>
+      <c r="E62" t="s">
+        <v>921</v>
+      </c>
+      <c r="F62" s="60" t="s">
+        <v>679</v>
+      </c>
+      <c r="G62" t="s">
+        <v>149</v>
+      </c>
+      <c r="H62" t="s">
+        <v>144</v>
+      </c>
+      <c r="I62" t="s">
+        <v>51</v>
+      </c>
+      <c r="J62" t="s">
+        <v>893</v>
+      </c>
+      <c r="K62" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>918</v>
+      </c>
+      <c r="B63" s="61">
+        <v>42890</v>
+      </c>
+      <c r="C63" t="s">
+        <v>351</v>
+      </c>
+      <c r="D63" t="s">
+        <v>19</v>
+      </c>
+      <c r="E63" t="s">
+        <v>922</v>
+      </c>
+      <c r="F63" s="60" t="s">
+        <v>826</v>
+      </c>
+      <c r="G63" t="s">
+        <v>149</v>
+      </c>
+      <c r="H63" t="s">
+        <v>873</v>
+      </c>
+      <c r="I63" t="s">
+        <v>51</v>
+      </c>
+      <c r="J63" t="s">
+        <v>171</v>
+      </c>
+      <c r="K63" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>918</v>
+      </c>
+      <c r="B64" s="61">
+        <v>42890</v>
+      </c>
+      <c r="C64" t="s">
+        <v>351</v>
+      </c>
+      <c r="D64" t="s">
+        <v>19</v>
+      </c>
+      <c r="E64" t="s">
+        <v>923</v>
+      </c>
+      <c r="F64" s="60" t="s">
+        <v>343</v>
+      </c>
+      <c r="G64" t="s">
+        <v>149</v>
+      </c>
+      <c r="H64" t="s">
+        <v>101</v>
+      </c>
+      <c r="I64" t="s">
+        <v>51</v>
+      </c>
+      <c r="J64" t="s">
+        <v>633</v>
+      </c>
+      <c r="K64" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>918</v>
+      </c>
+      <c r="B65" s="61">
+        <v>42890</v>
+      </c>
+      <c r="C65" t="s">
+        <v>351</v>
+      </c>
+      <c r="D65" t="s">
+        <v>20</v>
+      </c>
+      <c r="E65" t="s">
+        <v>924</v>
+      </c>
+      <c r="F65" s="60" t="s">
+        <v>927</v>
+      </c>
+      <c r="G65" t="s">
+        <v>155</v>
+      </c>
+      <c r="H65" t="s">
+        <v>420</v>
+      </c>
+      <c r="I65" t="s">
+        <v>174</v>
+      </c>
+      <c r="J65" t="s">
+        <v>701</v>
+      </c>
+      <c r="K65" t="s">
+        <v>51</v>
+      </c>
+      <c r="L65" t="s">
+        <v>828</v>
+      </c>
+      <c r="M65" t="s">
+        <v>175</v>
+      </c>
+      <c r="N65" t="s">
+        <v>827</v>
+      </c>
+      <c r="O65" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>918</v>
+      </c>
+      <c r="B66" s="61">
+        <v>42890</v>
+      </c>
+      <c r="C66" t="s">
+        <v>351</v>
+      </c>
+      <c r="D66" t="s">
+        <v>19</v>
+      </c>
+      <c r="E66" t="s">
+        <v>925</v>
+      </c>
+      <c r="F66" s="60" t="s">
+        <v>928</v>
+      </c>
+      <c r="G66" t="s">
+        <v>149</v>
+      </c>
+      <c r="H66" t="s">
+        <v>75</v>
+      </c>
+      <c r="I66" t="s">
+        <v>51</v>
+      </c>
+      <c r="J66" t="s">
+        <v>502</v>
+      </c>
+      <c r="K66" t="s">
+        <v>52</v>
+      </c>
+      <c r="T66" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>929</v>
+      </c>
+      <c r="B67" s="61">
+        <v>42910</v>
+      </c>
+      <c r="C67" t="s">
+        <v>527</v>
+      </c>
+      <c r="D67" t="s">
+        <v>19</v>
+      </c>
+      <c r="E67" t="s">
+        <v>537</v>
+      </c>
+      <c r="F67" s="60" t="s">
+        <v>933</v>
+      </c>
+      <c r="G67" t="s">
+        <v>149</v>
+      </c>
+      <c r="H67" t="s">
+        <v>101</v>
+      </c>
+      <c r="I67" t="s">
+        <v>51</v>
+      </c>
+      <c r="J67" t="s">
+        <v>524</v>
+      </c>
+      <c r="K67" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>929</v>
+      </c>
+      <c r="B68" s="61">
+        <v>42910</v>
+      </c>
+      <c r="C68" t="s">
+        <v>527</v>
+      </c>
+      <c r="D68" t="s">
+        <v>189</v>
+      </c>
+      <c r="E68" t="s">
+        <v>930</v>
+      </c>
+      <c r="F68" s="60" t="s">
+        <v>646</v>
+      </c>
+      <c r="G68" t="s">
+        <v>149</v>
+      </c>
+      <c r="H68" t="s">
+        <v>893</v>
+      </c>
+      <c r="I68" t="s">
+        <v>51</v>
+      </c>
+      <c r="J68" t="s">
+        <v>460</v>
+      </c>
+      <c r="K68" t="s">
+        <v>175</v>
+      </c>
+      <c r="L68" t="s">
+        <v>701</v>
+      </c>
+      <c r="M68" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>929</v>
+      </c>
+      <c r="B69" s="61">
+        <v>42910</v>
+      </c>
+      <c r="C69" t="s">
+        <v>527</v>
+      </c>
+      <c r="D69" t="s">
+        <v>20</v>
+      </c>
+      <c r="E69" t="s">
+        <v>931</v>
+      </c>
+      <c r="F69" s="60" t="s">
+        <v>934</v>
+      </c>
+      <c r="G69" t="s">
+        <v>149</v>
+      </c>
+      <c r="H69" t="s">
+        <v>873</v>
+      </c>
+      <c r="I69" t="s">
+        <v>174</v>
+      </c>
+      <c r="J69" t="s">
+        <v>502</v>
+      </c>
+      <c r="K69" t="s">
+        <v>51</v>
+      </c>
+      <c r="L69" t="s">
+        <v>171</v>
+      </c>
+      <c r="M69" t="s">
+        <v>175</v>
+      </c>
+      <c r="N69" t="s">
+        <v>420</v>
+      </c>
+      <c r="O69" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>929</v>
+      </c>
+      <c r="B70" s="61">
+        <v>42910</v>
+      </c>
+      <c r="C70" t="s">
+        <v>527</v>
+      </c>
+      <c r="D70" t="s">
+        <v>20</v>
+      </c>
+      <c r="E70" t="s">
+        <v>932</v>
+      </c>
+      <c r="F70" s="60" t="s">
+        <v>935</v>
+      </c>
+      <c r="G70" t="s">
+        <v>149</v>
+      </c>
+      <c r="H70" t="s">
+        <v>75</v>
+      </c>
+      <c r="I70" t="s">
+        <v>174</v>
+      </c>
+      <c r="J70" t="s">
+        <v>633</v>
+      </c>
+      <c r="K70" t="s">
+        <v>51</v>
+      </c>
+      <c r="L70" t="s">
+        <v>503</v>
+      </c>
+      <c r="M70" t="s">
+        <v>175</v>
+      </c>
+      <c r="N70" t="s">
+        <v>144</v>
+      </c>
+      <c r="O70" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>936</v>
+      </c>
+      <c r="B71" s="61">
+        <v>42918</v>
+      </c>
+      <c r="C71" t="s">
+        <v>937</v>
+      </c>
+      <c r="D71" t="s">
+        <v>19</v>
+      </c>
+      <c r="E71" t="s">
+        <v>666</v>
+      </c>
+      <c r="F71" s="60" t="s">
+        <v>612</v>
+      </c>
+      <c r="G71" t="s">
+        <v>149</v>
+      </c>
+      <c r="H71" t="s">
+        <v>633</v>
+      </c>
+      <c r="I71" t="s">
+        <v>51</v>
+      </c>
+      <c r="J71" t="s">
+        <v>503</v>
+      </c>
+      <c r="K71" t="s">
+        <v>52</v>
+      </c>
+      <c r="T71" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>936</v>
+      </c>
+      <c r="B72" s="61">
+        <v>42918</v>
+      </c>
+      <c r="C72" t="s">
+        <v>937</v>
+      </c>
+      <c r="D72" t="s">
+        <v>19</v>
+      </c>
+      <c r="E72" t="s">
+        <v>938</v>
+      </c>
+      <c r="F72" s="60" t="s">
+        <v>552</v>
+      </c>
+      <c r="G72" t="s">
+        <v>149</v>
+      </c>
+      <c r="H72" t="s">
+        <v>893</v>
+      </c>
+      <c r="I72" t="s">
+        <v>51</v>
+      </c>
+      <c r="J72" t="s">
+        <v>171</v>
+      </c>
+      <c r="K72" t="s">
+        <v>52</v>
+      </c>
+      <c r="T72" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>936</v>
+      </c>
+      <c r="B73" s="61">
+        <v>42918</v>
+      </c>
+      <c r="C73" t="s">
+        <v>937</v>
+      </c>
+      <c r="D73" t="s">
+        <v>189</v>
+      </c>
+      <c r="E73" t="s">
+        <v>939</v>
+      </c>
+      <c r="F73" s="60" t="s">
+        <v>395</v>
+      </c>
+      <c r="G73" t="s">
+        <v>155</v>
+      </c>
+      <c r="H73" t="s">
+        <v>502</v>
+      </c>
+      <c r="I73" t="s">
+        <v>51</v>
+      </c>
+      <c r="J73" t="s">
+        <v>460</v>
+      </c>
+      <c r="K73" t="s">
+        <v>175</v>
+      </c>
+      <c r="L73" t="s">
+        <v>820</v>
+      </c>
+      <c r="M73" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>936</v>
+      </c>
+      <c r="B74" s="61">
+        <v>42918</v>
+      </c>
+      <c r="C74" t="s">
+        <v>937</v>
+      </c>
+      <c r="D74" t="s">
+        <v>19</v>
+      </c>
+      <c r="E74" t="s">
+        <v>728</v>
+      </c>
+      <c r="F74" s="60" t="s">
+        <v>942</v>
+      </c>
+      <c r="G74" t="s">
+        <v>149</v>
+      </c>
+      <c r="H74" t="s">
+        <v>101</v>
+      </c>
+      <c r="I74" t="s">
+        <v>51</v>
+      </c>
+      <c r="J74" t="s">
+        <v>701</v>
+      </c>
+      <c r="K74" t="s">
+        <v>52</v>
+      </c>
+      <c r="T74" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>936</v>
+      </c>
+      <c r="B75" s="61">
+        <v>42918</v>
+      </c>
+      <c r="C75" t="s">
+        <v>937</v>
+      </c>
+      <c r="D75" t="s">
+        <v>19</v>
+      </c>
+      <c r="E75" t="s">
+        <v>940</v>
+      </c>
+      <c r="F75" s="60" t="s">
+        <v>814</v>
+      </c>
+      <c r="G75" t="s">
+        <v>149</v>
+      </c>
+      <c r="H75" t="s">
+        <v>420</v>
+      </c>
+      <c r="I75" t="s">
+        <v>51</v>
+      </c>
+      <c r="J75" t="s">
+        <v>873</v>
+      </c>
+      <c r="K75" t="s">
+        <v>52</v>
+      </c>
+      <c r="T75" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>936</v>
+      </c>
+      <c r="B76" s="61">
+        <v>42918</v>
+      </c>
+      <c r="C76" t="s">
+        <v>937</v>
+      </c>
+      <c r="D76" t="s">
+        <v>19</v>
+      </c>
+      <c r="E76" t="s">
+        <v>941</v>
+      </c>
+      <c r="F76" s="60" t="s">
+        <v>943</v>
+      </c>
+      <c r="G76" t="s">
+        <v>149</v>
+      </c>
+      <c r="H76" t="s">
+        <v>75</v>
+      </c>
+      <c r="I76" t="s">
+        <v>51</v>
+      </c>
+      <c r="J76" t="s">
+        <v>144</v>
+      </c>
+      <c r="K76" t="s">
+        <v>52</v>
+      </c>
+      <c r="T76" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>945</v>
+      </c>
+      <c r="B77" s="61">
+        <v>42931</v>
+      </c>
+      <c r="C77" t="s">
+        <v>255</v>
+      </c>
+      <c r="D77" t="s">
+        <v>19</v>
+      </c>
+      <c r="E77" t="s">
+        <v>905</v>
+      </c>
+      <c r="F77" s="60" t="s">
+        <v>950</v>
+      </c>
+      <c r="G77" t="s">
+        <v>149</v>
+      </c>
+      <c r="H77" t="s">
+        <v>893</v>
+      </c>
+      <c r="I77" t="s">
+        <v>51</v>
+      </c>
+      <c r="J77" t="s">
+        <v>460</v>
+      </c>
+      <c r="K77" t="s">
+        <v>52</v>
+      </c>
+      <c r="T77" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>945</v>
+      </c>
+      <c r="B78" s="61">
+        <v>42931</v>
+      </c>
+      <c r="C78" t="s">
+        <v>255</v>
+      </c>
+      <c r="D78" t="s">
+        <v>19</v>
+      </c>
+      <c r="E78" t="s">
+        <v>946</v>
+      </c>
+      <c r="F78" s="60" t="s">
+        <v>801</v>
+      </c>
+      <c r="G78" t="s">
+        <v>149</v>
+      </c>
+      <c r="H78" t="s">
+        <v>101</v>
+      </c>
+      <c r="I78" t="s">
+        <v>51</v>
+      </c>
+      <c r="J78" t="s">
+        <v>820</v>
+      </c>
+      <c r="K78" t="s">
+        <v>52</v>
+      </c>
+      <c r="T78" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>945</v>
+      </c>
+      <c r="B79" s="61">
+        <v>42931</v>
+      </c>
+      <c r="C79" t="s">
+        <v>255</v>
+      </c>
+      <c r="D79" t="s">
+        <v>423</v>
+      </c>
+      <c r="E79" t="s">
+        <v>947</v>
+      </c>
+      <c r="F79" s="60" t="s">
+        <v>767</v>
+      </c>
+      <c r="G79" t="s">
+        <v>149</v>
+      </c>
+      <c r="H79" t="s">
+        <v>144</v>
+      </c>
+      <c r="I79" t="s">
+        <v>174</v>
+      </c>
+      <c r="J79" t="s">
+        <v>171</v>
+      </c>
+      <c r="K79" t="s">
+        <v>51</v>
+      </c>
+      <c r="L79" t="s">
+        <v>524</v>
+      </c>
+      <c r="M79" t="s">
+        <v>51</v>
+      </c>
+      <c r="N79" t="s">
+        <v>503</v>
+      </c>
+      <c r="O79" t="s">
+        <v>175</v>
+      </c>
+      <c r="P79" t="s">
+        <v>873</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>52</v>
+      </c>
+      <c r="R79" t="s">
+        <v>701</v>
+      </c>
+      <c r="S79" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>945</v>
+      </c>
+      <c r="B80" s="61">
+        <v>42931</v>
+      </c>
+      <c r="C80" t="s">
+        <v>255</v>
+      </c>
+      <c r="D80" t="s">
+        <v>19</v>
+      </c>
+      <c r="E80" t="s">
+        <v>948</v>
+      </c>
+      <c r="F80" s="60" t="s">
+        <v>499</v>
+      </c>
+      <c r="G80" t="s">
+        <v>149</v>
+      </c>
+      <c r="H80" t="s">
+        <v>633</v>
+      </c>
+      <c r="I80" t="s">
+        <v>51</v>
+      </c>
+      <c r="J80" t="s">
+        <v>502</v>
+      </c>
+      <c r="K80" t="s">
+        <v>52</v>
+      </c>
+      <c r="T80" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>945</v>
+      </c>
+      <c r="B81" s="61">
+        <v>42931</v>
+      </c>
+      <c r="C81" t="s">
+        <v>255</v>
+      </c>
+      <c r="D81" t="s">
+        <v>19</v>
+      </c>
+      <c r="E81" t="s">
+        <v>949</v>
+      </c>
+      <c r="F81" s="60" t="s">
+        <v>951</v>
+      </c>
+      <c r="G81" t="s">
+        <v>149</v>
+      </c>
+      <c r="H81" t="s">
+        <v>75</v>
+      </c>
+      <c r="I81" t="s">
+        <v>51</v>
+      </c>
+      <c r="J81" t="s">
+        <v>420</v>
+      </c>
+      <c r="K81" t="s">
+        <v>52</v>
+      </c>
+      <c r="T81" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>953</v>
+      </c>
+      <c r="B82" s="61">
+        <v>42942</v>
+      </c>
+      <c r="C82" t="s">
+        <v>675</v>
+      </c>
+      <c r="D82" t="s">
+        <v>19</v>
+      </c>
+      <c r="E82" t="s">
+        <v>954</v>
+      </c>
+      <c r="F82" s="60" t="s">
+        <v>957</v>
+      </c>
+      <c r="G82" t="s">
+        <v>149</v>
+      </c>
+      <c r="H82" t="s">
+        <v>420</v>
+      </c>
+      <c r="I82" t="s">
+        <v>51</v>
+      </c>
+      <c r="J82" t="s">
+        <v>820</v>
+      </c>
+      <c r="K82" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>953</v>
+      </c>
+      <c r="B83" s="61">
+        <v>42942</v>
+      </c>
+      <c r="C83" t="s">
+        <v>675</v>
+      </c>
+      <c r="D83" t="s">
+        <v>20</v>
+      </c>
+      <c r="E83" t="s">
+        <v>955</v>
+      </c>
+      <c r="F83" s="60" t="s">
+        <v>958</v>
+      </c>
+      <c r="G83" t="s">
+        <v>149</v>
+      </c>
+      <c r="H83" t="s">
+        <v>144</v>
+      </c>
+      <c r="I83" t="s">
+        <v>174</v>
+      </c>
+      <c r="J83" t="s">
+        <v>524</v>
+      </c>
+      <c r="K83" t="s">
+        <v>51</v>
+      </c>
+      <c r="L83" t="s">
+        <v>701</v>
+      </c>
+      <c r="M83" t="s">
+        <v>175</v>
+      </c>
+      <c r="N83" t="s">
+        <v>171</v>
+      </c>
+      <c r="O83" t="s">
+        <v>52</v>
+      </c>
+      <c r="T83" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>953</v>
+      </c>
+      <c r="B84" s="61">
+        <v>42942</v>
+      </c>
+      <c r="C84" t="s">
+        <v>675</v>
+      </c>
+      <c r="D84" t="s">
+        <v>19</v>
+      </c>
+      <c r="E84" t="s">
+        <v>897</v>
+      </c>
+      <c r="F84" s="60" t="s">
+        <v>959</v>
+      </c>
+      <c r="G84" t="s">
+        <v>149</v>
+      </c>
+      <c r="H84" t="s">
+        <v>873</v>
+      </c>
+      <c r="I84" t="s">
+        <v>51</v>
+      </c>
+      <c r="J84" t="s">
+        <v>460</v>
+      </c>
+      <c r="K84" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>953</v>
+      </c>
+      <c r="B85" s="61">
+        <v>42942</v>
+      </c>
+      <c r="C85" t="s">
+        <v>675</v>
+      </c>
+      <c r="D85" t="s">
+        <v>20</v>
+      </c>
+      <c r="E85" t="s">
+        <v>956</v>
+      </c>
+      <c r="F85" s="60" t="s">
+        <v>642</v>
+      </c>
+      <c r="G85" t="s">
+        <v>149</v>
+      </c>
+      <c r="H85" t="s">
+        <v>75</v>
+      </c>
+      <c r="I85" t="s">
+        <v>174</v>
+      </c>
+      <c r="J85" t="s">
+        <v>502</v>
+      </c>
+      <c r="K85" t="s">
+        <v>51</v>
+      </c>
+      <c r="L85" t="s">
+        <v>503</v>
+      </c>
+      <c r="M85" t="s">
+        <v>175</v>
+      </c>
+      <c r="N85" t="s">
+        <v>101</v>
+      </c>
+      <c r="O85" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>961</v>
+      </c>
+      <c r="B86" s="61">
+        <v>42946</v>
+      </c>
+      <c r="C86" t="s">
+        <v>351</v>
+      </c>
+      <c r="D86" t="s">
+        <v>19</v>
+      </c>
+      <c r="E86" t="s">
+        <v>962</v>
+      </c>
+      <c r="F86" s="60" t="s">
+        <v>967</v>
+      </c>
+      <c r="G86" t="s">
+        <v>149</v>
+      </c>
+      <c r="H86" t="s">
+        <v>633</v>
+      </c>
+      <c r="I86" t="s">
+        <v>51</v>
+      </c>
+      <c r="J86" t="s">
+        <v>101</v>
+      </c>
+      <c r="K86" t="s">
+        <v>52</v>
+      </c>
+      <c r="T86" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>961</v>
+      </c>
+      <c r="B87" s="61">
+        <v>42946</v>
+      </c>
+      <c r="C87" t="s">
+        <v>351</v>
+      </c>
+      <c r="D87" t="s">
+        <v>19</v>
+      </c>
+      <c r="E87" t="s">
+        <v>963</v>
+      </c>
+      <c r="F87" s="60" t="s">
+        <v>968</v>
+      </c>
+      <c r="G87" t="s">
+        <v>149</v>
+      </c>
+      <c r="H87" t="s">
+        <v>75</v>
+      </c>
+      <c r="I87" t="s">
+        <v>51</v>
+      </c>
+      <c r="J87" t="s">
+        <v>893</v>
+      </c>
+      <c r="K87" t="s">
+        <v>52</v>
+      </c>
+      <c r="T87" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>961</v>
+      </c>
+      <c r="B88" s="61">
+        <v>42946</v>
+      </c>
+      <c r="C88" t="s">
+        <v>351</v>
+      </c>
+      <c r="D88" t="s">
+        <v>423</v>
+      </c>
+      <c r="E88" t="s">
+        <v>964</v>
+      </c>
+      <c r="F88" s="60" t="s">
+        <v>891</v>
+      </c>
+      <c r="G88" t="s">
+        <v>149</v>
+      </c>
+      <c r="H88" t="s">
+        <v>503</v>
+      </c>
+      <c r="I88" t="s">
+        <v>174</v>
+      </c>
+      <c r="J88" t="s">
+        <v>502</v>
+      </c>
+      <c r="K88" t="s">
+        <v>51</v>
+      </c>
+      <c r="L88" t="s">
+        <v>524</v>
+      </c>
+      <c r="M88" t="s">
+        <v>51</v>
+      </c>
+      <c r="N88" t="s">
+        <v>171</v>
+      </c>
+      <c r="O88" t="s">
+        <v>175</v>
+      </c>
+      <c r="P88" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q88" t="s">
+        <v>52</v>
+      </c>
+      <c r="R88" t="s">
+        <v>873</v>
+      </c>
+      <c r="S88" t="s">
+        <v>52</v>
+      </c>
+      <c r="T88" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>961</v>
+      </c>
+      <c r="B89" s="61">
+        <v>42946</v>
+      </c>
+      <c r="C89" t="s">
+        <v>351</v>
+      </c>
+      <c r="D89" t="s">
+        <v>19</v>
+      </c>
+      <c r="E89" t="s">
+        <v>920</v>
+      </c>
+      <c r="F89" s="60" t="s">
+        <v>969</v>
+      </c>
+      <c r="G89" t="s">
+        <v>892</v>
+      </c>
+      <c r="H89" t="s">
+        <v>820</v>
+      </c>
+      <c r="I89" t="s">
+        <v>160</v>
+      </c>
+      <c r="J89" t="s">
+        <v>460</v>
+      </c>
+      <c r="K89" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>961</v>
+      </c>
+      <c r="B90" s="61">
+        <v>42946</v>
+      </c>
+      <c r="C90" t="s">
+        <v>351</v>
+      </c>
+      <c r="D90" t="s">
+        <v>20</v>
+      </c>
+      <c r="E90" t="s">
+        <v>965</v>
+      </c>
+      <c r="F90" s="60" t="s">
+        <v>465</v>
+      </c>
+      <c r="G90" t="s">
+        <v>155</v>
+      </c>
+      <c r="H90" t="s">
+        <v>971</v>
+      </c>
+      <c r="I90" t="s">
+        <v>174</v>
+      </c>
+      <c r="J90" t="s">
+        <v>828</v>
+      </c>
+      <c r="K90" t="s">
+        <v>51</v>
+      </c>
+      <c r="L90" t="s">
+        <v>420</v>
+      </c>
+      <c r="M90" t="s">
+        <v>175</v>
+      </c>
+      <c r="N90" t="s">
+        <v>701</v>
+      </c>
+      <c r="O90" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>961</v>
+      </c>
+      <c r="B91" s="61">
+        <v>42946</v>
+      </c>
+      <c r="C91" t="s">
+        <v>351</v>
+      </c>
+      <c r="D91" t="s">
+        <v>19</v>
+      </c>
+      <c r="E91" t="s">
+        <v>966</v>
+      </c>
+      <c r="F91" s="60" t="s">
+        <v>970</v>
+      </c>
+      <c r="G91" t="s">
+        <v>149</v>
+      </c>
+      <c r="H91" t="s">
+        <v>633</v>
+      </c>
+      <c r="I91" t="s">
+        <v>51</v>
+      </c>
+      <c r="J91" t="s">
+        <v>75</v>
+      </c>
+      <c r="K91" t="s">
+        <v>52</v>
+      </c>
+      <c r="T91" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>975</v>
+      </c>
+      <c r="B92" s="61">
+        <v>42959</v>
+      </c>
+      <c r="C92" t="s">
+        <v>976</v>
+      </c>
+      <c r="D92" t="s">
+        <v>19</v>
+      </c>
+      <c r="E92" t="s">
+        <v>977</v>
+      </c>
+      <c r="F92" s="60" t="s">
+        <v>630</v>
+      </c>
+      <c r="G92" t="s">
+        <v>149</v>
+      </c>
+      <c r="H92" t="s">
+        <v>893</v>
+      </c>
+      <c r="I92" t="s">
+        <v>51</v>
+      </c>
+      <c r="J92" t="s">
+        <v>524</v>
+      </c>
+      <c r="K92" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>975</v>
+      </c>
+      <c r="B93" s="61">
+        <v>42959</v>
+      </c>
+      <c r="C93" t="s">
+        <v>976</v>
+      </c>
+      <c r="D93" t="s">
+        <v>19</v>
+      </c>
+      <c r="E93" t="s">
+        <v>978</v>
+      </c>
+      <c r="F93" s="60" t="s">
+        <v>982</v>
+      </c>
+      <c r="G93" t="s">
+        <v>149</v>
+      </c>
+      <c r="H93" t="s">
+        <v>101</v>
+      </c>
+      <c r="I93" t="s">
+        <v>51</v>
+      </c>
+      <c r="J93" t="s">
+        <v>503</v>
+      </c>
+      <c r="K93" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>975</v>
+      </c>
+      <c r="B94" s="61">
+        <v>42959</v>
+      </c>
+      <c r="C94" t="s">
+        <v>976</v>
+      </c>
+      <c r="D94" t="s">
+        <v>20</v>
+      </c>
+      <c r="E94" t="s">
+        <v>979</v>
+      </c>
+      <c r="F94" s="60" t="s">
+        <v>983</v>
+      </c>
+      <c r="G94" t="s">
+        <v>149</v>
+      </c>
+      <c r="H94" t="s">
+        <v>701</v>
+      </c>
+      <c r="I94" t="s">
+        <v>174</v>
+      </c>
+      <c r="J94" t="s">
+        <v>420</v>
+      </c>
+      <c r="K94" t="s">
+        <v>51</v>
+      </c>
+      <c r="L94" t="s">
+        <v>460</v>
+      </c>
+      <c r="M94" t="s">
+        <v>175</v>
+      </c>
+      <c r="N94" t="s">
+        <v>171</v>
+      </c>
+      <c r="O94" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>975</v>
+      </c>
+      <c r="B95" s="61">
+        <v>42959</v>
+      </c>
+      <c r="C95" t="s">
+        <v>976</v>
+      </c>
+      <c r="D95" t="s">
+        <v>19</v>
+      </c>
+      <c r="E95" t="s">
+        <v>980</v>
+      </c>
+      <c r="F95" s="60" t="s">
+        <v>403</v>
+      </c>
+      <c r="G95" t="s">
+        <v>155</v>
+      </c>
+      <c r="H95" t="s">
+        <v>502</v>
+      </c>
+      <c r="I95" t="s">
+        <v>51</v>
+      </c>
+      <c r="J95" t="s">
+        <v>873</v>
+      </c>
+      <c r="K95" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>975</v>
+      </c>
+      <c r="B96" s="61">
+        <v>42959</v>
+      </c>
+      <c r="C96" t="s">
+        <v>976</v>
+      </c>
+      <c r="D96" t="s">
+        <v>20</v>
+      </c>
+      <c r="E96" t="s">
+        <v>981</v>
+      </c>
+      <c r="F96" s="60" t="s">
+        <v>984</v>
+      </c>
+      <c r="G96" t="s">
+        <v>149</v>
+      </c>
+      <c r="H96" t="s">
+        <v>144</v>
+      </c>
+      <c r="I96" t="s">
+        <v>174</v>
+      </c>
+      <c r="J96" t="s">
+        <v>75</v>
+      </c>
+      <c r="K96" t="s">
+        <v>51</v>
+      </c>
+      <c r="L96" t="s">
+        <v>820</v>
+      </c>
+      <c r="M96" t="s">
+        <v>175</v>
+      </c>
+      <c r="N96" t="s">
+        <v>633</v>
+      </c>
+      <c r="O96" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>985</v>
+      </c>
+      <c r="B97" s="61">
+        <v>42973</v>
+      </c>
+      <c r="C97" t="s">
+        <v>513</v>
+      </c>
+      <c r="D97" t="s">
+        <v>20</v>
+      </c>
+      <c r="E97" t="s">
+        <v>986</v>
+      </c>
+      <c r="F97" s="60" t="s">
+        <v>993</v>
+      </c>
+      <c r="G97" t="s">
+        <v>149</v>
+      </c>
+      <c r="H97" t="s">
+        <v>893</v>
+      </c>
+      <c r="I97" t="s">
+        <v>174</v>
+      </c>
+      <c r="J97" t="s">
+        <v>171</v>
+      </c>
+      <c r="K97" t="s">
+        <v>51</v>
+      </c>
+      <c r="L97" t="s">
+        <v>998</v>
+      </c>
+      <c r="M97" t="s">
+        <v>175</v>
+      </c>
+      <c r="N97" t="s">
+        <v>873</v>
+      </c>
+      <c r="O97" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>985</v>
+      </c>
+      <c r="B98" s="61">
+        <v>42973</v>
+      </c>
+      <c r="C98" t="s">
+        <v>513</v>
+      </c>
+      <c r="D98" t="s">
+        <v>19</v>
+      </c>
+      <c r="E98" t="s">
+        <v>987</v>
+      </c>
+      <c r="F98" s="60" t="s">
+        <v>994</v>
+      </c>
+      <c r="G98" t="s">
+        <v>155</v>
+      </c>
+      <c r="H98" t="s">
+        <v>820</v>
+      </c>
+      <c r="I98" t="s">
+        <v>51</v>
+      </c>
+      <c r="J98" t="s">
+        <v>460</v>
+      </c>
+      <c r="K98" t="s">
+        <v>52</v>
+      </c>
+      <c r="T98" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>985</v>
+      </c>
+      <c r="B99" s="61">
+        <v>42973</v>
+      </c>
+      <c r="C99" t="s">
+        <v>513</v>
+      </c>
+      <c r="D99" t="s">
+        <v>189</v>
+      </c>
+      <c r="E99" t="s">
+        <v>988</v>
+      </c>
+      <c r="F99" s="60" t="s">
+        <v>553</v>
+      </c>
+      <c r="G99" t="s">
+        <v>149</v>
+      </c>
+      <c r="H99" t="s">
+        <v>502</v>
+      </c>
+      <c r="I99" t="s">
+        <v>51</v>
+      </c>
+      <c r="J99" t="s">
+        <v>503</v>
+      </c>
+      <c r="K99" t="s">
+        <v>175</v>
+      </c>
+      <c r="L99" t="s">
+        <v>524</v>
+      </c>
+      <c r="M99" t="s">
+        <v>52</v>
+      </c>
+      <c r="T99" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>985</v>
+      </c>
+      <c r="B100" s="61">
+        <v>42973</v>
+      </c>
+      <c r="C100" t="s">
+        <v>513</v>
+      </c>
+      <c r="D100" t="s">
+        <v>19</v>
+      </c>
+      <c r="E100" t="s">
+        <v>989</v>
+      </c>
+      <c r="F100" s="60" t="s">
+        <v>995</v>
+      </c>
+      <c r="G100" t="s">
+        <v>149</v>
+      </c>
+      <c r="H100" t="s">
+        <v>101</v>
+      </c>
+      <c r="I100" t="s">
+        <v>51</v>
+      </c>
+      <c r="J100" t="s">
+        <v>999</v>
+      </c>
+      <c r="K100" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>985</v>
+      </c>
+      <c r="B101" s="61">
+        <v>42973</v>
+      </c>
+      <c r="C101" t="s">
+        <v>513</v>
+      </c>
+      <c r="D101" t="s">
+        <v>19</v>
+      </c>
+      <c r="E101" t="s">
+        <v>990</v>
+      </c>
+      <c r="F101" s="60" t="s">
+        <v>970</v>
+      </c>
+      <c r="G101" t="s">
+        <v>700</v>
+      </c>
+      <c r="H101" t="s">
+        <v>1000</v>
+      </c>
+      <c r="I101" t="s">
+        <v>51</v>
+      </c>
+      <c r="J101" t="s">
+        <v>144</v>
+      </c>
+      <c r="K101" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>985</v>
+      </c>
+      <c r="B102" s="61">
+        <v>42973</v>
+      </c>
+      <c r="C102" t="s">
+        <v>513</v>
+      </c>
+      <c r="D102" t="s">
+        <v>423</v>
+      </c>
+      <c r="E102" t="s">
+        <v>991</v>
+      </c>
+      <c r="F102" s="60" t="s">
+        <v>996</v>
+      </c>
+      <c r="G102" t="s">
+        <v>149</v>
+      </c>
+      <c r="H102" t="s">
+        <v>420</v>
+      </c>
+      <c r="I102" t="s">
+        <v>174</v>
+      </c>
+      <c r="J102" t="s">
+        <v>701</v>
+      </c>
+      <c r="K102" t="s">
+        <v>51</v>
+      </c>
+      <c r="L102" t="s">
+        <v>1001</v>
+      </c>
+      <c r="M102" t="s">
+        <v>51</v>
+      </c>
+      <c r="N102" t="s">
+        <v>827</v>
+      </c>
+      <c r="O102" t="s">
+        <v>175</v>
+      </c>
+      <c r="P102" t="s">
+        <v>828</v>
+      </c>
+      <c r="Q102" t="s">
+        <v>52</v>
+      </c>
+      <c r="R102" t="s">
+        <v>971</v>
+      </c>
+      <c r="S102" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>985</v>
+      </c>
+      <c r="B103" s="61">
+        <v>42973</v>
+      </c>
+      <c r="C103" t="s">
+        <v>513</v>
+      </c>
+      <c r="D103" t="s">
+        <v>19</v>
+      </c>
+      <c r="E103" t="s">
+        <v>992</v>
+      </c>
+      <c r="F103" s="60" t="s">
+        <v>997</v>
+      </c>
+      <c r="G103" t="s">
+        <v>149</v>
+      </c>
+      <c r="H103" t="s">
+        <v>633</v>
+      </c>
+      <c r="I103" t="s">
+        <v>51</v>
+      </c>
+      <c r="J103" t="s">
+        <v>75</v>
+      </c>
+      <c r="K103" t="s">
+        <v>52</v>
+      </c>
+      <c r="T103" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B104" s="61">
+        <v>42987</v>
+      </c>
+      <c r="C104" t="s">
+        <v>227</v>
+      </c>
+      <c r="D104" t="s">
+        <v>19</v>
+      </c>
+      <c r="E104" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F104" s="60" t="s">
+        <v>1009</v>
+      </c>
+      <c r="G104" t="s">
+        <v>149</v>
+      </c>
+      <c r="H104" t="s">
+        <v>818</v>
+      </c>
+      <c r="I104" t="s">
+        <v>51</v>
+      </c>
+      <c r="J104" t="s">
+        <v>524</v>
+      </c>
+      <c r="K104" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B105" s="61">
+        <v>42987</v>
+      </c>
+      <c r="C105" t="s">
+        <v>227</v>
+      </c>
+      <c r="D105" t="s">
+        <v>19</v>
+      </c>
+      <c r="E105" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F105" s="60" t="s">
+        <v>764</v>
+      </c>
+      <c r="G105" t="s">
+        <v>149</v>
+      </c>
+      <c r="H105" t="s">
+        <v>873</v>
+      </c>
+      <c r="I105" t="s">
+        <v>51</v>
+      </c>
+      <c r="J105" t="s">
+        <v>998</v>
+      </c>
+      <c r="K105" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B106" s="61">
+        <v>42987</v>
+      </c>
+      <c r="C106" t="s">
+        <v>227</v>
+      </c>
+      <c r="D106" t="s">
+        <v>20</v>
+      </c>
+      <c r="E106" t="s">
+        <v>1006</v>
+      </c>
+      <c r="F106" s="60" t="s">
+        <v>1010</v>
+      </c>
+      <c r="G106" t="s">
+        <v>149</v>
+      </c>
+      <c r="H106" t="s">
+        <v>420</v>
+      </c>
+      <c r="I106" t="s">
+        <v>174</v>
+      </c>
+      <c r="J106" t="s">
+        <v>701</v>
+      </c>
+      <c r="K106" t="s">
+        <v>51</v>
+      </c>
+      <c r="L106" t="s">
+        <v>503</v>
+      </c>
+      <c r="M106" t="s">
+        <v>175</v>
+      </c>
+      <c r="N106" t="s">
+        <v>502</v>
+      </c>
+      <c r="O106" t="s">
+        <v>52</v>
+      </c>
+      <c r="T106" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B107" s="61">
+        <v>42987</v>
+      </c>
+      <c r="C107" t="s">
+        <v>227</v>
+      </c>
+      <c r="D107" t="s">
+        <v>20</v>
+      </c>
+      <c r="E107" t="s">
+        <v>1007</v>
+      </c>
+      <c r="F107" s="60" t="s">
+        <v>1011</v>
+      </c>
+      <c r="G107" t="s">
+        <v>149</v>
+      </c>
+      <c r="H107" t="s">
+        <v>101</v>
+      </c>
+      <c r="I107" t="s">
+        <v>174</v>
+      </c>
+      <c r="J107" t="s">
+        <v>75</v>
+      </c>
+      <c r="K107" t="s">
+        <v>51</v>
+      </c>
+      <c r="L107" t="s">
+        <v>460</v>
+      </c>
+      <c r="M107" t="s">
+        <v>175</v>
+      </c>
+      <c r="N107" t="s">
+        <v>171</v>
+      </c>
+      <c r="O107" t="s">
+        <v>52</v>
+      </c>
+      <c r="T107" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B108" s="61">
+        <v>42987</v>
+      </c>
+      <c r="C108" t="s">
+        <v>227</v>
+      </c>
+      <c r="D108" t="s">
+        <v>20</v>
+      </c>
+      <c r="E108" t="s">
+        <v>1008</v>
+      </c>
+      <c r="F108" s="60" t="s">
+        <v>1012</v>
+      </c>
+      <c r="G108" t="s">
+        <v>149</v>
+      </c>
+      <c r="H108" t="s">
+        <v>893</v>
+      </c>
+      <c r="I108" t="s">
+        <v>174</v>
+      </c>
+      <c r="J108" t="s">
+        <v>820</v>
+      </c>
+      <c r="K108" t="s">
+        <v>51</v>
+      </c>
+      <c r="L108" t="s">
+        <v>633</v>
+      </c>
+      <c r="M108" t="s">
+        <v>175</v>
+      </c>
+      <c r="N108" t="s">
+        <v>144</v>
+      </c>
+      <c r="O108" t="s">
+        <v>52</v>
+      </c>
+      <c r="T108" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B109" s="61">
+        <v>42994</v>
+      </c>
+      <c r="C109" t="s">
+        <v>255</v>
+      </c>
+      <c r="D109" t="s">
+        <v>19</v>
+      </c>
+      <c r="E109" t="s">
+        <v>1016</v>
+      </c>
+      <c r="F109" s="60" t="s">
+        <v>586</v>
+      </c>
+      <c r="G109" t="s">
+        <v>149</v>
+      </c>
+      <c r="H109" t="s">
+        <v>144</v>
+      </c>
+      <c r="I109" t="s">
+        <v>51</v>
+      </c>
+      <c r="J109" t="s">
+        <v>998</v>
+      </c>
+      <c r="K109" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B110" s="61">
+        <v>42994</v>
+      </c>
+      <c r="C110" t="s">
+        <v>255</v>
+      </c>
+      <c r="D110" t="s">
+        <v>19</v>
+      </c>
+      <c r="E110" t="s">
+        <v>1017</v>
+      </c>
+      <c r="F110" s="60" t="s">
+        <v>1021</v>
+      </c>
+      <c r="G110" t="s">
+        <v>155</v>
+      </c>
+      <c r="H110" t="s">
+        <v>502</v>
+      </c>
+      <c r="I110" t="s">
+        <v>51</v>
+      </c>
+      <c r="J110" t="s">
+        <v>171</v>
+      </c>
+      <c r="K110" t="s">
+        <v>52</v>
+      </c>
+      <c r="T110" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B111" s="61">
+        <v>42994</v>
+      </c>
+      <c r="C111" t="s">
+        <v>255</v>
+      </c>
+      <c r="D111" t="s">
+        <v>189</v>
+      </c>
+      <c r="E111" t="s">
+        <v>1018</v>
+      </c>
+      <c r="F111" s="60" t="s">
+        <v>1022</v>
+      </c>
+      <c r="G111" t="s">
+        <v>149</v>
+      </c>
+      <c r="H111" t="s">
+        <v>633</v>
+      </c>
+      <c r="I111" t="s">
+        <v>51</v>
+      </c>
+      <c r="J111" t="s">
+        <v>460</v>
+      </c>
+      <c r="K111" t="s">
+        <v>175</v>
+      </c>
+      <c r="L111" t="s">
+        <v>503</v>
+      </c>
+      <c r="M111" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B112" s="61">
+        <v>42994</v>
+      </c>
+      <c r="C112" t="s">
+        <v>255</v>
+      </c>
+      <c r="D112" t="s">
+        <v>20</v>
+      </c>
+      <c r="E112" t="s">
+        <v>1019</v>
+      </c>
+      <c r="F112" s="60" t="s">
+        <v>631</v>
+      </c>
+      <c r="G112" t="s">
+        <v>149</v>
+      </c>
+      <c r="H112" t="s">
+        <v>701</v>
+      </c>
+      <c r="I112" t="s">
+        <v>174</v>
+      </c>
+      <c r="J112" t="s">
+        <v>420</v>
+      </c>
+      <c r="K112" t="s">
+        <v>51</v>
+      </c>
+      <c r="L112" t="s">
+        <v>524</v>
+      </c>
+      <c r="M112" t="s">
+        <v>175</v>
+      </c>
+      <c r="N112" t="s">
+        <v>873</v>
+      </c>
+      <c r="O112" t="s">
+        <v>52</v>
+      </c>
+      <c r="T112" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B113" s="61">
+        <v>42994</v>
+      </c>
+      <c r="C113" t="s">
+        <v>255</v>
+      </c>
+      <c r="D113" t="s">
+        <v>20</v>
+      </c>
+      <c r="E113" t="s">
+        <v>1020</v>
+      </c>
+      <c r="F113" s="60" t="s">
+        <v>1023</v>
+      </c>
+      <c r="G113" t="s">
+        <v>149</v>
+      </c>
+      <c r="H113" t="s">
+        <v>75</v>
+      </c>
+      <c r="I113" t="s">
+        <v>174</v>
+      </c>
+      <c r="J113" t="s">
+        <v>101</v>
+      </c>
+      <c r="K113" t="s">
+        <v>51</v>
+      </c>
+      <c r="L113" t="s">
+        <v>820</v>
+      </c>
+      <c r="M113" t="s">
+        <v>175</v>
+      </c>
+      <c r="N113" t="s">
+        <v>893</v>
+      </c>
+      <c r="O113" t="s">
+        <v>52</v>
+      </c>
+      <c r="T113" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B114" s="61">
+        <v>43008</v>
+      </c>
+      <c r="C114" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D114" t="s">
+        <v>19</v>
+      </c>
+      <c r="E114" t="s">
+        <v>1027</v>
+      </c>
+      <c r="F114" s="60" t="s">
+        <v>329</v>
+      </c>
+      <c r="G114" t="s">
+        <v>149</v>
+      </c>
+      <c r="H114" t="s">
+        <v>701</v>
+      </c>
+      <c r="I114" t="s">
+        <v>51</v>
+      </c>
+      <c r="J114" t="s">
+        <v>998</v>
+      </c>
+      <c r="K114" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B115" s="61">
+        <v>43008</v>
+      </c>
+      <c r="C115" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D115" t="s">
+        <v>19</v>
+      </c>
+      <c r="E115" t="s">
+        <v>1028</v>
+      </c>
+      <c r="F115" s="60" t="s">
+        <v>1033</v>
+      </c>
+      <c r="G115" t="s">
+        <v>155</v>
+      </c>
+      <c r="H115" t="s">
+        <v>502</v>
+      </c>
+      <c r="I115" t="s">
+        <v>51</v>
+      </c>
+      <c r="J115" t="s">
+        <v>524</v>
+      </c>
+      <c r="K115" t="s">
+        <v>52</v>
+      </c>
+      <c r="T115" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="116" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B116" s="61">
+        <v>43008</v>
+      </c>
+      <c r="C116" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D116" t="s">
+        <v>189</v>
+      </c>
+      <c r="E116" t="s">
+        <v>1029</v>
+      </c>
+      <c r="F116" s="60" t="s">
+        <v>826</v>
+      </c>
+      <c r="G116" t="s">
+        <v>149</v>
+      </c>
+      <c r="H116" t="s">
+        <v>503</v>
+      </c>
+      <c r="I116" t="s">
+        <v>51</v>
+      </c>
+      <c r="J116" t="s">
+        <v>820</v>
+      </c>
+      <c r="K116" t="s">
+        <v>175</v>
+      </c>
+      <c r="L116" t="s">
+        <v>101</v>
+      </c>
+      <c r="M116" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="117" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B117" s="61">
+        <v>43008</v>
+      </c>
+      <c r="C117" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D117" t="s">
+        <v>19</v>
+      </c>
+      <c r="E117" t="s">
+        <v>1030</v>
+      </c>
+      <c r="F117" s="60" t="s">
+        <v>419</v>
+      </c>
+      <c r="G117" t="s">
+        <v>149</v>
+      </c>
+      <c r="H117" t="s">
+        <v>420</v>
+      </c>
+      <c r="I117" t="s">
+        <v>51</v>
+      </c>
+      <c r="J117" t="s">
+        <v>171</v>
+      </c>
+      <c r="K117" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="118" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B118" s="61">
+        <v>43008</v>
+      </c>
+      <c r="C118" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D118" t="s">
+        <v>20</v>
+      </c>
+      <c r="E118" t="s">
+        <v>1031</v>
+      </c>
+      <c r="F118" s="60" t="s">
+        <v>1034</v>
+      </c>
+      <c r="G118" t="s">
+        <v>149</v>
+      </c>
+      <c r="H118" t="s">
+        <v>75</v>
+      </c>
+      <c r="I118" t="s">
+        <v>174</v>
+      </c>
+      <c r="J118" t="s">
+        <v>873</v>
+      </c>
+      <c r="K118" t="s">
+        <v>51</v>
+      </c>
+      <c r="L118" t="s">
+        <v>460</v>
+      </c>
+      <c r="M118" t="s">
+        <v>175</v>
+      </c>
+      <c r="N118" t="s">
+        <v>144</v>
+      </c>
+      <c r="O118" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="119" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B119" s="61">
+        <v>43008</v>
+      </c>
+      <c r="C119" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D119" t="s">
+        <v>19</v>
+      </c>
+      <c r="E119" t="s">
+        <v>1032</v>
+      </c>
+      <c r="F119" s="60" t="s">
+        <v>1035</v>
+      </c>
+      <c r="G119" t="s">
+        <v>149</v>
+      </c>
+      <c r="H119" t="s">
+        <v>633</v>
+      </c>
+      <c r="I119" t="s">
+        <v>51</v>
+      </c>
+      <c r="J119" t="s">
+        <v>893</v>
+      </c>
+      <c r="K119" t="s">
+        <v>52</v>
+      </c>
+      <c r="T119" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="120" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B120" s="61">
+        <v>43022</v>
+      </c>
+      <c r="C120" t="s">
+        <v>255</v>
+      </c>
+      <c r="D120" t="s">
+        <v>19</v>
+      </c>
+      <c r="E120" t="s">
+        <v>1037</v>
+      </c>
+      <c r="F120" s="60" t="s">
+        <v>1040</v>
+      </c>
+      <c r="G120" t="s">
+        <v>155</v>
+      </c>
+      <c r="H120" t="s">
+        <v>502</v>
+      </c>
+      <c r="I120" t="s">
+        <v>51</v>
+      </c>
+      <c r="J120" t="s">
+        <v>998</v>
+      </c>
+      <c r="K120" t="s">
+        <v>52</v>
+      </c>
+      <c r="T120" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="121" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B121" s="61">
+        <v>43022</v>
+      </c>
+      <c r="C121" t="s">
+        <v>255</v>
+      </c>
+      <c r="D121" t="s">
+        <v>189</v>
+      </c>
+      <c r="E121" t="s">
+        <v>1038</v>
+      </c>
+      <c r="F121" s="60" t="s">
+        <v>1041</v>
+      </c>
+      <c r="G121" t="s">
+        <v>149</v>
+      </c>
+      <c r="H121" t="s">
+        <v>144</v>
+      </c>
+      <c r="I121" t="s">
+        <v>51</v>
+      </c>
+      <c r="J121" t="s">
+        <v>503</v>
+      </c>
+      <c r="K121" t="s">
+        <v>175</v>
+      </c>
+      <c r="L121" t="s">
+        <v>873</v>
+      </c>
+      <c r="M121" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="122" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B122" s="61">
+        <v>43022</v>
+      </c>
+      <c r="C122" t="s">
+        <v>255</v>
+      </c>
+      <c r="D122" t="s">
+        <v>20</v>
+      </c>
+      <c r="E122" t="s">
+        <v>896</v>
+      </c>
+      <c r="F122" s="60" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G122" t="s">
+        <v>149</v>
+      </c>
+      <c r="H122" t="s">
+        <v>633</v>
+      </c>
+      <c r="I122" t="s">
+        <v>174</v>
+      </c>
+      <c r="J122" t="s">
+        <v>524</v>
+      </c>
+      <c r="K122" t="s">
+        <v>51</v>
+      </c>
+      <c r="L122" t="s">
+        <v>820</v>
+      </c>
+      <c r="M122" t="s">
+        <v>175</v>
+      </c>
+      <c r="N122" t="s">
+        <v>893</v>
+      </c>
+      <c r="O122" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="123" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B123" s="61">
+        <v>43022</v>
+      </c>
+      <c r="C123" t="s">
+        <v>255</v>
+      </c>
+      <c r="D123" t="s">
+        <v>20</v>
+      </c>
+      <c r="E123" t="s">
+        <v>841</v>
+      </c>
+      <c r="F123" s="60" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G123" t="s">
+        <v>149</v>
+      </c>
+      <c r="H123" t="s">
+        <v>827</v>
+      </c>
+      <c r="I123" t="s">
+        <v>174</v>
+      </c>
+      <c r="J123" t="s">
+        <v>828</v>
+      </c>
+      <c r="K123" t="s">
+        <v>51</v>
+      </c>
+      <c r="L123" t="s">
+        <v>460</v>
+      </c>
+      <c r="M123" t="s">
+        <v>175</v>
+      </c>
+      <c r="N123" t="s">
+        <v>171</v>
+      </c>
+      <c r="O123" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="124" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B124" s="61">
+        <v>43022</v>
+      </c>
+      <c r="C124" t="s">
+        <v>255</v>
+      </c>
+      <c r="D124" t="s">
+        <v>20</v>
+      </c>
+      <c r="E124" t="s">
+        <v>1039</v>
+      </c>
+      <c r="F124" s="60" t="s">
+        <v>928</v>
+      </c>
+      <c r="G124" t="s">
+        <v>149</v>
+      </c>
+      <c r="H124" t="s">
+        <v>75</v>
+      </c>
+      <c r="I124" t="s">
+        <v>174</v>
+      </c>
+      <c r="J124" t="s">
+        <v>101</v>
+      </c>
+      <c r="K124" t="s">
+        <v>51</v>
+      </c>
+      <c r="L124" t="s">
+        <v>701</v>
+      </c>
+      <c r="M124" t="s">
+        <v>175</v>
+      </c>
+      <c r="N124" t="s">
+        <v>420</v>
+      </c>
+      <c r="O124" t="s">
+        <v>52</v>
+      </c>
+      <c r="T124" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="125" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B125" s="61">
+        <v>43036</v>
+      </c>
+      <c r="C125" t="s">
+        <v>636</v>
+      </c>
+      <c r="D125" t="s">
+        <v>19</v>
+      </c>
+      <c r="E125" t="s">
+        <v>653</v>
+      </c>
+      <c r="F125" s="60" t="s">
+        <v>1048</v>
+      </c>
+      <c r="G125" t="s">
+        <v>149</v>
+      </c>
+      <c r="H125" t="s">
+        <v>75</v>
+      </c>
+      <c r="I125" t="s">
+        <v>51</v>
+      </c>
+      <c r="J125" t="s">
+        <v>524</v>
+      </c>
+      <c r="K125" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="126" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B126" s="61">
+        <v>43036</v>
+      </c>
+      <c r="C126" t="s">
+        <v>636</v>
+      </c>
+      <c r="D126" t="s">
+        <v>19</v>
+      </c>
+      <c r="E126" t="s">
+        <v>683</v>
+      </c>
+      <c r="F126" s="60" t="s">
+        <v>369</v>
+      </c>
+      <c r="G126" t="s">
+        <v>149</v>
+      </c>
+      <c r="H126" t="s">
+        <v>144</v>
+      </c>
+      <c r="I126" t="s">
+        <v>51</v>
+      </c>
+      <c r="J126" t="s">
+        <v>503</v>
+      </c>
+      <c r="K126" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="127" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B127" s="61">
+        <v>43036</v>
+      </c>
+      <c r="C127" t="s">
+        <v>636</v>
+      </c>
+      <c r="D127" t="s">
+        <v>20</v>
+      </c>
+      <c r="E127" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F127" s="60" t="s">
+        <v>1049</v>
+      </c>
+      <c r="G127" t="s">
+        <v>149</v>
+      </c>
+      <c r="H127" t="s">
+        <v>171</v>
+      </c>
+      <c r="I127" t="s">
+        <v>174</v>
+      </c>
+      <c r="J127" t="s">
+        <v>420</v>
+      </c>
+      <c r="K127" t="s">
+        <v>51</v>
+      </c>
+      <c r="L127" t="s">
+        <v>101</v>
+      </c>
+      <c r="M127" t="s">
+        <v>175</v>
+      </c>
+      <c r="N127" t="s">
+        <v>502</v>
+      </c>
+      <c r="O127" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="128" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B128" s="61">
+        <v>43036</v>
+      </c>
+      <c r="C128" t="s">
+        <v>636</v>
+      </c>
+      <c r="D128" t="s">
+        <v>19</v>
+      </c>
+      <c r="E128" t="s">
+        <v>1050</v>
+      </c>
+      <c r="F128" s="60" t="s">
+        <v>1053</v>
+      </c>
+      <c r="G128" t="s">
+        <v>149</v>
+      </c>
+      <c r="H128" t="s">
+        <v>893</v>
+      </c>
+      <c r="I128" t="s">
+        <v>51</v>
+      </c>
+      <c r="J128" t="s">
+        <v>701</v>
+      </c>
+      <c r="K128" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="129" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B129" s="61">
+        <v>43036</v>
+      </c>
+      <c r="C129" t="s">
+        <v>636</v>
+      </c>
+      <c r="D129" t="s">
+        <v>19</v>
+      </c>
+      <c r="E129" t="s">
+        <v>1051</v>
+      </c>
+      <c r="F129" s="60" t="s">
+        <v>285</v>
+      </c>
+      <c r="G129" t="s">
+        <v>159</v>
+      </c>
+      <c r="H129" t="s">
+        <v>75</v>
+      </c>
+      <c r="I129" t="s">
+        <v>160</v>
+      </c>
+      <c r="J129" t="s">
+        <v>873</v>
+      </c>
+      <c r="K129" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="130" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B130" s="61">
+        <v>43036</v>
+      </c>
+      <c r="C130" t="s">
+        <v>636</v>
+      </c>
+      <c r="D130" t="s">
+        <v>20</v>
+      </c>
+      <c r="E130" t="s">
+        <v>1052</v>
+      </c>
+      <c r="F130" s="60" t="s">
+        <v>1054</v>
+      </c>
+      <c r="G130" t="s">
+        <v>149</v>
+      </c>
+      <c r="H130" t="s">
+        <v>144</v>
+      </c>
+      <c r="I130" t="s">
+        <v>174</v>
+      </c>
+      <c r="J130" t="s">
+        <v>524</v>
+      </c>
+      <c r="K130" t="s">
+        <v>51</v>
+      </c>
+      <c r="L130" t="s">
+        <v>820</v>
+      </c>
+      <c r="M130" t="s">
+        <v>175</v>
+      </c>
+      <c r="N130" t="s">
+        <v>101</v>
+      </c>
+      <c r="O130" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="131" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B131" s="61">
+        <v>43037</v>
+      </c>
+      <c r="C131" t="s">
+        <v>527</v>
+      </c>
+      <c r="D131" t="s">
+        <v>19</v>
+      </c>
+      <c r="E131" t="s">
+        <v>1056</v>
+      </c>
+      <c r="F131" s="60" t="s">
+        <v>670</v>
+      </c>
+      <c r="G131" t="s">
+        <v>149</v>
+      </c>
+      <c r="H131" t="s">
+        <v>701</v>
+      </c>
+      <c r="I131" t="s">
+        <v>51</v>
+      </c>
+      <c r="J131" t="s">
+        <v>524</v>
+      </c>
+      <c r="K131" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="132" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B132" s="61">
+        <v>43037</v>
+      </c>
+      <c r="C132" t="s">
+        <v>527</v>
+      </c>
+      <c r="D132" t="s">
+        <v>20</v>
+      </c>
+      <c r="E132" t="s">
+        <v>1057</v>
+      </c>
+      <c r="F132" s="60" t="s">
+        <v>1060</v>
+      </c>
+      <c r="G132" t="s">
+        <v>149</v>
+      </c>
+      <c r="H132" t="s">
+        <v>893</v>
+      </c>
+      <c r="I132" t="s">
+        <v>174</v>
+      </c>
+      <c r="J132" t="s">
+        <v>820</v>
+      </c>
+      <c r="K132" t="s">
+        <v>51</v>
+      </c>
+      <c r="L132" t="s">
+        <v>998</v>
+      </c>
+      <c r="M132" t="s">
+        <v>175</v>
+      </c>
+      <c r="N132" t="s">
+        <v>873</v>
+      </c>
+      <c r="O132" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="133" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B133" s="61">
+        <v>43037</v>
+      </c>
+      <c r="C133" t="s">
+        <v>527</v>
+      </c>
+      <c r="D133" t="s">
+        <v>19</v>
+      </c>
+      <c r="E133" t="s">
+        <v>1058</v>
+      </c>
+      <c r="F133" s="60" t="s">
+        <v>1061</v>
+      </c>
+      <c r="G133" t="s">
+        <v>155</v>
+      </c>
+      <c r="H133" t="s">
+        <v>827</v>
+      </c>
+      <c r="I133" t="s">
+        <v>51</v>
+      </c>
+      <c r="J133" t="s">
+        <v>503</v>
+      </c>
+      <c r="K133" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="134" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B134" s="61">
+        <v>43037</v>
+      </c>
+      <c r="C134" t="s">
+        <v>527</v>
+      </c>
+      <c r="D134" t="s">
+        <v>19</v>
+      </c>
+      <c r="E134" t="s">
+        <v>230</v>
+      </c>
+      <c r="F134" s="60" t="s">
+        <v>916</v>
+      </c>
+      <c r="G134" t="s">
+        <v>149</v>
+      </c>
+      <c r="H134" t="s">
+        <v>171</v>
+      </c>
+      <c r="I134" t="s">
+        <v>51</v>
+      </c>
+      <c r="J134" t="s">
+        <v>101</v>
+      </c>
+      <c r="K134" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="135" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B135" s="61">
+        <v>43037</v>
+      </c>
+      <c r="C135" t="s">
+        <v>527</v>
+      </c>
+      <c r="D135" t="s">
+        <v>423</v>
+      </c>
+      <c r="E135" t="s">
+        <v>1059</v>
+      </c>
+      <c r="F135" s="60" t="s">
+        <v>1062</v>
+      </c>
+      <c r="G135" t="s">
+        <v>149</v>
+      </c>
+      <c r="H135" t="s">
+        <v>420</v>
+      </c>
+      <c r="I135" t="s">
+        <v>174</v>
+      </c>
+      <c r="J135" t="s">
+        <v>75</v>
+      </c>
+      <c r="K135" t="s">
+        <v>51</v>
+      </c>
+      <c r="L135" t="s">
+        <v>502</v>
+      </c>
+      <c r="M135" t="s">
+        <v>51</v>
+      </c>
+      <c r="N135" t="s">
+        <v>460</v>
+      </c>
+      <c r="O135" t="s">
+        <v>175</v>
+      </c>
+      <c r="P135" t="s">
+        <v>633</v>
+      </c>
+      <c r="Q135" t="s">
+        <v>52</v>
+      </c>
+      <c r="R135" t="s">
+        <v>144</v>
+      </c>
+      <c r="S135" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="136" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B136" s="61">
+        <v>43042</v>
+      </c>
+      <c r="C136" t="s">
+        <v>227</v>
+      </c>
+      <c r="D136" t="s">
+        <v>19</v>
+      </c>
+      <c r="E136" t="s">
+        <v>1064</v>
+      </c>
+      <c r="F136" s="60" t="s">
+        <v>982</v>
+      </c>
+      <c r="G136" t="s">
+        <v>149</v>
+      </c>
+      <c r="H136" t="s">
+        <v>101</v>
+      </c>
+      <c r="I136" t="s">
+        <v>51</v>
+      </c>
+      <c r="J136" t="s">
+        <v>998</v>
+      </c>
+      <c r="K136" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="137" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B137" s="61">
+        <v>43042</v>
+      </c>
+      <c r="C137" t="s">
+        <v>227</v>
+      </c>
+      <c r="D137" t="s">
+        <v>20</v>
+      </c>
+      <c r="E137" t="s">
+        <v>1065</v>
+      </c>
+      <c r="F137" s="60" t="s">
+        <v>532</v>
+      </c>
+      <c r="G137" t="s">
+        <v>155</v>
+      </c>
+      <c r="H137" t="s">
+        <v>502</v>
+      </c>
+      <c r="I137" t="s">
+        <v>174</v>
+      </c>
+      <c r="J137" t="s">
+        <v>524</v>
+      </c>
+      <c r="K137" t="s">
+        <v>51</v>
+      </c>
+      <c r="L137" t="s">
+        <v>820</v>
+      </c>
+      <c r="M137" t="s">
+        <v>175</v>
+      </c>
+      <c r="N137" t="s">
+        <v>144</v>
+      </c>
+      <c r="O137" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="138" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B138" s="61">
+        <v>43042</v>
+      </c>
+      <c r="C138" t="s">
+        <v>227</v>
+      </c>
+      <c r="D138" t="s">
+        <v>19</v>
+      </c>
+      <c r="E138" t="s">
+        <v>1066</v>
+      </c>
+      <c r="F138" s="60" t="s">
+        <v>332</v>
+      </c>
+      <c r="G138" t="s">
+        <v>149</v>
+      </c>
+      <c r="H138" t="s">
+        <v>460</v>
+      </c>
+      <c r="I138" t="s">
+        <v>51</v>
+      </c>
+      <c r="J138" t="s">
+        <v>503</v>
+      </c>
+      <c r="K138" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="139" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B139" s="61">
+        <v>43042</v>
+      </c>
+      <c r="C139" t="s">
+        <v>227</v>
+      </c>
+      <c r="D139" t="s">
+        <v>19</v>
+      </c>
+      <c r="E139" t="s">
+        <v>1067</v>
+      </c>
+      <c r="F139" s="60" t="s">
+        <v>1070</v>
+      </c>
+      <c r="G139" t="s">
+        <v>155</v>
+      </c>
+      <c r="H139" t="s">
+        <v>827</v>
+      </c>
+      <c r="I139" t="s">
+        <v>51</v>
+      </c>
+      <c r="J139" t="s">
+        <v>893</v>
+      </c>
+      <c r="K139" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="140" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B140" s="61">
+        <v>43042</v>
+      </c>
+      <c r="C140" t="s">
+        <v>227</v>
+      </c>
+      <c r="D140" t="s">
+        <v>20</v>
+      </c>
+      <c r="E140" t="s">
+        <v>1068</v>
+      </c>
+      <c r="F140" s="60" t="s">
+        <v>1072</v>
+      </c>
+      <c r="G140" t="s">
+        <v>149</v>
+      </c>
+      <c r="H140" t="s">
+        <v>873</v>
+      </c>
+      <c r="I140" t="s">
+        <v>174</v>
+      </c>
+      <c r="J140" t="s">
+        <v>171</v>
+      </c>
+      <c r="K140" t="s">
+        <v>51</v>
+      </c>
+      <c r="L140" t="s">
+        <v>701</v>
+      </c>
+      <c r="M140" t="s">
+        <v>175</v>
+      </c>
+      <c r="N140" t="s">
+        <v>75</v>
+      </c>
+      <c r="O140" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="141" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B141" s="61">
+        <v>43042</v>
+      </c>
+      <c r="C141" t="s">
+        <v>227</v>
+      </c>
+      <c r="D141" t="s">
+        <v>19</v>
+      </c>
+      <c r="E141" t="s">
+        <v>1069</v>
+      </c>
+      <c r="F141" s="60" t="s">
+        <v>1071</v>
+      </c>
+      <c r="G141" t="s">
+        <v>149</v>
+      </c>
+      <c r="H141" t="s">
+        <v>633</v>
+      </c>
+      <c r="I141" t="s">
+        <v>51</v>
+      </c>
+      <c r="J141" t="s">
+        <v>420</v>
+      </c>
+      <c r="K141" t="s">
+        <v>52</v>
+      </c>
+      <c r="T141" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="142" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B142" s="61">
+        <v>43062</v>
+      </c>
+      <c r="C142" t="s">
+        <v>351</v>
+      </c>
+      <c r="D142" t="s">
+        <v>19</v>
+      </c>
+      <c r="E142" t="s">
+        <v>1027</v>
+      </c>
+      <c r="F142" s="60" t="s">
+        <v>1079</v>
+      </c>
+      <c r="G142" t="s">
+        <v>149</v>
+      </c>
+      <c r="H142" t="s">
+        <v>701</v>
+      </c>
+      <c r="I142" t="s">
+        <v>51</v>
+      </c>
+      <c r="J142" t="s">
+        <v>998</v>
+      </c>
+      <c r="K142" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="143" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B143" s="61">
+        <v>43062</v>
+      </c>
+      <c r="C143" t="s">
+        <v>351</v>
+      </c>
+      <c r="D143" t="s">
+        <v>20</v>
+      </c>
+      <c r="E143" t="s">
+        <v>1074</v>
+      </c>
+      <c r="F143" s="60" t="s">
+        <v>1080</v>
+      </c>
+      <c r="G143" t="s">
+        <v>149</v>
+      </c>
+      <c r="H143" t="s">
+        <v>893</v>
+      </c>
+      <c r="I143" t="s">
+        <v>174</v>
+      </c>
+      <c r="J143" t="s">
+        <v>820</v>
+      </c>
+      <c r="K143" t="s">
+        <v>51</v>
+      </c>
+      <c r="L143" t="s">
+        <v>503</v>
+      </c>
+      <c r="M143" t="s">
+        <v>175</v>
+      </c>
+      <c r="N143" t="s">
+        <v>524</v>
+      </c>
+      <c r="O143" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="144" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B144" s="61">
+        <v>43062</v>
+      </c>
+      <c r="C144" t="s">
+        <v>351</v>
+      </c>
+      <c r="D144" t="s">
+        <v>19</v>
+      </c>
+      <c r="E144" t="s">
+        <v>1075</v>
+      </c>
+      <c r="F144" s="60" t="s">
+        <v>646</v>
+      </c>
+      <c r="G144" t="s">
+        <v>155</v>
+      </c>
+      <c r="H144" t="s">
+        <v>420</v>
+      </c>
+      <c r="I144" t="s">
+        <v>51</v>
+      </c>
+      <c r="J144" t="s">
+        <v>362</v>
+      </c>
+      <c r="K144" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="145" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B145" s="61">
+        <v>43062</v>
+      </c>
+      <c r="C145" t="s">
+        <v>351</v>
+      </c>
+      <c r="D145" t="s">
+        <v>19</v>
+      </c>
+      <c r="E145" t="s">
+        <v>1076</v>
+      </c>
+      <c r="F145" s="60" t="s">
+        <v>1081</v>
+      </c>
+      <c r="G145" t="s">
+        <v>149</v>
+      </c>
+      <c r="H145" t="s">
+        <v>827</v>
+      </c>
+      <c r="I145" t="s">
+        <v>51</v>
+      </c>
+      <c r="J145" t="s">
+        <v>460</v>
+      </c>
+      <c r="K145" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="146" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B146" s="61">
+        <v>43062</v>
+      </c>
+      <c r="C146" t="s">
+        <v>351</v>
+      </c>
+      <c r="D146" t="s">
+        <v>19</v>
+      </c>
+      <c r="E146" t="s">
+        <v>1077</v>
+      </c>
+      <c r="F146" s="60" t="s">
+        <v>1082</v>
+      </c>
+      <c r="G146" t="s">
+        <v>149</v>
+      </c>
+      <c r="H146" t="s">
+        <v>144</v>
+      </c>
+      <c r="I146" t="s">
+        <v>51</v>
+      </c>
+      <c r="J146" t="s">
+        <v>502</v>
+      </c>
+      <c r="K146" t="s">
+        <v>52</v>
+      </c>
+      <c r="T146" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="147" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B147" s="61">
+        <v>43062</v>
+      </c>
+      <c r="C147" t="s">
+        <v>351</v>
+      </c>
+      <c r="D147" t="s">
+        <v>20</v>
+      </c>
+      <c r="E147" t="s">
+        <v>1078</v>
+      </c>
+      <c r="F147" s="60" t="s">
+        <v>1083</v>
+      </c>
+      <c r="G147" t="s">
+        <v>149</v>
+      </c>
+      <c r="H147" t="s">
+        <v>101</v>
+      </c>
+      <c r="I147" t="s">
+        <v>174</v>
+      </c>
+      <c r="J147" t="s">
+        <v>75</v>
+      </c>
+      <c r="K147" t="s">
+        <v>51</v>
+      </c>
+      <c r="L147" t="s">
+        <v>171</v>
+      </c>
+      <c r="M147" t="s">
+        <v>175</v>
+      </c>
+      <c r="N147" t="s">
+        <v>873</v>
+      </c>
+      <c r="O147" t="s">
+        <v>52</v>
+      </c>
+      <c r="T147" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="148" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B148" s="61">
+        <v>43079</v>
+      </c>
+      <c r="C148" t="s">
+        <v>227</v>
+      </c>
+      <c r="D148" t="s">
+        <v>19</v>
+      </c>
+      <c r="E148" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F148" s="60" t="s">
+        <v>1091</v>
+      </c>
+      <c r="G148" t="s">
+        <v>155</v>
+      </c>
+      <c r="H148" t="s">
+        <v>420</v>
+      </c>
+      <c r="I148" t="s">
+        <v>51</v>
+      </c>
+      <c r="J148" t="s">
+        <v>998</v>
+      </c>
+      <c r="K148" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="149" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B149" s="61">
+        <v>43079</v>
+      </c>
+      <c r="C149" t="s">
+        <v>227</v>
+      </c>
+      <c r="D149" t="s">
+        <v>20</v>
+      </c>
+      <c r="E149" t="s">
+        <v>1088</v>
+      </c>
+      <c r="F149" s="60" t="s">
+        <v>1092</v>
+      </c>
+      <c r="G149" t="s">
+        <v>149</v>
+      </c>
+      <c r="H149" t="s">
+        <v>171</v>
+      </c>
+      <c r="I149" t="s">
+        <v>174</v>
+      </c>
+      <c r="J149" t="s">
+        <v>873</v>
+      </c>
+      <c r="K149" t="s">
+        <v>51</v>
+      </c>
+      <c r="L149" t="s">
+        <v>362</v>
+      </c>
+      <c r="M149" t="s">
+        <v>175</v>
+      </c>
+      <c r="N149" t="s">
+        <v>502</v>
+      </c>
+      <c r="O149" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="150" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B150" s="61">
+        <v>43079</v>
+      </c>
+      <c r="C150" t="s">
+        <v>227</v>
+      </c>
+      <c r="D150" t="s">
+        <v>19</v>
+      </c>
+      <c r="E150" t="s">
+        <v>963</v>
+      </c>
+      <c r="F150" s="60" t="s">
+        <v>1093</v>
+      </c>
+      <c r="G150" t="s">
+        <v>159</v>
+      </c>
+      <c r="H150" t="s">
+        <v>75</v>
+      </c>
+      <c r="I150" t="s">
+        <v>160</v>
+      </c>
+      <c r="J150" t="s">
+        <v>893</v>
+      </c>
+      <c r="K150" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="151" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B151" s="61">
+        <v>43079</v>
+      </c>
+      <c r="C151" t="s">
+        <v>227</v>
+      </c>
+      <c r="D151" t="s">
+        <v>20</v>
+      </c>
+      <c r="E151" t="s">
+        <v>1089</v>
+      </c>
+      <c r="F151" s="60" t="s">
+        <v>1094</v>
+      </c>
+      <c r="G151" t="s">
+        <v>149</v>
+      </c>
+      <c r="H151" t="s">
+        <v>460</v>
+      </c>
+      <c r="I151" t="s">
+        <v>174</v>
+      </c>
+      <c r="J151" t="s">
+        <v>827</v>
+      </c>
+      <c r="K151" t="s">
+        <v>51</v>
+      </c>
+      <c r="L151" t="s">
+        <v>524</v>
+      </c>
+      <c r="M151" t="s">
+        <v>175</v>
+      </c>
+      <c r="N151" t="s">
+        <v>101</v>
+      </c>
+      <c r="O151" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="152" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B152" s="61">
+        <v>43079</v>
+      </c>
+      <c r="C152" t="s">
+        <v>227</v>
+      </c>
+      <c r="D152" t="s">
+        <v>20</v>
+      </c>
+      <c r="E152" t="s">
+        <v>1090</v>
+      </c>
+      <c r="F152" s="60" t="s">
+        <v>1095</v>
+      </c>
+      <c r="G152" t="s">
+        <v>149</v>
+      </c>
+      <c r="H152" t="s">
+        <v>633</v>
+      </c>
+      <c r="I152" t="s">
+        <v>174</v>
+      </c>
+      <c r="J152" t="s">
+        <v>701</v>
+      </c>
+      <c r="K152" t="s">
+        <v>51</v>
+      </c>
+      <c r="L152" t="s">
+        <v>503</v>
+      </c>
+      <c r="M152" t="s">
+        <v>175</v>
+      </c>
+      <c r="N152" t="s">
+        <v>144</v>
+      </c>
+      <c r="O152" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="153" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B153" s="61">
+        <v>43092</v>
+      </c>
+      <c r="C153" t="s">
+        <v>227</v>
+      </c>
+      <c r="D153" t="s">
+        <v>19</v>
+      </c>
+      <c r="E153" t="s">
+        <v>1097</v>
+      </c>
+      <c r="F153" s="60" t="s">
+        <v>1103</v>
+      </c>
+      <c r="G153" t="s">
+        <v>149</v>
+      </c>
+      <c r="H153" t="s">
+        <v>144</v>
+      </c>
+      <c r="I153" t="s">
+        <v>51</v>
+      </c>
+      <c r="J153" t="s">
+        <v>524</v>
+      </c>
+      <c r="K153" t="s">
+        <v>52</v>
+      </c>
+      <c r="T153" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="154" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B154" s="61">
+        <v>43092</v>
+      </c>
+      <c r="C154" t="s">
+        <v>227</v>
+      </c>
+      <c r="D154" t="s">
+        <v>189</v>
+      </c>
+      <c r="E154" t="s">
+        <v>1098</v>
+      </c>
+      <c r="F154" s="60" t="s">
+        <v>1104</v>
+      </c>
+      <c r="G154" t="s">
+        <v>149</v>
+      </c>
+      <c r="H154" t="s">
+        <v>171</v>
+      </c>
+      <c r="I154" t="s">
+        <v>51</v>
+      </c>
+      <c r="J154" t="s">
+        <v>998</v>
+      </c>
+      <c r="K154" t="s">
+        <v>175</v>
+      </c>
+      <c r="L154" t="s">
+        <v>873</v>
+      </c>
+      <c r="M154" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="155" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B155" s="61">
+        <v>43092</v>
+      </c>
+      <c r="C155" t="s">
+        <v>227</v>
+      </c>
+      <c r="D155" t="s">
+        <v>19</v>
+      </c>
+      <c r="E155" t="s">
+        <v>1099</v>
+      </c>
+      <c r="F155" s="60" t="s">
+        <v>553</v>
+      </c>
+      <c r="G155" t="s">
+        <v>155</v>
+      </c>
+      <c r="H155" t="s">
+        <v>420</v>
+      </c>
+      <c r="I155" t="s">
+        <v>51</v>
+      </c>
+      <c r="J155" t="s">
+        <v>503</v>
+      </c>
+      <c r="K155" t="s">
+        <v>52</v>
+      </c>
+      <c r="T155" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="156" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B156" s="61">
+        <v>43092</v>
+      </c>
+      <c r="C156" t="s">
+        <v>227</v>
+      </c>
+      <c r="D156" t="s">
+        <v>19</v>
+      </c>
+      <c r="E156" t="s">
+        <v>1100</v>
+      </c>
+      <c r="F156" s="60" t="s">
+        <v>968</v>
+      </c>
+      <c r="G156" t="s">
+        <v>155</v>
+      </c>
+      <c r="H156" t="s">
+        <v>502</v>
+      </c>
+      <c r="I156" t="s">
+        <v>51</v>
+      </c>
+      <c r="J156" t="s">
+        <v>820</v>
+      </c>
+      <c r="K156" t="s">
+        <v>52</v>
+      </c>
+      <c r="T156" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="157" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B157" s="61">
+        <v>43092</v>
+      </c>
+      <c r="C157" t="s">
+        <v>227</v>
+      </c>
+      <c r="D157" t="s">
+        <v>20</v>
+      </c>
+      <c r="E157" t="s">
+        <v>1101</v>
+      </c>
+      <c r="F157" s="60" t="s">
+        <v>658</v>
+      </c>
+      <c r="G157" t="s">
+        <v>149</v>
+      </c>
+      <c r="H157" t="s">
+        <v>460</v>
+      </c>
+      <c r="I157" t="s">
+        <v>174</v>
+      </c>
+      <c r="J157" t="s">
+        <v>827</v>
+      </c>
+      <c r="K157" t="s">
+        <v>51</v>
+      </c>
+      <c r="L157" t="s">
+        <v>362</v>
+      </c>
+      <c r="M157" t="s">
+        <v>175</v>
+      </c>
+      <c r="N157" t="s">
+        <v>701</v>
+      </c>
+      <c r="O157" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="158" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B158" s="61">
+        <v>43092</v>
+      </c>
+      <c r="C158" t="s">
+        <v>227</v>
+      </c>
+      <c r="D158" t="s">
+        <v>19</v>
+      </c>
+      <c r="E158" t="s">
+        <v>1102</v>
+      </c>
+      <c r="F158" s="60" t="s">
+        <v>485</v>
+      </c>
+      <c r="G158" t="s">
+        <v>149</v>
+      </c>
+      <c r="H158" t="s">
+        <v>101</v>
+      </c>
+      <c r="I158" t="s">
+        <v>51</v>
+      </c>
+      <c r="J158" t="s">
+        <v>893</v>
+      </c>
+      <c r="K158" t="s">
+        <v>52</v>
+      </c>
+      <c r="T158" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="159" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B159" s="61">
+        <v>43092</v>
+      </c>
+      <c r="C159" t="s">
+        <v>227</v>
+      </c>
+      <c r="D159" t="s">
+        <v>19</v>
+      </c>
+      <c r="E159" t="s">
+        <v>966</v>
+      </c>
+      <c r="F159" s="60" t="s">
+        <v>285</v>
+      </c>
+      <c r="G159" t="s">
+        <v>159</v>
+      </c>
+      <c r="H159" t="s">
+        <v>633</v>
+      </c>
+      <c r="I159" t="s">
+        <v>160</v>
+      </c>
+      <c r="J159" t="s">
+        <v>75</v>
+      </c>
+      <c r="K159" t="s">
+        <v>160</v>
+      </c>
+      <c r="T159" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>

--- a/TJPW Metrics.xlsx
+++ b/TJPW Metrics.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7935" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7935" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,14 +13,14 @@
     <sheet name="2015 Matches" sheetId="5" r:id="rId4"/>
     <sheet name="2016 Matches" sheetId="6" r:id="rId5"/>
     <sheet name="2017 Matches" sheetId="7" r:id="rId6"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId7"/>
+    <sheet name="Prior Experience" sheetId="3" r:id="rId7"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5729" uniqueCount="1107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5769" uniqueCount="1110">
   <si>
     <t>`</t>
   </si>
@@ -3341,6 +3341,15 @@
   </si>
   <si>
     <t>Christmas Special Big 5 Single Match</t>
+  </si>
+  <si>
+    <t>Wrestler</t>
+  </si>
+  <si>
+    <t>Matches</t>
+  </si>
+  <si>
+    <t>Years</t>
   </si>
 </sst>
 </file>
@@ -3897,6 +3906,66 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3998,66 +4067,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4452,97 +4461,97 @@
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="66" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="67"/>
-      <c r="I2" s="68" t="s">
+      <c r="G2" s="86" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="87"/>
+      <c r="I2" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="71" t="s">
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="72"/>
-      <c r="O2" s="72"/>
-      <c r="P2" s="72"/>
-      <c r="Q2" s="73"/>
-      <c r="R2" s="74" t="s">
+      <c r="N2" s="92"/>
+      <c r="O2" s="92"/>
+      <c r="P2" s="92"/>
+      <c r="Q2" s="93"/>
+      <c r="R2" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="S2" s="75"/>
-      <c r="T2" s="75"/>
-      <c r="U2" s="75"/>
-      <c r="V2" s="76"/>
-      <c r="W2" s="77" t="s">
+      <c r="S2" s="95"/>
+      <c r="T2" s="95"/>
+      <c r="U2" s="95"/>
+      <c r="V2" s="96"/>
+      <c r="W2" s="97" t="s">
         <v>5</v>
       </c>
-      <c r="X2" s="78"/>
-      <c r="Y2" s="78"/>
-      <c r="Z2" s="78"/>
-      <c r="AA2" s="78"/>
-      <c r="AB2" s="78"/>
-      <c r="AC2" s="78"/>
-      <c r="AD2" s="78"/>
-      <c r="AE2" s="78"/>
-      <c r="AF2" s="79"/>
-      <c r="AG2" s="80" t="s">
+      <c r="X2" s="98"/>
+      <c r="Y2" s="98"/>
+      <c r="Z2" s="98"/>
+      <c r="AA2" s="98"/>
+      <c r="AB2" s="98"/>
+      <c r="AC2" s="98"/>
+      <c r="AD2" s="98"/>
+      <c r="AE2" s="98"/>
+      <c r="AF2" s="99"/>
+      <c r="AG2" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="AH2" s="81"/>
-      <c r="AI2" s="81"/>
-      <c r="AJ2" s="81"/>
-      <c r="AK2" s="81"/>
-      <c r="AL2" s="81"/>
-      <c r="AM2" s="81"/>
-      <c r="AN2" s="82"/>
-      <c r="AO2" s="83" t="s">
+      <c r="AH2" s="101"/>
+      <c r="AI2" s="101"/>
+      <c r="AJ2" s="101"/>
+      <c r="AK2" s="101"/>
+      <c r="AL2" s="101"/>
+      <c r="AM2" s="101"/>
+      <c r="AN2" s="102"/>
+      <c r="AO2" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="AP2" s="84"/>
-      <c r="AQ2" s="84"/>
-      <c r="AR2" s="84"/>
-      <c r="AS2" s="84"/>
-      <c r="AT2" s="85"/>
-      <c r="AU2" s="86" t="s">
+      <c r="AP2" s="104"/>
+      <c r="AQ2" s="104"/>
+      <c r="AR2" s="104"/>
+      <c r="AS2" s="104"/>
+      <c r="AT2" s="105"/>
+      <c r="AU2" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="AV2" s="87"/>
-      <c r="AW2" s="88" t="s">
+      <c r="AV2" s="107"/>
+      <c r="AW2" s="108" t="s">
         <v>9</v>
       </c>
-      <c r="AX2" s="89"/>
-      <c r="AY2" s="89"/>
-      <c r="AZ2" s="89"/>
-      <c r="BA2" s="89"/>
-      <c r="BB2" s="89"/>
-      <c r="BC2" s="89"/>
-      <c r="BD2" s="90"/>
-      <c r="BE2" s="91" t="s">
+      <c r="AX2" s="109"/>
+      <c r="AY2" s="109"/>
+      <c r="AZ2" s="109"/>
+      <c r="BA2" s="109"/>
+      <c r="BB2" s="109"/>
+      <c r="BC2" s="109"/>
+      <c r="BD2" s="110"/>
+      <c r="BE2" s="111" t="s">
         <v>10</v>
       </c>
-      <c r="BF2" s="92"/>
-      <c r="BG2" s="92"/>
-      <c r="BH2" s="93"/>
+      <c r="BF2" s="112"/>
+      <c r="BG2" s="112"/>
+      <c r="BH2" s="113"/>
       <c r="BI2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="BJ2" s="94" t="s">
+      <c r="BJ2" s="114" t="s">
         <v>12</v>
       </c>
-      <c r="BK2" s="95"/>
-      <c r="BL2" s="96"/>
-      <c r="BM2" s="63" t="s">
+      <c r="BK2" s="115"/>
+      <c r="BL2" s="116"/>
+      <c r="BM2" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="BN2" s="64"/>
-      <c r="BO2" s="64"/>
-      <c r="BP2" s="64"/>
-      <c r="BQ2" s="64"/>
-      <c r="BR2" s="64"/>
-      <c r="BS2" s="65"/>
+      <c r="BN2" s="84"/>
+      <c r="BO2" s="84"/>
+      <c r="BP2" s="84"/>
+      <c r="BQ2" s="84"/>
+      <c r="BR2" s="84"/>
+      <c r="BS2" s="85"/>
     </row>
     <row r="3" spans="1:71" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
@@ -4563,18 +4572,18 @@
       <c r="F3" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="99">
+      <c r="G3" s="74">
         <v>2020</v>
       </c>
-      <c r="H3" s="100"/>
-      <c r="I3" s="101" t="s">
+      <c r="H3" s="75"/>
+      <c r="I3" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="102"/>
-      <c r="K3" s="103" t="s">
+      <c r="J3" s="77"/>
+      <c r="K3" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="101"/>
+      <c r="L3" s="76"/>
       <c r="M3" s="14" t="s">
         <v>21</v>
       </c>
@@ -4605,74 +4614,74 @@
       <c r="V3" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="W3" s="104" t="s">
+      <c r="W3" s="79" t="s">
         <v>26</v>
       </c>
-      <c r="X3" s="105"/>
-      <c r="Y3" s="104" t="s">
+      <c r="X3" s="80"/>
+      <c r="Y3" s="79" t="s">
         <v>27</v>
       </c>
-      <c r="Z3" s="106"/>
-      <c r="AA3" s="106" t="s">
+      <c r="Z3" s="81"/>
+      <c r="AA3" s="81" t="s">
         <v>28</v>
       </c>
-      <c r="AB3" s="106"/>
-      <c r="AC3" s="106" t="s">
+      <c r="AB3" s="81"/>
+      <c r="AC3" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="AD3" s="106"/>
-      <c r="AE3" s="106" t="s">
+      <c r="AD3" s="81"/>
+      <c r="AE3" s="81" t="s">
         <v>30</v>
       </c>
-      <c r="AF3" s="106"/>
-      <c r="AG3" s="97" t="s">
+      <c r="AF3" s="81"/>
+      <c r="AG3" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="AH3" s="98"/>
-      <c r="AI3" s="107" t="s">
+      <c r="AH3" s="73"/>
+      <c r="AI3" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="AJ3" s="97"/>
-      <c r="AK3" s="97" t="s">
+      <c r="AJ3" s="72"/>
+      <c r="AK3" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="AL3" s="97"/>
-      <c r="AM3" s="97" t="s">
+      <c r="AL3" s="72"/>
+      <c r="AM3" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="AN3" s="98"/>
-      <c r="AO3" s="111" t="s">
+      <c r="AN3" s="73"/>
+      <c r="AO3" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="AP3" s="112"/>
-      <c r="AQ3" s="111" t="s">
+      <c r="AP3" s="67"/>
+      <c r="AQ3" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="AR3" s="113"/>
-      <c r="AS3" s="113" t="s">
+      <c r="AR3" s="68"/>
+      <c r="AS3" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="AT3" s="112"/>
-      <c r="AU3" s="114" t="s">
+      <c r="AT3" s="67"/>
+      <c r="AU3" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="AV3" s="115"/>
-      <c r="AW3" s="116" t="s">
+      <c r="AV3" s="70"/>
+      <c r="AW3" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="AX3" s="108"/>
-      <c r="AY3" s="108" t="s">
+      <c r="AX3" s="63"/>
+      <c r="AY3" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="AZ3" s="108"/>
-      <c r="BA3" s="108" t="s">
+      <c r="AZ3" s="63"/>
+      <c r="BA3" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="BB3" s="108"/>
-      <c r="BC3" s="109" t="s">
+      <c r="BB3" s="63"/>
+      <c r="BC3" s="64" t="s">
         <v>40</v>
       </c>
-      <c r="BD3" s="110"/>
+      <c r="BD3" s="65"/>
       <c r="BE3" s="22" t="s">
         <v>19</v>
       </c>
@@ -13563,14 +13572,18 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="BA3:BB3"/>
-    <mergeCell ref="BC3:BD3"/>
-    <mergeCell ref="AO3:AP3"/>
-    <mergeCell ref="AQ3:AR3"/>
-    <mergeCell ref="AS3:AT3"/>
-    <mergeCell ref="AU3:AV3"/>
-    <mergeCell ref="AW3:AX3"/>
-    <mergeCell ref="AY3:AZ3"/>
+    <mergeCell ref="BM2:BS2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="R2:V2"/>
+    <mergeCell ref="W2:AF2"/>
+    <mergeCell ref="AG2:AN2"/>
+    <mergeCell ref="AO2:AT2"/>
+    <mergeCell ref="AU2:AV2"/>
+    <mergeCell ref="AW2:BD2"/>
+    <mergeCell ref="BE2:BH2"/>
+    <mergeCell ref="BJ2:BL2"/>
     <mergeCell ref="AM3:AN3"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="I3:J3"/>
@@ -13583,18 +13596,14 @@
     <mergeCell ref="AG3:AH3"/>
     <mergeCell ref="AI3:AJ3"/>
     <mergeCell ref="AK3:AL3"/>
-    <mergeCell ref="BM2:BS2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="M2:Q2"/>
-    <mergeCell ref="R2:V2"/>
-    <mergeCell ref="W2:AF2"/>
-    <mergeCell ref="AG2:AN2"/>
-    <mergeCell ref="AO2:AT2"/>
-    <mergeCell ref="AU2:AV2"/>
-    <mergeCell ref="AW2:BD2"/>
-    <mergeCell ref="BE2:BH2"/>
-    <mergeCell ref="BJ2:BL2"/>
+    <mergeCell ref="BA3:BB3"/>
+    <mergeCell ref="BC3:BD3"/>
+    <mergeCell ref="AO3:AP3"/>
+    <mergeCell ref="AQ3:AR3"/>
+    <mergeCell ref="AS3:AT3"/>
+    <mergeCell ref="AU3:AV3"/>
+    <mergeCell ref="AW3:AX3"/>
+    <mergeCell ref="AY3:AZ3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -25854,7 +25863,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A143" workbookViewId="0">
+    <sheetView topLeftCell="A143" workbookViewId="0">
       <selection activeCell="A160" sqref="A160"/>
     </sheetView>
   </sheetViews>
@@ -32412,14 +32421,436 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>170</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>171</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>172</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>420</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>198</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>199</v>
+      </c>
+      <c r="B12">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>214</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>225</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>362</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>363</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>460</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>475</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>502</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>503</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>524</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>525</v>
+      </c>
+      <c r="B22">
+        <v>304</v>
+      </c>
+      <c r="C22">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>701</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>632</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>633</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>757</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>818</v>
+      </c>
+      <c r="B27">
+        <v>957</v>
+      </c>
+      <c r="C27">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>819</v>
+      </c>
+      <c r="B28">
+        <v>33</v>
+      </c>
+      <c r="C28">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>820</v>
+      </c>
+      <c r="B29">
+        <v>5</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>827</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>828</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>873</v>
+      </c>
+      <c r="B32">
+        <v>28</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>893</v>
+      </c>
+      <c r="B33">
+        <v>126</v>
+      </c>
+      <c r="C33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>971</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>998</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>999</v>
+      </c>
+      <c r="B36">
+        <v>146</v>
+      </c>
+      <c r="C36">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B37">
+        <v>755</v>
+      </c>
+      <c r="C37">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B38">
+        <v>3283</v>
+      </c>
+      <c r="C38">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/TJPW Metrics.xlsx
+++ b/TJPW Metrics.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7935" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7935" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2401,12 +2401,6 @@
     <t>Pinfall/Pinfall</t>
   </si>
   <si>
-    <t>W**</t>
-  </si>
-  <si>
-    <t>L**</t>
-  </si>
-  <si>
     <t>TOKYO Princess Of Princess Title #1 Contendership Three Way Elimination (Shoko Eliminates Akane @ 7m48s; Shoko Eliminates Miyu @ 12m06s)</t>
   </si>
   <si>
@@ -3350,6 +3344,12 @@
   </si>
   <si>
     <t>Years</t>
+  </si>
+  <si>
+    <t>W*W</t>
+  </si>
+  <si>
+    <t>WL</t>
   </si>
 </sst>
 </file>
@@ -3906,66 +3906,6 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4067,6 +4007,66 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4461,97 +4461,97 @@
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="86" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="87"/>
-      <c r="I2" s="88" t="s">
+      <c r="G2" s="66" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="67"/>
+      <c r="I2" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="89"/>
-      <c r="K2" s="89"/>
-      <c r="L2" s="90"/>
-      <c r="M2" s="91" t="s">
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="92"/>
-      <c r="O2" s="92"/>
-      <c r="P2" s="92"/>
-      <c r="Q2" s="93"/>
-      <c r="R2" s="94" t="s">
+      <c r="N2" s="72"/>
+      <c r="O2" s="72"/>
+      <c r="P2" s="72"/>
+      <c r="Q2" s="73"/>
+      <c r="R2" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="S2" s="95"/>
-      <c r="T2" s="95"/>
-      <c r="U2" s="95"/>
-      <c r="V2" s="96"/>
-      <c r="W2" s="97" t="s">
+      <c r="S2" s="75"/>
+      <c r="T2" s="75"/>
+      <c r="U2" s="75"/>
+      <c r="V2" s="76"/>
+      <c r="W2" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="X2" s="98"/>
-      <c r="Y2" s="98"/>
-      <c r="Z2" s="98"/>
-      <c r="AA2" s="98"/>
-      <c r="AB2" s="98"/>
-      <c r="AC2" s="98"/>
-      <c r="AD2" s="98"/>
-      <c r="AE2" s="98"/>
-      <c r="AF2" s="99"/>
-      <c r="AG2" s="100" t="s">
+      <c r="X2" s="78"/>
+      <c r="Y2" s="78"/>
+      <c r="Z2" s="78"/>
+      <c r="AA2" s="78"/>
+      <c r="AB2" s="78"/>
+      <c r="AC2" s="78"/>
+      <c r="AD2" s="78"/>
+      <c r="AE2" s="78"/>
+      <c r="AF2" s="79"/>
+      <c r="AG2" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="AH2" s="101"/>
-      <c r="AI2" s="101"/>
-      <c r="AJ2" s="101"/>
-      <c r="AK2" s="101"/>
-      <c r="AL2" s="101"/>
-      <c r="AM2" s="101"/>
-      <c r="AN2" s="102"/>
-      <c r="AO2" s="103" t="s">
+      <c r="AH2" s="81"/>
+      <c r="AI2" s="81"/>
+      <c r="AJ2" s="81"/>
+      <c r="AK2" s="81"/>
+      <c r="AL2" s="81"/>
+      <c r="AM2" s="81"/>
+      <c r="AN2" s="82"/>
+      <c r="AO2" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="AP2" s="104"/>
-      <c r="AQ2" s="104"/>
-      <c r="AR2" s="104"/>
-      <c r="AS2" s="104"/>
-      <c r="AT2" s="105"/>
-      <c r="AU2" s="106" t="s">
+      <c r="AP2" s="84"/>
+      <c r="AQ2" s="84"/>
+      <c r="AR2" s="84"/>
+      <c r="AS2" s="84"/>
+      <c r="AT2" s="85"/>
+      <c r="AU2" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="AV2" s="107"/>
-      <c r="AW2" s="108" t="s">
+      <c r="AV2" s="87"/>
+      <c r="AW2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="AX2" s="109"/>
-      <c r="AY2" s="109"/>
-      <c r="AZ2" s="109"/>
-      <c r="BA2" s="109"/>
-      <c r="BB2" s="109"/>
-      <c r="BC2" s="109"/>
-      <c r="BD2" s="110"/>
-      <c r="BE2" s="111" t="s">
+      <c r="AX2" s="89"/>
+      <c r="AY2" s="89"/>
+      <c r="AZ2" s="89"/>
+      <c r="BA2" s="89"/>
+      <c r="BB2" s="89"/>
+      <c r="BC2" s="89"/>
+      <c r="BD2" s="90"/>
+      <c r="BE2" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="BF2" s="112"/>
-      <c r="BG2" s="112"/>
-      <c r="BH2" s="113"/>
+      <c r="BF2" s="92"/>
+      <c r="BG2" s="92"/>
+      <c r="BH2" s="93"/>
       <c r="BI2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="BJ2" s="114" t="s">
+      <c r="BJ2" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="BK2" s="115"/>
-      <c r="BL2" s="116"/>
-      <c r="BM2" s="83" t="s">
+      <c r="BK2" s="95"/>
+      <c r="BL2" s="96"/>
+      <c r="BM2" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="BN2" s="84"/>
-      <c r="BO2" s="84"/>
-      <c r="BP2" s="84"/>
-      <c r="BQ2" s="84"/>
-      <c r="BR2" s="84"/>
-      <c r="BS2" s="85"/>
+      <c r="BN2" s="64"/>
+      <c r="BO2" s="64"/>
+      <c r="BP2" s="64"/>
+      <c r="BQ2" s="64"/>
+      <c r="BR2" s="64"/>
+      <c r="BS2" s="65"/>
     </row>
     <row r="3" spans="1:71" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
@@ -4572,18 +4572,18 @@
       <c r="F3" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="74">
+      <c r="G3" s="99">
         <v>2020</v>
       </c>
-      <c r="H3" s="75"/>
-      <c r="I3" s="76" t="s">
+      <c r="H3" s="100"/>
+      <c r="I3" s="101" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="77"/>
-      <c r="K3" s="78" t="s">
+      <c r="J3" s="102"/>
+      <c r="K3" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="76"/>
+      <c r="L3" s="101"/>
       <c r="M3" s="14" t="s">
         <v>21</v>
       </c>
@@ -4614,74 +4614,74 @@
       <c r="V3" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="W3" s="79" t="s">
+      <c r="W3" s="104" t="s">
         <v>26</v>
       </c>
-      <c r="X3" s="80"/>
-      <c r="Y3" s="79" t="s">
+      <c r="X3" s="105"/>
+      <c r="Y3" s="104" t="s">
         <v>27</v>
       </c>
-      <c r="Z3" s="81"/>
-      <c r="AA3" s="81" t="s">
+      <c r="Z3" s="106"/>
+      <c r="AA3" s="106" t="s">
         <v>28</v>
       </c>
-      <c r="AB3" s="81"/>
-      <c r="AC3" s="81" t="s">
+      <c r="AB3" s="106"/>
+      <c r="AC3" s="106" t="s">
         <v>29</v>
       </c>
-      <c r="AD3" s="81"/>
-      <c r="AE3" s="81" t="s">
+      <c r="AD3" s="106"/>
+      <c r="AE3" s="106" t="s">
         <v>30</v>
       </c>
-      <c r="AF3" s="81"/>
-      <c r="AG3" s="72" t="s">
+      <c r="AF3" s="106"/>
+      <c r="AG3" s="97" t="s">
         <v>31</v>
       </c>
-      <c r="AH3" s="73"/>
-      <c r="AI3" s="82" t="s">
+      <c r="AH3" s="98"/>
+      <c r="AI3" s="107" t="s">
         <v>32</v>
       </c>
-      <c r="AJ3" s="72"/>
-      <c r="AK3" s="72" t="s">
+      <c r="AJ3" s="97"/>
+      <c r="AK3" s="97" t="s">
         <v>33</v>
       </c>
-      <c r="AL3" s="72"/>
-      <c r="AM3" s="72" t="s">
+      <c r="AL3" s="97"/>
+      <c r="AM3" s="97" t="s">
         <v>34</v>
       </c>
-      <c r="AN3" s="73"/>
-      <c r="AO3" s="66" t="s">
+      <c r="AN3" s="98"/>
+      <c r="AO3" s="111" t="s">
         <v>35</v>
       </c>
-      <c r="AP3" s="67"/>
-      <c r="AQ3" s="66" t="s">
+      <c r="AP3" s="112"/>
+      <c r="AQ3" s="111" t="s">
         <v>36</v>
       </c>
-      <c r="AR3" s="68"/>
-      <c r="AS3" s="68" t="s">
+      <c r="AR3" s="113"/>
+      <c r="AS3" s="113" t="s">
         <v>37</v>
       </c>
-      <c r="AT3" s="67"/>
-      <c r="AU3" s="69" t="s">
+      <c r="AT3" s="112"/>
+      <c r="AU3" s="114" t="s">
         <v>19</v>
       </c>
-      <c r="AV3" s="70"/>
-      <c r="AW3" s="71" t="s">
+      <c r="AV3" s="115"/>
+      <c r="AW3" s="116" t="s">
         <v>38</v>
       </c>
-      <c r="AX3" s="63"/>
-      <c r="AY3" s="63" t="s">
+      <c r="AX3" s="108"/>
+      <c r="AY3" s="108" t="s">
         <v>39</v>
       </c>
-      <c r="AZ3" s="63"/>
-      <c r="BA3" s="63" t="s">
+      <c r="AZ3" s="108"/>
+      <c r="BA3" s="108" t="s">
         <v>16</v>
       </c>
-      <c r="BB3" s="63"/>
-      <c r="BC3" s="64" t="s">
+      <c r="BB3" s="108"/>
+      <c r="BC3" s="109" t="s">
         <v>40</v>
       </c>
-      <c r="BD3" s="65"/>
+      <c r="BD3" s="110"/>
       <c r="BE3" s="22" t="s">
         <v>19</v>
       </c>
@@ -13572,6 +13572,26 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="BA3:BB3"/>
+    <mergeCell ref="BC3:BD3"/>
+    <mergeCell ref="AO3:AP3"/>
+    <mergeCell ref="AQ3:AR3"/>
+    <mergeCell ref="AS3:AT3"/>
+    <mergeCell ref="AU3:AV3"/>
+    <mergeCell ref="AW3:AX3"/>
+    <mergeCell ref="AY3:AZ3"/>
+    <mergeCell ref="AM3:AN3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="Y3:Z3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="AI3:AJ3"/>
+    <mergeCell ref="AK3:AL3"/>
     <mergeCell ref="BM2:BS2"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:L2"/>
@@ -13584,26 +13604,6 @@
     <mergeCell ref="AW2:BD2"/>
     <mergeCell ref="BE2:BH2"/>
     <mergeCell ref="BJ2:BL2"/>
-    <mergeCell ref="AM3:AN3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="Y3:Z3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="AI3:AJ3"/>
-    <mergeCell ref="AK3:AL3"/>
-    <mergeCell ref="BA3:BB3"/>
-    <mergeCell ref="BC3:BD3"/>
-    <mergeCell ref="AO3:AP3"/>
-    <mergeCell ref="AQ3:AR3"/>
-    <mergeCell ref="AS3:AT3"/>
-    <mergeCell ref="AU3:AV3"/>
-    <mergeCell ref="AW3:AX3"/>
-    <mergeCell ref="AY3:AZ3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -20101,8 +20101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T142"/>
   <sheetViews>
-    <sheetView topLeftCell="J118" workbookViewId="0">
-      <selection activeCell="T114" sqref="T114"/>
+    <sheetView tabSelected="1" topLeftCell="E121" workbookViewId="0">
+      <selection activeCell="M139" sqref="M139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22357,7 +22357,7 @@
         <v>209</v>
       </c>
       <c r="E55" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="F55" s="60"/>
       <c r="H55" t="s">
@@ -25671,27 +25671,27 @@
         <v>101</v>
       </c>
       <c r="I138" t="s">
+        <v>1108</v>
+      </c>
+      <c r="J138" t="s">
+        <v>144</v>
+      </c>
+      <c r="K138" t="s">
+        <v>1109</v>
+      </c>
+      <c r="L138" t="s">
+        <v>214</v>
+      </c>
+      <c r="M138" t="s">
+        <v>52</v>
+      </c>
+      <c r="T138" t="s">
         <v>793</v>
-      </c>
-      <c r="J138" t="s">
-        <v>214</v>
-      </c>
-      <c r="K138" t="s">
-        <v>794</v>
-      </c>
-      <c r="L138" t="s">
-        <v>144</v>
-      </c>
-      <c r="M138" t="s">
-        <v>175</v>
-      </c>
-      <c r="T138" t="s">
-        <v>795</v>
       </c>
     </row>
     <row r="139" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="B139" s="61">
         <v>42714</v>
@@ -25706,7 +25706,7 @@
         <v>648</v>
       </c>
       <c r="F139" s="60" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="G139" t="s">
         <v>149</v>
@@ -25726,7 +25726,7 @@
     </row>
     <row r="140" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="B140" s="61">
         <v>42714</v>
@@ -25738,10 +25738,10 @@
         <v>20</v>
       </c>
       <c r="E140" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="F140" s="60" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="G140" t="s">
         <v>155</v>
@@ -25773,7 +25773,7 @@
     </row>
     <row r="141" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="B141" s="61">
         <v>42714</v>
@@ -25785,10 +25785,10 @@
         <v>19</v>
       </c>
       <c r="E141" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="F141" s="60" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="G141" t="s">
         <v>155</v>
@@ -25808,7 +25808,7 @@
     </row>
     <row r="142" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="B142" s="61">
         <v>42714</v>
@@ -25820,10 +25820,10 @@
         <v>20</v>
       </c>
       <c r="E142" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="F142" s="60" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="G142" t="s">
         <v>159</v>
@@ -25955,7 +25955,7 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="B2" s="61">
         <v>42739</v>
@@ -25967,16 +25967,16 @@
         <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="F2" s="60" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="G2" s="60" t="s">
         <v>149</v>
       </c>
       <c r="H2" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="I2" t="s">
         <v>51</v>
@@ -25990,7 +25990,7 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="B3" s="61">
         <v>42739</v>
@@ -26002,10 +26002,10 @@
         <v>189</v>
       </c>
       <c r="E3" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="F3" s="60" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="G3" t="s">
         <v>155</v>
@@ -26031,7 +26031,7 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="B4" s="61">
         <v>42739</v>
@@ -26043,7 +26043,7 @@
         <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="F4" s="60" t="s">
         <v>290</v>
@@ -26058,7 +26058,7 @@
         <v>174</v>
       </c>
       <c r="J4" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="K4" t="s">
         <v>51</v>
@@ -26078,7 +26078,7 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="B5" s="61">
         <v>42739</v>
@@ -26090,10 +26090,10 @@
         <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="F5" s="60" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="G5" t="s">
         <v>155</v>
@@ -26105,7 +26105,7 @@
         <v>51</v>
       </c>
       <c r="J5" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="K5" t="s">
         <v>52</v>
@@ -26113,7 +26113,7 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="B6" s="61">
         <v>42739</v>
@@ -26125,10 +26125,10 @@
         <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="F6" s="60" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="G6" t="s">
         <v>149</v>
@@ -26148,7 +26148,7 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="B7" s="61">
         <v>42739</v>
@@ -26163,7 +26163,7 @@
         <v>385</v>
       </c>
       <c r="F7" s="60" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="G7" t="s">
         <v>149</v>
@@ -26183,7 +26183,7 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="B8" s="61">
         <v>42739</v>
@@ -26195,10 +26195,10 @@
         <v>19</v>
       </c>
       <c r="E8" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="F8" s="60" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="G8" t="s">
         <v>149</v>
@@ -26221,7 +26221,7 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="B9" s="61">
         <v>42756</v>
@@ -26233,10 +26233,10 @@
         <v>19</v>
       </c>
       <c r="E9" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="F9" s="60" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="G9" t="s">
         <v>149</v>
@@ -26248,7 +26248,7 @@
         <v>51</v>
       </c>
       <c r="J9" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="K9" t="s">
         <v>52</v>
@@ -26256,7 +26256,7 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="B10" s="61">
         <v>42756</v>
@@ -26268,7 +26268,7 @@
         <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="F10" s="60" t="s">
         <v>404</v>
@@ -26303,7 +26303,7 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="B11" s="61">
         <v>42756</v>
@@ -26338,7 +26338,7 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="B12" s="61">
         <v>42756</v>
@@ -26350,22 +26350,22 @@
         <v>20</v>
       </c>
       <c r="E12" t="s">
+        <v>822</v>
+      </c>
+      <c r="F12" s="60" t="s">
         <v>824</v>
       </c>
-      <c r="F12" s="60" t="s">
-        <v>826</v>
-      </c>
       <c r="G12" t="s">
         <v>149</v>
       </c>
       <c r="H12" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="I12" t="s">
         <v>174</v>
       </c>
       <c r="J12" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="K12" t="s">
         <v>51</v>
@@ -26385,7 +26385,7 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="B13" s="61">
         <v>42771</v>
@@ -26397,10 +26397,10 @@
         <v>19</v>
       </c>
       <c r="E13" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="F13" s="60" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="G13" t="s">
         <v>149</v>
@@ -26412,7 +26412,7 @@
         <v>51</v>
       </c>
       <c r="J13" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="K13" t="s">
         <v>52</v>
@@ -26420,7 +26420,7 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="B14" s="61">
         <v>42771</v>
@@ -26432,10 +26432,10 @@
         <v>20</v>
       </c>
       <c r="E14" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="F14" s="60" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="G14" t="s">
         <v>149</v>
@@ -26467,7 +26467,7 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="B15" s="61">
         <v>42771</v>
@@ -26479,22 +26479,22 @@
         <v>20</v>
       </c>
       <c r="E15" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="F15" s="60" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="G15" t="s">
         <v>149</v>
       </c>
       <c r="H15" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="I15" t="s">
         <v>174</v>
       </c>
       <c r="J15" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="K15" t="s">
         <v>51</v>
@@ -26514,7 +26514,7 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="B16" s="61">
         <v>42771</v>
@@ -26526,10 +26526,10 @@
         <v>20</v>
       </c>
       <c r="E16" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F16" s="60" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="G16" t="s">
         <v>149</v>
@@ -26561,7 +26561,7 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="B17" s="61">
         <v>42784</v>
@@ -26576,7 +26576,7 @@
         <v>618</v>
       </c>
       <c r="F17" s="60" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="G17" t="s">
         <v>149</v>
@@ -26596,7 +26596,7 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="B18" s="61">
         <v>42784</v>
@@ -26608,10 +26608,10 @@
         <v>20</v>
       </c>
       <c r="E18" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="F18" s="60" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="G18" t="s">
         <v>149</v>
@@ -26643,7 +26643,7 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="B19" s="61">
         <v>42784</v>
@@ -26655,7 +26655,7 @@
         <v>19</v>
       </c>
       <c r="E19" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="F19" s="60" t="s">
         <v>304</v>
@@ -26678,7 +26678,7 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="B20" s="61">
         <v>42784</v>
@@ -26690,22 +26690,22 @@
         <v>20</v>
       </c>
       <c r="E20" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="F20" s="60" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="G20" t="s">
         <v>155</v>
       </c>
       <c r="H20" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="I20" t="s">
         <v>174</v>
       </c>
       <c r="J20" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="K20" t="s">
         <v>51</v>
@@ -26725,7 +26725,7 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="B21" s="61">
         <v>42792</v>
@@ -26737,7 +26737,7 @@
         <v>19</v>
       </c>
       <c r="E21" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="F21" s="60" t="s">
         <v>563</v>
@@ -26760,7 +26760,7 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="B22" s="61">
         <v>42792</v>
@@ -26795,7 +26795,7 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="B23" s="61">
         <v>42792</v>
@@ -26807,7 +26807,7 @@
         <v>19</v>
       </c>
       <c r="E23" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="F23" s="60" t="s">
         <v>285</v>
@@ -26830,7 +26830,7 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="B24" s="61">
         <v>42792</v>
@@ -26842,7 +26842,7 @@
         <v>20</v>
       </c>
       <c r="E24" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="F24" s="60" t="s">
         <v>775</v>
@@ -26877,7 +26877,7 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="B25" s="61">
         <v>42798</v>
@@ -26889,10 +26889,10 @@
         <v>19</v>
       </c>
       <c r="E25" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="F25" s="60" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="G25" t="s">
         <v>149</v>
@@ -26912,7 +26912,7 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="B26" s="61">
         <v>42798</v>
@@ -26924,10 +26924,10 @@
         <v>19</v>
       </c>
       <c r="E26" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="F26" s="60" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="G26" t="s">
         <v>149</v>
@@ -26947,7 +26947,7 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="B27" s="61">
         <v>42798</v>
@@ -26959,10 +26959,10 @@
         <v>20</v>
       </c>
       <c r="E27" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="F27" s="60" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="G27" t="s">
         <v>149</v>
@@ -26994,7 +26994,7 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="B28" s="61">
         <v>42798</v>
@@ -27006,10 +27006,10 @@
         <v>19</v>
       </c>
       <c r="E28" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="F28" s="60" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="G28" t="s">
         <v>149</v>
@@ -27029,7 +27029,7 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="B29" s="61">
         <v>42798</v>
@@ -27041,7 +27041,7 @@
         <v>19</v>
       </c>
       <c r="E29" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="F29" s="60" t="s">
         <v>471</v>
@@ -27064,7 +27064,7 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="B30" s="61">
         <v>42798</v>
@@ -27076,10 +27076,10 @@
         <v>20</v>
       </c>
       <c r="E30" t="s">
+        <v>857</v>
+      </c>
+      <c r="F30" s="60" t="s">
         <v>859</v>
-      </c>
-      <c r="F30" s="60" t="s">
-        <v>861</v>
       </c>
       <c r="G30" t="s">
         <v>149</v>
@@ -27111,19 +27111,19 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="B31" s="61">
         <v>42806</v>
       </c>
       <c r="C31" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="D31" t="s">
         <v>189</v>
       </c>
       <c r="E31" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="F31" s="60" t="s">
         <v>540</v>
@@ -27138,7 +27138,7 @@
         <v>51</v>
       </c>
       <c r="J31" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="K31" t="s">
         <v>175</v>
@@ -27152,28 +27152,28 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="B32" s="61">
         <v>42806</v>
       </c>
       <c r="C32" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="D32" t="s">
         <v>19</v>
       </c>
       <c r="E32" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="F32" s="60" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="G32" t="s">
         <v>149</v>
       </c>
       <c r="H32" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="I32" t="s">
         <v>51</v>
@@ -27187,22 +27187,22 @@
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="B33" s="61">
         <v>42806</v>
       </c>
       <c r="C33" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="D33" t="s">
         <v>20</v>
       </c>
       <c r="E33" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="F33" s="60" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="G33" t="s">
         <v>149</v>
@@ -27234,34 +27234,34 @@
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="B34" s="61">
         <v>42806</v>
       </c>
       <c r="C34" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="D34" t="s">
         <v>20</v>
       </c>
       <c r="E34" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="F34" s="60" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="G34" t="s">
         <v>155</v>
       </c>
       <c r="H34" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="I34" t="s">
         <v>174</v>
       </c>
       <c r="J34" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="K34" t="s">
         <v>51</v>
@@ -27281,22 +27281,22 @@
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="B35" s="61">
         <v>42806</v>
       </c>
       <c r="C35" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="D35" t="s">
         <v>19</v>
       </c>
       <c r="E35" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="F35" s="60" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="G35" t="s">
         <v>149</v>
@@ -27319,7 +27319,7 @@
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="B36" s="61">
         <v>42819</v>
@@ -27331,7 +27331,7 @@
         <v>19</v>
       </c>
       <c r="E36" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="F36" s="60" t="s">
         <v>552</v>
@@ -27340,7 +27340,7 @@
         <v>149</v>
       </c>
       <c r="H36" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="I36" t="s">
         <v>51</v>
@@ -27354,7 +27354,7 @@
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="B37" s="61">
         <v>42819</v>
@@ -27366,10 +27366,10 @@
         <v>20</v>
       </c>
       <c r="E37" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="F37" s="60" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="G37" t="s">
         <v>149</v>
@@ -27387,7 +27387,7 @@
         <v>51</v>
       </c>
       <c r="L37" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="M37" t="s">
         <v>175</v>
@@ -27401,7 +27401,7 @@
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="B38" s="61">
         <v>42819</v>
@@ -27413,10 +27413,10 @@
         <v>20</v>
       </c>
       <c r="E38" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="F38" s="60" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="G38" t="s">
         <v>155</v>
@@ -27448,7 +27448,7 @@
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="B39" s="61">
         <v>42819</v>
@@ -27460,16 +27460,16 @@
         <v>19</v>
       </c>
       <c r="E39" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="F39" s="60" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="G39" t="s">
         <v>155</v>
       </c>
       <c r="H39" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="I39" t="s">
         <v>51</v>
@@ -27483,7 +27483,7 @@
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="B40" s="61">
         <v>42819</v>
@@ -27498,7 +27498,7 @@
         <v>217</v>
       </c>
       <c r="F40" s="60" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="G40" t="s">
         <v>149</v>
@@ -27518,19 +27518,19 @@
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="B41" s="61">
         <v>42833</v>
       </c>
       <c r="C41" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="D41" t="s">
         <v>19</v>
       </c>
       <c r="E41" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="F41" s="60" t="s">
         <v>325</v>
@@ -27539,13 +27539,13 @@
         <v>149</v>
       </c>
       <c r="H41" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="I41" t="s">
         <v>51</v>
       </c>
       <c r="J41" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="K41" t="s">
         <v>52</v>
@@ -27553,22 +27553,22 @@
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="B42" s="61">
         <v>42833</v>
       </c>
       <c r="C42" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="D42" t="s">
         <v>20</v>
       </c>
       <c r="E42" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="F42" s="60" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="G42" t="s">
         <v>149</v>
@@ -27600,34 +27600,34 @@
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="B43" s="61">
         <v>42833</v>
       </c>
       <c r="C43" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="D43" t="s">
         <v>20</v>
       </c>
       <c r="E43" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="F43" s="60" t="s">
+        <v>888</v>
+      </c>
+      <c r="G43" t="s">
         <v>890</v>
       </c>
-      <c r="G43" t="s">
-        <v>892</v>
-      </c>
       <c r="H43" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="I43" t="s">
         <v>160</v>
       </c>
       <c r="J43" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="K43" t="s">
         <v>160</v>
@@ -27647,22 +27647,22 @@
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="B44" s="61">
         <v>42833</v>
       </c>
       <c r="C44" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="D44" t="s">
         <v>20</v>
       </c>
       <c r="E44" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="F44" s="60" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="G44" t="s">
         <v>149</v>
@@ -27686,7 +27686,7 @@
         <v>175</v>
       </c>
       <c r="N44" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="O44" t="s">
         <v>52</v>
@@ -27694,19 +27694,19 @@
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="B45" s="61">
         <v>42833</v>
       </c>
       <c r="C45" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="D45" t="s">
         <v>19</v>
       </c>
       <c r="E45" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="F45" s="60" t="s">
         <v>458</v>
@@ -27732,22 +27732,22 @@
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="B46" s="61">
         <v>42855</v>
       </c>
       <c r="C46" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="D46" t="s">
         <v>20</v>
       </c>
       <c r="E46" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="F46" s="60" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="G46" t="s">
         <v>155</v>
@@ -27765,13 +27765,13 @@
         <v>51</v>
       </c>
       <c r="L46" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="M46" t="s">
         <v>175</v>
       </c>
       <c r="N46" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="O46" t="s">
         <v>52</v>
@@ -27779,19 +27779,19 @@
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="B47" s="61">
         <v>42855</v>
       </c>
       <c r="C47" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="D47" t="s">
         <v>19</v>
       </c>
       <c r="E47" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="F47" s="60" t="s">
         <v>573</v>
@@ -27800,7 +27800,7 @@
         <v>149</v>
       </c>
       <c r="H47" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="I47" t="s">
         <v>51</v>
@@ -27814,13 +27814,13 @@
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="B48" s="61">
         <v>42855</v>
       </c>
       <c r="C48" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="D48" t="s">
         <v>19</v>
@@ -27829,7 +27829,7 @@
         <v>355</v>
       </c>
       <c r="F48" s="60" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="G48" t="s">
         <v>149</v>
@@ -27849,34 +27849,34 @@
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="B49" s="61">
         <v>42855</v>
       </c>
       <c r="C49" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="D49" t="s">
         <v>20</v>
       </c>
       <c r="E49" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="F49" s="60" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="G49" t="s">
         <v>149</v>
       </c>
       <c r="H49" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="I49" t="s">
         <v>174</v>
       </c>
       <c r="J49" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="K49" t="s">
         <v>51</v>
@@ -27894,27 +27894,27 @@
         <v>52</v>
       </c>
       <c r="T49" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="B50" s="61">
         <v>42855</v>
       </c>
       <c r="C50" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="D50" t="s">
         <v>20</v>
       </c>
       <c r="E50" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="F50" s="60" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="G50" t="s">
         <v>149</v>
@@ -27946,7 +27946,7 @@
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="B51" s="61">
         <v>42862</v>
@@ -27958,16 +27958,16 @@
         <v>19</v>
       </c>
       <c r="E51" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="F51" s="60" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="G51" t="s">
         <v>149</v>
       </c>
       <c r="H51" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="I51" t="s">
         <v>51</v>
@@ -27981,7 +27981,7 @@
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="B52" s="61">
         <v>42862</v>
@@ -27993,7 +27993,7 @@
         <v>189</v>
       </c>
       <c r="E52" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="F52" s="60" t="s">
         <v>485</v>
@@ -28022,7 +28022,7 @@
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="B53" s="61">
         <v>42862</v>
@@ -28034,7 +28034,7 @@
         <v>20</v>
       </c>
       <c r="E53" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="F53" s="60" t="s">
         <v>324</v>
@@ -28043,13 +28043,13 @@
         <v>155</v>
       </c>
       <c r="H53" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="I53" t="s">
         <v>174</v>
       </c>
       <c r="J53" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="K53" t="s">
         <v>51</v>
@@ -28069,7 +28069,7 @@
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="B54" s="61">
         <v>42862</v>
@@ -28081,10 +28081,10 @@
         <v>423</v>
       </c>
       <c r="E54" t="s">
+        <v>905</v>
+      </c>
+      <c r="F54" s="60" t="s">
         <v>907</v>
-      </c>
-      <c r="F54" s="60" t="s">
-        <v>909</v>
       </c>
       <c r="G54" t="s">
         <v>155</v>
@@ -28128,7 +28128,7 @@
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="B55" s="61">
         <v>42869</v>
@@ -28140,7 +28140,7 @@
         <v>19</v>
       </c>
       <c r="E55" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="F55" s="60" t="s">
         <v>308</v>
@@ -28149,7 +28149,7 @@
         <v>149</v>
       </c>
       <c r="H55" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="I55" t="s">
         <v>51</v>
@@ -28163,7 +28163,7 @@
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="B56" s="61">
         <v>42869</v>
@@ -28175,16 +28175,16 @@
         <v>189</v>
       </c>
       <c r="E56" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="F56" s="60" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="G56" t="s">
         <v>149</v>
       </c>
       <c r="H56" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="I56" t="s">
         <v>51</v>
@@ -28204,7 +28204,7 @@
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="B57" s="61">
         <v>42869</v>
@@ -28219,7 +28219,7 @@
         <v>455</v>
       </c>
       <c r="F57" s="60" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="G57" t="s">
         <v>149</v>
@@ -28239,7 +28239,7 @@
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="B58" s="61">
         <v>42869</v>
@@ -28251,16 +28251,16 @@
         <v>19</v>
       </c>
       <c r="E58" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="F58" s="60" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="G58" t="s">
         <v>149</v>
       </c>
       <c r="H58" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="I58" t="s">
         <v>51</v>
@@ -28274,7 +28274,7 @@
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="B59" s="61">
         <v>42869</v>
@@ -28286,7 +28286,7 @@
         <v>20</v>
       </c>
       <c r="E59" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="F59" s="60" t="s">
         <v>621</v>
@@ -28321,7 +28321,7 @@
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="B60" s="61">
         <v>42890</v>
@@ -28333,7 +28333,7 @@
         <v>19</v>
       </c>
       <c r="E60" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="F60" s="60" t="s">
         <v>721</v>
@@ -28356,7 +28356,7 @@
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="B61" s="61">
         <v>42890</v>
@@ -28368,16 +28368,16 @@
         <v>19</v>
       </c>
       <c r="E61" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="F61" s="60" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="G61" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="H61" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="I61" t="s">
         <v>160</v>
@@ -28391,7 +28391,7 @@
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="B62" s="61">
         <v>42890</v>
@@ -28403,7 +28403,7 @@
         <v>19</v>
       </c>
       <c r="E62" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="F62" s="60" t="s">
         <v>679</v>
@@ -28418,7 +28418,7 @@
         <v>51</v>
       </c>
       <c r="J62" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="K62" t="s">
         <v>52</v>
@@ -28426,7 +28426,7 @@
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="B63" s="61">
         <v>42890</v>
@@ -28438,16 +28438,16 @@
         <v>19</v>
       </c>
       <c r="E63" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="F63" s="60" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="G63" t="s">
         <v>149</v>
       </c>
       <c r="H63" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="I63" t="s">
         <v>51</v>
@@ -28461,7 +28461,7 @@
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="B64" s="61">
         <v>42890</v>
@@ -28473,7 +28473,7 @@
         <v>19</v>
       </c>
       <c r="E64" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="F64" s="60" t="s">
         <v>343</v>
@@ -28496,7 +28496,7 @@
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="B65" s="61">
         <v>42890</v>
@@ -28508,10 +28508,10 @@
         <v>20</v>
       </c>
       <c r="E65" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="F65" s="60" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="G65" t="s">
         <v>155</v>
@@ -28529,13 +28529,13 @@
         <v>51</v>
       </c>
       <c r="L65" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="M65" t="s">
         <v>175</v>
       </c>
       <c r="N65" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="O65" t="s">
         <v>52</v>
@@ -28543,7 +28543,7 @@
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="B66" s="61">
         <v>42890</v>
@@ -28555,10 +28555,10 @@
         <v>19</v>
       </c>
       <c r="E66" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="F66" s="60" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="G66" t="s">
         <v>149</v>
@@ -28581,7 +28581,7 @@
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="B67" s="61">
         <v>42910</v>
@@ -28596,7 +28596,7 @@
         <v>537</v>
       </c>
       <c r="F67" s="60" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="G67" t="s">
         <v>149</v>
@@ -28616,7 +28616,7 @@
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="B68" s="61">
         <v>42910</v>
@@ -28628,7 +28628,7 @@
         <v>189</v>
       </c>
       <c r="E68" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="F68" s="60" t="s">
         <v>646</v>
@@ -28637,7 +28637,7 @@
         <v>149</v>
       </c>
       <c r="H68" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="I68" t="s">
         <v>51</v>
@@ -28657,7 +28657,7 @@
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="B69" s="61">
         <v>42910</v>
@@ -28669,16 +28669,16 @@
         <v>20</v>
       </c>
       <c r="E69" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="F69" s="60" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="G69" t="s">
         <v>149</v>
       </c>
       <c r="H69" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="I69" t="s">
         <v>174</v>
@@ -28704,7 +28704,7 @@
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="B70" s="61">
         <v>42910</v>
@@ -28716,10 +28716,10 @@
         <v>20</v>
       </c>
       <c r="E70" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="F70" s="60" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="G70" t="s">
         <v>149</v>
@@ -28751,13 +28751,13 @@
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="B71" s="61">
         <v>42918</v>
       </c>
       <c r="C71" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="D71" t="s">
         <v>19</v>
@@ -28784,24 +28784,24 @@
         <v>52</v>
       </c>
       <c r="T71" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="B72" s="61">
         <v>42918</v>
       </c>
       <c r="C72" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="D72" t="s">
         <v>19</v>
       </c>
       <c r="E72" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="F72" s="60" t="s">
         <v>552</v>
@@ -28810,7 +28810,7 @@
         <v>149</v>
       </c>
       <c r="H72" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="I72" t="s">
         <v>51</v>
@@ -28822,24 +28822,24 @@
         <v>52</v>
       </c>
       <c r="T72" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="B73" s="61">
         <v>42918</v>
       </c>
       <c r="C73" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="D73" t="s">
         <v>189</v>
       </c>
       <c r="E73" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="F73" s="60" t="s">
         <v>395</v>
@@ -28860,7 +28860,7 @@
         <v>175</v>
       </c>
       <c r="L73" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="M73" t="s">
         <v>52</v>
@@ -28868,13 +28868,13 @@
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="B74" s="61">
         <v>42918</v>
       </c>
       <c r="C74" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="D74" t="s">
         <v>19</v>
@@ -28883,7 +28883,7 @@
         <v>728</v>
       </c>
       <c r="F74" s="60" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="G74" t="s">
         <v>149</v>
@@ -28901,27 +28901,27 @@
         <v>52</v>
       </c>
       <c r="T74" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="B75" s="61">
         <v>42918</v>
       </c>
       <c r="C75" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="D75" t="s">
         <v>19</v>
       </c>
       <c r="E75" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="F75" s="60" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="G75" t="s">
         <v>149</v>
@@ -28933,33 +28933,33 @@
         <v>51</v>
       </c>
       <c r="J75" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="K75" t="s">
         <v>52</v>
       </c>
       <c r="T75" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="B76" s="61">
         <v>42918</v>
       </c>
       <c r="C76" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="D76" t="s">
         <v>19</v>
       </c>
       <c r="E76" t="s">
+        <v>939</v>
+      </c>
+      <c r="F76" s="60" t="s">
         <v>941</v>
-      </c>
-      <c r="F76" s="60" t="s">
-        <v>943</v>
       </c>
       <c r="G76" t="s">
         <v>149</v>
@@ -28977,12 +28977,12 @@
         <v>52</v>
       </c>
       <c r="T76" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="B77" s="61">
         <v>42931</v>
@@ -28994,16 +28994,16 @@
         <v>19</v>
       </c>
       <c r="E77" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="F77" s="60" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="G77" t="s">
         <v>149</v>
       </c>
       <c r="H77" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="I77" t="s">
         <v>51</v>
@@ -29015,12 +29015,12 @@
         <v>52</v>
       </c>
       <c r="T77" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="B78" s="61">
         <v>42931</v>
@@ -29032,10 +29032,10 @@
         <v>19</v>
       </c>
       <c r="E78" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="F78" s="60" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="G78" t="s">
         <v>149</v>
@@ -29047,18 +29047,18 @@
         <v>51</v>
       </c>
       <c r="J78" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="K78" t="s">
         <v>52</v>
       </c>
       <c r="T78" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="B79" s="61">
         <v>42931</v>
@@ -29070,7 +29070,7 @@
         <v>423</v>
       </c>
       <c r="E79" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="F79" s="60" t="s">
         <v>767</v>
@@ -29103,7 +29103,7 @@
         <v>175</v>
       </c>
       <c r="P79" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="Q79" t="s">
         <v>52</v>
@@ -29117,7 +29117,7 @@
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="B80" s="61">
         <v>42931</v>
@@ -29129,7 +29129,7 @@
         <v>19</v>
       </c>
       <c r="E80" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="F80" s="60" t="s">
         <v>499</v>
@@ -29150,12 +29150,12 @@
         <v>52</v>
       </c>
       <c r="T80" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="B81" s="61">
         <v>42931</v>
@@ -29167,10 +29167,10 @@
         <v>19</v>
       </c>
       <c r="E81" t="s">
+        <v>947</v>
+      </c>
+      <c r="F81" s="60" t="s">
         <v>949</v>
-      </c>
-      <c r="F81" s="60" t="s">
-        <v>951</v>
       </c>
       <c r="G81" t="s">
         <v>149</v>
@@ -29188,12 +29188,12 @@
         <v>52</v>
       </c>
       <c r="T81" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="B82" s="61">
         <v>42942</v>
@@ -29205,10 +29205,10 @@
         <v>19</v>
       </c>
       <c r="E82" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="F82" s="60" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="G82" t="s">
         <v>149</v>
@@ -29220,7 +29220,7 @@
         <v>51</v>
       </c>
       <c r="J82" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="K82" t="s">
         <v>52</v>
@@ -29228,7 +29228,7 @@
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="B83" s="61">
         <v>42942</v>
@@ -29240,10 +29240,10 @@
         <v>20</v>
       </c>
       <c r="E83" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="F83" s="60" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="G83" t="s">
         <v>149</v>
@@ -29273,12 +29273,12 @@
         <v>52</v>
       </c>
       <c r="T83" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="B84" s="61">
         <v>42942</v>
@@ -29290,16 +29290,16 @@
         <v>19</v>
       </c>
       <c r="E84" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="F84" s="60" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="G84" t="s">
         <v>149</v>
       </c>
       <c r="H84" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="I84" t="s">
         <v>51</v>
@@ -29313,7 +29313,7 @@
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="B85" s="61">
         <v>42942</v>
@@ -29325,7 +29325,7 @@
         <v>20</v>
       </c>
       <c r="E85" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="F85" s="60" t="s">
         <v>642</v>
@@ -29360,7 +29360,7 @@
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="B86" s="61">
         <v>42946</v>
@@ -29372,10 +29372,10 @@
         <v>19</v>
       </c>
       <c r="E86" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="F86" s="60" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="G86" t="s">
         <v>149</v>
@@ -29393,12 +29393,12 @@
         <v>52</v>
       </c>
       <c r="T86" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="B87" s="61">
         <v>42946</v>
@@ -29410,10 +29410,10 @@
         <v>19</v>
       </c>
       <c r="E87" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="F87" s="60" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="G87" t="s">
         <v>149</v>
@@ -29425,18 +29425,18 @@
         <v>51</v>
       </c>
       <c r="J87" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="K87" t="s">
         <v>52</v>
       </c>
       <c r="T87" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="B88" s="61">
         <v>42946</v>
@@ -29448,10 +29448,10 @@
         <v>423</v>
       </c>
       <c r="E88" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="F88" s="60" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="G88" t="s">
         <v>149</v>
@@ -29487,18 +29487,18 @@
         <v>52</v>
       </c>
       <c r="R88" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="S88" t="s">
         <v>52</v>
       </c>
       <c r="T88" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="B89" s="61">
         <v>42946</v>
@@ -29510,16 +29510,16 @@
         <v>19</v>
       </c>
       <c r="E89" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="F89" s="60" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="G89" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="H89" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="I89" t="s">
         <v>160</v>
@@ -29533,7 +29533,7 @@
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="B90" s="61">
         <v>42946</v>
@@ -29545,7 +29545,7 @@
         <v>20</v>
       </c>
       <c r="E90" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="F90" s="60" t="s">
         <v>465</v>
@@ -29554,13 +29554,13 @@
         <v>155</v>
       </c>
       <c r="H90" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="I90" t="s">
         <v>174</v>
       </c>
       <c r="J90" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="K90" t="s">
         <v>51</v>
@@ -29580,7 +29580,7 @@
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="B91" s="61">
         <v>42946</v>
@@ -29592,10 +29592,10 @@
         <v>19</v>
       </c>
       <c r="E91" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="F91" s="60" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="G91" t="s">
         <v>149</v>
@@ -29613,24 +29613,24 @@
         <v>52</v>
       </c>
       <c r="T91" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="B92" s="61">
         <v>42959</v>
       </c>
       <c r="C92" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="D92" t="s">
         <v>19</v>
       </c>
       <c r="E92" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="F92" s="60" t="s">
         <v>630</v>
@@ -29639,7 +29639,7 @@
         <v>149</v>
       </c>
       <c r="H92" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="I92" t="s">
         <v>51</v>
@@ -29653,22 +29653,22 @@
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="B93" s="61">
         <v>42959</v>
       </c>
       <c r="C93" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="D93" t="s">
         <v>19</v>
       </c>
       <c r="E93" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="F93" s="60" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="G93" t="s">
         <v>149</v>
@@ -29688,22 +29688,22 @@
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="B94" s="61">
         <v>42959</v>
       </c>
       <c r="C94" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="D94" t="s">
         <v>20</v>
       </c>
       <c r="E94" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="F94" s="60" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="G94" t="s">
         <v>149</v>
@@ -29735,19 +29735,19 @@
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="B95" s="61">
         <v>42959</v>
       </c>
       <c r="C95" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="D95" t="s">
         <v>19</v>
       </c>
       <c r="E95" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="F95" s="60" t="s">
         <v>403</v>
@@ -29762,7 +29762,7 @@
         <v>51</v>
       </c>
       <c r="J95" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="K95" t="s">
         <v>52</v>
@@ -29770,22 +29770,22 @@
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="B96" s="61">
         <v>42959</v>
       </c>
       <c r="C96" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="D96" t="s">
         <v>20</v>
       </c>
       <c r="E96" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="F96" s="60" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="G96" t="s">
         <v>149</v>
@@ -29803,7 +29803,7 @@
         <v>51</v>
       </c>
       <c r="L96" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="M96" t="s">
         <v>175</v>
@@ -29817,7 +29817,7 @@
     </row>
     <row r="97" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="B97" s="61">
         <v>42973</v>
@@ -29829,16 +29829,16 @@
         <v>20</v>
       </c>
       <c r="E97" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="F97" s="60" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="G97" t="s">
         <v>149</v>
       </c>
       <c r="H97" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="I97" t="s">
         <v>174</v>
@@ -29850,13 +29850,13 @@
         <v>51</v>
       </c>
       <c r="L97" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="M97" t="s">
         <v>175</v>
       </c>
       <c r="N97" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="O97" t="s">
         <v>52</v>
@@ -29864,7 +29864,7 @@
     </row>
     <row r="98" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="B98" s="61">
         <v>42973</v>
@@ -29876,16 +29876,16 @@
         <v>19</v>
       </c>
       <c r="E98" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="F98" s="60" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="G98" t="s">
         <v>155</v>
       </c>
       <c r="H98" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="I98" t="s">
         <v>51</v>
@@ -29897,12 +29897,12 @@
         <v>52</v>
       </c>
       <c r="T98" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="99" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="B99" s="61">
         <v>42973</v>
@@ -29914,7 +29914,7 @@
         <v>189</v>
       </c>
       <c r="E99" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="F99" s="60" t="s">
         <v>553</v>
@@ -29941,12 +29941,12 @@
         <v>52</v>
       </c>
       <c r="T99" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="100" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="B100" s="61">
         <v>42973</v>
@@ -29958,10 +29958,10 @@
         <v>19</v>
       </c>
       <c r="E100" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="F100" s="60" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="G100" t="s">
         <v>149</v>
@@ -29973,7 +29973,7 @@
         <v>51</v>
       </c>
       <c r="J100" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="K100" t="s">
         <v>52</v>
@@ -29981,7 +29981,7 @@
     </row>
     <row r="101" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="B101" s="61">
         <v>42973</v>
@@ -29993,16 +29993,16 @@
         <v>19</v>
       </c>
       <c r="E101" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="F101" s="60" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="G101" t="s">
         <v>700</v>
       </c>
       <c r="H101" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="I101" t="s">
         <v>51</v>
@@ -30016,7 +30016,7 @@
     </row>
     <row r="102" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="B102" s="61">
         <v>42973</v>
@@ -30028,10 +30028,10 @@
         <v>423</v>
       </c>
       <c r="E102" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="F102" s="60" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="G102" t="s">
         <v>149</v>
@@ -30049,25 +30049,25 @@
         <v>51</v>
       </c>
       <c r="L102" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="M102" t="s">
         <v>51</v>
       </c>
       <c r="N102" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="O102" t="s">
         <v>175</v>
       </c>
       <c r="P102" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="Q102" t="s">
         <v>52</v>
       </c>
       <c r="R102" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="S102" t="s">
         <v>52</v>
@@ -30075,7 +30075,7 @@
     </row>
     <row r="103" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="B103" s="61">
         <v>42973</v>
@@ -30087,10 +30087,10 @@
         <v>19</v>
       </c>
       <c r="E103" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="F103" s="60" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="G103" t="s">
         <v>149</v>
@@ -30113,7 +30113,7 @@
     </row>
     <row r="104" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="B104" s="61">
         <v>42987</v>
@@ -30125,16 +30125,16 @@
         <v>19</v>
       </c>
       <c r="E104" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="F104" s="60" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="G104" t="s">
         <v>149</v>
       </c>
       <c r="H104" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="I104" t="s">
         <v>51</v>
@@ -30148,7 +30148,7 @@
     </row>
     <row r="105" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="B105" s="61">
         <v>42987</v>
@@ -30160,7 +30160,7 @@
         <v>19</v>
       </c>
       <c r="E105" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="F105" s="60" t="s">
         <v>764</v>
@@ -30169,13 +30169,13 @@
         <v>149</v>
       </c>
       <c r="H105" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="I105" t="s">
         <v>51</v>
       </c>
       <c r="J105" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="K105" t="s">
         <v>52</v>
@@ -30183,7 +30183,7 @@
     </row>
     <row r="106" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="B106" s="61">
         <v>42987</v>
@@ -30195,10 +30195,10 @@
         <v>20</v>
       </c>
       <c r="E106" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="F106" s="60" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="G106" t="s">
         <v>149</v>
@@ -30228,12 +30228,12 @@
         <v>52</v>
       </c>
       <c r="T106" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="107" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="B107" s="61">
         <v>42987</v>
@@ -30245,10 +30245,10 @@
         <v>20</v>
       </c>
       <c r="E107" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="F107" s="60" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="G107" t="s">
         <v>149</v>
@@ -30278,12 +30278,12 @@
         <v>52</v>
       </c>
       <c r="T107" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="108" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="B108" s="61">
         <v>42987</v>
@@ -30295,22 +30295,22 @@
         <v>20</v>
       </c>
       <c r="E108" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="F108" s="60" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="G108" t="s">
         <v>149</v>
       </c>
       <c r="H108" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="I108" t="s">
         <v>174</v>
       </c>
       <c r="J108" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="K108" t="s">
         <v>51</v>
@@ -30328,12 +30328,12 @@
         <v>52</v>
       </c>
       <c r="T108" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="109" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="B109" s="61">
         <v>42994</v>
@@ -30345,7 +30345,7 @@
         <v>19</v>
       </c>
       <c r="E109" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="F109" s="60" t="s">
         <v>586</v>
@@ -30360,7 +30360,7 @@
         <v>51</v>
       </c>
       <c r="J109" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="K109" t="s">
         <v>52</v>
@@ -30368,7 +30368,7 @@
     </row>
     <row r="110" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="B110" s="61">
         <v>42994</v>
@@ -30380,10 +30380,10 @@
         <v>19</v>
       </c>
       <c r="E110" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="F110" s="60" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="G110" t="s">
         <v>155</v>
@@ -30401,12 +30401,12 @@
         <v>52</v>
       </c>
       <c r="T110" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="111" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="B111" s="61">
         <v>42994</v>
@@ -30418,10 +30418,10 @@
         <v>189</v>
       </c>
       <c r="E111" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="F111" s="60" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="G111" t="s">
         <v>149</v>
@@ -30447,7 +30447,7 @@
     </row>
     <row r="112" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="B112" s="61">
         <v>42994</v>
@@ -30459,7 +30459,7 @@
         <v>20</v>
       </c>
       <c r="E112" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="F112" s="60" t="s">
         <v>631</v>
@@ -30486,18 +30486,18 @@
         <v>175</v>
       </c>
       <c r="N112" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="O112" t="s">
         <v>52</v>
       </c>
       <c r="T112" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="113" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="B113" s="61">
         <v>42994</v>
@@ -30509,10 +30509,10 @@
         <v>20</v>
       </c>
       <c r="E113" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="F113" s="60" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="G113" t="s">
         <v>149</v>
@@ -30530,36 +30530,36 @@
         <v>51</v>
       </c>
       <c r="L113" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="M113" t="s">
         <v>175</v>
       </c>
       <c r="N113" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="O113" t="s">
         <v>52</v>
       </c>
       <c r="T113" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="114" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="B114" s="61">
         <v>43008</v>
       </c>
       <c r="C114" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="D114" t="s">
         <v>19</v>
       </c>
       <c r="E114" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="F114" s="60" t="s">
         <v>329</v>
@@ -30574,7 +30574,7 @@
         <v>51</v>
       </c>
       <c r="J114" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="K114" t="s">
         <v>52</v>
@@ -30582,22 +30582,22 @@
     </row>
     <row r="115" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="B115" s="61">
         <v>43008</v>
       </c>
       <c r="C115" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="D115" t="s">
         <v>19</v>
       </c>
       <c r="E115" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="F115" s="60" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="G115" t="s">
         <v>155</v>
@@ -30615,27 +30615,27 @@
         <v>52</v>
       </c>
       <c r="T115" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="116" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="B116" s="61">
         <v>43008</v>
       </c>
       <c r="C116" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="D116" t="s">
         <v>189</v>
       </c>
       <c r="E116" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="F116" s="60" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="G116" t="s">
         <v>149</v>
@@ -30647,7 +30647,7 @@
         <v>51</v>
       </c>
       <c r="J116" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="K116" t="s">
         <v>175</v>
@@ -30661,19 +30661,19 @@
     </row>
     <row r="117" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="B117" s="61">
         <v>43008</v>
       </c>
       <c r="C117" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="D117" t="s">
         <v>19</v>
       </c>
       <c r="E117" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="F117" s="60" t="s">
         <v>419</v>
@@ -30696,22 +30696,22 @@
     </row>
     <row r="118" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="B118" s="61">
         <v>43008</v>
       </c>
       <c r="C118" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="D118" t="s">
         <v>20</v>
       </c>
       <c r="E118" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="F118" s="60" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="G118" t="s">
         <v>149</v>
@@ -30723,7 +30723,7 @@
         <v>174</v>
       </c>
       <c r="J118" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="K118" t="s">
         <v>51</v>
@@ -30743,22 +30743,22 @@
     </row>
     <row r="119" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="B119" s="61">
         <v>43008</v>
       </c>
       <c r="C119" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="D119" t="s">
         <v>19</v>
       </c>
       <c r="E119" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="F119" s="60" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="G119" t="s">
         <v>149</v>
@@ -30770,7 +30770,7 @@
         <v>51</v>
       </c>
       <c r="J119" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="K119" t="s">
         <v>52</v>
@@ -30781,7 +30781,7 @@
     </row>
     <row r="120" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="B120" s="61">
         <v>43022</v>
@@ -30793,10 +30793,10 @@
         <v>19</v>
       </c>
       <c r="E120" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="F120" s="60" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="G120" t="s">
         <v>155</v>
@@ -30808,18 +30808,18 @@
         <v>51</v>
       </c>
       <c r="J120" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="K120" t="s">
         <v>52</v>
       </c>
       <c r="T120" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="121" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="B121" s="61">
         <v>43022</v>
@@ -30831,10 +30831,10 @@
         <v>189</v>
       </c>
       <c r="E121" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="F121" s="60" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="G121" t="s">
         <v>149</v>
@@ -30852,7 +30852,7 @@
         <v>175</v>
       </c>
       <c r="L121" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="M121" t="s">
         <v>52</v>
@@ -30860,7 +30860,7 @@
     </row>
     <row r="122" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="B122" s="61">
         <v>43022</v>
@@ -30872,10 +30872,10 @@
         <v>20</v>
       </c>
       <c r="E122" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="F122" s="60" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="G122" t="s">
         <v>149</v>
@@ -30893,13 +30893,13 @@
         <v>51</v>
       </c>
       <c r="L122" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="M122" t="s">
         <v>175</v>
       </c>
       <c r="N122" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="O122" t="s">
         <v>52</v>
@@ -30907,7 +30907,7 @@
     </row>
     <row r="123" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="B123" s="61">
         <v>43022</v>
@@ -30919,22 +30919,22 @@
         <v>20</v>
       </c>
       <c r="E123" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="F123" s="60" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="G123" t="s">
         <v>149</v>
       </c>
       <c r="H123" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="I123" t="s">
         <v>174</v>
       </c>
       <c r="J123" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="K123" t="s">
         <v>51</v>
@@ -30954,7 +30954,7 @@
     </row>
     <row r="124" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="B124" s="61">
         <v>43022</v>
@@ -30966,10 +30966,10 @@
         <v>20</v>
       </c>
       <c r="E124" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="F124" s="60" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="G124" t="s">
         <v>149</v>
@@ -30999,12 +30999,12 @@
         <v>52</v>
       </c>
       <c r="T124" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="125" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="B125" s="61">
         <v>43036</v>
@@ -31019,7 +31019,7 @@
         <v>653</v>
       </c>
       <c r="F125" s="60" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="G125" t="s">
         <v>149</v>
@@ -31039,7 +31039,7 @@
     </row>
     <row r="126" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="B126" s="61">
         <v>43036</v>
@@ -31074,7 +31074,7 @@
     </row>
     <row r="127" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="B127" s="61">
         <v>43036</v>
@@ -31086,10 +31086,10 @@
         <v>20</v>
       </c>
       <c r="E127" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F127" s="60" t="s">
         <v>1047</v>
-      </c>
-      <c r="F127" s="60" t="s">
-        <v>1049</v>
       </c>
       <c r="G127" t="s">
         <v>149</v>
@@ -31121,7 +31121,7 @@
     </row>
     <row r="128" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="B128" s="61">
         <v>43036</v>
@@ -31133,16 +31133,16 @@
         <v>19</v>
       </c>
       <c r="E128" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="F128" s="60" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="G128" t="s">
         <v>149</v>
       </c>
       <c r="H128" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="I128" t="s">
         <v>51</v>
@@ -31156,7 +31156,7 @@
     </row>
     <row r="129" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="B129" s="61">
         <v>43036</v>
@@ -31168,7 +31168,7 @@
         <v>19</v>
       </c>
       <c r="E129" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="F129" s="60" t="s">
         <v>285</v>
@@ -31183,7 +31183,7 @@
         <v>160</v>
       </c>
       <c r="J129" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="K129" t="s">
         <v>160</v>
@@ -31191,7 +31191,7 @@
     </row>
     <row r="130" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="B130" s="61">
         <v>43036</v>
@@ -31203,10 +31203,10 @@
         <v>20</v>
       </c>
       <c r="E130" t="s">
+        <v>1050</v>
+      </c>
+      <c r="F130" s="60" t="s">
         <v>1052</v>
-      </c>
-      <c r="F130" s="60" t="s">
-        <v>1054</v>
       </c>
       <c r="G130" t="s">
         <v>149</v>
@@ -31224,7 +31224,7 @@
         <v>51</v>
       </c>
       <c r="L130" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="M130" t="s">
         <v>175</v>
@@ -31238,7 +31238,7 @@
     </row>
     <row r="131" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="B131" s="61">
         <v>43037</v>
@@ -31250,7 +31250,7 @@
         <v>19</v>
       </c>
       <c r="E131" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="F131" s="60" t="s">
         <v>670</v>
@@ -31273,7 +31273,7 @@
     </row>
     <row r="132" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="B132" s="61">
         <v>43037</v>
@@ -31285,34 +31285,34 @@
         <v>20</v>
       </c>
       <c r="E132" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="F132" s="60" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="G132" t="s">
         <v>149</v>
       </c>
       <c r="H132" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="I132" t="s">
         <v>174</v>
       </c>
       <c r="J132" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="K132" t="s">
         <v>51</v>
       </c>
       <c r="L132" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="M132" t="s">
         <v>175</v>
       </c>
       <c r="N132" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="O132" t="s">
         <v>52</v>
@@ -31320,7 +31320,7 @@
     </row>
     <row r="133" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="B133" s="61">
         <v>43037</v>
@@ -31332,16 +31332,16 @@
         <v>19</v>
       </c>
       <c r="E133" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="F133" s="60" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="G133" t="s">
         <v>155</v>
       </c>
       <c r="H133" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="I133" t="s">
         <v>51</v>
@@ -31355,7 +31355,7 @@
     </row>
     <row r="134" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="B134" s="61">
         <v>43037</v>
@@ -31370,7 +31370,7 @@
         <v>230</v>
       </c>
       <c r="F134" s="60" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="G134" t="s">
         <v>149</v>
@@ -31390,7 +31390,7 @@
     </row>
     <row r="135" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="B135" s="61">
         <v>43037</v>
@@ -31402,10 +31402,10 @@
         <v>423</v>
       </c>
       <c r="E135" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="F135" s="60" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="G135" t="s">
         <v>149</v>
@@ -31449,7 +31449,7 @@
     </row>
     <row r="136" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="B136" s="61">
         <v>43042</v>
@@ -31461,10 +31461,10 @@
         <v>19</v>
       </c>
       <c r="E136" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="F136" s="60" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="G136" t="s">
         <v>149</v>
@@ -31476,7 +31476,7 @@
         <v>51</v>
       </c>
       <c r="J136" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="K136" t="s">
         <v>52</v>
@@ -31484,7 +31484,7 @@
     </row>
     <row r="137" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="B137" s="61">
         <v>43042</v>
@@ -31496,7 +31496,7 @@
         <v>20</v>
       </c>
       <c r="E137" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="F137" s="60" t="s">
         <v>532</v>
@@ -31517,7 +31517,7 @@
         <v>51</v>
       </c>
       <c r="L137" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="M137" t="s">
         <v>175</v>
@@ -31531,7 +31531,7 @@
     </row>
     <row r="138" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="B138" s="61">
         <v>43042</v>
@@ -31543,7 +31543,7 @@
         <v>19</v>
       </c>
       <c r="E138" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="F138" s="60" t="s">
         <v>332</v>
@@ -31566,7 +31566,7 @@
     </row>
     <row r="139" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="B139" s="61">
         <v>43042</v>
@@ -31578,22 +31578,22 @@
         <v>19</v>
       </c>
       <c r="E139" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="F139" s="60" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="G139" t="s">
         <v>155</v>
       </c>
       <c r="H139" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="I139" t="s">
         <v>51</v>
       </c>
       <c r="J139" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="K139" t="s">
         <v>52</v>
@@ -31601,7 +31601,7 @@
     </row>
     <row r="140" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="B140" s="61">
         <v>43042</v>
@@ -31613,16 +31613,16 @@
         <v>20</v>
       </c>
       <c r="E140" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="F140" s="60" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="G140" t="s">
         <v>149</v>
       </c>
       <c r="H140" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="I140" t="s">
         <v>174</v>
@@ -31648,7 +31648,7 @@
     </row>
     <row r="141" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="B141" s="61">
         <v>43042</v>
@@ -31660,10 +31660,10 @@
         <v>19</v>
       </c>
       <c r="E141" t="s">
+        <v>1067</v>
+      </c>
+      <c r="F141" s="60" t="s">
         <v>1069</v>
-      </c>
-      <c r="F141" s="60" t="s">
-        <v>1071</v>
       </c>
       <c r="G141" t="s">
         <v>149</v>
@@ -31686,7 +31686,7 @@
     </row>
     <row r="142" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="B142" s="61">
         <v>43062</v>
@@ -31698,10 +31698,10 @@
         <v>19</v>
       </c>
       <c r="E142" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="F142" s="60" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="G142" t="s">
         <v>149</v>
@@ -31713,7 +31713,7 @@
         <v>51</v>
       </c>
       <c r="J142" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="K142" t="s">
         <v>52</v>
@@ -31721,7 +31721,7 @@
     </row>
     <row r="143" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="B143" s="61">
         <v>43062</v>
@@ -31733,22 +31733,22 @@
         <v>20</v>
       </c>
       <c r="E143" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="F143" s="60" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="G143" t="s">
         <v>149</v>
       </c>
       <c r="H143" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="I143" t="s">
         <v>174</v>
       </c>
       <c r="J143" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="K143" t="s">
         <v>51</v>
@@ -31768,7 +31768,7 @@
     </row>
     <row r="144" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="B144" s="61">
         <v>43062</v>
@@ -31780,7 +31780,7 @@
         <v>19</v>
       </c>
       <c r="E144" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="F144" s="60" t="s">
         <v>646</v>
@@ -31803,7 +31803,7 @@
     </row>
     <row r="145" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="B145" s="61">
         <v>43062</v>
@@ -31815,16 +31815,16 @@
         <v>19</v>
       </c>
       <c r="E145" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="F145" s="60" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="G145" t="s">
         <v>149</v>
       </c>
       <c r="H145" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="I145" t="s">
         <v>51</v>
@@ -31838,7 +31838,7 @@
     </row>
     <row r="146" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="B146" s="61">
         <v>43062</v>
@@ -31850,10 +31850,10 @@
         <v>19</v>
       </c>
       <c r="E146" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="F146" s="60" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="G146" t="s">
         <v>149</v>
@@ -31871,12 +31871,12 @@
         <v>52</v>
       </c>
       <c r="T146" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="147" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="B147" s="61">
         <v>43062</v>
@@ -31888,10 +31888,10 @@
         <v>20</v>
       </c>
       <c r="E147" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="F147" s="60" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="G147" t="s">
         <v>149</v>
@@ -31915,18 +31915,18 @@
         <v>175</v>
       </c>
       <c r="N147" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="O147" t="s">
         <v>52</v>
       </c>
       <c r="T147" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="148" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="B148" s="61">
         <v>43079</v>
@@ -31938,10 +31938,10 @@
         <v>19</v>
       </c>
       <c r="E148" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="F148" s="60" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="G148" t="s">
         <v>155</v>
@@ -31953,7 +31953,7 @@
         <v>51</v>
       </c>
       <c r="J148" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="K148" t="s">
         <v>52</v>
@@ -31961,7 +31961,7 @@
     </row>
     <row r="149" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="B149" s="61">
         <v>43079</v>
@@ -31973,10 +31973,10 @@
         <v>20</v>
       </c>
       <c r="E149" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="F149" s="60" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="G149" t="s">
         <v>149</v>
@@ -31988,7 +31988,7 @@
         <v>174</v>
       </c>
       <c r="J149" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="K149" t="s">
         <v>51</v>
@@ -32008,7 +32008,7 @@
     </row>
     <row r="150" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="B150" s="61">
         <v>43079</v>
@@ -32020,10 +32020,10 @@
         <v>19</v>
       </c>
       <c r="E150" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="F150" s="60" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="G150" t="s">
         <v>159</v>
@@ -32035,7 +32035,7 @@
         <v>160</v>
       </c>
       <c r="J150" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="K150" t="s">
         <v>160</v>
@@ -32043,7 +32043,7 @@
     </row>
     <row r="151" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="B151" s="61">
         <v>43079</v>
@@ -32055,10 +32055,10 @@
         <v>20</v>
       </c>
       <c r="E151" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="F151" s="60" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="G151" t="s">
         <v>149</v>
@@ -32070,7 +32070,7 @@
         <v>174</v>
       </c>
       <c r="J151" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="K151" t="s">
         <v>51</v>
@@ -32090,7 +32090,7 @@
     </row>
     <row r="152" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="B152" s="61">
         <v>43079</v>
@@ -32102,10 +32102,10 @@
         <v>20</v>
       </c>
       <c r="E152" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="F152" s="60" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="G152" t="s">
         <v>149</v>
@@ -32137,7 +32137,7 @@
     </row>
     <row r="153" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="B153" s="61">
         <v>43092</v>
@@ -32149,10 +32149,10 @@
         <v>19</v>
       </c>
       <c r="E153" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="F153" s="60" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="G153" t="s">
         <v>149</v>
@@ -32170,12 +32170,12 @@
         <v>52</v>
       </c>
       <c r="T153" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="154" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="B154" s="61">
         <v>43092</v>
@@ -32187,10 +32187,10 @@
         <v>189</v>
       </c>
       <c r="E154" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="F154" s="60" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="G154" t="s">
         <v>149</v>
@@ -32202,13 +32202,13 @@
         <v>51</v>
       </c>
       <c r="J154" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="K154" t="s">
         <v>175</v>
       </c>
       <c r="L154" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="M154" t="s">
         <v>52</v>
@@ -32216,7 +32216,7 @@
     </row>
     <row r="155" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="B155" s="61">
         <v>43092</v>
@@ -32228,7 +32228,7 @@
         <v>19</v>
       </c>
       <c r="E155" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="F155" s="60" t="s">
         <v>553</v>
@@ -32249,12 +32249,12 @@
         <v>52</v>
       </c>
       <c r="T155" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="156" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="B156" s="61">
         <v>43092</v>
@@ -32266,10 +32266,10 @@
         <v>19</v>
       </c>
       <c r="E156" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="F156" s="60" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="G156" t="s">
         <v>155</v>
@@ -32281,18 +32281,18 @@
         <v>51</v>
       </c>
       <c r="J156" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="K156" t="s">
         <v>52</v>
       </c>
       <c r="T156" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="157" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="B157" s="61">
         <v>43092</v>
@@ -32304,7 +32304,7 @@
         <v>20</v>
       </c>
       <c r="E157" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="F157" s="60" t="s">
         <v>658</v>
@@ -32319,7 +32319,7 @@
         <v>174</v>
       </c>
       <c r="J157" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="K157" t="s">
         <v>51</v>
@@ -32339,7 +32339,7 @@
     </row>
     <row r="158" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="B158" s="61">
         <v>43092</v>
@@ -32351,7 +32351,7 @@
         <v>19</v>
       </c>
       <c r="E158" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="F158" s="60" t="s">
         <v>485</v>
@@ -32366,18 +32366,18 @@
         <v>51</v>
       </c>
       <c r="J158" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="K158" t="s">
         <v>52</v>
       </c>
       <c r="T158" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="159" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="B159" s="61">
         <v>43092</v>
@@ -32389,7 +32389,7 @@
         <v>19</v>
       </c>
       <c r="E159" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="F159" s="60" t="s">
         <v>285</v>
@@ -32410,7 +32410,7 @@
         <v>160</v>
       </c>
       <c r="T159" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
     </row>
   </sheetData>
@@ -32423,7 +32423,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
@@ -32434,13 +32434,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C1" t="s">
         <v>1107</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1108</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1109</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -32720,7 +32720,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="B27">
         <v>957</v>
@@ -32731,7 +32731,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="B28">
         <v>33</v>
@@ -32742,7 +32742,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="B29">
         <v>5</v>
@@ -32753,7 +32753,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -32764,7 +32764,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -32775,7 +32775,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="B32">
         <v>28</v>
@@ -32786,7 +32786,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="B33">
         <v>126</v>
@@ -32797,7 +32797,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -32808,7 +32808,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -32819,7 +32819,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="B36">
         <v>146</v>
@@ -32830,7 +32830,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="B37">
         <v>755</v>
@@ -32841,7 +32841,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="B38">
         <v>3283</v>

--- a/TJPW Metrics.xlsx
+++ b/TJPW Metrics.xlsx
@@ -3260,9 +3260,6 @@
     <t>Special Rule Match – 30 Count Outside</t>
   </si>
   <si>
-    <t>1 Count Fall Match</t>
-  </si>
-  <si>
     <t>One Count Fall: Yuka Sakazaki vs Hyper Misao</t>
   </si>
   <si>
@@ -4361,16 +4358,19 @@
     <t>Special Rule</t>
   </si>
   <si>
-    <t>1 Count Falls</t>
-  </si>
-  <si>
     <t>Best Two Out Of Three Falls</t>
   </si>
   <si>
-    <t>Two Count Falls</t>
-  </si>
-  <si>
     <t>Dance Champion</t>
+  </si>
+  <si>
+    <t>One Count Fall</t>
+  </si>
+  <si>
+    <t>One Count Fall Match</t>
+  </si>
+  <si>
+    <t>Two Count Fall</t>
   </si>
 </sst>
 </file>
@@ -4819,19 +4819,19 @@
         <v>308</v>
       </c>
       <c r="T1" t="s">
+        <v>1345</v>
+      </c>
+      <c r="U1" t="s">
         <v>1346</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>1347</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>1348</v>
       </c>
-      <c r="W1" t="s">
-        <v>1349</v>
-      </c>
       <c r="X1" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="Y1" t="s">
         <v>55</v>
@@ -5404,19 +5404,19 @@
         <v>308</v>
       </c>
       <c r="T1" t="s">
+        <v>1345</v>
+      </c>
+      <c r="U1" t="s">
         <v>1346</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>1347</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>1348</v>
       </c>
-      <c r="W1" t="s">
-        <v>1349</v>
-      </c>
       <c r="X1" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="Y1" t="s">
         <v>55</v>
@@ -8208,19 +8208,19 @@
         <v>308</v>
       </c>
       <c r="T1" t="s">
+        <v>1345</v>
+      </c>
+      <c r="U1" t="s">
         <v>1346</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>1347</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>1348</v>
       </c>
-      <c r="W1" t="s">
-        <v>1349</v>
-      </c>
       <c r="X1" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="Y1" t="s">
         <v>55</v>
@@ -11056,7 +11056,7 @@
         <v>3</v>
       </c>
       <c r="J72" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="K72" t="s">
         <v>4</v>
@@ -11362,19 +11362,19 @@
         <v>308</v>
       </c>
       <c r="T1" t="s">
+        <v>1345</v>
+      </c>
+      <c r="U1" t="s">
         <v>1346</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>1347</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>1348</v>
       </c>
-      <c r="W1" t="s">
-        <v>1349</v>
-      </c>
       <c r="X1" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="Y1" t="s">
         <v>55</v>
@@ -11409,7 +11409,7 @@
         <v>3</v>
       </c>
       <c r="J2" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="K2" t="s">
         <v>4</v>
@@ -11734,7 +11734,7 @@
         <v>4</v>
       </c>
       <c r="R10" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="S10" t="s">
         <v>4</v>
@@ -11851,7 +11851,7 @@
         <v>31</v>
       </c>
       <c r="H13" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="I13" t="s">
         <v>50</v>
@@ -12039,7 +12039,7 @@
         <v>51</v>
       </c>
       <c r="L17" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="M17" t="s">
         <v>51</v>
@@ -12203,7 +12203,7 @@
         <v>3</v>
       </c>
       <c r="J21" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="K21" t="s">
         <v>4</v>
@@ -12440,7 +12440,7 @@
         <v>50</v>
       </c>
       <c r="J27" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="K27" t="s">
         <v>3</v>
@@ -12680,7 +12680,7 @@
         <v>3</v>
       </c>
       <c r="J33" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="K33" t="s">
         <v>4</v>
@@ -12912,7 +12912,7 @@
         <v>3</v>
       </c>
       <c r="J38" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="K38" t="s">
         <v>4</v>
@@ -13029,7 +13029,7 @@
         <v>25</v>
       </c>
       <c r="H41" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="I41" t="s">
         <v>3</v>
@@ -13339,7 +13339,7 @@
         <v>3</v>
       </c>
       <c r="L49" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="M49" t="s">
         <v>51</v>
@@ -13450,7 +13450,7 @@
         <v>3</v>
       </c>
       <c r="J52" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="K52" t="s">
         <v>4</v>
@@ -13594,7 +13594,7 @@
         <v>3</v>
       </c>
       <c r="J56" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="K56" t="s">
         <v>4</v>
@@ -13752,7 +13752,7 @@
         <v>3</v>
       </c>
       <c r="J60" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="K60" t="s">
         <v>4</v>
@@ -13942,7 +13942,7 @@
         <v>3</v>
       </c>
       <c r="J65" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="K65" t="s">
         <v>4</v>
@@ -14024,7 +14024,7 @@
         <v>3</v>
       </c>
       <c r="J67" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="K67" t="s">
         <v>4</v>
@@ -14185,7 +14185,7 @@
         <v>3</v>
       </c>
       <c r="J71" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="K71" t="s">
         <v>4</v>
@@ -14422,7 +14422,7 @@
         <v>3</v>
       </c>
       <c r="J77" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="K77" t="s">
         <v>4</v>
@@ -14609,7 +14609,7 @@
         <v>50</v>
       </c>
       <c r="J82" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="K82" t="s">
         <v>3</v>
@@ -14738,7 +14738,7 @@
         <v>3</v>
       </c>
       <c r="J85" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="K85" t="s">
         <v>4</v>
@@ -14902,7 +14902,7 @@
         <v>3</v>
       </c>
       <c r="J89" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="K89" t="s">
         <v>4</v>
@@ -15265,7 +15265,7 @@
         <v>3</v>
       </c>
       <c r="L98" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="M98" t="s">
         <v>51</v>
@@ -15382,7 +15382,7 @@
         <v>3</v>
       </c>
       <c r="L101" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="M101" t="s">
         <v>51</v>
@@ -15704,7 +15704,7 @@
         <v>3</v>
       </c>
       <c r="L109" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="M109" t="s">
         <v>51</v>
@@ -15745,7 +15745,7 @@
         <v>3</v>
       </c>
       <c r="J110" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="K110" t="s">
         <v>4</v>
@@ -16108,7 +16108,7 @@
         <v>3</v>
       </c>
       <c r="L119" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="M119" t="s">
         <v>51</v>
@@ -16219,7 +16219,7 @@
         <v>50</v>
       </c>
       <c r="J122" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="K122" t="s">
         <v>3</v>
@@ -16418,7 +16418,7 @@
         <v>50</v>
       </c>
       <c r="J127" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="K127" t="s">
         <v>3</v>
@@ -16582,7 +16582,7 @@
         <v>3</v>
       </c>
       <c r="J131" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="K131" t="s">
         <v>4</v>
@@ -16787,7 +16787,7 @@
         <v>3</v>
       </c>
       <c r="L136" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="M136" t="s">
         <v>51</v>
@@ -16907,7 +16907,7 @@
         <v>3</v>
       </c>
       <c r="J139" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="K139" t="s">
         <v>4</v>
@@ -17143,19 +17143,19 @@
         <v>308</v>
       </c>
       <c r="T1" t="s">
+        <v>1345</v>
+      </c>
+      <c r="U1" t="s">
         <v>1346</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>1347</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>1348</v>
       </c>
-      <c r="W1" t="s">
-        <v>1349</v>
-      </c>
       <c r="X1" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="Y1" t="s">
         <v>55</v>
@@ -17190,7 +17190,7 @@
         <v>3</v>
       </c>
       <c r="J2" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="K2" t="s">
         <v>4</v>
@@ -17538,7 +17538,7 @@
         <v>3</v>
       </c>
       <c r="J11" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="K11" t="s">
         <v>4</v>
@@ -17755,7 +17755,7 @@
         <v>3</v>
       </c>
       <c r="L16" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="M16" t="s">
         <v>51</v>
@@ -17796,7 +17796,7 @@
         <v>3</v>
       </c>
       <c r="J17" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="K17" t="s">
         <v>4</v>
@@ -18071,7 +18071,7 @@
         <v>3</v>
       </c>
       <c r="L24" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="M24" t="s">
         <v>51</v>
@@ -18106,7 +18106,7 @@
         <v>25</v>
       </c>
       <c r="H25" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="I25" t="s">
         <v>3</v>
@@ -18305,7 +18305,7 @@
         <v>3</v>
       </c>
       <c r="L30" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="M30" t="s">
         <v>51</v>
@@ -18387,7 +18387,7 @@
         <v>3</v>
       </c>
       <c r="J32" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="K32" t="s">
         <v>4</v>
@@ -18589,7 +18589,7 @@
         <v>50</v>
       </c>
       <c r="J37" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="K37" t="s">
         <v>3</v>
@@ -18888,7 +18888,7 @@
         <v>3</v>
       </c>
       <c r="L44" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="M44" t="s">
         <v>51</v>
@@ -19140,7 +19140,7 @@
         <v>3</v>
       </c>
       <c r="L50" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="M50" t="s">
         <v>51</v>
@@ -19316,7 +19316,7 @@
         <v>3</v>
       </c>
       <c r="N54" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="O54" t="s">
         <v>51</v>
@@ -19363,7 +19363,7 @@
         <v>3</v>
       </c>
       <c r="J55" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="K55" t="s">
         <v>4</v>
@@ -19550,7 +19550,7 @@
         <v>25</v>
       </c>
       <c r="H60" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="I60" t="s">
         <v>3</v>
@@ -19945,7 +19945,7 @@
         <v>3</v>
       </c>
       <c r="L70" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="M70" t="s">
         <v>51</v>
@@ -19986,7 +19986,7 @@
         <v>3</v>
       </c>
       <c r="J71" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="K71" t="s">
         <v>4</v>
@@ -20305,7 +20305,7 @@
         <v>3</v>
       </c>
       <c r="N79" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="O79" t="s">
         <v>51</v>
@@ -20554,7 +20554,7 @@
         <v>3</v>
       </c>
       <c r="L85" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="M85" t="s">
         <v>51</v>
@@ -20665,7 +20665,7 @@
         <v>25</v>
       </c>
       <c r="H88" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="I88" t="s">
         <v>50</v>
@@ -20888,7 +20888,7 @@
         <v>3</v>
       </c>
       <c r="J93" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="K93" t="s">
         <v>4</v>
@@ -21137,7 +21137,7 @@
         <v>3</v>
       </c>
       <c r="J99" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="K99" t="s">
         <v>51</v>
@@ -21424,7 +21424,7 @@
         <v>3</v>
       </c>
       <c r="L106" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="M106" t="s">
         <v>51</v>
@@ -21647,7 +21647,7 @@
         <v>51</v>
       </c>
       <c r="L111" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="M111" t="s">
         <v>4</v>
@@ -21849,7 +21849,7 @@
         <v>25</v>
       </c>
       <c r="H116" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="I116" t="s">
         <v>3</v>
@@ -22054,7 +22054,7 @@
         <v>3</v>
       </c>
       <c r="J121" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="K121" t="s">
         <v>51</v>
@@ -22274,7 +22274,7 @@
         <v>3</v>
       </c>
       <c r="J126" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="K126" t="s">
         <v>4</v>
@@ -22555,7 +22555,7 @@
         <v>3</v>
       </c>
       <c r="J133" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="K133" t="s">
         <v>4</v>
@@ -22766,7 +22766,7 @@
         <v>3</v>
       </c>
       <c r="J138" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="K138" t="s">
         <v>4</v>
@@ -22962,7 +22962,7 @@
         <v>3</v>
       </c>
       <c r="L143" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="M143" t="s">
         <v>51</v>
@@ -23331,7 +23331,7 @@
         <v>3</v>
       </c>
       <c r="L152" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="M152" t="s">
         <v>51</v>
@@ -23451,7 +23451,7 @@
         <v>3</v>
       </c>
       <c r="J155" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="K155" t="s">
         <v>4</v>
@@ -23631,8 +23631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y259"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="L253" workbookViewId="0">
+      <selection activeCell="X244" sqref="X244"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23722,19 +23722,19 @@
         <v>308</v>
       </c>
       <c r="T1" t="s">
+        <v>1345</v>
+      </c>
+      <c r="U1" t="s">
         <v>1346</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>1347</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>1348</v>
       </c>
-      <c r="W1" t="s">
-        <v>1349</v>
-      </c>
       <c r="X1" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="Y1" t="s">
         <v>55</v>
@@ -23816,7 +23816,7 @@
         <v>50</v>
       </c>
       <c r="J3" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="K3" t="s">
         <v>3</v>
@@ -24127,7 +24127,7 @@
         <v>3</v>
       </c>
       <c r="J10" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="K10" t="s">
         <v>4</v>
@@ -24417,7 +24417,7 @@
         <v>25</v>
       </c>
       <c r="H17" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="I17" t="s">
         <v>50</v>
@@ -24699,7 +24699,7 @@
         <v>25</v>
       </c>
       <c r="H23" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="I23" t="s">
         <v>50</v>
@@ -24878,7 +24878,7 @@
         <v>25</v>
       </c>
       <c r="H27" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="I27" t="s">
         <v>3</v>
@@ -25259,7 +25259,7 @@
         <v>3</v>
       </c>
       <c r="J36" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="K36" t="s">
         <v>4</v>
@@ -25561,7 +25561,7 @@
         <v>3</v>
       </c>
       <c r="L43" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="M43" t="s">
         <v>51</v>
@@ -25658,7 +25658,7 @@
         <v>51</v>
       </c>
       <c r="L45" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="M45" t="s">
         <v>4</v>
@@ -25842,7 +25842,7 @@
         <v>25</v>
       </c>
       <c r="H50" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="I50" t="s">
         <v>50</v>
@@ -26035,7 +26035,7 @@
         <v>0</v>
       </c>
       <c r="E55" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>1077</v>
@@ -26056,10 +26056,10 @@
         <v>4</v>
       </c>
       <c r="X55" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="Y55" t="s">
-        <v>1079</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="56" spans="1:25" x14ac:dyDescent="0.25">
@@ -26114,7 +26114,7 @@
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="B57" s="2">
         <v>43190</v>
@@ -26141,7 +26141,7 @@
         <v>3</v>
       </c>
       <c r="J57" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="K57" t="s">
         <v>4</v>
@@ -26149,7 +26149,7 @@
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="B58" s="2">
         <v>43190</v>
@@ -26161,7 +26161,7 @@
         <v>0</v>
       </c>
       <c r="E58" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>161</v>
@@ -26184,7 +26184,7 @@
     </row>
     <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="B59" s="2">
         <v>43190</v>
@@ -26196,10 +26196,10 @@
         <v>1</v>
       </c>
       <c r="E59" t="s">
+        <v>1083</v>
+      </c>
+      <c r="F59" s="1" t="s">
         <v>1084</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>1085</v>
       </c>
       <c r="G59" t="s">
         <v>25</v>
@@ -26231,7 +26231,7 @@
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="B60" s="2">
         <v>43190</v>
@@ -26243,7 +26243,7 @@
         <v>0</v>
       </c>
       <c r="E60" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>673</v>
@@ -26266,7 +26266,7 @@
     </row>
     <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="B61" s="2">
         <v>43190</v>
@@ -26278,10 +26278,10 @@
         <v>0</v>
       </c>
       <c r="E61" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="G61" t="s">
         <v>25</v>
@@ -26301,7 +26301,7 @@
     </row>
     <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="B62" s="2">
         <v>43190</v>
@@ -26313,7 +26313,7 @@
         <v>1</v>
       </c>
       <c r="E62" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>407</v>
@@ -26348,7 +26348,7 @@
     </row>
     <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B63" s="2">
         <v>43197</v>
@@ -26360,10 +26360,10 @@
         <v>1</v>
       </c>
       <c r="E63" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="G63" t="s">
         <v>25</v>
@@ -26395,7 +26395,7 @@
     </row>
     <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B64" s="2">
         <v>43197</v>
@@ -26407,10 +26407,10 @@
         <v>0</v>
       </c>
       <c r="E64" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="G64" t="s">
         <v>31</v>
@@ -26430,7 +26430,7 @@
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B65" s="2">
         <v>43197</v>
@@ -26442,7 +26442,7 @@
         <v>65</v>
       </c>
       <c r="E65" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>687</v>
@@ -26463,7 +26463,7 @@
         <v>51</v>
       </c>
       <c r="L65" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="M65" t="s">
         <v>4</v>
@@ -26471,7 +26471,7 @@
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B66" s="2">
         <v>43197</v>
@@ -26483,7 +26483,7 @@
         <v>1</v>
       </c>
       <c r="E66" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>223</v>
@@ -26518,7 +26518,7 @@
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B67" s="2">
         <v>43197</v>
@@ -26530,7 +26530,7 @@
         <v>1</v>
       </c>
       <c r="E67" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>408</v>
@@ -26565,7 +26565,7 @@
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B68" s="2">
         <v>43197</v>
@@ -26600,7 +26600,7 @@
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="B69" s="2">
         <v>43198</v>
@@ -26612,10 +26612,10 @@
         <v>1</v>
       </c>
       <c r="E69" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="G69" t="s">
         <v>31</v>
@@ -26647,7 +26647,7 @@
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="B70" s="2">
         <v>43198</v>
@@ -26659,10 +26659,10 @@
         <v>1</v>
       </c>
       <c r="E70" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G70" t="s">
         <v>25</v>
@@ -26680,7 +26680,7 @@
         <v>3</v>
       </c>
       <c r="L70" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="M70" t="s">
         <v>51</v>
@@ -26694,7 +26694,7 @@
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="B71" s="2">
         <v>43198</v>
@@ -26706,10 +26706,10 @@
         <v>0</v>
       </c>
       <c r="E71" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="G71" t="s">
         <v>25</v>
@@ -26729,7 +26729,7 @@
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="B72" s="2">
         <v>43198</v>
@@ -26741,7 +26741,7 @@
         <v>1</v>
       </c>
       <c r="E72" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>199</v>
@@ -26776,7 +26776,7 @@
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="B73" s="2">
         <v>43198</v>
@@ -26788,7 +26788,7 @@
         <v>0</v>
       </c>
       <c r="E73" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>639</v>
@@ -26811,7 +26811,7 @@
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="B74" s="2">
         <v>43198</v>
@@ -26823,7 +26823,7 @@
         <v>1</v>
       </c>
       <c r="E74" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>830</v>
@@ -26858,19 +26858,19 @@
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="B75" s="2">
         <v>43205</v>
       </c>
       <c r="C75" t="s">
+        <v>1108</v>
+      </c>
+      <c r="D75" t="s">
+        <v>0</v>
+      </c>
+      <c r="E75" t="s">
         <v>1109</v>
-      </c>
-      <c r="D75" t="s">
-        <v>0</v>
-      </c>
-      <c r="E75" t="s">
-        <v>1110</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>913</v>
@@ -26893,19 +26893,19 @@
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="B76" s="2">
         <v>43205</v>
       </c>
       <c r="C76" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="D76" t="s">
         <v>1</v>
       </c>
       <c r="E76" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>408</v>
@@ -26932,7 +26932,7 @@
         <v>51</v>
       </c>
       <c r="N76" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="O76" t="s">
         <v>4</v>
@@ -26940,22 +26940,22 @@
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="B77" s="2">
         <v>43205</v>
       </c>
       <c r="C77" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="D77" t="s">
         <v>1</v>
       </c>
       <c r="E77" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="G77" t="s">
         <v>25</v>
@@ -26987,19 +26987,19 @@
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="B78" s="2">
         <v>43205</v>
       </c>
       <c r="C78" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="D78" t="s">
         <v>1</v>
       </c>
       <c r="E78" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>772</v>
@@ -27034,22 +27034,22 @@
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="B79" s="2">
         <v>43205</v>
       </c>
       <c r="C79" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="D79" t="s">
         <v>299</v>
       </c>
       <c r="E79" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="G79" t="s">
         <v>73</v>
@@ -27093,7 +27093,7 @@
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="B80" s="2">
         <v>43223</v>
@@ -27105,10 +27105,10 @@
         <v>299</v>
       </c>
       <c r="E80" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="G80" t="s">
         <v>25</v>
@@ -27152,7 +27152,7 @@
     </row>
     <row r="81" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="B81" s="2">
         <v>43223</v>
@@ -27164,7 +27164,7 @@
         <v>1</v>
       </c>
       <c r="E81" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>361</v>
@@ -27185,13 +27185,13 @@
         <v>3</v>
       </c>
       <c r="L81" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="M81" t="s">
         <v>51</v>
       </c>
       <c r="N81" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="O81" t="s">
         <v>4</v>
@@ -27199,7 +27199,7 @@
     </row>
     <row r="82" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="B82" s="2">
         <v>43223</v>
@@ -27211,10 +27211,10 @@
         <v>0</v>
       </c>
       <c r="E82" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="G82" t="s">
         <v>25</v>
@@ -27234,7 +27234,7 @@
     </row>
     <row r="83" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="B83" s="2">
         <v>43223</v>
@@ -27246,10 +27246,10 @@
         <v>1</v>
       </c>
       <c r="E83" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="G83" t="s">
         <v>25</v>
@@ -27273,7 +27273,7 @@
         <v>51</v>
       </c>
       <c r="N83" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="O83" t="s">
         <v>4</v>
@@ -27281,7 +27281,7 @@
     </row>
     <row r="84" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="B84" s="2">
         <v>43223</v>
@@ -27293,7 +27293,7 @@
         <v>0</v>
       </c>
       <c r="E84" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>418</v>
@@ -27302,7 +27302,7 @@
         <v>25</v>
       </c>
       <c r="H84" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="I84" t="s">
         <v>3</v>
@@ -27316,7 +27316,7 @@
     </row>
     <row r="85" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="B85" s="2">
         <v>43223</v>
@@ -27328,10 +27328,10 @@
         <v>1</v>
       </c>
       <c r="E85" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="G85" t="s">
         <v>25</v>
@@ -27366,7 +27366,7 @@
     </row>
     <row r="86" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="B86" s="2">
         <v>43223</v>
@@ -27378,10 +27378,10 @@
         <v>0</v>
       </c>
       <c r="E86" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="G86" t="s">
         <v>25</v>
@@ -27404,7 +27404,7 @@
     </row>
     <row r="87" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="B87" s="2">
         <v>43225</v>
@@ -27416,7 +27416,7 @@
         <v>1</v>
       </c>
       <c r="E87" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>224</v>
@@ -27451,7 +27451,7 @@
     </row>
     <row r="88" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="B88" s="2">
         <v>43225</v>
@@ -27463,7 +27463,7 @@
         <v>65</v>
       </c>
       <c r="E88" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>193</v>
@@ -27484,7 +27484,7 @@
         <v>51</v>
       </c>
       <c r="L88" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="M88" t="s">
         <v>4</v>
@@ -27492,7 +27492,7 @@
     </row>
     <row r="89" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="B89" s="2">
         <v>43225</v>
@@ -27504,10 +27504,10 @@
         <v>0</v>
       </c>
       <c r="E89" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="G89" t="s">
         <v>31</v>
@@ -27519,7 +27519,7 @@
         <v>3</v>
       </c>
       <c r="J89" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="K89" t="s">
         <v>4</v>
@@ -27527,7 +27527,7 @@
     </row>
     <row r="90" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="B90" s="2">
         <v>43225</v>
@@ -27539,7 +27539,7 @@
         <v>1</v>
       </c>
       <c r="E90" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>753</v>
@@ -27574,7 +27574,7 @@
     </row>
     <row r="91" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="B91" s="2">
         <v>43225</v>
@@ -27586,16 +27586,16 @@
         <v>0</v>
       </c>
       <c r="E91" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="G91" t="s">
         <v>25</v>
       </c>
       <c r="H91" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="I91" t="s">
         <v>3</v>
@@ -27609,7 +27609,7 @@
     </row>
     <row r="92" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="B92" s="2">
         <v>43225</v>
@@ -27621,10 +27621,10 @@
         <v>299</v>
       </c>
       <c r="E92" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="G92" t="s">
         <v>25</v>
@@ -27668,7 +27668,7 @@
     </row>
     <row r="93" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="B93" s="2">
         <v>43239</v>
@@ -27680,10 +27680,10 @@
         <v>0</v>
       </c>
       <c r="E93" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G93" t="s">
         <v>25</v>
@@ -27695,7 +27695,7 @@
         <v>3</v>
       </c>
       <c r="J93" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="K93" t="s">
         <v>4</v>
@@ -27703,7 +27703,7 @@
     </row>
     <row r="94" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="B94" s="2">
         <v>43239</v>
@@ -27715,7 +27715,7 @@
         <v>1</v>
       </c>
       <c r="E94" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>224</v>
@@ -27750,7 +27750,7 @@
     </row>
     <row r="95" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="B95" s="2">
         <v>43239</v>
@@ -27762,10 +27762,10 @@
         <v>0</v>
       </c>
       <c r="E95" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="G95" t="s">
         <v>31</v>
@@ -27785,7 +27785,7 @@
     </row>
     <row r="96" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="B96" s="2">
         <v>43239</v>
@@ -27800,7 +27800,7 @@
         <v>1004</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="G96" t="s">
         <v>25</v>
@@ -27812,7 +27812,7 @@
         <v>3</v>
       </c>
       <c r="J96" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="K96" t="s">
         <v>4</v>
@@ -27820,7 +27820,7 @@
     </row>
     <row r="97" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="B97" s="2">
         <v>43239</v>
@@ -27832,10 +27832,10 @@
         <v>299</v>
       </c>
       <c r="E97" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="G97" t="s">
         <v>31</v>
@@ -27879,7 +27879,7 @@
     </row>
     <row r="98" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="B98" s="2">
         <v>43239</v>
@@ -27891,10 +27891,10 @@
         <v>1</v>
       </c>
       <c r="E98" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="G98" t="s">
         <v>25</v>
@@ -27929,7 +27929,7 @@
     </row>
     <row r="99" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="B99" s="2">
         <v>43254</v>
@@ -27944,7 +27944,7 @@
         <v>1042</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="G99" t="s">
         <v>25</v>
@@ -27962,12 +27962,12 @@
         <v>4</v>
       </c>
       <c r="Y99" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="100" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="B100" s="2">
         <v>43254</v>
@@ -27979,10 +27979,10 @@
         <v>65</v>
       </c>
       <c r="E100" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="G100" t="s">
         <v>25</v>
@@ -27994,7 +27994,7 @@
         <v>3</v>
       </c>
       <c r="J100" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="K100" t="s">
         <v>51</v>
@@ -28008,7 +28008,7 @@
     </row>
     <row r="101" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="B101" s="2">
         <v>43254</v>
@@ -28020,10 +28020,10 @@
         <v>0</v>
       </c>
       <c r="E101" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="G101" t="s">
         <v>25</v>
@@ -28043,7 +28043,7 @@
     </row>
     <row r="102" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="B102" s="2">
         <v>43254</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="E102" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>375</v>
@@ -28064,7 +28064,7 @@
         <v>25</v>
       </c>
       <c r="H102" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="I102" t="s">
         <v>3</v>
@@ -28076,12 +28076,12 @@
         <v>4</v>
       </c>
       <c r="Y102" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="103" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="B103" s="2">
         <v>43254</v>
@@ -28093,13 +28093,13 @@
         <v>0</v>
       </c>
       <c r="E103" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>236</v>
       </c>
       <c r="G103" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="H103" t="s">
         <v>238</v>
@@ -28114,12 +28114,12 @@
         <v>4</v>
       </c>
       <c r="Y103" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="104" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="B104" s="2">
         <v>43254</v>
@@ -28131,10 +28131,10 @@
         <v>1</v>
       </c>
       <c r="E104" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="G104" t="s">
         <v>25</v>
@@ -28166,7 +28166,7 @@
     </row>
     <row r="105" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="B105" s="2">
         <v>43254</v>
@@ -28178,10 +28178,10 @@
         <v>0</v>
       </c>
       <c r="E105" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="G105" t="s">
         <v>25</v>
@@ -28199,12 +28199,12 @@
         <v>4</v>
       </c>
       <c r="Y105" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="106" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="B106" s="2">
         <v>43254</v>
@@ -28216,7 +28216,7 @@
         <v>0</v>
       </c>
       <c r="E106" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="F106" s="1" t="s">
         <v>915</v>
@@ -28237,12 +28237,12 @@
         <v>4</v>
       </c>
       <c r="Y106" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="107" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="B107" s="2">
         <v>43260</v>
@@ -28251,10 +28251,10 @@
         <v>103</v>
       </c>
       <c r="D107" t="s">
+        <v>1170</v>
+      </c>
+      <c r="E107" t="s">
         <v>1171</v>
-      </c>
-      <c r="E107" t="s">
-        <v>1172</v>
       </c>
       <c r="F107" s="1" t="s">
         <v>715</v>
@@ -28295,7 +28295,7 @@
     </row>
     <row r="108" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="B108" s="2">
         <v>43260</v>
@@ -28307,7 +28307,7 @@
         <v>0</v>
       </c>
       <c r="E108" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="F108" s="1" t="s">
         <v>595</v>
@@ -28322,7 +28322,7 @@
         <v>3</v>
       </c>
       <c r="J108" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="K108" t="s">
         <v>4</v>
@@ -28330,7 +28330,7 @@
     </row>
     <row r="109" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="B109" s="2">
         <v>43260</v>
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="E109" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F109" s="1" t="s">
         <v>247</v>
@@ -28365,7 +28365,7 @@
     </row>
     <row r="110" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="B110" s="2">
         <v>43260</v>
@@ -28377,10 +28377,10 @@
         <v>1</v>
       </c>
       <c r="E110" t="s">
+        <v>1174</v>
+      </c>
+      <c r="F110" s="1" t="s">
         <v>1175</v>
-      </c>
-      <c r="F110" s="1" t="s">
-        <v>1176</v>
       </c>
       <c r="G110" t="s">
         <v>31</v>
@@ -28392,7 +28392,7 @@
         <v>50</v>
       </c>
       <c r="J110" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="K110" t="s">
         <v>3</v>
@@ -28412,7 +28412,7 @@
     </row>
     <row r="111" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="B111" s="2">
         <v>43260</v>
@@ -28445,12 +28445,12 @@
         <v>4</v>
       </c>
       <c r="Y111" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="112" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="B112" s="2">
         <v>43260</v>
@@ -28465,7 +28465,7 @@
         <v>836</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="G112" t="s">
         <v>25</v>
@@ -28483,12 +28483,12 @@
         <v>4</v>
       </c>
       <c r="Y112" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="113" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="B113" s="2">
         <v>43268</v>
@@ -28500,7 +28500,7 @@
         <v>1</v>
       </c>
       <c r="E113" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="F113" s="1" t="s">
         <v>1050</v>
@@ -28535,7 +28535,7 @@
     </row>
     <row r="114" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="B114" s="2">
         <v>43268</v>
@@ -28547,10 +28547,10 @@
         <v>0</v>
       </c>
       <c r="E114" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="G114" t="s">
         <v>25</v>
@@ -28570,7 +28570,7 @@
     </row>
     <row r="115" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="B115" s="2">
         <v>43268</v>
@@ -28582,7 +28582,7 @@
         <v>0</v>
       </c>
       <c r="E115" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="F115" s="1" t="s">
         <v>788</v>
@@ -28597,7 +28597,7 @@
         <v>3</v>
       </c>
       <c r="J115" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="K115" t="s">
         <v>4</v>
@@ -28605,7 +28605,7 @@
     </row>
     <row r="116" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="B116" s="2">
         <v>43268</v>
@@ -28617,7 +28617,7 @@
         <v>0</v>
       </c>
       <c r="E116" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="F116" s="1" t="s">
         <v>733</v>
@@ -28638,12 +28638,12 @@
         <v>4</v>
       </c>
       <c r="Y116" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="117" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="B117" s="2">
         <v>43268</v>
@@ -28655,16 +28655,16 @@
         <v>0</v>
       </c>
       <c r="E117" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="G117" t="s">
         <v>25</v>
       </c>
       <c r="H117" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="I117" t="s">
         <v>3</v>
@@ -28676,12 +28676,12 @@
         <v>4</v>
       </c>
       <c r="Y117" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="118" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="B118" s="2">
         <v>43268</v>
@@ -28696,7 +28696,7 @@
         <v>452</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="G118" t="s">
         <v>31</v>
@@ -28714,12 +28714,12 @@
         <v>4</v>
       </c>
       <c r="Y118" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="119" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="B119" s="2">
         <v>43268</v>
@@ -28731,10 +28731,10 @@
         <v>0</v>
       </c>
       <c r="E119" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="G119" t="s">
         <v>31</v>
@@ -28752,12 +28752,12 @@
         <v>4</v>
       </c>
       <c r="Y119" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="120" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="B120" s="2">
         <v>43278</v>
@@ -28769,7 +28769,7 @@
         <v>0</v>
       </c>
       <c r="E120" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="F120" s="1" t="s">
         <v>234</v>
@@ -28778,7 +28778,7 @@
         <v>25</v>
       </c>
       <c r="H120" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="I120" t="s">
         <v>3</v>
@@ -28792,7 +28792,7 @@
     </row>
     <row r="121" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="B121" s="2">
         <v>43278</v>
@@ -28804,10 +28804,10 @@
         <v>1</v>
       </c>
       <c r="E121" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="G121" t="s">
         <v>31</v>
@@ -28825,7 +28825,7 @@
         <v>3</v>
       </c>
       <c r="L121" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="M121" t="s">
         <v>51</v>
@@ -28839,7 +28839,7 @@
     </row>
     <row r="122" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="B122" s="2">
         <v>43278</v>
@@ -28851,10 +28851,10 @@
         <v>1</v>
       </c>
       <c r="E122" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="G122" t="s">
         <v>31</v>
@@ -28886,7 +28886,7 @@
     </row>
     <row r="123" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="B123" s="2">
         <v>43278</v>
@@ -28898,7 +28898,7 @@
         <v>0</v>
       </c>
       <c r="E123" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="F123" s="1" t="s">
         <v>555</v>
@@ -28921,7 +28921,7 @@
     </row>
     <row r="124" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="B124" s="2">
         <v>43278</v>
@@ -28933,7 +28933,7 @@
         <v>0</v>
       </c>
       <c r="E124" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="F124" s="1" t="s">
         <v>596</v>
@@ -28956,7 +28956,7 @@
     </row>
     <row r="125" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="B125" s="2">
         <v>43278</v>
@@ -28968,7 +28968,7 @@
         <v>0</v>
       </c>
       <c r="E125" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="F125" s="1" t="s">
         <v>172</v>
@@ -28991,7 +28991,7 @@
     </row>
     <row r="126" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="B126" s="2">
         <v>43278</v>
@@ -29003,7 +29003,7 @@
         <v>0</v>
       </c>
       <c r="E126" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="F126" s="1" t="s">
         <v>954</v>
@@ -29026,13 +29026,13 @@
     </row>
     <row r="127" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="B127" s="2">
         <v>43289</v>
       </c>
       <c r="C127" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="D127" t="s">
         <v>0</v>
@@ -29041,7 +29041,7 @@
         <v>389</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="G127" t="s">
         <v>575</v>
@@ -29053,24 +29053,24 @@
         <v>3</v>
       </c>
       <c r="J127" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="K127" t="s">
         <v>4</v>
       </c>
       <c r="Y127" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="128" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="B128" s="2">
         <v>43289</v>
       </c>
       <c r="C128" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="D128" t="s">
         <v>0</v>
@@ -29079,7 +29079,7 @@
         <v>822</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="G128" t="s">
         <v>25</v>
@@ -29097,24 +29097,24 @@
         <v>4</v>
       </c>
       <c r="Y128" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="129" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="B129" s="2">
         <v>43289</v>
       </c>
       <c r="C129" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="D129" t="s">
         <v>65</v>
       </c>
       <c r="E129" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="F129" s="1" t="s">
         <v>504</v>
@@ -29129,7 +29129,7 @@
         <v>3</v>
       </c>
       <c r="J129" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="K129" t="s">
         <v>51</v>
@@ -29143,22 +29143,22 @@
     </row>
     <row r="130" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="B130" s="2">
         <v>43289</v>
       </c>
       <c r="C130" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="D130" t="s">
         <v>299</v>
       </c>
       <c r="E130" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="G130" t="s">
         <v>31</v>
@@ -29202,22 +29202,22 @@
     </row>
     <row r="131" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="B131" s="2">
         <v>43289</v>
       </c>
       <c r="C131" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="D131" t="s">
         <v>299</v>
       </c>
       <c r="E131" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="G131" t="s">
         <v>25</v>
@@ -29261,13 +29261,13 @@
     </row>
     <row r="132" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="B132" s="2">
         <v>43289</v>
       </c>
       <c r="C132" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="D132" t="s">
         <v>0</v>
@@ -29294,27 +29294,27 @@
         <v>4</v>
       </c>
       <c r="Y132" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="133" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="B133" s="2">
         <v>43297</v>
       </c>
       <c r="C133" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D133" t="s">
+        <v>0</v>
+      </c>
+      <c r="E133" t="s">
         <v>1212</v>
       </c>
-      <c r="D133" t="s">
-        <v>0</v>
-      </c>
-      <c r="E133" t="s">
-        <v>1213</v>
-      </c>
       <c r="F133" s="1" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="G133" t="s">
         <v>31</v>
@@ -29334,19 +29334,19 @@
     </row>
     <row r="134" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="B134" s="2">
         <v>43297</v>
       </c>
       <c r="C134" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="D134" t="s">
         <v>1</v>
       </c>
       <c r="E134" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="F134" s="1" t="s">
         <v>280</v>
@@ -29355,13 +29355,13 @@
         <v>25</v>
       </c>
       <c r="H134" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="I134" t="s">
         <v>50</v>
       </c>
       <c r="J134" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="K134" t="s">
         <v>3</v>
@@ -29381,19 +29381,19 @@
     </row>
     <row r="135" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="B135" s="2">
         <v>43297</v>
       </c>
       <c r="C135" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="D135" t="s">
         <v>0</v>
       </c>
       <c r="E135" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="F135" s="1" t="s">
         <v>934</v>
@@ -29416,19 +29416,19 @@
     </row>
     <row r="136" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="B136" s="2">
         <v>43297</v>
       </c>
       <c r="C136" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="D136" t="s">
         <v>1</v>
       </c>
       <c r="E136" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="F136" s="1" t="s">
         <v>219</v>
@@ -29463,19 +29463,19 @@
     </row>
     <row r="137" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="B137" s="2">
         <v>43297</v>
       </c>
       <c r="C137" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="D137" t="s">
         <v>0</v>
       </c>
       <c r="E137" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="F137" s="1" t="s">
         <v>460</v>
@@ -29498,22 +29498,22 @@
     </row>
     <row r="138" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="B138" s="2">
         <v>43297</v>
       </c>
       <c r="C138" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="D138" t="s">
         <v>1</v>
       </c>
       <c r="E138" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="G138" t="s">
         <v>25</v>
@@ -29545,7 +29545,7 @@
     </row>
     <row r="139" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="B139" s="2">
         <v>43302</v>
@@ -29557,7 +29557,7 @@
         <v>0</v>
       </c>
       <c r="E139" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="F139" s="1" t="s">
         <v>934</v>
@@ -29580,7 +29580,7 @@
     </row>
     <row r="140" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="B140" s="2">
         <v>43302</v>
@@ -29592,7 +29592,7 @@
         <v>0</v>
       </c>
       <c r="E140" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="F140" s="1" t="s">
         <v>158</v>
@@ -29615,7 +29615,7 @@
     </row>
     <row r="141" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="B141" s="2">
         <v>43302</v>
@@ -29627,7 +29627,7 @@
         <v>65</v>
       </c>
       <c r="E141" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="F141" s="1" t="s">
         <v>534</v>
@@ -29656,7 +29656,7 @@
     </row>
     <row r="142" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="B142" s="2">
         <v>43302</v>
@@ -29668,7 +29668,7 @@
         <v>0</v>
       </c>
       <c r="E142" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="F142" s="1" t="s">
         <v>752</v>
@@ -29683,7 +29683,7 @@
         <v>3</v>
       </c>
       <c r="J142" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="K142" t="s">
         <v>4</v>
@@ -29691,7 +29691,7 @@
     </row>
     <row r="143" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="B143" s="2">
         <v>43302</v>
@@ -29703,7 +29703,7 @@
         <v>299</v>
       </c>
       <c r="E143" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="F143" s="1" t="s">
         <v>927</v>
@@ -29750,7 +29750,7 @@
     </row>
     <row r="144" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="B144" s="2">
         <v>43302</v>
@@ -29762,10 +29762,10 @@
         <v>1</v>
       </c>
       <c r="E144" t="s">
+        <v>1224</v>
+      </c>
+      <c r="F144" s="1" t="s">
         <v>1225</v>
-      </c>
-      <c r="F144" s="1" t="s">
-        <v>1226</v>
       </c>
       <c r="G144" t="s">
         <v>31</v>
@@ -29783,7 +29783,7 @@
         <v>3</v>
       </c>
       <c r="L144" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="M144" t="s">
         <v>51</v>
@@ -29797,7 +29797,7 @@
     </row>
     <row r="145" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="B145" s="2">
         <v>43316</v>
@@ -29809,7 +29809,7 @@
         <v>1</v>
       </c>
       <c r="E145" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="F145" s="1" t="s">
         <v>417</v>
@@ -29842,12 +29842,12 @@
         <v>4</v>
       </c>
       <c r="Y145" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="146" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="B146" s="2">
         <v>43316</v>
@@ -29859,7 +29859,7 @@
         <v>1</v>
       </c>
       <c r="E146" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="F146" s="1" t="s">
         <v>161</v>
@@ -29880,7 +29880,7 @@
         <v>36</v>
       </c>
       <c r="L146" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="M146" t="s">
         <v>36</v>
@@ -29892,12 +29892,12 @@
         <v>36</v>
       </c>
       <c r="Y146" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="147" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="B147" s="2">
         <v>43316</v>
@@ -29909,7 +29909,7 @@
         <v>1</v>
       </c>
       <c r="E147" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="F147" s="1" t="s">
         <v>264</v>
@@ -29942,12 +29942,12 @@
         <v>4</v>
       </c>
       <c r="Y147" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="148" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="B148" s="2">
         <v>43316</v>
@@ -29959,10 +29959,10 @@
         <v>1</v>
       </c>
       <c r="E148" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="G148" t="s">
         <v>31</v>
@@ -29980,7 +29980,7 @@
         <v>3</v>
       </c>
       <c r="L148" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="M148" t="s">
         <v>51</v>
@@ -29992,12 +29992,12 @@
         <v>4</v>
       </c>
       <c r="Y148" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="149" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="B149" s="2">
         <v>43316</v>
@@ -30009,7 +30009,7 @@
         <v>1</v>
       </c>
       <c r="E149" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="F149" s="1" t="s">
         <v>544</v>
@@ -30042,12 +30042,12 @@
         <v>4</v>
       </c>
       <c r="Y149" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="150" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="B150" s="2">
         <v>43316</v>
@@ -30059,10 +30059,10 @@
         <v>1</v>
       </c>
       <c r="E150" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="G150" t="s">
         <v>25</v>
@@ -30092,12 +30092,12 @@
         <v>4</v>
       </c>
       <c r="Y150" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="151" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="B151" s="2">
         <v>43316</v>
@@ -30109,10 +30109,10 @@
         <v>1</v>
       </c>
       <c r="E151" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="G151" t="s">
         <v>25</v>
@@ -30144,7 +30144,7 @@
     </row>
     <row r="152" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="B152" s="2">
         <v>43316</v>
@@ -30156,10 +30156,10 @@
         <v>1</v>
       </c>
       <c r="E152" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="G152" t="s">
         <v>25</v>
@@ -30189,12 +30189,12 @@
         <v>4</v>
       </c>
       <c r="Y152" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="153" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="B153" s="2">
         <v>43324</v>
@@ -30206,7 +30206,7 @@
         <v>0</v>
       </c>
       <c r="E153" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="F153" s="1" t="s">
         <v>396</v>
@@ -30229,7 +30229,7 @@
     </row>
     <row r="154" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="B154" s="2">
         <v>43324</v>
@@ -30241,10 +30241,10 @@
         <v>0</v>
       </c>
       <c r="E154" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="G154" t="s">
         <v>25</v>
@@ -30264,7 +30264,7 @@
     </row>
     <row r="155" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="B155" s="2">
         <v>43324</v>
@@ -30276,7 +30276,7 @@
         <v>1</v>
       </c>
       <c r="E155" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="F155" s="1" t="s">
         <v>843</v>
@@ -30285,13 +30285,13 @@
         <v>25</v>
       </c>
       <c r="H155" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="I155" t="s">
         <v>50</v>
       </c>
       <c r="J155" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="K155" t="s">
         <v>3</v>
@@ -30311,7 +30311,7 @@
     </row>
     <row r="156" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="B156" s="2">
         <v>43324</v>
@@ -30323,10 +30323,10 @@
         <v>0</v>
       </c>
       <c r="E156" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="G156" t="s">
         <v>31</v>
@@ -30346,7 +30346,7 @@
     </row>
     <row r="157" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="B157" s="2">
         <v>43324</v>
@@ -30358,10 +30358,10 @@
         <v>0</v>
       </c>
       <c r="E157" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="G157" t="s">
         <v>31</v>
@@ -30381,7 +30381,7 @@
     </row>
     <row r="158" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="B158" s="2">
         <v>43324</v>
@@ -30396,7 +30396,7 @@
         <v>434</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="G158" t="s">
         <v>25</v>
@@ -30416,7 +30416,7 @@
     </row>
     <row r="159" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="B159" s="2">
         <v>43324</v>
@@ -30428,10 +30428,10 @@
         <v>1</v>
       </c>
       <c r="E159" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="G159" t="s">
         <v>31</v>
@@ -30463,19 +30463,19 @@
     </row>
     <row r="160" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="B160" s="2">
         <v>43330</v>
       </c>
       <c r="C160" t="s">
+        <v>1255</v>
+      </c>
+      <c r="D160" t="s">
+        <v>0</v>
+      </c>
+      <c r="E160" t="s">
         <v>1256</v>
-      </c>
-      <c r="D160" t="s">
-        <v>0</v>
-      </c>
-      <c r="E160" t="s">
-        <v>1257</v>
       </c>
       <c r="F160" s="1" t="s">
         <v>428</v>
@@ -30498,19 +30498,19 @@
     </row>
     <row r="161" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="B161" s="2">
         <v>43330</v>
       </c>
       <c r="C161" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="D161" t="s">
         <v>299</v>
       </c>
       <c r="E161" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="F161" s="1" t="s">
         <v>315</v>
@@ -30537,7 +30537,7 @@
         <v>3</v>
       </c>
       <c r="N161" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="O161" t="s">
         <v>51</v>
@@ -30557,22 +30557,22 @@
     </row>
     <row r="162" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="B162" s="2">
         <v>43330</v>
       </c>
       <c r="C162" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="D162" t="s">
         <v>0</v>
       </c>
       <c r="E162" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="G162" t="s">
         <v>31</v>
@@ -30592,19 +30592,19 @@
     </row>
     <row r="163" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="B163" s="2">
         <v>43330</v>
       </c>
       <c r="C163" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="D163" t="s">
         <v>65</v>
       </c>
       <c r="E163" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="F163" s="1" t="s">
         <v>895</v>
@@ -30633,19 +30633,19 @@
     </row>
     <row r="164" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="B164" s="2">
         <v>43330</v>
       </c>
       <c r="C164" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="D164" t="s">
         <v>0</v>
       </c>
       <c r="E164" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="F164" s="1" t="s">
         <v>752</v>
@@ -30668,22 +30668,22 @@
     </row>
     <row r="165" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="B165" s="2">
         <v>43330</v>
       </c>
       <c r="C165" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="D165" t="s">
         <v>1</v>
       </c>
       <c r="E165" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="G165" t="s">
         <v>31</v>
@@ -30695,7 +30695,7 @@
         <v>50</v>
       </c>
       <c r="J165" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="K165" t="s">
         <v>3</v>
@@ -30715,7 +30715,7 @@
     </row>
     <row r="166" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="B166" s="2">
         <v>43337</v>
@@ -30727,7 +30727,7 @@
         <v>1</v>
       </c>
       <c r="E166" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="F166" s="1" t="s">
         <v>628</v>
@@ -30762,7 +30762,7 @@
     </row>
     <row r="167" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="B167" s="2">
         <v>43337</v>
@@ -30774,7 +30774,7 @@
         <v>1</v>
       </c>
       <c r="E167" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="F167" s="1" t="s">
         <v>480</v>
@@ -30783,13 +30783,13 @@
         <v>25</v>
       </c>
       <c r="H167" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="I167" t="s">
         <v>50</v>
       </c>
       <c r="J167" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="K167" t="s">
         <v>3</v>
@@ -30809,7 +30809,7 @@
     </row>
     <row r="168" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="B168" s="2">
         <v>43337</v>
@@ -30821,10 +30821,10 @@
         <v>0</v>
       </c>
       <c r="E168" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="G168" t="s">
         <v>25</v>
@@ -30844,7 +30844,7 @@
     </row>
     <row r="169" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="B169" s="2">
         <v>43337</v>
@@ -30856,10 +30856,10 @@
         <v>0</v>
       </c>
       <c r="E169" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="G169" t="s">
         <v>25</v>
@@ -30879,7 +30879,7 @@
     </row>
     <row r="170" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="B170" s="2">
         <v>43337</v>
@@ -30891,10 +30891,10 @@
         <v>0</v>
       </c>
       <c r="E170" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="G170" t="s">
         <v>25</v>
@@ -30914,7 +30914,7 @@
     </row>
     <row r="171" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="B171" s="2">
         <v>43337</v>
@@ -30926,10 +30926,10 @@
         <v>1</v>
       </c>
       <c r="E171" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="G171" t="s">
         <v>25</v>
@@ -30959,12 +30959,12 @@
         <v>4</v>
       </c>
       <c r="Y171" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="172" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="B172" s="2">
         <v>43337</v>
@@ -30976,10 +30976,10 @@
         <v>0</v>
       </c>
       <c r="E172" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="G172" t="s">
         <v>25</v>
@@ -31002,7 +31002,7 @@
     </row>
     <row r="173" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="B173" s="2">
         <v>43351</v>
@@ -31014,7 +31014,7 @@
         <v>0</v>
       </c>
       <c r="E173" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="F173" s="1" t="s">
         <v>504</v>
@@ -31037,7 +31037,7 @@
     </row>
     <row r="174" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="B174" s="2">
         <v>43351</v>
@@ -31049,10 +31049,10 @@
         <v>65</v>
       </c>
       <c r="E174" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="G174" t="s">
         <v>25</v>
@@ -31078,7 +31078,7 @@
     </row>
     <row r="175" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="B175" s="2">
         <v>43351</v>
@@ -31090,7 +31090,7 @@
         <v>0</v>
       </c>
       <c r="E175" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="F175" s="1" t="s">
         <v>505</v>
@@ -31099,7 +31099,7 @@
         <v>25</v>
       </c>
       <c r="H175" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="I175" t="s">
         <v>3</v>
@@ -31113,7 +31113,7 @@
     </row>
     <row r="176" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="B176" s="2">
         <v>43351</v>
@@ -31125,7 +31125,7 @@
         <v>0</v>
       </c>
       <c r="E176" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="F176" s="1" t="s">
         <v>262</v>
@@ -31140,7 +31140,7 @@
         <v>3</v>
       </c>
       <c r="J176" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="K176" t="s">
         <v>4</v>
@@ -31148,7 +31148,7 @@
     </row>
     <row r="177" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="B177" s="2">
         <v>43351</v>
@@ -31166,7 +31166,7 @@
         <v>179</v>
       </c>
       <c r="G177" t="s">
-        <v>1445</v>
+        <v>1442</v>
       </c>
       <c r="H177" t="s">
         <v>746</v>
@@ -31181,12 +31181,12 @@
         <v>4</v>
       </c>
       <c r="Y177" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="178" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="B178" s="2">
         <v>43351</v>
@@ -31198,10 +31198,10 @@
         <v>299</v>
       </c>
       <c r="E178" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="G178" t="s">
         <v>25</v>
@@ -31245,7 +31245,7 @@
     </row>
     <row r="179" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="B179" s="2">
         <v>43365</v>
@@ -31260,7 +31260,7 @@
         <v>937</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="G179" t="s">
         <v>25</v>
@@ -31280,7 +31280,7 @@
     </row>
     <row r="180" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="B180" s="2">
         <v>43365</v>
@@ -31292,7 +31292,7 @@
         <v>0</v>
       </c>
       <c r="E180" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="F180" s="1" t="s">
         <v>272</v>
@@ -31315,7 +31315,7 @@
     </row>
     <row r="181" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="B181" s="2">
         <v>43365</v>
@@ -31327,10 +31327,10 @@
         <v>1</v>
       </c>
       <c r="E181" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="G181" t="s">
         <v>31</v>
@@ -31362,7 +31362,7 @@
     </row>
     <row r="182" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="B182" s="2">
         <v>43365</v>
@@ -31397,7 +31397,7 @@
     </row>
     <row r="183" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="B183" s="2">
         <v>43365</v>
@@ -31409,22 +31409,22 @@
         <v>1</v>
       </c>
       <c r="E183" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="G183" t="s">
         <v>25</v>
       </c>
       <c r="H183" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="I183" t="s">
         <v>50</v>
       </c>
       <c r="J183" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="K183" t="s">
         <v>3</v>
@@ -31444,7 +31444,7 @@
     </row>
     <row r="184" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="B184" s="2">
         <v>43365</v>
@@ -31459,7 +31459,7 @@
         <v>331</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="G184" t="s">
         <v>25</v>
@@ -31479,7 +31479,7 @@
     </row>
     <row r="185" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="B185" s="2">
         <v>43372</v>
@@ -31491,7 +31491,7 @@
         <v>0</v>
       </c>
       <c r="E185" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="F185" s="1" t="s">
         <v>673</v>
@@ -31514,7 +31514,7 @@
     </row>
     <row r="186" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="B186" s="2">
         <v>43372</v>
@@ -31526,7 +31526,7 @@
         <v>65</v>
       </c>
       <c r="E186" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="F186" s="1" t="s">
         <v>733</v>
@@ -31555,7 +31555,7 @@
     </row>
     <row r="187" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="B187" s="2">
         <v>43372</v>
@@ -31567,7 +31567,7 @@
         <v>1</v>
       </c>
       <c r="E187" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="F187" s="1" t="s">
         <v>896</v>
@@ -31602,7 +31602,7 @@
     </row>
     <row r="188" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="B188" s="2">
         <v>43372</v>
@@ -31614,7 +31614,7 @@
         <v>0</v>
       </c>
       <c r="E188" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="F188" s="1" t="s">
         <v>1050</v>
@@ -31637,7 +31637,7 @@
     </row>
     <row r="189" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="B189" s="2">
         <v>43372</v>
@@ -31649,10 +31649,10 @@
         <v>299</v>
       </c>
       <c r="E189" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="G189" t="s">
         <v>25</v>
@@ -31682,13 +31682,13 @@
         <v>51</v>
       </c>
       <c r="P189" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="Q189" t="s">
         <v>4</v>
       </c>
       <c r="R189" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="S189" t="s">
         <v>4</v>
@@ -31696,7 +31696,7 @@
     </row>
     <row r="190" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="B190" s="2">
         <v>43376</v>
@@ -31731,7 +31731,7 @@
     </row>
     <row r="191" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="B191" s="2">
         <v>43376</v>
@@ -31743,7 +31743,7 @@
         <v>1</v>
       </c>
       <c r="E191" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="F191" s="1" t="s">
         <v>362</v>
@@ -31752,13 +31752,13 @@
         <v>25</v>
       </c>
       <c r="H191" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="I191" t="s">
         <v>50</v>
       </c>
       <c r="J191" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="K191" t="s">
         <v>3</v>
@@ -31778,7 +31778,7 @@
     </row>
     <row r="192" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="B192" s="2">
         <v>43376</v>
@@ -31790,7 +31790,7 @@
         <v>1</v>
       </c>
       <c r="E192" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="F192" s="1" t="s">
         <v>478</v>
@@ -31825,7 +31825,7 @@
     </row>
     <row r="193" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="B193" s="2">
         <v>43381</v>
@@ -31837,10 +31837,10 @@
         <v>0</v>
       </c>
       <c r="E193" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="G193" t="s">
         <v>25</v>
@@ -31860,7 +31860,7 @@
     </row>
     <row r="194" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="B194" s="2">
         <v>43381</v>
@@ -31872,7 +31872,7 @@
         <v>0</v>
       </c>
       <c r="E194" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="F194" s="1" t="s">
         <v>595</v>
@@ -31895,7 +31895,7 @@
     </row>
     <row r="195" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="B195" s="2">
         <v>43381</v>
@@ -31907,10 +31907,10 @@
         <v>0</v>
       </c>
       <c r="E195" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="G195" t="s">
         <v>25</v>
@@ -31930,7 +31930,7 @@
     </row>
     <row r="196" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="B196" s="2">
         <v>43381</v>
@@ -31942,13 +31942,13 @@
         <v>0</v>
       </c>
       <c r="E196" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="G196" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="H196" t="s">
         <v>336</v>
@@ -31965,7 +31965,7 @@
     </row>
     <row r="197" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="B197" s="2">
         <v>43381</v>
@@ -31977,7 +31977,7 @@
         <v>0</v>
       </c>
       <c r="E197" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="F197" s="1" t="s">
         <v>312</v>
@@ -32000,7 +32000,7 @@
     </row>
     <row r="198" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="B198" s="2">
         <v>43381</v>
@@ -32012,7 +32012,7 @@
         <v>1</v>
       </c>
       <c r="E198" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="F198" s="1" t="s">
         <v>734</v>
@@ -32047,7 +32047,7 @@
     </row>
     <row r="199" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="B199" s="2">
         <v>43381</v>
@@ -32059,10 +32059,10 @@
         <v>1</v>
       </c>
       <c r="E199" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="G199" t="s">
         <v>25</v>
@@ -32080,13 +32080,13 @@
         <v>3</v>
       </c>
       <c r="L199" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="M199" t="s">
         <v>51</v>
       </c>
       <c r="N199" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="O199" t="s">
         <v>4</v>
@@ -32097,7 +32097,7 @@
     </row>
     <row r="200" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="B200" s="2">
         <v>43386</v>
@@ -32109,7 +32109,7 @@
         <v>1</v>
       </c>
       <c r="E200" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="F200" s="1" t="s">
         <v>481</v>
@@ -32144,7 +32144,7 @@
     </row>
     <row r="201" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="B201" s="2">
         <v>43386</v>
@@ -32179,7 +32179,7 @@
     </row>
     <row r="202" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="B202" s="2">
         <v>43386</v>
@@ -32191,10 +32191,10 @@
         <v>1</v>
       </c>
       <c r="E202" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="F202" s="1" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="G202" t="s">
         <v>25</v>
@@ -32226,7 +32226,7 @@
     </row>
     <row r="203" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="B203" s="2">
         <v>43386</v>
@@ -32241,7 +32241,7 @@
         <v>452</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="G203" t="s">
         <v>25</v>
@@ -32261,7 +32261,7 @@
     </row>
     <row r="204" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="B204" s="2">
         <v>43386</v>
@@ -32273,10 +32273,10 @@
         <v>299</v>
       </c>
       <c r="E204" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="F204" s="1" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="G204" t="s">
         <v>25</v>
@@ -32300,13 +32300,13 @@
         <v>3</v>
       </c>
       <c r="N204" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="O204" t="s">
         <v>51</v>
       </c>
       <c r="P204" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="Q204" t="s">
         <v>4</v>
@@ -32320,19 +32320,19 @@
     </row>
     <row r="205" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="B205" s="2">
         <v>43387</v>
       </c>
       <c r="C205" t="s">
+        <v>1324</v>
+      </c>
+      <c r="D205" t="s">
+        <v>0</v>
+      </c>
+      <c r="E205" t="s">
         <v>1325</v>
-      </c>
-      <c r="D205" t="s">
-        <v>0</v>
-      </c>
-      <c r="E205" t="s">
-        <v>1326</v>
       </c>
       <c r="F205" s="1" t="s">
         <v>172</v>
@@ -32355,19 +32355,19 @@
     </row>
     <row r="206" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="B206" s="2">
         <v>43387</v>
       </c>
       <c r="C206" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="D206" t="s">
         <v>65</v>
       </c>
       <c r="E206" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="F206" s="1" t="s">
         <v>715</v>
@@ -32396,22 +32396,22 @@
     </row>
     <row r="207" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="B207" s="2">
         <v>43387</v>
       </c>
       <c r="C207" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="D207" t="s">
         <v>0</v>
       </c>
       <c r="E207" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="F207" s="1" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="G207" t="s">
         <v>25</v>
@@ -32431,34 +32431,34 @@
     </row>
     <row r="208" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="B208" s="2">
         <v>43387</v>
       </c>
       <c r="C208" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="D208" t="s">
         <v>1</v>
       </c>
       <c r="E208" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="F208" s="1" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="G208" t="s">
         <v>25</v>
       </c>
       <c r="H208" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="I208" t="s">
         <v>50</v>
       </c>
       <c r="J208" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="K208" t="s">
         <v>3</v>
@@ -32478,19 +32478,19 @@
     </row>
     <row r="209" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="B209" s="2">
         <v>43387</v>
       </c>
       <c r="C209" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="D209" t="s">
         <v>1</v>
       </c>
       <c r="E209" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="F209" s="1" t="s">
         <v>449</v>
@@ -32525,19 +32525,19 @@
     </row>
     <row r="210" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="B210" s="2">
         <v>43387</v>
       </c>
       <c r="C210" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="D210" t="s">
         <v>0</v>
       </c>
       <c r="E210" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="F210" s="1" t="s">
         <v>246</v>
@@ -32563,7 +32563,7 @@
     </row>
     <row r="211" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="B211" s="2">
         <v>43400</v>
@@ -32575,16 +32575,16 @@
         <v>0</v>
       </c>
       <c r="E211" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="F211" s="1" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="G211" t="s">
         <v>25</v>
       </c>
       <c r="H211" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="I211" t="s">
         <v>3</v>
@@ -32598,7 +32598,7 @@
     </row>
     <row r="212" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="B212" s="2">
         <v>43400</v>
@@ -32610,7 +32610,7 @@
         <v>0</v>
       </c>
       <c r="E212" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="F212" s="1" t="s">
         <v>375</v>
@@ -32633,7 +32633,7 @@
     </row>
     <row r="213" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="B213" s="2">
         <v>43400</v>
@@ -32645,7 +32645,7 @@
         <v>1</v>
       </c>
       <c r="E213" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="F213" s="1" t="s">
         <v>657</v>
@@ -32654,7 +32654,7 @@
         <v>25</v>
       </c>
       <c r="H213" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="I213" t="s">
         <v>50</v>
@@ -32680,7 +32680,7 @@
     </row>
     <row r="214" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="B214" s="2">
         <v>43400</v>
@@ -32689,13 +32689,13 @@
         <v>103</v>
       </c>
       <c r="D214" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="E214" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="F214" s="1" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="G214" t="s">
         <v>25</v>
@@ -32751,7 +32751,7 @@
     </row>
     <row r="215" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="B215" s="2">
         <v>43400</v>
@@ -32760,16 +32760,16 @@
         <v>103</v>
       </c>
       <c r="D215" t="s">
+        <v>1335</v>
+      </c>
+      <c r="E215" t="s">
         <v>1336</v>
       </c>
-      <c r="E215" t="s">
-        <v>1337</v>
-      </c>
       <c r="F215" s="1" t="s">
+        <v>1343</v>
+      </c>
+      <c r="G215" s="4" t="s">
         <v>1344</v>
-      </c>
-      <c r="G215" s="4" t="s">
-        <v>1345</v>
       </c>
       <c r="H215" t="s">
         <v>8</v>
@@ -32793,15 +32793,15 @@
         <v>336</v>
       </c>
       <c r="O215" t="s">
+        <v>1349</v>
+      </c>
+      <c r="Y215" t="s">
         <v>1350</v>
-      </c>
-      <c r="Y215" t="s">
-        <v>1351</v>
       </c>
     </row>
     <row r="216" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="B216" s="2">
         <v>43408</v>
@@ -32813,10 +32813,10 @@
         <v>65</v>
       </c>
       <c r="E216" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="F216" s="1" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="G216" t="s">
         <v>25</v>
@@ -32834,7 +32834,7 @@
         <v>51</v>
       </c>
       <c r="L216" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="M216" t="s">
         <v>4</v>
@@ -32842,7 +32842,7 @@
     </row>
     <row r="217" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="B217" s="2">
         <v>43408</v>
@@ -32854,7 +32854,7 @@
         <v>1</v>
       </c>
       <c r="E217" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="F217" s="1" t="s">
         <v>752</v>
@@ -32875,7 +32875,7 @@
         <v>3</v>
       </c>
       <c r="L217" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="M217" t="s">
         <v>51</v>
@@ -32889,7 +32889,7 @@
     </row>
     <row r="218" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="B218" s="2">
         <v>43408</v>
@@ -32901,10 +32901,10 @@
         <v>299</v>
       </c>
       <c r="E218" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="F218" s="1" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="G218" t="s">
         <v>25</v>
@@ -32948,7 +32948,7 @@
     </row>
     <row r="219" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="B219" s="2">
         <v>43408</v>
@@ -32960,7 +32960,7 @@
         <v>1</v>
       </c>
       <c r="E219" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="F219" s="1" t="s">
         <v>418</v>
@@ -32975,7 +32975,7 @@
         <v>50</v>
       </c>
       <c r="J219" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="K219" t="s">
         <v>3</v>
@@ -32995,7 +32995,7 @@
     </row>
     <row r="220" spans="1:25" ht="330" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="B220" s="2">
         <v>43408</v>
@@ -33007,7 +33007,7 @@
         <v>355</v>
       </c>
       <c r="E220" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="F220" s="1" t="s">
         <v>968</v>
@@ -33028,12 +33028,12 @@
         <v>364</v>
       </c>
       <c r="Y220" s="5" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="221" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="B221" s="2">
         <v>43421</v>
@@ -33045,10 +33045,10 @@
         <v>0</v>
       </c>
       <c r="E221" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="F221" s="1" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="G221" t="s">
         <v>25</v>
@@ -33068,7 +33068,7 @@
     </row>
     <row r="222" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="B222" s="2">
         <v>43421</v>
@@ -33080,7 +33080,7 @@
         <v>0</v>
       </c>
       <c r="E222" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="F222" s="1" t="s">
         <v>218</v>
@@ -33095,7 +33095,7 @@
         <v>3</v>
       </c>
       <c r="J222" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="K222" t="s">
         <v>4</v>
@@ -33103,7 +33103,7 @@
     </row>
     <row r="223" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="B223" s="2">
         <v>43421</v>
@@ -33115,10 +33115,10 @@
         <v>65</v>
       </c>
       <c r="E223" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="F223" s="1" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="G223" t="s">
         <v>25</v>
@@ -33136,7 +33136,7 @@
         <v>51</v>
       </c>
       <c r="L223" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="M223" t="s">
         <v>4</v>
@@ -33144,7 +33144,7 @@
     </row>
     <row r="224" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="B224" s="2">
         <v>43421</v>
@@ -33156,10 +33156,10 @@
         <v>1</v>
       </c>
       <c r="E224" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="F224" s="1" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="G224" t="s">
         <v>31</v>
@@ -33171,7 +33171,7 @@
         <v>50</v>
       </c>
       <c r="J224" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="K224" t="s">
         <v>3</v>
@@ -33194,7 +33194,7 @@
     </row>
     <row r="225" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="B225" s="2">
         <v>43421</v>
@@ -33206,10 +33206,10 @@
         <v>0</v>
       </c>
       <c r="E225" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="F225" s="1" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="G225" t="s">
         <v>31</v>
@@ -33221,7 +33221,7 @@
         <v>3</v>
       </c>
       <c r="J225" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="K225" t="s">
         <v>4</v>
@@ -33229,7 +33229,7 @@
     </row>
     <row r="226" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="B226" s="2">
         <v>43421</v>
@@ -33241,10 +33241,10 @@
         <v>1</v>
       </c>
       <c r="E226" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="F226" s="1" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="G226" t="s">
         <v>25</v>
@@ -33279,22 +33279,22 @@
     </row>
     <row r="227" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="B227" s="2">
         <v>43422</v>
       </c>
       <c r="C227" t="s">
+        <v>1373</v>
+      </c>
+      <c r="D227" t="s">
+        <v>0</v>
+      </c>
+      <c r="E227" t="s">
         <v>1374</v>
       </c>
-      <c r="D227" t="s">
-        <v>0</v>
-      </c>
-      <c r="E227" t="s">
-        <v>1375</v>
-      </c>
       <c r="F227" s="1" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="G227" t="s">
         <v>31</v>
@@ -33306,7 +33306,7 @@
         <v>3</v>
       </c>
       <c r="J227" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="K227" t="s">
         <v>4</v>
@@ -33314,22 +33314,22 @@
     </row>
     <row r="228" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="B228" s="2">
         <v>43422</v>
       </c>
       <c r="C228" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="D228" t="s">
         <v>0</v>
       </c>
       <c r="E228" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="F228" s="1" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="G228" t="s">
         <v>25</v>
@@ -33349,19 +33349,19 @@
     </row>
     <row r="229" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="B229" s="2">
         <v>43422</v>
       </c>
       <c r="C229" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="D229" t="s">
         <v>1</v>
       </c>
       <c r="E229" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="F229" s="1" t="s">
         <v>153</v>
@@ -33370,13 +33370,13 @@
         <v>25</v>
       </c>
       <c r="H229" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="I229" t="s">
         <v>50</v>
       </c>
       <c r="J229" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="K229" t="s">
         <v>3</v>
@@ -33394,27 +33394,27 @@
         <v>4</v>
       </c>
       <c r="Y229" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="230" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="B230" s="2">
         <v>43422</v>
       </c>
       <c r="C230" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="D230" t="s">
         <v>0</v>
       </c>
       <c r="E230" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="F230" s="1" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="G230" t="s">
         <v>25</v>
@@ -33432,27 +33432,27 @@
         <v>4</v>
       </c>
       <c r="X230" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="Y230" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="231" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="B231" s="2">
         <v>43422</v>
       </c>
       <c r="C231" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="D231" t="s">
         <v>1</v>
       </c>
       <c r="E231" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="F231" s="1" t="s">
         <v>764</v>
@@ -33487,7 +33487,7 @@
     </row>
     <row r="232" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="B232" s="2">
         <v>43428</v>
@@ -33499,7 +33499,7 @@
         <v>0</v>
       </c>
       <c r="E232" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="F232" s="1" t="s">
         <v>894</v>
@@ -33514,7 +33514,7 @@
         <v>3</v>
       </c>
       <c r="J232" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="K232" t="s">
         <v>4</v>
@@ -33522,7 +33522,7 @@
     </row>
     <row r="233" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="B233" s="2">
         <v>43428</v>
@@ -33534,7 +33534,7 @@
         <v>0</v>
       </c>
       <c r="E233" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="F233" s="1" t="s">
         <v>218</v>
@@ -33549,7 +33549,7 @@
         <v>3</v>
       </c>
       <c r="J233" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="K233" t="s">
         <v>4</v>
@@ -33557,7 +33557,7 @@
     </row>
     <row r="234" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="B234" s="2">
         <v>43428</v>
@@ -33569,10 +33569,10 @@
         <v>65</v>
       </c>
       <c r="E234" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="F234" s="1" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="G234" t="s">
         <v>31</v>
@@ -33590,7 +33590,7 @@
         <v>51</v>
       </c>
       <c r="L234" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="M234" t="s">
         <v>4</v>
@@ -33598,7 +33598,7 @@
     </row>
     <row r="235" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="B235" s="2">
         <v>43428</v>
@@ -33610,10 +33610,10 @@
         <v>299</v>
       </c>
       <c r="E235" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="F235" s="1" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="G235" t="s">
         <v>31</v>
@@ -33631,7 +33631,7 @@
         <v>3</v>
       </c>
       <c r="L235" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="M235" t="s">
         <v>3</v>
@@ -33657,7 +33657,7 @@
     </row>
     <row r="236" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="B236" s="2">
         <v>43428</v>
@@ -33669,7 +33669,7 @@
         <v>0</v>
       </c>
       <c r="E236" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="F236" s="1" t="s">
         <v>966</v>
@@ -33692,7 +33692,7 @@
     </row>
     <row r="237" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="B237" s="2">
         <v>43428</v>
@@ -33704,7 +33704,7 @@
         <v>1</v>
       </c>
       <c r="E237" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="F237" s="1" t="s">
         <v>175</v>
@@ -33719,7 +33719,7 @@
         <v>50</v>
       </c>
       <c r="J237" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="K237" t="s">
         <v>3</v>
@@ -33739,7 +33739,7 @@
     </row>
     <row r="238" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="B238" s="2">
         <v>43435</v>
@@ -33751,22 +33751,22 @@
         <v>0</v>
       </c>
       <c r="E238" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F238" s="1" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="G238" t="s">
         <v>25</v>
       </c>
       <c r="H238" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="I238" t="s">
         <v>3</v>
       </c>
       <c r="J238" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="K238" t="s">
         <v>4</v>
@@ -33774,7 +33774,7 @@
     </row>
     <row r="239" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="B239" s="2">
         <v>43435</v>
@@ -33786,10 +33786,10 @@
         <v>65</v>
       </c>
       <c r="E239" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="F239" s="1" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="G239" t="s">
         <v>25</v>
@@ -33807,7 +33807,7 @@
         <v>51</v>
       </c>
       <c r="L239" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="M239" t="s">
         <v>4</v>
@@ -33815,7 +33815,7 @@
     </row>
     <row r="240" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="B240" s="2">
         <v>43435</v>
@@ -33827,7 +33827,7 @@
         <v>299</v>
       </c>
       <c r="E240" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="F240" s="1" t="s">
         <v>418</v>
@@ -33874,7 +33874,7 @@
     </row>
     <row r="241" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="B241" s="2">
         <v>43435</v>
@@ -33886,10 +33886,10 @@
         <v>0</v>
       </c>
       <c r="E241" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="F241" s="1" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="G241" t="s">
         <v>25</v>
@@ -33901,7 +33901,7 @@
         <v>3</v>
       </c>
       <c r="J241" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="K241" t="s">
         <v>4</v>
@@ -33909,7 +33909,7 @@
     </row>
     <row r="242" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="B242" s="2">
         <v>43435</v>
@@ -33921,7 +33921,7 @@
         <v>0</v>
       </c>
       <c r="E242" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="F242" s="1" t="s">
         <v>534</v>
@@ -33936,7 +33936,7 @@
         <v>3</v>
       </c>
       <c r="J242" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="K242" t="s">
         <v>4</v>
@@ -33944,7 +33944,7 @@
     </row>
     <row r="243" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="B243" s="2">
         <v>43435</v>
@@ -33956,10 +33956,10 @@
         <v>0</v>
       </c>
       <c r="E243" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="F243" s="1" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="G243" t="s">
         <v>25</v>
@@ -33971,7 +33971,7 @@
         <v>3</v>
       </c>
       <c r="J243" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="K243" t="s">
         <v>4</v>
@@ -33979,7 +33979,7 @@
     </row>
     <row r="244" spans="1:25" ht="90" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="B244" s="2">
         <v>43435</v>
@@ -33991,60 +33991,60 @@
         <v>299</v>
       </c>
       <c r="E244" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="F244" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="G244" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="H244" t="s">
         <v>8</v>
       </c>
       <c r="I244" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="J244" t="s">
         <v>693</v>
       </c>
       <c r="K244" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="L244" t="s">
         <v>5</v>
       </c>
       <c r="M244" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="N244" t="s">
         <v>6</v>
       </c>
       <c r="O244" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="P244" t="s">
         <v>20</v>
       </c>
       <c r="Q244" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="R244" t="s">
         <v>766</v>
       </c>
       <c r="S244" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="X244" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
       <c r="Y244" s="5" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="245" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="B245" s="2">
         <v>43456</v>
@@ -34056,33 +34056,33 @@
         <v>0</v>
       </c>
       <c r="E245" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="F245" s="1" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="G245" t="s">
         <v>25</v>
       </c>
       <c r="H245" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="I245" t="s">
         <v>3</v>
       </c>
       <c r="J245" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="K245" t="s">
         <v>4</v>
       </c>
       <c r="Y245" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="246" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="B246" s="2">
         <v>43456</v>
@@ -34094,10 +34094,10 @@
         <v>1</v>
       </c>
       <c r="E246" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="F246" s="1" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="G246" t="s">
         <v>25</v>
@@ -34129,7 +34129,7 @@
     </row>
     <row r="247" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="B247" s="2">
         <v>43456</v>
@@ -34141,7 +34141,7 @@
         <v>0</v>
       </c>
       <c r="E247" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="F247" s="1" t="s">
         <v>377</v>
@@ -34156,18 +34156,18 @@
         <v>3</v>
       </c>
       <c r="J247" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="K247" t="s">
         <v>4</v>
       </c>
       <c r="Y247" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="248" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="B248" s="2">
         <v>43456</v>
@@ -34179,7 +34179,7 @@
         <v>0</v>
       </c>
       <c r="E248" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F248" s="1" t="s">
         <v>406</v>
@@ -34200,12 +34200,12 @@
         <v>4</v>
       </c>
       <c r="Y248" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="249" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="B249" s="2">
         <v>43456</v>
@@ -34217,10 +34217,10 @@
         <v>0</v>
       </c>
       <c r="E249" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="F249" s="1" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="G249" t="s">
         <v>25</v>
@@ -34232,18 +34232,18 @@
         <v>3</v>
       </c>
       <c r="J249" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="K249" t="s">
         <v>4</v>
       </c>
       <c r="Y249" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="250" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="B250" s="2">
         <v>43456</v>
@@ -34255,10 +34255,10 @@
         <v>1</v>
       </c>
       <c r="E250" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="F250" s="1" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="G250" t="s">
         <v>31</v>
@@ -34276,13 +34276,13 @@
         <v>3</v>
       </c>
       <c r="L250" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="M250" t="s">
         <v>51</v>
       </c>
       <c r="N250" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="O250" t="s">
         <v>4</v>
@@ -34290,7 +34290,7 @@
     </row>
     <row r="251" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="B251" s="2">
         <v>43456</v>
@@ -34302,7 +34302,7 @@
         <v>0</v>
       </c>
       <c r="E251" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="F251" s="1" t="s">
         <v>303</v>
@@ -34323,12 +34323,12 @@
         <v>4</v>
       </c>
       <c r="Y251" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="252" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="B252" s="2">
         <v>43456</v>
@@ -34361,27 +34361,27 @@
         <v>36</v>
       </c>
       <c r="Y252" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="253" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="B253" s="2">
         <v>43461</v>
       </c>
       <c r="C253" t="s">
+        <v>1427</v>
+      </c>
+      <c r="D253" t="s">
+        <v>0</v>
+      </c>
+      <c r="E253" t="s">
         <v>1428</v>
       </c>
-      <c r="D253" t="s">
-        <v>0</v>
-      </c>
-      <c r="E253" t="s">
-        <v>1429</v>
-      </c>
       <c r="F253" s="1" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="G253" t="s">
         <v>25</v>
@@ -34393,7 +34393,7 @@
         <v>3</v>
       </c>
       <c r="J253" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="K253" t="s">
         <v>4</v>
@@ -34401,19 +34401,19 @@
     </row>
     <row r="254" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="B254" s="2">
         <v>43461</v>
       </c>
       <c r="C254" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="D254" t="s">
         <v>1</v>
       </c>
       <c r="E254" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="F254" s="1" t="s">
         <v>197</v>
@@ -34434,13 +34434,13 @@
         <v>3</v>
       </c>
       <c r="L254" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="M254" t="s">
         <v>51</v>
       </c>
       <c r="N254" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="O254" t="s">
         <v>4</v>
@@ -34448,22 +34448,22 @@
     </row>
     <row r="255" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="B255" s="2">
         <v>43461</v>
       </c>
       <c r="C255" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="D255" t="s">
         <v>0</v>
       </c>
       <c r="E255" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="F255" s="1" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="G255" t="s">
         <v>25</v>
@@ -34475,7 +34475,7 @@
         <v>3</v>
       </c>
       <c r="J255" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="K255" t="s">
         <v>4</v>
@@ -34483,22 +34483,22 @@
     </row>
     <row r="256" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="B256" s="2">
         <v>43461</v>
       </c>
       <c r="C256" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="D256" t="s">
         <v>299</v>
       </c>
       <c r="E256" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="F256" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="G256" t="s">
         <v>25</v>
@@ -34528,7 +34528,7 @@
         <v>51</v>
       </c>
       <c r="P256" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="Q256" t="s">
         <v>4</v>
@@ -34542,22 +34542,22 @@
     </row>
     <row r="257" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="B257" s="2">
         <v>43461</v>
       </c>
       <c r="C257" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="D257" t="s">
         <v>299</v>
       </c>
       <c r="E257" t="s">
+        <v>1432</v>
+      </c>
+      <c r="F257" s="1" t="s">
         <v>1433</v>
-      </c>
-      <c r="F257" s="1" t="s">
-        <v>1434</v>
       </c>
       <c r="G257" t="s">
         <v>25</v>
@@ -34575,7 +34575,7 @@
         <v>3</v>
       </c>
       <c r="L257" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="M257" t="s">
         <v>3</v>
@@ -34601,25 +34601,25 @@
     </row>
     <row r="258" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="B258" s="2">
         <v>43465</v>
       </c>
       <c r="C258" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="D258" t="s">
         <v>1</v>
       </c>
       <c r="E258" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="G258" t="s">
         <v>25</v>
       </c>
       <c r="H258" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="I258" t="s">
         <v>50</v>
@@ -34645,19 +34645,19 @@
     </row>
     <row r="259" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="B259" s="2">
         <v>43465</v>
       </c>
       <c r="C259" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="D259" t="s">
         <v>1</v>
       </c>
       <c r="E259" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="G259" t="s">
         <v>25</v>
@@ -34917,7 +34917,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -35227,7 +35227,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -35238,7 +35238,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="B49">
         <v>293</v>
@@ -35250,7 +35250,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="B50">
         <v>1462</v>
@@ -35261,7 +35261,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="B51">
         <v>4</v>
@@ -35272,7 +35272,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -35283,7 +35283,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -35294,7 +35294,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -35305,7 +35305,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="B55">
         <v>1723</v>
